--- a/검 강화 게임.xlsx
+++ b/검 강화 게임.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\문서\GitHub\Unity_Weapon_Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EB8F37-7C56-47F8-98E9-65F5957767E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781DF2E-C12C-4486-856F-02FE3F53BED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{D3FEDBA6-35E5-45CF-B54A-9F527DCBFA6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>SELL</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -86,12 +86,23 @@
     <t>-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSuccessBall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +153,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -212,13 +231,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1836,7 +1855,7 @@
             <c:numRef>
               <c:f>Sheet1!$L$4:$L$54</c:f>
               <c:numCache>
-                <c:formatCode>0%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1854,142 +1873,142 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.98360655737704916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.967741935483871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.95238095238095233</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.92307692307692313</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>0.90909090909090906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>0.89552238805970152</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>0.86956521739130432</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9375</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.84507042253521125</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.78947368421052633</c:v>
+                  <c:v>0.82191780821917804</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.75</c:v>
+                  <c:v>0.81081081081081086</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.44117647058823528</c:v>
+                  <c:v>0.77922077922077926</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.39473684210526316</c:v>
+                  <c:v>0.759493670886076</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.375</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.35714285714285715</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.34090909090909088</c:v>
+                  <c:v>0.73170731707317072</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.32608695652173914</c:v>
+                  <c:v>0.72289156626506024</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.3</c:v>
+                  <c:v>0.70588235294117652</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.28846153846153844</c:v>
+                  <c:v>0.69767441860465118</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.68965517241379315</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.26785714285714285</c:v>
+                  <c:v>0.68181818181818177</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25862068965517243</c:v>
+                  <c:v>0.6741573033707865</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.25</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.24193548387096775</c:v>
+                  <c:v>0.65934065934065933</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.234375</c:v>
+                  <c:v>0.65217391304347827</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.22727272727272727</c:v>
+                  <c:v>0.64516129032258063</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.22058823529411764</c:v>
+                  <c:v>0.63829787234042556</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.16304347826086957</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.15463917525773196</c:v>
+                  <c:v>0.61224489795918369</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.14705882352941177</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.14018691588785046</c:v>
+                  <c:v>0.58823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.13392857142857142</c:v>
+                  <c:v>0.57692307692307687</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.12820512820512819</c:v>
+                  <c:v>0.56603773584905659</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.12295081967213115</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.11811023622047244</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.11363636363636363</c:v>
+                  <c:v>0.5357142857142857</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.10948905109489052</c:v>
+                  <c:v>0.52631578947368418</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,7 +2103,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3659,8 +3678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62FF258-7648-4ED0-AA06-DFEB56F203C0}">
   <dimension ref="C3:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3706,9 +3725,6 @@
       <c r="N3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
-        <v>12</v>
-      </c>
       <c r="P3" s="1" t="s">
         <v>2</v>
       </c>
@@ -3739,18 +3755,15 @@
         <v>1000</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K23" si="0">$J4-$O$4</f>
-        <v>200</v>
+        <f t="shared" ref="K4:K23" si="0">$J4-$O$7+$N$7</f>
+        <v>2800</v>
       </c>
       <c r="L4" s="8">
-        <f>IF($N$4&gt;$K4,100%,$N$4/$K4)</f>
+        <f t="shared" ref="L4:L23" si="1">IF($N$4+$N$7&gt;=$K4,100%,($N$4+$N$7)/$K4)</f>
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1500</v>
-      </c>
-      <c r="O4">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P4">
         <v>1000</v>
@@ -3758,7 +3771,7 @@
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C29" si="1">C4+1</f>
+        <f t="shared" ref="C5:C29" si="2">C4+1</f>
         <v>1</v>
       </c>
       <c r="D5" s="1">
@@ -3768,35 +3781,35 @@
         <v>50</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F23" si="2">E5-D4-E4</f>
+        <f t="shared" ref="F5:F23" si="3">E5-D4-E4</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G23" si="3">F5+G4</f>
+        <f t="shared" ref="G5:G23" si="4">F5+G4</f>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H23" si="4">F5-F4</f>
+        <f t="shared" ref="H5:H23" si="5">F5-F4</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>2850</v>
       </c>
       <c r="L5" s="8">
-        <f>IF($N$4&gt;$K5,100%,$N$4/$K5)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D6" s="1">
@@ -3806,36 +3819,42 @@
         <v>200</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="G6" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="H6" s="1">
+      <c r="G6" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
+      <c r="H6" s="1">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I23" si="5">H6-H5-I5</f>
+        <f t="shared" ref="I6:I23" si="6">H6-H5-I5</f>
         <v>50</v>
       </c>
       <c r="J6">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>2900</v>
       </c>
       <c r="L6" s="8">
-        <f>IF($N$4&gt;$K6,100%,$N$4/$K6)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D7" s="1">
@@ -3845,36 +3864,42 @@
         <v>500</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1300</v>
+        <v>1150</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>2950</v>
       </c>
       <c r="L7" s="8">
-        <f>IF($N$4&gt;$K7,100%,$N$4/$K7)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="N7">
+        <v>2000</v>
+      </c>
+      <c r="O7">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D8" s="1">
@@ -3884,36 +3909,36 @@
         <v>1000</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="J8">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="L8" s="8">
-        <f>IF($N$4&gt;$K8,100%,$N$4/$K8)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D9" s="1">
@@ -3923,36 +3948,36 @@
         <v>1800</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1050</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="J9">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>3050</v>
       </c>
       <c r="L9" s="8">
-        <f>IF($N$4&gt;$K9,100%,$N$4/$K9)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.98360655737704916</v>
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D10" s="1">
@@ -3962,36 +3987,36 @@
         <v>3000</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1950</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="J10">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>800</v>
+        <v>3100</v>
       </c>
       <c r="L10" s="8">
-        <f>IF($N$4&gt;$K10,100%,$N$4/$K10)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D11" s="1">
@@ -4001,36 +4026,36 @@
         <v>4800</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3350</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J11">
-        <v>1700</v>
+        <v>1350</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>3150</v>
       </c>
       <c r="L11" s="8">
-        <f>IF($N$4&gt;$K11,100%,$N$4/$K11)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.95238095238095233</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D12" s="1">
@@ -4040,36 +4065,36 @@
         <v>7400</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2100</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="3"/>
+        <f>F12+G11</f>
         <v>5450</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>700</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J12">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>3200</v>
       </c>
       <c r="L12" s="8">
-        <f>IF($N$4&gt;$K12,100%,$N$4/$K12)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D13" s="1">
@@ -4079,36 +4104,36 @@
         <v>11050</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8450</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J13">
-        <v>1900</v>
+        <v>1450</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>1100</v>
+        <v>3250</v>
       </c>
       <c r="L13" s="8">
-        <f>IF($N$4&gt;$K13,100%,$N$4/$K13)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.92307692307692313</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D14" s="1">
@@ -4118,36 +4143,36 @@
         <v>16000</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4150</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12600</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1150</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="J14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>3300</v>
       </c>
       <c r="L14" s="8">
-        <f>IF($N$4&gt;$K14,100%,$N$4/$K14)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.90909090909090906</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D15" s="1">
@@ -4157,36 +4182,36 @@
         <v>22600</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5600</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18200</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1450</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="J15">
-        <v>2100</v>
+        <v>1550</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>1300</v>
+        <v>3350</v>
       </c>
       <c r="L15" s="8">
-        <f>IF($N$4&gt;$K15,100%,$N$4/$K15)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.89552238805970152</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D16" s="1">
@@ -4196,36 +4221,36 @@
         <v>31150</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7350</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25550</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1750</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="J16">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>3400</v>
       </c>
       <c r="L16" s="8">
-        <f>IF($N$4&gt;$K16,100%,$N$4/$K16)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.88235294117647056</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D17" s="1">
@@ -4235,36 +4260,36 @@
         <v>42000</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9450</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35000</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2100</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J17">
-        <v>2300</v>
+        <v>1650</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3450</v>
       </c>
       <c r="L17" s="8">
-        <f>IF($N$4&gt;$K17,100%,$N$4/$K17)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.86956521739130432</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D18" s="1">
@@ -4274,36 +4299,36 @@
         <v>55600</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11950</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46950</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J18">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>1600</v>
+        <v>3500</v>
       </c>
       <c r="L18" s="8">
-        <f>IF($N$4&gt;$K18,100%,$N$4/$K18)</f>
-        <v>0.9375</v>
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D19" s="1">
@@ -4313,36 +4338,36 @@
         <v>72350</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14850</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61800</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2900</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J19">
-        <v>2500</v>
+        <v>1750</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>3550</v>
       </c>
       <c r="L19" s="8">
-        <f>IF($N$4&gt;$K19,100%,$N$4/$K19)</f>
-        <v>0.88235294117647056</v>
+        <f t="shared" si="1"/>
+        <v>0.84507042253521125</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D20" s="1">
@@ -4352,36 +4377,36 @@
         <v>92750</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18200</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80000</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3350</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="J20">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="L20" s="8">
-        <f>IF($N$4&gt;$K20,100%,$N$4/$K20)</f>
+        <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D21" s="1">
@@ -4391,36 +4416,36 @@
         <v>117300</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22050</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102050</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3850</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="J21">
-        <v>2700</v>
+        <v>1850</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>1900</v>
+        <v>3650</v>
       </c>
       <c r="L21" s="8">
-        <f>IF($N$4&gt;$K21,100%,$N$4/$K21)</f>
-        <v>0.78947368421052633</v>
+        <f t="shared" si="1"/>
+        <v>0.82191780821917804</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D22" s="1">
@@ -4430,36 +4455,36 @@
         <v>146500</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26400</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128450</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4350</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="J22">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="L22" s="8">
-        <f>IF($N$4&gt;$K22,100%,$N$4/$K22)</f>
-        <v>0.75</v>
+        <f t="shared" si="1"/>
+        <v>0.81081081081081086</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D23" s="1">
@@ -4469,36 +4494,36 @@
         <v>180900</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31300</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>159750</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4900</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="J23">
-        <v>2900</v>
+        <v>1950</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>2100</v>
+        <v>3750</v>
       </c>
       <c r="L23" s="8">
-        <f>IF($N$4&gt;$K23,100%,$N$4/$K23)</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D24" s="6">
@@ -4519,19 +4544,19 @@
       <c r="I24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="9">
-        <v>2000</v>
-      </c>
-      <c r="K24" s="9">
-        <v>2000</v>
-      </c>
-      <c r="L24" s="10">
+      <c r="J24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="9">
         <v>0.7</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D25" s="1">
@@ -4556,20 +4581,20 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K54" si="6">$J25-$O$4</f>
-        <v>3200</v>
+        <f t="shared" ref="K25:K43" si="7">$J25-$O$7+$N$7</f>
+        <v>3800</v>
       </c>
       <c r="L25" s="8">
-        <f>IF($N$4&gt;$K25,100%,$N$4/$K25)</f>
-        <v>0.46875</v>
+        <f t="shared" ref="L25:L43" si="8">IF($N$4+$N$7&gt;=$K25,100%,($N$4+$N$7)/$K25)</f>
+        <v>0.78947368421052633</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D26" s="1">
@@ -4579,11 +4604,11 @@
         <v>292000</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F43" si="7">E26-D25-E25</f>
+        <f t="shared" ref="F26:F43" si="9">E26-D25-E25</f>
         <v>37000</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G43" si="8">F26+G25</f>
+        <f t="shared" ref="G26:G43" si="10">F26+G25</f>
         <v>262450</v>
       </c>
       <c r="H26" s="1">
@@ -4595,20 +4620,20 @@
         <v>500</v>
       </c>
       <c r="J26">
-        <v>4200</v>
+        <v>2050</v>
       </c>
       <c r="K26">
-        <f t="shared" si="6"/>
-        <v>3400</v>
+        <f t="shared" si="7"/>
+        <v>3850</v>
       </c>
       <c r="L26" s="8">
-        <f>IF($N$4&gt;$K26,100%,$N$4/$K26)</f>
-        <v>0.44117647058823528</v>
+        <f t="shared" si="8"/>
+        <v>0.77922077922077926</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D27" s="1">
@@ -4618,36 +4643,36 @@
         <v>341200</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="9"/>
+        <v>43700</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="10"/>
+        <v>306150</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27:H43" si="11">F27-F26</f>
+        <v>6700</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" ref="I27:I43" si="12">H27-H26-I26</f>
+        <v>500</v>
+      </c>
+      <c r="J27">
+        <v>2100</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="7"/>
-        <v>43700</v>
-      </c>
-      <c r="G27" s="1">
+        <v>3900</v>
+      </c>
+      <c r="L27" s="8">
         <f t="shared" si="8"/>
-        <v>306150</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ref="H27:H43" si="9">F27-F26</f>
-        <v>6700</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" ref="I27:I43" si="10">H27-H26-I26</f>
-        <v>500</v>
-      </c>
-      <c r="J27">
-        <v>4400</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="6"/>
-        <v>3600</v>
-      </c>
-      <c r="L27" s="8">
-        <f>IF($N$4&gt;$K27,100%,$N$4/$K27)</f>
-        <v>0.41666666666666669</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D28" s="1">
@@ -4657,36 +4682,36 @@
         <v>398600</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="9"/>
+        <v>51400</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="10"/>
+        <v>357550</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="11"/>
+        <v>7700</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="12"/>
+        <v>500</v>
+      </c>
+      <c r="J28">
+        <v>2150</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="7"/>
-        <v>51400</v>
-      </c>
-      <c r="G28" s="1">
+        <v>3950</v>
+      </c>
+      <c r="L28" s="8">
         <f t="shared" si="8"/>
-        <v>357550</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" si="9"/>
-        <v>7700</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="10"/>
-        <v>500</v>
-      </c>
-      <c r="J28">
-        <v>4600</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="6"/>
-        <v>3800</v>
-      </c>
-      <c r="L28" s="8">
-        <f>IF($N$4&gt;$K28,100%,$N$4/$K28)</f>
-        <v>0.39473684210526316</v>
+        <v>0.759493670886076</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D29" s="1">
@@ -4696,36 +4721,36 @@
         <v>465300</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="9"/>
+        <v>60200</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="10"/>
+        <v>417750</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="11"/>
+        <v>8800</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="J29">
+        <v>2200</v>
+      </c>
+      <c r="K29">
         <f t="shared" si="7"/>
-        <v>60200</v>
-      </c>
-      <c r="G29" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L29" s="8">
         <f t="shared" si="8"/>
-        <v>417750</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" si="9"/>
-        <v>8800</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="10"/>
-        <v>600</v>
-      </c>
-      <c r="J29">
-        <v>4800</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="6"/>
-        <v>4000</v>
-      </c>
-      <c r="L29" s="8">
-        <f>IF($N$4&gt;$K29,100%,$N$4/$K29)</f>
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C30" s="2">
-        <f t="shared" ref="C30:C54" si="11">C29+1</f>
+        <f t="shared" ref="C30:C54" si="13">C29+1</f>
         <v>26</v>
       </c>
       <c r="D30" s="1">
@@ -4735,36 +4760,36 @@
         <v>542500</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="9"/>
+        <v>70200</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="10"/>
+        <v>487950</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="11"/>
+        <v>10000</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="J30">
+        <v>2250</v>
+      </c>
+      <c r="K30">
         <f t="shared" si="7"/>
-        <v>70200</v>
-      </c>
-      <c r="G30" s="1">
+        <v>4050</v>
+      </c>
+      <c r="L30" s="8">
         <f t="shared" si="8"/>
-        <v>487950</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" si="9"/>
-        <v>10000</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="10"/>
-        <v>600</v>
-      </c>
-      <c r="J30">
-        <v>5000</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="6"/>
-        <v>4200</v>
-      </c>
-      <c r="L30" s="8">
-        <f>IF($N$4&gt;$K30,100%,$N$4/$K30)</f>
-        <v>0.35714285714285715</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C31" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>27</v>
       </c>
       <c r="D31" s="1">
@@ -4774,36 +4799,36 @@
         <v>631600</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="9"/>
+        <v>81400</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="10"/>
+        <v>569350</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="11"/>
+        <v>11200</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="12"/>
+        <v>600</v>
+      </c>
+      <c r="J31">
+        <v>2300</v>
+      </c>
+      <c r="K31">
         <f t="shared" si="7"/>
-        <v>81400</v>
-      </c>
-      <c r="G31" s="1">
+        <v>4100</v>
+      </c>
+      <c r="L31" s="8">
         <f t="shared" si="8"/>
-        <v>569350</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" si="9"/>
-        <v>11200</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="10"/>
-        <v>600</v>
-      </c>
-      <c r="J31">
-        <v>5200</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="6"/>
-        <v>4400</v>
-      </c>
-      <c r="L31" s="8">
-        <f>IF($N$4&gt;$K31,100%,$N$4/$K31)</f>
-        <v>0.34090909090909088</v>
+        <v>0.73170731707317072</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C32" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="D32" s="1">
@@ -4813,36 +4838,36 @@
         <v>733900</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="9"/>
+        <v>93900</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="10"/>
+        <v>663250</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="11"/>
+        <v>12500</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+      <c r="J32">
+        <v>2350</v>
+      </c>
+      <c r="K32">
         <f t="shared" si="7"/>
-        <v>93900</v>
-      </c>
-      <c r="G32" s="1">
+        <v>4150</v>
+      </c>
+      <c r="L32" s="8">
         <f t="shared" si="8"/>
-        <v>663250</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" si="9"/>
-        <v>12500</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-      <c r="J32">
-        <v>5400</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="6"/>
-        <v>4600</v>
-      </c>
-      <c r="L32" s="8">
-        <f>IF($N$4&gt;$K32,100%,$N$4/$K32)</f>
-        <v>0.32608695652173914</v>
+        <v>0.72289156626506024</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C33" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="D33" s="1">
@@ -4852,36 +4877,36 @@
         <v>850900</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="9"/>
+        <v>107800</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="10"/>
+        <v>771050</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="11"/>
+        <v>13900</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+      <c r="J33">
+        <v>2400</v>
+      </c>
+      <c r="K33">
         <f t="shared" si="7"/>
-        <v>107800</v>
-      </c>
-      <c r="G33" s="1">
+        <v>4200</v>
+      </c>
+      <c r="L33" s="8">
         <f t="shared" si="8"/>
-        <v>771050</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" si="9"/>
-        <v>13900</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-      <c r="J33">
-        <v>5600</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="6"/>
-        <v>4800</v>
-      </c>
-      <c r="L33" s="8">
-        <f>IF($N$4&gt;$K33,100%,$N$4/$K33)</f>
-        <v>0.3125</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C34" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>30</v>
       </c>
       <c r="D34" s="1">
@@ -4891,36 +4916,36 @@
         <v>984000</v>
       </c>
       <c r="F34" s="1">
+        <f t="shared" si="9"/>
+        <v>123100</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="10"/>
+        <v>894150</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="11"/>
+        <v>15300</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+      <c r="J34">
+        <v>2450</v>
+      </c>
+      <c r="K34">
         <f t="shared" si="7"/>
-        <v>123100</v>
-      </c>
-      <c r="G34" s="1">
+        <v>4250</v>
+      </c>
+      <c r="L34" s="8">
         <f t="shared" si="8"/>
-        <v>894150</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" si="9"/>
-        <v>15300</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="10"/>
-        <v>700</v>
-      </c>
-      <c r="J34">
-        <v>5800</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="6"/>
-        <v>5000</v>
-      </c>
-      <c r="L34" s="8">
-        <f>IF($N$4&gt;$K34,100%,$N$4/$K34)</f>
-        <v>0.3</v>
+        <v>0.70588235294117652</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C35" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31</v>
       </c>
       <c r="D35" s="1">
@@ -4930,36 +4955,36 @@
         <v>1134700</v>
       </c>
       <c r="F35" s="1">
+        <f t="shared" si="9"/>
+        <v>139900</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="10"/>
+        <v>1034050</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="11"/>
+        <v>16800</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+      <c r="J35">
+        <v>2500</v>
+      </c>
+      <c r="K35">
         <f t="shared" si="7"/>
-        <v>139900</v>
-      </c>
-      <c r="G35" s="1">
+        <v>4300</v>
+      </c>
+      <c r="L35" s="8">
         <f t="shared" si="8"/>
-        <v>1034050</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" si="9"/>
-        <v>16800</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="10"/>
-        <v>800</v>
-      </c>
-      <c r="J35">
-        <v>6000</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="6"/>
-        <v>5200</v>
-      </c>
-      <c r="L35" s="8">
-        <f>IF($N$4&gt;$K35,100%,$N$4/$K35)</f>
-        <v>0.28846153846153844</v>
+        <v>0.69767441860465118</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C36" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
       <c r="D36" s="1">
@@ -4969,36 +4994,36 @@
         <v>1304600</v>
       </c>
       <c r="F36" s="1">
+        <f t="shared" si="9"/>
+        <v>158300</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="10"/>
+        <v>1192350</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="11"/>
+        <v>18400</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+      <c r="J36">
+        <v>2550</v>
+      </c>
+      <c r="K36">
         <f t="shared" si="7"/>
-        <v>158300</v>
-      </c>
-      <c r="G36" s="1">
+        <v>4350</v>
+      </c>
+      <c r="L36" s="8">
         <f t="shared" si="8"/>
-        <v>1192350</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" si="9"/>
-        <v>18400</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="10"/>
-        <v>800</v>
-      </c>
-      <c r="J36">
-        <v>6200</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="6"/>
-        <v>5400</v>
-      </c>
-      <c r="L36" s="8">
-        <f>IF($N$4&gt;$K36,100%,$N$4/$K36)</f>
-        <v>0.27777777777777779</v>
+        <v>0.68965517241379315</v>
       </c>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C37" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>33</v>
       </c>
       <c r="D37" s="1">
@@ -5008,36 +5033,36 @@
         <v>1495400</v>
       </c>
       <c r="F37" s="1">
+        <f t="shared" si="9"/>
+        <v>178300</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="10"/>
+        <v>1370650</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="11"/>
+        <v>20000</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="12"/>
+        <v>800</v>
+      </c>
+      <c r="J37">
+        <v>2600</v>
+      </c>
+      <c r="K37">
         <f t="shared" si="7"/>
-        <v>178300</v>
-      </c>
-      <c r="G37" s="1">
+        <v>4400</v>
+      </c>
+      <c r="L37" s="8">
         <f t="shared" si="8"/>
-        <v>1370650</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" si="9"/>
-        <v>20000</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="10"/>
-        <v>800</v>
-      </c>
-      <c r="J37">
-        <v>6400</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="6"/>
-        <v>5600</v>
-      </c>
-      <c r="L37" s="8">
-        <f>IF($N$4&gt;$K37,100%,$N$4/$K37)</f>
-        <v>0.26785714285714285</v>
+        <v>0.68181818181818177</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>34</v>
       </c>
       <c r="D38" s="1">
@@ -5047,36 +5072,36 @@
         <v>1708800</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="9"/>
+        <v>200000</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="10"/>
+        <v>1570650</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="11"/>
+        <v>21700</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="12"/>
+        <v>900</v>
+      </c>
+      <c r="J38">
+        <v>2650</v>
+      </c>
+      <c r="K38">
         <f t="shared" si="7"/>
-        <v>200000</v>
-      </c>
-      <c r="G38" s="1">
+        <v>4450</v>
+      </c>
+      <c r="L38" s="8">
         <f t="shared" si="8"/>
-        <v>1570650</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="9"/>
-        <v>21700</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="10"/>
-        <v>900</v>
-      </c>
-      <c r="J38">
-        <v>6600</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="6"/>
-        <v>5800</v>
-      </c>
-      <c r="L38" s="8">
-        <f>IF($N$4&gt;$K38,100%,$N$4/$K38)</f>
-        <v>0.25862068965517243</v>
+        <v>0.6741573033707865</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C39" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>35</v>
       </c>
       <c r="D39" s="1">
@@ -5086,36 +5111,36 @@
         <v>1946600</v>
       </c>
       <c r="F39" s="1">
+        <f t="shared" si="9"/>
+        <v>223500</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="10"/>
+        <v>1794150</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="11"/>
+        <v>23500</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="12"/>
+        <v>900</v>
+      </c>
+      <c r="J39">
+        <v>2700</v>
+      </c>
+      <c r="K39">
         <f t="shared" si="7"/>
-        <v>223500</v>
-      </c>
-      <c r="G39" s="1">
+        <v>4500</v>
+      </c>
+      <c r="L39" s="8">
         <f t="shared" si="8"/>
-        <v>1794150</v>
-      </c>
-      <c r="H39" s="1">
-        <f t="shared" si="9"/>
-        <v>23500</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="10"/>
-        <v>900</v>
-      </c>
-      <c r="J39">
-        <v>6800</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="6"/>
-        <v>6000</v>
-      </c>
-      <c r="L39" s="8">
-        <f>IF($N$4&gt;$K39,100%,$N$4/$K39)</f>
-        <v>0.25</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C40" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>36</v>
       </c>
       <c r="D40" s="1">
@@ -5125,36 +5150,36 @@
         <v>2210700</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="9"/>
+        <v>248800</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="10"/>
+        <v>2042950</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="11"/>
+        <v>25300</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="12"/>
+        <v>900</v>
+      </c>
+      <c r="J40">
+        <v>2750</v>
+      </c>
+      <c r="K40">
         <f t="shared" si="7"/>
-        <v>248800</v>
-      </c>
-      <c r="G40" s="1">
+        <v>4550</v>
+      </c>
+      <c r="L40" s="8">
         <f t="shared" si="8"/>
-        <v>2042950</v>
-      </c>
-      <c r="H40" s="1">
-        <f t="shared" si="9"/>
-        <v>25300</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="10"/>
-        <v>900</v>
-      </c>
-      <c r="J40">
-        <v>7000</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="6"/>
-        <v>6200</v>
-      </c>
-      <c r="L40" s="8">
-        <f>IF($N$4&gt;$K40,100%,$N$4/$K40)</f>
-        <v>0.24193548387096775</v>
+        <v>0.65934065934065933</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C41" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37</v>
       </c>
       <c r="D41" s="1">
@@ -5164,36 +5189,36 @@
         <v>2503000</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" si="9"/>
+        <v>276000</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="10"/>
+        <v>2318950</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="11"/>
+        <v>27200</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="J41">
+        <v>2800</v>
+      </c>
+      <c r="K41">
         <f t="shared" si="7"/>
-        <v>276000</v>
-      </c>
-      <c r="G41" s="1">
+        <v>4600</v>
+      </c>
+      <c r="L41" s="8">
         <f t="shared" si="8"/>
-        <v>2318950</v>
-      </c>
-      <c r="H41" s="1">
-        <f t="shared" si="9"/>
-        <v>27200</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="10"/>
-        <v>1000</v>
-      </c>
-      <c r="J41">
-        <v>7200</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="6"/>
-        <v>6400</v>
-      </c>
-      <c r="L41" s="8">
-        <f>IF($N$4&gt;$K41,100%,$N$4/$K41)</f>
-        <v>0.234375</v>
+        <v>0.65217391304347827</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C42" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>38</v>
       </c>
       <c r="D42" s="1">
@@ -5203,36 +5228,36 @@
         <v>2825500</v>
       </c>
       <c r="F42" s="1">
+        <f t="shared" si="9"/>
+        <v>305200</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="10"/>
+        <v>2624150</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="11"/>
+        <v>29200</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="J42">
+        <v>2850</v>
+      </c>
+      <c r="K42">
         <f t="shared" si="7"/>
-        <v>305200</v>
-      </c>
-      <c r="G42" s="1">
+        <v>4650</v>
+      </c>
+      <c r="L42" s="8">
         <f t="shared" si="8"/>
-        <v>2624150</v>
-      </c>
-      <c r="H42" s="1">
-        <f t="shared" si="9"/>
-        <v>29200</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="10"/>
-        <v>1000</v>
-      </c>
-      <c r="J42">
-        <v>7400</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="6"/>
-        <v>6600</v>
-      </c>
-      <c r="L42" s="8">
-        <f>IF($N$4&gt;$K42,100%,$N$4/$K42)</f>
-        <v>0.22727272727272727</v>
+        <v>0.64516129032258063</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C43" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
       <c r="D43" s="1">
@@ -5242,36 +5267,36 @@
         <v>3180300</v>
       </c>
       <c r="F43" s="1">
+        <f t="shared" si="9"/>
+        <v>336400</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="10"/>
+        <v>2960550</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="11"/>
+        <v>31200</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="12"/>
+        <v>1000</v>
+      </c>
+      <c r="J43">
+        <v>2900</v>
+      </c>
+      <c r="K43">
         <f t="shared" si="7"/>
-        <v>336400</v>
-      </c>
-      <c r="G43" s="1">
+        <v>4700</v>
+      </c>
+      <c r="L43" s="8">
         <f t="shared" si="8"/>
-        <v>2960550</v>
-      </c>
-      <c r="H43" s="1">
-        <f t="shared" si="9"/>
-        <v>31200</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="10"/>
-        <v>1000</v>
-      </c>
-      <c r="J43">
-        <v>7600</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="6"/>
-        <v>6800</v>
-      </c>
-      <c r="L43" s="8">
-        <f>IF($N$4&gt;$K43,100%,$N$4/$K43)</f>
-        <v>0.22058823529411764</v>
+        <v>0.63829787234042556</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C44" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="D44" s="6">
@@ -5292,20 +5317,19 @@
       <c r="I44" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="9">
-        <v>2000</v>
-      </c>
-      <c r="K44" s="9">
-        <f t="shared" si="6"/>
-        <v>1200</v>
-      </c>
-      <c r="L44" s="10">
+      <c r="J44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C45" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>41</v>
       </c>
       <c r="D45" s="1">
@@ -5330,20 +5354,20 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>10000</v>
+        <v>3000</v>
       </c>
       <c r="K45">
-        <f t="shared" si="6"/>
-        <v>9200</v>
+        <f t="shared" ref="K45:K54" si="14">$J45-$O$7+$N$7</f>
+        <v>4800</v>
       </c>
       <c r="L45" s="8">
-        <f>IF($N$4&gt;$K45,100%,$N$4/$K45)</f>
-        <v>0.16304347826086957</v>
+        <f t="shared" ref="L45:L54" si="15">IF($N$4+$N$7&gt;=$K45,100%,($N$4+$N$7)/$K45)</f>
+        <v>0.625</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C46" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="D46" s="1">
@@ -5353,11 +5377,11 @@
         <v>4200100</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:F54" si="12">E46-D45-E45</f>
+        <f t="shared" ref="F46:F54" si="16">E46-D45-E45</f>
         <v>370100</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ref="G46:G54" si="13">F46+G45</f>
+        <f t="shared" ref="G46:G54" si="17">F46+G45</f>
         <v>3930850</v>
       </c>
       <c r="H46" s="1">
@@ -5369,20 +5393,20 @@
         <v>1500</v>
       </c>
       <c r="J46">
-        <v>10500</v>
+        <v>3100</v>
       </c>
       <c r="K46">
-        <f t="shared" si="6"/>
-        <v>9700</v>
+        <f t="shared" si="14"/>
+        <v>4900</v>
       </c>
       <c r="L46" s="8">
-        <f>IF($N$4&gt;$K46,100%,$N$4/$K46)</f>
-        <v>0.15463917525773196</v>
+        <f t="shared" si="15"/>
+        <v>0.61224489795918369</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C47" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43</v>
       </c>
       <c r="D47" s="1">
@@ -5392,36 +5416,36 @@
         <v>4640000</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>406900</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4337750</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:H54" si="14">F47-F46</f>
+        <f t="shared" ref="H47:H54" si="18">F47-F46</f>
         <v>36800</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ref="I47:I54" si="15">H47-H46-I46</f>
+        <f t="shared" ref="I47:I54" si="19">H47-H46-I46</f>
         <v>1600</v>
       </c>
       <c r="J47">
-        <v>11000</v>
+        <v>3200</v>
       </c>
       <c r="K47">
-        <f t="shared" si="6"/>
-        <v>10200</v>
+        <f t="shared" si="14"/>
+        <v>5000</v>
       </c>
       <c r="L47" s="8">
-        <f>IF($N$4&gt;$K47,100%,$N$4/$K47)</f>
-        <v>0.14705882352941177</v>
+        <f t="shared" si="15"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44</v>
       </c>
       <c r="D48" s="1">
@@ -5431,36 +5455,36 @@
         <v>5123000</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>447000</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4784750</v>
       </c>
       <c r="H48" s="1">
+        <f t="shared" si="18"/>
+        <v>40100</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="19"/>
+        <v>1700</v>
+      </c>
+      <c r="J48">
+        <v>3300</v>
+      </c>
+      <c r="K48">
         <f t="shared" si="14"/>
-        <v>40100</v>
-      </c>
-      <c r="I48" s="1">
+        <v>5100</v>
+      </c>
+      <c r="L48" s="8">
         <f t="shared" si="15"/>
-        <v>1700</v>
-      </c>
-      <c r="J48">
-        <v>11500</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="6"/>
-        <v>10700</v>
-      </c>
-      <c r="L48" s="8">
-        <f>IF($N$4&gt;$K48,100%,$N$4/$K48)</f>
-        <v>0.14018691588785046</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C49" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>45</v>
       </c>
       <c r="D49" s="1">
@@ -5470,36 +5494,36 @@
         <v>5652600</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>490600</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5275350</v>
       </c>
       <c r="H49" s="1">
+        <f t="shared" si="18"/>
+        <v>43600</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="19"/>
+        <v>1800</v>
+      </c>
+      <c r="J49">
+        <v>3400</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="14"/>
-        <v>43600</v>
-      </c>
-      <c r="I49" s="1">
+        <v>5200</v>
+      </c>
+      <c r="L49" s="8">
         <f t="shared" si="15"/>
-        <v>1800</v>
-      </c>
-      <c r="J49">
-        <v>12000</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="6"/>
-        <v>11200</v>
-      </c>
-      <c r="L49" s="8">
-        <f>IF($N$4&gt;$K49,100%,$N$4/$K49)</f>
-        <v>0.13392857142857142</v>
+        <v>0.57692307692307687</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C50" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46</v>
       </c>
       <c r="D50" s="1">
@@ -5509,36 +5533,36 @@
         <v>6232500</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>537900</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5813250</v>
       </c>
       <c r="H50" s="1">
+        <f t="shared" si="18"/>
+        <v>47300</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="19"/>
+        <v>1900</v>
+      </c>
+      <c r="J50">
+        <v>3500</v>
+      </c>
+      <c r="K50">
         <f t="shared" si="14"/>
-        <v>47300</v>
-      </c>
-      <c r="I50" s="1">
+        <v>5300</v>
+      </c>
+      <c r="L50" s="8">
         <f t="shared" si="15"/>
-        <v>1900</v>
-      </c>
-      <c r="J50">
-        <v>12500</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="6"/>
-        <v>11700</v>
-      </c>
-      <c r="L50" s="8">
-        <f>IF($N$4&gt;$K50,100%,$N$4/$K50)</f>
-        <v>0.12820512820512819</v>
+        <v>0.56603773584905659</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C51" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>47</v>
       </c>
       <c r="D51" s="1">
@@ -5548,36 +5572,36 @@
         <v>6866600</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>589100</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>6402350</v>
       </c>
       <c r="H51" s="1">
+        <f t="shared" si="18"/>
+        <v>51200</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="19"/>
+        <v>2000</v>
+      </c>
+      <c r="J51">
+        <v>3600</v>
+      </c>
+      <c r="K51">
         <f t="shared" si="14"/>
-        <v>51200</v>
-      </c>
-      <c r="I51" s="1">
+        <v>5400</v>
+      </c>
+      <c r="L51" s="8">
         <f t="shared" si="15"/>
-        <v>2000</v>
-      </c>
-      <c r="J51">
-        <v>13000</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="6"/>
-        <v>12200</v>
-      </c>
-      <c r="L51" s="8">
-        <f>IF($N$4&gt;$K51,100%,$N$4/$K51)</f>
-        <v>0.12295081967213115</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C52" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
       <c r="D52" s="1">
@@ -5587,36 +5611,36 @@
         <v>7561000</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>644400</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7046750</v>
       </c>
       <c r="H52" s="1">
+        <f t="shared" si="18"/>
+        <v>55300</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="19"/>
+        <v>2100</v>
+      </c>
+      <c r="J52">
+        <v>3700</v>
+      </c>
+      <c r="K52">
         <f t="shared" si="14"/>
-        <v>55300</v>
-      </c>
-      <c r="I52" s="1">
+        <v>5500</v>
+      </c>
+      <c r="L52" s="8">
         <f t="shared" si="15"/>
-        <v>2100</v>
-      </c>
-      <c r="J52">
-        <v>13500</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="6"/>
-        <v>12700</v>
-      </c>
-      <c r="L52" s="8">
-        <f>IF($N$4&gt;$K52,100%,$N$4/$K52)</f>
-        <v>0.11811023622047244</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C53" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>49</v>
       </c>
       <c r="D53" s="1">
@@ -5626,36 +5650,36 @@
         <v>8320000</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>704000</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7750750</v>
       </c>
       <c r="H53" s="1">
+        <f t="shared" si="18"/>
+        <v>59600</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="19"/>
+        <v>2200</v>
+      </c>
+      <c r="J53">
+        <v>3800</v>
+      </c>
+      <c r="K53">
         <f t="shared" si="14"/>
-        <v>59600</v>
-      </c>
-      <c r="I53" s="1">
+        <v>5600</v>
+      </c>
+      <c r="L53" s="8">
         <f t="shared" si="15"/>
-        <v>2200</v>
-      </c>
-      <c r="J53">
-        <v>14000</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="6"/>
-        <v>13200</v>
-      </c>
-      <c r="L53" s="8">
-        <f>IF($N$4&gt;$K53,100%,$N$4/$K53)</f>
-        <v>0.11363636363636363</v>
+        <v>0.5357142857142857</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.4">
       <c r="C54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>50</v>
       </c>
       <c r="D54" s="1">
@@ -5665,31 +5689,31 @@
         <v>9148100</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>768100</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>8518850</v>
       </c>
       <c r="H54" s="1">
+        <f t="shared" si="18"/>
+        <v>64100</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="19"/>
+        <v>2300</v>
+      </c>
+      <c r="J54">
+        <v>3900</v>
+      </c>
+      <c r="K54">
         <f t="shared" si="14"/>
-        <v>64100</v>
-      </c>
-      <c r="I54" s="1">
+        <v>5700</v>
+      </c>
+      <c r="L54" s="8">
         <f t="shared" si="15"/>
-        <v>2300</v>
-      </c>
-      <c r="J54">
-        <v>14500</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="6"/>
-        <v>13700</v>
-      </c>
-      <c r="L54" s="8">
-        <f>IF($N$4&gt;$K54,100%,$N$4/$K54)</f>
-        <v>0.10948905109489052</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
   </sheetData>

--- a/검 강화 게임.xlsx
+++ b/검 강화 게임.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\문서\GitHub\Unity_Weapon_Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3781DF2E-C12C-4486-856F-02FE3F53BED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F172C19-E398-4D40-B657-D498C1F5FF75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{D3FEDBA6-35E5-45CF-B54A-9F527DCBFA6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>SELL</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>AddSuccessBall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASBlevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBlevel</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1873,142 +1881,142 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98360655737704916</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.967741935483871</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.95238095238095233</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92307692307692313</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.90909090909090906</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.89552238805970152</c:v>
+                  <c:v>0.86956521739130432</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86956521739130432</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.84507042253521125</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.82191780821917804</c:v>
+                  <c:v>0.68965517241379315</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.81081081081081086</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8</c:v>
+                  <c:v>0.64516129032258063</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.78947368421052633</c:v>
+                  <c:v>0.60606060606060608</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.77922077922077926</c:v>
+                  <c:v>0.58823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.759493670886076</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.75</c:v>
+                  <c:v>0.54054054054054057</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.7407407407407407</c:v>
+                  <c:v>0.52631578947368418</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.73170731707317072</c:v>
+                  <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.72289156626506024</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.48780487804878048</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.70588235294117652</c:v>
+                  <c:v>0.47619047619047616</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.69767441860465118</c:v>
+                  <c:v>0.46511627906976744</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.68965517241379315</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.68181818181818177</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6741573033707865</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.42553191489361702</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.65934065934065933</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.65217391304347827</c:v>
+                  <c:v>0.40816326530612246</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.64516129032258063</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.63829787234042556</c:v>
+                  <c:v>0.39215686274509803</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.625</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.61224489795918369</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.6</c:v>
+                  <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.57692307692307687</c:v>
+                  <c:v>0.32258064516129031</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.56603773584905659</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.30303030303030304</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.54545454545454541</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5357142857142857</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.52631578947368418</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3678,8 +3686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62FF258-7648-4ED0-AA06-DFEB56F203C0}">
   <dimension ref="C3:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3752,18 +3760,18 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K23" si="0">$J4-$O$7+$N$7</f>
-        <v>2800</v>
+        <v>120</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" ref="L4:L23" si="1">IF($N$4+$N$7&gt;=$K4,100%,($N$4+$N$7)/$K4)</f>
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="P4">
         <v>1000</v>
@@ -3796,11 +3804,11 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1050</v>
+        <v>210</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>2850</v>
+        <v>130</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="1"/>
@@ -3835,11 +3843,11 @@
         <v>50</v>
       </c>
       <c r="J6">
-        <v>1100</v>
+        <v>220</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>2900</v>
+        <v>140</v>
       </c>
       <c r="L6" s="8">
         <f t="shared" si="1"/>
@@ -3880,21 +3888,23 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1150</v>
+        <v>230</v>
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>2950</v>
+        <v>150</v>
       </c>
       <c r="L7" s="8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2000</v>
+        <f>$N$11*32</f>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>200</v>
+        <f>$O$11*16</f>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.4">
@@ -3925,11 +3935,11 @@
         <v>50</v>
       </c>
       <c r="J8">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>160</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="1"/>
@@ -3964,15 +3974,15 @@
         <v>50</v>
       </c>
       <c r="J9">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>3050</v>
+        <v>170</v>
       </c>
       <c r="L9" s="8">
         <f t="shared" si="1"/>
-        <v>0.98360655737704916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.4">
@@ -4003,15 +4013,21 @@
         <v>50</v>
       </c>
       <c r="J10">
-        <v>1300</v>
+        <v>260</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>3100</v>
+        <v>180</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="1"/>
-        <v>0.967741935483871</v>
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.4">
@@ -4042,15 +4058,21 @@
         <v>100</v>
       </c>
       <c r="J11">
-        <v>1350</v>
+        <v>270</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>3150</v>
+        <v>190</v>
       </c>
       <c r="L11" s="8">
         <f t="shared" si="1"/>
-        <v>0.95238095238095233</v>
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.4">
@@ -4081,15 +4103,15 @@
         <v>100</v>
       </c>
       <c r="J12">
-        <v>1400</v>
+        <v>280</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>200</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="1"/>
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.4">
@@ -4120,15 +4142,15 @@
         <v>100</v>
       </c>
       <c r="J13">
-        <v>1450</v>
+        <v>290</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>3250</v>
+        <v>210</v>
       </c>
       <c r="L13" s="8">
         <f t="shared" si="1"/>
-        <v>0.92307692307692313</v>
+        <v>0.95238095238095233</v>
       </c>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.4">
@@ -4159,11 +4181,11 @@
         <v>150</v>
       </c>
       <c r="J14">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>3300</v>
+        <v>220</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="1"/>
@@ -4198,15 +4220,15 @@
         <v>150</v>
       </c>
       <c r="J15">
-        <v>1550</v>
+        <v>310</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>3350</v>
+        <v>230</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="1"/>
-        <v>0.89552238805970152</v>
+        <v>0.86956521739130432</v>
       </c>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.4">
@@ -4237,15 +4259,15 @@
         <v>150</v>
       </c>
       <c r="J16">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>3400</v>
+        <v>240</v>
       </c>
       <c r="L16" s="8">
         <f t="shared" si="1"/>
-        <v>0.88235294117647056</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.4">
@@ -4276,15 +4298,15 @@
         <v>200</v>
       </c>
       <c r="J17">
-        <v>1650</v>
+        <v>330</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>3450</v>
+        <v>250</v>
       </c>
       <c r="L17" s="8">
         <f t="shared" si="1"/>
-        <v>0.86956521739130432</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.4">
@@ -4315,15 +4337,15 @@
         <v>200</v>
       </c>
       <c r="J18">
-        <v>1700</v>
+        <v>340</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>3500</v>
+        <v>260</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.4">
@@ -4354,15 +4376,15 @@
         <v>200</v>
       </c>
       <c r="J19">
-        <v>1750</v>
+        <v>350</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>3550</v>
+        <v>270</v>
       </c>
       <c r="L19" s="8">
         <f t="shared" si="1"/>
-        <v>0.84507042253521125</v>
+        <v>0.7407407407407407</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.4">
@@ -4393,15 +4415,15 @@
         <v>250</v>
       </c>
       <c r="J20">
-        <v>1800</v>
+        <v>360</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>3600</v>
+        <v>280</v>
       </c>
       <c r="L20" s="8">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.4">
@@ -4432,15 +4454,15 @@
         <v>250</v>
       </c>
       <c r="J21">
-        <v>1850</v>
+        <v>370</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>3650</v>
+        <v>290</v>
       </c>
       <c r="L21" s="8">
         <f t="shared" si="1"/>
-        <v>0.82191780821917804</v>
+        <v>0.68965517241379315</v>
       </c>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.4">
@@ -4471,15 +4493,15 @@
         <v>250</v>
       </c>
       <c r="J22">
-        <v>1900</v>
+        <v>380</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>3700</v>
+        <v>300</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" si="1"/>
-        <v>0.81081081081081086</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.4">
@@ -4510,15 +4532,15 @@
         <v>300</v>
       </c>
       <c r="J23">
-        <v>1950</v>
+        <v>390</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>3750</v>
+        <v>310</v>
       </c>
       <c r="L23" s="8">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.64516129032258063</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.4">
@@ -4581,15 +4603,15 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2000</v>
+        <v>410</v>
       </c>
       <c r="K25">
         <f t="shared" ref="K25:K43" si="7">$J25-$O$7+$N$7</f>
-        <v>3800</v>
+        <v>330</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" ref="L25:L43" si="8">IF($N$4+$N$7&gt;=$K25,100%,($N$4+$N$7)/$K25)</f>
-        <v>0.78947368421052633</v>
+        <v>0.60606060606060608</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.4">
@@ -4620,15 +4642,15 @@
         <v>500</v>
       </c>
       <c r="J26">
-        <v>2050</v>
+        <v>420</v>
       </c>
       <c r="K26">
         <f t="shared" si="7"/>
-        <v>3850</v>
+        <v>340</v>
       </c>
       <c r="L26" s="8">
         <f t="shared" si="8"/>
-        <v>0.77922077922077926</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.4">
@@ -4659,15 +4681,15 @@
         <v>500</v>
       </c>
       <c r="J27">
-        <v>2100</v>
+        <v>430</v>
       </c>
       <c r="K27">
         <f t="shared" si="7"/>
-        <v>3900</v>
+        <v>350</v>
       </c>
       <c r="L27" s="8">
         <f t="shared" si="8"/>
-        <v>0.76923076923076927</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.4">
@@ -4698,15 +4720,15 @@
         <v>500</v>
       </c>
       <c r="J28">
-        <v>2150</v>
+        <v>440</v>
       </c>
       <c r="K28">
         <f t="shared" si="7"/>
-        <v>3950</v>
+        <v>360</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" si="8"/>
-        <v>0.759493670886076</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.4">
@@ -4737,15 +4759,15 @@
         <v>600</v>
       </c>
       <c r="J29">
-        <v>2200</v>
+        <v>450</v>
       </c>
       <c r="K29">
         <f t="shared" si="7"/>
-        <v>4000</v>
+        <v>370</v>
       </c>
       <c r="L29" s="8">
         <f t="shared" si="8"/>
-        <v>0.75</v>
+        <v>0.54054054054054057</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.4">
@@ -4776,15 +4798,15 @@
         <v>600</v>
       </c>
       <c r="J30">
-        <v>2250</v>
+        <v>460</v>
       </c>
       <c r="K30">
         <f t="shared" si="7"/>
-        <v>4050</v>
+        <v>380</v>
       </c>
       <c r="L30" s="8">
         <f t="shared" si="8"/>
-        <v>0.7407407407407407</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.4">
@@ -4815,15 +4837,15 @@
         <v>600</v>
       </c>
       <c r="J31">
-        <v>2300</v>
+        <v>470</v>
       </c>
       <c r="K31">
         <f t="shared" si="7"/>
-        <v>4100</v>
+        <v>390</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" si="8"/>
-        <v>0.73170731707317072</v>
+        <v>0.51282051282051277</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.4">
@@ -4854,15 +4876,15 @@
         <v>700</v>
       </c>
       <c r="J32">
-        <v>2350</v>
+        <v>480</v>
       </c>
       <c r="K32">
         <f t="shared" si="7"/>
-        <v>4150</v>
+        <v>400</v>
       </c>
       <c r="L32" s="8">
         <f t="shared" si="8"/>
-        <v>0.72289156626506024</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.4">
@@ -4893,15 +4915,15 @@
         <v>700</v>
       </c>
       <c r="J33">
-        <v>2400</v>
+        <v>490</v>
       </c>
       <c r="K33">
         <f t="shared" si="7"/>
-        <v>4200</v>
+        <v>410</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" si="8"/>
-        <v>0.7142857142857143</v>
+        <v>0.48780487804878048</v>
       </c>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.4">
@@ -4932,15 +4954,15 @@
         <v>700</v>
       </c>
       <c r="J34">
-        <v>2450</v>
+        <v>500</v>
       </c>
       <c r="K34">
         <f t="shared" si="7"/>
-        <v>4250</v>
+        <v>420</v>
       </c>
       <c r="L34" s="8">
         <f t="shared" si="8"/>
-        <v>0.70588235294117652</v>
+        <v>0.47619047619047616</v>
       </c>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.4">
@@ -4971,15 +4993,15 @@
         <v>800</v>
       </c>
       <c r="J35">
-        <v>2500</v>
+        <v>510</v>
       </c>
       <c r="K35">
         <f t="shared" si="7"/>
-        <v>4300</v>
+        <v>430</v>
       </c>
       <c r="L35" s="8">
         <f t="shared" si="8"/>
-        <v>0.69767441860465118</v>
+        <v>0.46511627906976744</v>
       </c>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.4">
@@ -5010,15 +5032,15 @@
         <v>800</v>
       </c>
       <c r="J36">
-        <v>2550</v>
+        <v>520</v>
       </c>
       <c r="K36">
         <f t="shared" si="7"/>
-        <v>4350</v>
+        <v>440</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" si="8"/>
-        <v>0.68965517241379315</v>
+        <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.4">
@@ -5049,15 +5071,15 @@
         <v>800</v>
       </c>
       <c r="J37">
-        <v>2600</v>
+        <v>530</v>
       </c>
       <c r="K37">
         <f t="shared" si="7"/>
-        <v>4400</v>
+        <v>450</v>
       </c>
       <c r="L37" s="8">
         <f t="shared" si="8"/>
-        <v>0.68181818181818177</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.4">
@@ -5088,15 +5110,15 @@
         <v>900</v>
       </c>
       <c r="J38">
-        <v>2650</v>
+        <v>540</v>
       </c>
       <c r="K38">
         <f t="shared" si="7"/>
-        <v>4450</v>
+        <v>460</v>
       </c>
       <c r="L38" s="8">
         <f t="shared" si="8"/>
-        <v>0.6741573033707865</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.4">
@@ -5127,15 +5149,15 @@
         <v>900</v>
       </c>
       <c r="J39">
-        <v>2700</v>
+        <v>550</v>
       </c>
       <c r="K39">
         <f t="shared" si="7"/>
-        <v>4500</v>
+        <v>470</v>
       </c>
       <c r="L39" s="8">
         <f t="shared" si="8"/>
-        <v>0.66666666666666663</v>
+        <v>0.42553191489361702</v>
       </c>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.4">
@@ -5166,15 +5188,15 @@
         <v>900</v>
       </c>
       <c r="J40">
-        <v>2750</v>
+        <v>560</v>
       </c>
       <c r="K40">
         <f t="shared" si="7"/>
-        <v>4550</v>
+        <v>480</v>
       </c>
       <c r="L40" s="8">
         <f t="shared" si="8"/>
-        <v>0.65934065934065933</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.4">
@@ -5205,15 +5227,15 @@
         <v>1000</v>
       </c>
       <c r="J41">
-        <v>2800</v>
+        <v>570</v>
       </c>
       <c r="K41">
         <f t="shared" si="7"/>
-        <v>4600</v>
+        <v>490</v>
       </c>
       <c r="L41" s="8">
         <f t="shared" si="8"/>
-        <v>0.65217391304347827</v>
+        <v>0.40816326530612246</v>
       </c>
     </row>
     <row r="42" spans="3:12" x14ac:dyDescent="0.4">
@@ -5244,15 +5266,15 @@
         <v>1000</v>
       </c>
       <c r="J42">
-        <v>2850</v>
+        <v>580</v>
       </c>
       <c r="K42">
         <f t="shared" si="7"/>
-        <v>4650</v>
+        <v>500</v>
       </c>
       <c r="L42" s="8">
         <f t="shared" si="8"/>
-        <v>0.64516129032258063</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.4">
@@ -5283,15 +5305,15 @@
         <v>1000</v>
       </c>
       <c r="J43">
-        <v>2900</v>
+        <v>590</v>
       </c>
       <c r="K43">
         <f t="shared" si="7"/>
-        <v>4700</v>
+        <v>510</v>
       </c>
       <c r="L43" s="8">
         <f t="shared" si="8"/>
-        <v>0.63829787234042556</v>
+        <v>0.39215686274509803</v>
       </c>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.4">
@@ -5354,15 +5376,15 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>3000</v>
+        <v>620</v>
       </c>
       <c r="K45">
         <f t="shared" ref="K45:K54" si="14">$J45-$O$7+$N$7</f>
-        <v>4800</v>
+        <v>540</v>
       </c>
       <c r="L45" s="8">
         <f t="shared" ref="L45:L54" si="15">IF($N$4+$N$7&gt;=$K45,100%,($N$4+$N$7)/$K45)</f>
-        <v>0.625</v>
+        <v>0.37037037037037035</v>
       </c>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.4">
@@ -5393,15 +5415,15 @@
         <v>1500</v>
       </c>
       <c r="J46">
-        <v>3100</v>
+        <v>640</v>
       </c>
       <c r="K46">
         <f t="shared" si="14"/>
-        <v>4900</v>
+        <v>560</v>
       </c>
       <c r="L46" s="8">
         <f t="shared" si="15"/>
-        <v>0.61224489795918369</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.4">
@@ -5432,15 +5454,15 @@
         <v>1600</v>
       </c>
       <c r="J47">
-        <v>3200</v>
+        <v>660</v>
       </c>
       <c r="K47">
         <f t="shared" si="14"/>
-        <v>5000</v>
+        <v>580</v>
       </c>
       <c r="L47" s="8">
         <f t="shared" si="15"/>
-        <v>0.6</v>
+        <v>0.34482758620689657</v>
       </c>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.4">
@@ -5471,15 +5493,15 @@
         <v>1700</v>
       </c>
       <c r="J48">
-        <v>3300</v>
+        <v>680</v>
       </c>
       <c r="K48">
         <f t="shared" si="14"/>
-        <v>5100</v>
+        <v>600</v>
       </c>
       <c r="L48" s="8">
         <f t="shared" si="15"/>
-        <v>0.58823529411764708</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.4">
@@ -5510,15 +5532,15 @@
         <v>1800</v>
       </c>
       <c r="J49">
-        <v>3400</v>
+        <v>700</v>
       </c>
       <c r="K49">
         <f t="shared" si="14"/>
-        <v>5200</v>
+        <v>620</v>
       </c>
       <c r="L49" s="8">
         <f t="shared" si="15"/>
-        <v>0.57692307692307687</v>
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.4">
@@ -5549,15 +5571,15 @@
         <v>1900</v>
       </c>
       <c r="J50">
-        <v>3500</v>
+        <v>720</v>
       </c>
       <c r="K50">
         <f t="shared" si="14"/>
-        <v>5300</v>
+        <v>640</v>
       </c>
       <c r="L50" s="8">
         <f t="shared" si="15"/>
-        <v>0.56603773584905659</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.4">
@@ -5588,15 +5610,15 @@
         <v>2000</v>
       </c>
       <c r="J51">
-        <v>3600</v>
+        <v>740</v>
       </c>
       <c r="K51">
         <f t="shared" si="14"/>
-        <v>5400</v>
+        <v>660</v>
       </c>
       <c r="L51" s="8">
         <f t="shared" si="15"/>
-        <v>0.55555555555555558</v>
+        <v>0.30303030303030304</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.4">
@@ -5627,15 +5649,15 @@
         <v>2100</v>
       </c>
       <c r="J52">
-        <v>3700</v>
+        <v>760</v>
       </c>
       <c r="K52">
         <f t="shared" si="14"/>
-        <v>5500</v>
+        <v>680</v>
       </c>
       <c r="L52" s="8">
         <f t="shared" si="15"/>
-        <v>0.54545454545454541</v>
+        <v>0.29411764705882354</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.4">
@@ -5666,15 +5688,15 @@
         <v>2200</v>
       </c>
       <c r="J53">
-        <v>3800</v>
+        <v>780</v>
       </c>
       <c r="K53">
         <f t="shared" si="14"/>
-        <v>5600</v>
+        <v>700</v>
       </c>
       <c r="L53" s="8">
         <f t="shared" si="15"/>
-        <v>0.5357142857142857</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.4">
@@ -5705,15 +5727,15 @@
         <v>2300</v>
       </c>
       <c r="J54">
-        <v>3900</v>
+        <v>800</v>
       </c>
       <c r="K54">
         <f t="shared" si="14"/>
-        <v>5700</v>
+        <v>720</v>
       </c>
       <c r="L54" s="8">
         <f t="shared" si="15"/>
-        <v>0.52631578947368418</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
   </sheetData>

--- a/검 강화 게임.xlsx
+++ b/검 강화 게임.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\문서\GitHub\Unity_Weapon_Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F172C19-E398-4D40-B657-D498C1F5FF75}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F630AEB-174C-46C9-9A6D-BFCCD3C889D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{D3FEDBA6-35E5-45CF-B54A-9F527DCBFA6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>SELL</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -102,6 +102,26 @@
     <t>RBlevel</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwordStone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddBSS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,8 +194,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +280,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2198,6 +2238,436 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>TotalSS</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$4:$N$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>68.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>79.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>91.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>118.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>149.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>166.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>184.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>203.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>223.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>245.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>269.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>295.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>323.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>353.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>385.3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>419.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>455.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>493.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>543.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>598.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>658.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>723.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>793.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>868.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>948.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1033.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1123.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1218.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1318.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5135-4280-BD18-5ACE95AE4DC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="115058575"/>
+        <c:axId val="235731423"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="115058575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="235731423"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="235731423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="115058575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2278,6 +2748,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3310,20 +3820,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>32919</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>250633</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>188314</xdr:rowOff>
+      <xdr:rowOff>115743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>580635</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>56541</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>133111</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>201684</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3350,16 +4376,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>663388</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>312626</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>528917</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>62753</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>178155</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123229</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3379,6 +4405,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>495905</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>134258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>411239</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47172</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F26295D-C195-4311-A973-C2B97441D62D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3684,10 +4746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62FF258-7648-4ED0-AA06-DFEB56F203C0}">
-  <dimension ref="C3:P54"/>
+  <dimension ref="C2:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3699,7 +4761,12 @@
     <col min="10" max="12" width="8.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3730,14 +4797,26 @@
       <c r="L3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="M3" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="N3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C4" s="2">
         <v>0</v>
       </c>
@@ -3763,23 +4842,35 @@
         <v>200</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K23" si="0">$J4-$O$7+$N$7</f>
+        <f>$J4-$S$7+$R$7</f>
         <v>120</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L23" si="1">IF($N$4+$N$7&gt;=$K4,100%,($N$4+$N$7)/$K4)</f>
+        <f>IF($R$4+$R$7&gt;=$K4,100%,($R$4+$R$7)/$K4)</f>
         <v>1</v>
       </c>
+      <c r="M4">
+        <v>0.2</v>
+      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>200</v>
       </c>
-      <c r="P4">
+      <c r="S4">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C29" si="2">C4+1</f>
+        <f t="shared" ref="C5:C29" si="0">C4+1</f>
         <v>1</v>
       </c>
       <c r="D5" s="1">
@@ -3789,15 +4880,15 @@
         <v>50</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F23" si="3">E5-D4-E4</f>
+        <f t="shared" ref="F5:F23" si="1">E5-D4-E4</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G23" si="4">F5+G4</f>
+        <f t="shared" ref="G5:G23" si="2">F5+G4</f>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H23" si="5">F5-F4</f>
+        <f t="shared" ref="H5:H23" si="3">F5-F4</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -3807,17 +4898,32 @@
         <v>210</v>
       </c>
       <c r="K5">
+        <f>$J5-$S$7+$R$7</f>
+        <v>130</v>
+      </c>
+      <c r="L5" s="8">
+        <f>IF($R$4+$R$7&gt;=$K5,100%,($R$4+$R$7)/$K5)</f>
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.4</v>
+      </c>
+      <c r="N5">
+        <f>$M5+$N4</f>
+        <v>0.4</v>
+      </c>
+      <c r="O5">
+        <f>$C5*$C5/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="P5">
+        <f>$O5-O4</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C6" s="2">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D6" s="1">
@@ -3827,128 +4933,173 @@
         <v>200</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
+        <f t="shared" ref="I6:I23" si="4">H6-H5-I5</f>
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>220</v>
+      </c>
+      <c r="K6">
+        <f>$J6-$S$7+$R$7</f>
+        <v>140</v>
+      </c>
+      <c r="L6" s="8">
+        <f>IF($R$4+$R$7&gt;=$K6,100%,($R$4+$R$7)/$K6)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.6</v>
+      </c>
+      <c r="N6">
+        <f>$M6+$N5</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>$C6*$C6/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="P6">
+        <f>$O6-O5</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1">
+        <v>500</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>230</v>
+      </c>
+      <c r="K7">
+        <f>$J7-$S$7+$R$7</f>
+        <v>150</v>
+      </c>
+      <c r="L7" s="8">
+        <f>IF($R$4+$R$7&gt;=$K7,100%,($R$4+$R$7)/$K7)</f>
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.8</v>
+      </c>
+      <c r="N7">
+        <f>$M7+$N6</f>
+        <v>1.8</v>
+      </c>
+      <c r="O7">
+        <f>$C7*$C7/5</f>
+        <v>1.8</v>
+      </c>
+      <c r="P7">
+        <f>$O7-O6</f>
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <f>$R$11*32</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>$S$11*16</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>250</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="I8" s="1">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" ref="I6:I23" si="6">H6-H5-I5</f>
-        <v>50</v>
-      </c>
-      <c r="J6">
-        <v>220</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C7" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>200</v>
-      </c>
-      <c r="E7" s="1">
-        <v>500</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>230</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <f>$N$11*32</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>$O$11*16</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C8" s="2">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>250</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="4"/>
-        <v>500</v>
-      </c>
-      <c r="H8" s="1">
-        <f t="shared" si="5"/>
-        <v>150</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
       <c r="J8">
         <v>240</v>
       </c>
       <c r="K8">
+        <f>$J8-$S$7+$R$7</f>
+        <v>160</v>
+      </c>
+      <c r="L8" s="8">
+        <f>IF($R$4+$R$7&gt;=$K8,100%,($R$4+$R$7)/$K8)</f>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f>$M8+$N7</f>
+        <v>2.8</v>
+      </c>
+      <c r="O8">
+        <f>$C8*$C8/5</f>
+        <v>3.2</v>
+      </c>
+      <c r="P8">
+        <f>$O8-O7</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C9" s="2">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D9" s="1">
@@ -3958,36 +5109,51 @@
         <v>1800</v>
       </c>
       <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="3"/>
-        <v>550</v>
-      </c>
-      <c r="G9" s="1">
+        <v>250</v>
+      </c>
+      <c r="I9" s="1">
         <f t="shared" si="4"/>
-        <v>1050</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" si="5"/>
-        <v>250</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="J9">
         <v>250</v>
       </c>
       <c r="K9">
+        <f>$J9-$S$7+$R$7</f>
+        <v>170</v>
+      </c>
+      <c r="L9" s="8">
+        <f>IF($R$4+$R$7&gt;=$K9,100%,($R$4+$R$7)/$K9)</f>
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.2</v>
+      </c>
+      <c r="N9">
+        <f>$M9+$N8</f>
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <f>$C9*$C9/5</f>
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <f>$O9-O8</f>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C10" s="2">
-        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D10" s="1">
@@ -3997,42 +5163,57 @@
         <v>3000</v>
       </c>
       <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>1950</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="G10" s="1">
+        <v>350</v>
+      </c>
+      <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>1950</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="5"/>
-        <v>350</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="J10">
         <v>260</v>
       </c>
       <c r="K10">
+        <f>$J10-$S$7+$R$7</f>
+        <v>180</v>
+      </c>
+      <c r="L10" s="8">
+        <f>IF($R$4+$R$7&gt;=$K10,100%,($R$4+$R$7)/$K10)</f>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.4</v>
+      </c>
+      <c r="N10">
+        <f>$M10+$N9</f>
+        <v>5.4</v>
+      </c>
+      <c r="O10">
+        <f>$C10*$C10/5</f>
+        <v>7.2</v>
+      </c>
+      <c r="P10">
+        <f>$O10-O9</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C11" s="2">
-        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D11" s="1">
@@ -4042,42 +5223,57 @@
         <v>4800</v>
       </c>
       <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>3350</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="3"/>
-        <v>1400</v>
-      </c>
-      <c r="G11" s="1">
+        <v>500</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>3350</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="5"/>
-        <v>500</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J11">
         <v>270</v>
       </c>
       <c r="K11">
+        <f>$J11-$S$7+$R$7</f>
+        <v>190</v>
+      </c>
+      <c r="L11" s="8">
+        <f>IF($R$4+$R$7&gt;=$K11,100%,($R$4+$R$7)/$K11)</f>
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.6</v>
+      </c>
+      <c r="N11">
+        <f>$M11+$N10</f>
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <f>$C11*$C11/5</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P11">
+        <f>$O11-O10</f>
+        <v>2.6000000000000005</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C12" s="2">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D12" s="1">
@@ -4087,7 +5283,7 @@
         <v>7400</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2100</v>
       </c>
       <c r="G12" s="1">
@@ -4095,28 +5291,43 @@
         <v>5450</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>700</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="J12">
         <v>280</v>
       </c>
       <c r="K12">
+        <f>$J12-$S$7+$R$7</f>
+        <v>200</v>
+      </c>
+      <c r="L12" s="8">
+        <f>IF($R$4+$R$7&gt;=$K12,100%,($R$4+$R$7)/$K12)</f>
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.8</v>
+      </c>
+      <c r="N12">
+        <f>$M12+$N11</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O12">
+        <f>$C12*$C12/5</f>
+        <v>12.8</v>
+      </c>
+      <c r="P12">
+        <f>$O12-O11</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C13" s="2">
-        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D13" s="1">
@@ -4126,36 +5337,51 @@
         <v>11050</v>
       </c>
       <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>8450</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-      <c r="G13" s="1">
+        <v>900</v>
+      </c>
+      <c r="I13" s="1">
         <f t="shared" si="4"/>
-        <v>8450</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="5"/>
-        <v>900</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J13">
         <v>290</v>
       </c>
       <c r="K13">
+        <f>$J13-$S$7+$R$7</f>
+        <v>210</v>
+      </c>
+      <c r="L13" s="8">
+        <f>IF($R$4+$R$7&gt;=$K13,100%,($R$4+$R$7)/$K13)</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <f>$M13+$N12</f>
+        <v>10.8</v>
+      </c>
+      <c r="O13">
+        <f>$C13*$C13/5</f>
+        <v>16.2</v>
+      </c>
+      <c r="P13">
+        <f>$O13-O12</f>
+        <v>3.3999999999999986</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="1"/>
-        <v>0.95238095238095233</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C14" s="2">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D14" s="1">
@@ -4165,36 +5391,51 @@
         <v>16000</v>
       </c>
       <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>4150</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="2"/>
+        <v>12600</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="3"/>
-        <v>4150</v>
-      </c>
-      <c r="G14" s="1">
+        <v>1150</v>
+      </c>
+      <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>12600</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="5"/>
-        <v>1150</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="J14">
         <v>300</v>
       </c>
       <c r="K14">
+        <f>$J14-$S$7+$R$7</f>
+        <v>220</v>
+      </c>
+      <c r="L14" s="8">
+        <f>IF($R$4+$R$7&gt;=$K14,100%,($R$4+$R$7)/$K14)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="M14" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N14">
+        <f>$M14+$N13</f>
+        <v>13.3</v>
+      </c>
+      <c r="O14">
+        <f>$C14*$C14/5</f>
+        <v>20</v>
+      </c>
+      <c r="P14">
+        <f>$O14-O13</f>
+        <v>3.8000000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="1"/>
-        <v>0.90909090909090906</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C15" s="2">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D15" s="1">
@@ -4204,36 +5445,51 @@
         <v>22600</v>
       </c>
       <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>5600</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="2"/>
+        <v>18200</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="3"/>
-        <v>5600</v>
-      </c>
-      <c r="G15" s="1">
+        <v>1450</v>
+      </c>
+      <c r="I15" s="1">
         <f t="shared" si="4"/>
-        <v>18200</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="5"/>
-        <v>1450</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="J15">
         <v>310</v>
       </c>
       <c r="K15">
+        <f>$J15-$S$7+$R$7</f>
+        <v>230</v>
+      </c>
+      <c r="L15" s="8">
+        <f>IF($R$4+$R$7&gt;=$K15,100%,($R$4+$R$7)/$K15)</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <f>$M15+$N14</f>
+        <v>16.3</v>
+      </c>
+      <c r="O15">
+        <f>$C15*$C15/5</f>
+        <v>24.2</v>
+      </c>
+      <c r="P15">
+        <f>$O15-O14</f>
+        <v>4.1999999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="1"/>
-        <v>0.86956521739130432</v>
-      </c>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C16" s="2">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D16" s="1">
@@ -4243,36 +5499,51 @@
         <v>31150</v>
       </c>
       <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>7350</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>25550</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="3"/>
-        <v>7350</v>
-      </c>
-      <c r="G16" s="1">
+        <v>1750</v>
+      </c>
+      <c r="I16" s="1">
         <f t="shared" si="4"/>
-        <v>25550</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="5"/>
-        <v>1750</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="J16">
         <v>320</v>
       </c>
       <c r="K16">
+        <f>$J16-$S$7+$R$7</f>
+        <v>240</v>
+      </c>
+      <c r="L16" s="8">
+        <f>IF($R$4+$R$7&gt;=$K16,100%,($R$4+$R$7)/$K16)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M16">
+        <v>3.5</v>
+      </c>
+      <c r="N16">
+        <f>$M16+$N15</f>
+        <v>19.8</v>
+      </c>
+      <c r="O16">
+        <f>$C16*$C16/5</f>
+        <v>28.8</v>
+      </c>
+      <c r="P16">
+        <f>$O16-O15</f>
+        <v>4.6000000000000014</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C17" s="2">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D17" s="1">
@@ -4282,36 +5553,51 @@
         <v>42000</v>
       </c>
       <c r="F17" s="1">
+        <f t="shared" si="1"/>
+        <v>9450</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>35000</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="3"/>
-        <v>9450</v>
-      </c>
-      <c r="G17" s="1">
+        <v>2100</v>
+      </c>
+      <c r="I17" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="5"/>
-        <v>2100</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J17">
         <v>330</v>
       </c>
       <c r="K17">
+        <f>$J17-$S$7+$R$7</f>
+        <v>250</v>
+      </c>
+      <c r="L17" s="8">
+        <f>IF($R$4+$R$7&gt;=$K17,100%,($R$4+$R$7)/$K17)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <f>$M17+$N16</f>
+        <v>23.8</v>
+      </c>
+      <c r="O17">
+        <f>$C17*$C17/5</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="P17">
+        <f>$O17-O16</f>
+        <v>4.9999999999999964</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C18" s="2">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D18" s="1">
@@ -4321,36 +5607,51 @@
         <v>55600</v>
       </c>
       <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>11950</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="2"/>
+        <v>46950</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="3"/>
-        <v>11950</v>
-      </c>
-      <c r="G18" s="1">
+        <v>2500</v>
+      </c>
+      <c r="I18" s="1">
         <f t="shared" si="4"/>
-        <v>46950</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="5"/>
-        <v>2500</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J18">
         <v>340</v>
       </c>
       <c r="K18">
+        <f>$J18-$S$7+$R$7</f>
+        <v>260</v>
+      </c>
+      <c r="L18" s="8">
+        <f>IF($R$4+$R$7&gt;=$K18,100%,($R$4+$R$7)/$K18)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="M18">
+        <v>4.5</v>
+      </c>
+      <c r="N18">
+        <f>$M18+$N17</f>
+        <v>28.3</v>
+      </c>
+      <c r="O18">
+        <f>$C18*$C18/5</f>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="P18">
+        <f>$O18-O17</f>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="1"/>
-        <v>0.76923076923076927</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C19" s="2">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D19" s="1">
@@ -4360,36 +5661,51 @@
         <v>72350</v>
       </c>
       <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>14850</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="2"/>
+        <v>61800</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="3"/>
-        <v>14850</v>
-      </c>
-      <c r="G19" s="1">
+        <v>2900</v>
+      </c>
+      <c r="I19" s="1">
         <f t="shared" si="4"/>
-        <v>61800</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="5"/>
-        <v>2900</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="J19">
         <v>350</v>
       </c>
       <c r="K19">
+        <f>$J19-$S$7+$R$7</f>
+        <v>270</v>
+      </c>
+      <c r="L19" s="8">
+        <f>IF($R$4+$R$7&gt;=$K19,100%,($R$4+$R$7)/$K19)</f>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <f>$M19+$N18</f>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="O19">
+        <f>$C19*$C19/5</f>
+        <v>45</v>
+      </c>
+      <c r="P19">
+        <f>$O19-O18</f>
+        <v>5.7999999999999972</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>270</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.7407407407407407</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C20" s="2">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D20" s="1">
@@ -4399,36 +5715,51 @@
         <v>92750</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>18200</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="2"/>
+        <v>80000</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="3"/>
-        <v>18200</v>
-      </c>
-      <c r="G20" s="1">
+        <v>3350</v>
+      </c>
+      <c r="I20" s="1">
         <f t="shared" si="4"/>
-        <v>80000</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="5"/>
-        <v>3350</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="J20">
         <v>360</v>
       </c>
       <c r="K20">
+        <f>$J20-$S$7+$R$7</f>
+        <v>280</v>
+      </c>
+      <c r="L20" s="8">
+        <f>IF($R$4+$R$7&gt;=$K20,100%,($R$4+$R$7)/$K20)</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="M20">
+        <v>5.5</v>
+      </c>
+      <c r="N20">
+        <f>$M20+$N19</f>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="O20">
+        <f>$C20*$C20/5</f>
+        <v>51.2</v>
+      </c>
+      <c r="P20">
+        <f>$O20-O19</f>
+        <v>6.2000000000000028</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C21" s="2">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D21" s="1">
@@ -4438,36 +5769,51 @@
         <v>117300</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>22050</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="2"/>
+        <v>102050</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="3"/>
-        <v>22050</v>
-      </c>
-      <c r="G21" s="1">
+        <v>3850</v>
+      </c>
+      <c r="I21" s="1">
         <f t="shared" si="4"/>
-        <v>102050</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="5"/>
-        <v>3850</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="J21">
         <v>370</v>
       </c>
       <c r="K21">
+        <f>$J21-$S$7+$R$7</f>
+        <v>290</v>
+      </c>
+      <c r="L21" s="8">
+        <f>IF($R$4+$R$7&gt;=$K21,100%,($R$4+$R$7)/$K21)</f>
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <f>$M21+$N20</f>
+        <v>44.8</v>
+      </c>
+      <c r="O21">
+        <f>$C21*$C21/5</f>
+        <v>57.8</v>
+      </c>
+      <c r="P21">
+        <f>$O21-O20</f>
+        <v>6.5999999999999943</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>290</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.68965517241379315</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C22" s="2">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D22" s="1">
@@ -4477,36 +5823,51 @@
         <v>146500</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>26400</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="2"/>
+        <v>128450</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="3"/>
-        <v>26400</v>
-      </c>
-      <c r="G22" s="1">
+        <v>4350</v>
+      </c>
+      <c r="I22" s="1">
         <f t="shared" si="4"/>
-        <v>128450</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" si="5"/>
-        <v>4350</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="J22">
         <v>380</v>
       </c>
       <c r="K22">
+        <f>$J22-$S$7+$R$7</f>
+        <v>300</v>
+      </c>
+      <c r="L22" s="8">
+        <f>IF($R$4+$R$7&gt;=$K22,100%,($R$4+$R$7)/$K22)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M22">
+        <v>6.5</v>
+      </c>
+      <c r="N22">
+        <f>$M22+$N21</f>
+        <v>51.3</v>
+      </c>
+      <c r="O22">
+        <f>$C22*$C22/5</f>
+        <v>64.8</v>
+      </c>
+      <c r="P22">
+        <f>$O22-O21</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C23" s="2">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D23" s="1">
@@ -4516,36 +5877,51 @@
         <v>180900</v>
       </c>
       <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>31300</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="2"/>
+        <v>159750</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="3"/>
-        <v>31300</v>
-      </c>
-      <c r="G23" s="1">
+        <v>4900</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" si="4"/>
-        <v>159750</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="5"/>
-        <v>4900</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="J23">
         <v>390</v>
       </c>
       <c r="K23">
+        <f>$J23-$S$7+$R$7</f>
+        <v>310</v>
+      </c>
+      <c r="L23" s="8">
+        <f>IF($R$4+$R$7&gt;=$K23,100%,($R$4+$R$7)/$K23)</f>
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="M23">
+        <v>7</v>
+      </c>
+      <c r="N23">
+        <f>$M23+$N22</f>
+        <v>58.3</v>
+      </c>
+      <c r="O23">
+        <f>$C23*$C23/5</f>
+        <v>72.2</v>
+      </c>
+      <c r="P23">
+        <f>$O23-O22</f>
+        <v>7.4000000000000057</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.64516129032258063</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C24" s="2">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D24" s="6">
@@ -4575,10 +5951,25 @@
       <c r="L24" s="9">
         <v>0.7</v>
       </c>
+      <c r="M24" s="12">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <f>$M24+$N23</f>
+        <v>68.3</v>
+      </c>
+      <c r="O24">
+        <f>$C24*$C24/5</f>
+        <v>80</v>
+      </c>
+      <c r="P24">
+        <f>$O24-O23</f>
+        <v>7.7999999999999972</v>
+      </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D25" s="1">
@@ -4606,17 +5997,32 @@
         <v>410</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K43" si="7">$J25-$O$7+$N$7</f>
+        <f>$J25-$S$7+$R$7</f>
         <v>330</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" ref="L25:L43" si="8">IF($N$4+$N$7&gt;=$K25,100%,($N$4+$N$7)/$K25)</f>
+        <f>IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
         <v>0.60606060606060608</v>
       </c>
+      <c r="M25">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <f>$M25+$N24</f>
+        <v>79.3</v>
+      </c>
+      <c r="O25">
+        <f>$C25*$C25/5</f>
+        <v>88.2</v>
+      </c>
+      <c r="P25">
+        <f>$O25-O24</f>
+        <v>8.2000000000000028</v>
+      </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D26" s="1">
@@ -4626,11 +6032,11 @@
         <v>292000</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F43" si="9">E26-D25-E25</f>
+        <f t="shared" ref="F26:F43" si="5">E26-D25-E25</f>
         <v>37000</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G43" si="10">F26+G25</f>
+        <f t="shared" ref="G26:G43" si="6">F26+G25</f>
         <v>262450</v>
       </c>
       <c r="H26" s="1">
@@ -4645,17 +6051,32 @@
         <v>420</v>
       </c>
       <c r="K26">
-        <f t="shared" si="7"/>
+        <f>$J26-$S$7+$R$7</f>
         <v>340</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K26,100%,($R$4+$R$7)/$K26)</f>
         <v>0.58823529411764708</v>
       </c>
+      <c r="M26">
+        <v>12</v>
+      </c>
+      <c r="N26">
+        <f>$M26+$N25</f>
+        <v>91.3</v>
+      </c>
+      <c r="O26">
+        <f>$C26*$C26/5</f>
+        <v>96.8</v>
+      </c>
+      <c r="P26">
+        <f>$O26-O25</f>
+        <v>8.5999999999999943</v>
+      </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D27" s="1">
@@ -4665,36 +6086,51 @@
         <v>341200</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>43700</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>306150</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H43" si="11">F27-F26</f>
+        <f t="shared" ref="H27:H43" si="7">F27-F26</f>
         <v>6700</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:I43" si="12">H27-H26-I26</f>
+        <f t="shared" ref="I27:I43" si="8">H27-H26-I26</f>
         <v>500</v>
       </c>
       <c r="J27">
         <v>430</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
+        <f>$J27-$S$7+$R$7</f>
         <v>350</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K27,100%,($R$4+$R$7)/$K27)</f>
         <v>0.5714285714285714</v>
       </c>
+      <c r="M27">
+        <v>13</v>
+      </c>
+      <c r="N27">
+        <f>$M27+$N26</f>
+        <v>104.3</v>
+      </c>
+      <c r="O27">
+        <f>$C27*$C27/5</f>
+        <v>105.8</v>
+      </c>
+      <c r="P27">
+        <f>$O27-O26</f>
+        <v>9</v>
+      </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D28" s="1">
@@ -4704,36 +6140,51 @@
         <v>398600</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>51400</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>357550</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>7700</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>500</v>
       </c>
       <c r="J28">
         <v>440</v>
       </c>
       <c r="K28">
-        <f t="shared" si="7"/>
+        <f>$J28-$S$7+$R$7</f>
         <v>360</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K28,100%,($R$4+$R$7)/$K28)</f>
         <v>0.55555555555555558</v>
       </c>
+      <c r="M28">
+        <v>14</v>
+      </c>
+      <c r="N28">
+        <f>$M28+$N27</f>
+        <v>118.3</v>
+      </c>
+      <c r="O28">
+        <f>$C28*$C28/5</f>
+        <v>115.2</v>
+      </c>
+      <c r="P28">
+        <f>$O28-O27</f>
+        <v>9.4000000000000057</v>
+      </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="D29" s="1">
@@ -4743,36 +6194,51 @@
         <v>465300</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>60200</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>417750</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>8800</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="J29">
         <v>450</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f>$J29-$S$7+$R$7</f>
         <v>370</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K29,100%,($R$4+$R$7)/$K29)</f>
         <v>0.54054054054054057</v>
       </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <f>$M29+$N28</f>
+        <v>133.30000000000001</v>
+      </c>
+      <c r="O29">
+        <f>$C29*$C29/5</f>
+        <v>125</v>
+      </c>
+      <c r="P29">
+        <f>$O29-O28</f>
+        <v>9.7999999999999972</v>
+      </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C30" s="2">
-        <f t="shared" ref="C30:C54" si="13">C29+1</f>
+        <f t="shared" ref="C30:C54" si="9">C29+1</f>
         <v>26</v>
       </c>
       <c r="D30" s="1">
@@ -4782,36 +6248,51 @@
         <v>542500</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>70200</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>487950</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>10000</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="J30">
         <v>460</v>
       </c>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f>$J30-$S$7+$R$7</f>
         <v>380</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K30,100%,($R$4+$R$7)/$K30)</f>
         <v>0.52631578947368418</v>
       </c>
+      <c r="M30">
+        <v>16</v>
+      </c>
+      <c r="N30">
+        <f>$M30+$N29</f>
+        <v>149.30000000000001</v>
+      </c>
+      <c r="O30">
+        <f>$C30*$C30/5</f>
+        <v>135.19999999999999</v>
+      </c>
+      <c r="P30">
+        <f>$O30-O29</f>
+        <v>10.199999999999989</v>
+      </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C31" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="D31" s="1">
@@ -4821,36 +6302,51 @@
         <v>631600</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>81400</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>569350</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>11200</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>600</v>
       </c>
       <c r="J31">
         <v>470</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f>$J31-$S$7+$R$7</f>
         <v>390</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K31,100%,($R$4+$R$7)/$K31)</f>
         <v>0.51282051282051277</v>
       </c>
+      <c r="M31">
+        <v>17</v>
+      </c>
+      <c r="N31">
+        <f>$M31+$N30</f>
+        <v>166.3</v>
+      </c>
+      <c r="O31">
+        <f>$C31*$C31/5</f>
+        <v>145.80000000000001</v>
+      </c>
+      <c r="P31">
+        <f>$O31-O30</f>
+        <v>10.600000000000023</v>
+      </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C32" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="D32" s="1">
@@ -4860,36 +6356,51 @@
         <v>733900</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>93900</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>663250</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>12500</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="J32">
         <v>480</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f>$J32-$S$7+$R$7</f>
         <v>400</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K32,100%,($R$4+$R$7)/$K32)</f>
         <v>0.5</v>
       </c>
+      <c r="M32">
+        <v>18</v>
+      </c>
+      <c r="N32">
+        <f>$M32+$N31</f>
+        <v>184.3</v>
+      </c>
+      <c r="O32">
+        <f>$C32*$C32/5</f>
+        <v>156.80000000000001</v>
+      </c>
+      <c r="P32">
+        <f>$O32-O31</f>
+        <v>11</v>
+      </c>
     </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="D33" s="1">
@@ -4899,36 +6410,51 @@
         <v>850900</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>107800</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>771050</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>13900</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="J33">
         <v>490</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f>$J33-$S$7+$R$7</f>
         <v>410</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K33,100%,($R$4+$R$7)/$K33)</f>
         <v>0.48780487804878048</v>
       </c>
+      <c r="M33">
+        <v>19</v>
+      </c>
+      <c r="N33">
+        <f>$M33+$N32</f>
+        <v>203.3</v>
+      </c>
+      <c r="O33">
+        <f>$C33*$C33/5</f>
+        <v>168.2</v>
+      </c>
+      <c r="P33">
+        <f>$O33-O32</f>
+        <v>11.399999999999977</v>
+      </c>
     </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="D34" s="1">
@@ -4938,36 +6464,51 @@
         <v>984000</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>123100</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>894150</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>15300</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="J34">
         <v>500</v>
       </c>
       <c r="K34">
-        <f t="shared" si="7"/>
+        <f>$J34-$S$7+$R$7</f>
         <v>420</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K34,100%,($R$4+$R$7)/$K34)</f>
         <v>0.47619047619047616</v>
       </c>
+      <c r="M34" s="12">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <f>$M34+$N33</f>
+        <v>223.3</v>
+      </c>
+      <c r="O34">
+        <f>$C34*$C34/5</f>
+        <v>180</v>
+      </c>
+      <c r="P34">
+        <f>$O34-O33</f>
+        <v>11.800000000000011</v>
+      </c>
     </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="D35" s="1">
@@ -4977,36 +6518,51 @@
         <v>1134700</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>139900</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1034050</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>16800</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>800</v>
       </c>
       <c r="J35">
         <v>510</v>
       </c>
       <c r="K35">
-        <f t="shared" si="7"/>
+        <f>$J35-$S$7+$R$7</f>
         <v>430</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K35,100%,($R$4+$R$7)/$K35)</f>
         <v>0.46511627906976744</v>
       </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <f>$M35+$N34</f>
+        <v>245.3</v>
+      </c>
+      <c r="O35">
+        <f>$C35*$C35/5</f>
+        <v>192.2</v>
+      </c>
+      <c r="P35">
+        <f>$O35-O34</f>
+        <v>12.199999999999989</v>
+      </c>
     </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="D36" s="1">
@@ -5016,36 +6572,51 @@
         <v>1304600</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>158300</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1192350</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>18400</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>800</v>
       </c>
       <c r="J36">
         <v>520</v>
       </c>
       <c r="K36">
-        <f t="shared" si="7"/>
+        <f>$J36-$S$7+$R$7</f>
         <v>440</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K36,100%,($R$4+$R$7)/$K36)</f>
         <v>0.45454545454545453</v>
       </c>
+      <c r="M36">
+        <v>24</v>
+      </c>
+      <c r="N36">
+        <f>$M36+$N35</f>
+        <v>269.3</v>
+      </c>
+      <c r="O36">
+        <f>$C36*$C36/5</f>
+        <v>204.8</v>
+      </c>
+      <c r="P36">
+        <f>$O36-O35</f>
+        <v>12.600000000000023</v>
+      </c>
     </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C37" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="D37" s="1">
@@ -5055,36 +6626,51 @@
         <v>1495400</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>178300</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1370650</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>20000</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>800</v>
       </c>
       <c r="J37">
         <v>530</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f>$J37-$S$7+$R$7</f>
         <v>450</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K37,100%,($R$4+$R$7)/$K37)</f>
         <v>0.44444444444444442</v>
       </c>
+      <c r="M37">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <f>$M37+$N36</f>
+        <v>295.3</v>
+      </c>
+      <c r="O37">
+        <f>$C37*$C37/5</f>
+        <v>217.8</v>
+      </c>
+      <c r="P37">
+        <f>$O37-O36</f>
+        <v>13</v>
+      </c>
     </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C38" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="D38" s="1">
@@ -5094,36 +6680,51 @@
         <v>1708800</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1570650</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>21700</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="J38">
         <v>540</v>
       </c>
       <c r="K38">
-        <f t="shared" si="7"/>
+        <f>$J38-$S$7+$R$7</f>
         <v>460</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K38,100%,($R$4+$R$7)/$K38)</f>
         <v>0.43478260869565216</v>
       </c>
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <f>$M38+$N37</f>
+        <v>323.3</v>
+      </c>
+      <c r="O38">
+        <f>$C38*$C38/5</f>
+        <v>231.2</v>
+      </c>
+      <c r="P38">
+        <f>$O38-O37</f>
+        <v>13.399999999999977</v>
+      </c>
     </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C39" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="D39" s="1">
@@ -5133,36 +6734,51 @@
         <v>1946600</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>223500</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>1794150</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>23500</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="J39">
         <v>550</v>
       </c>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f>$J39-$S$7+$R$7</f>
         <v>470</v>
       </c>
       <c r="L39" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K39,100%,($R$4+$R$7)/$K39)</f>
         <v>0.42553191489361702</v>
       </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <f>$M39+$N38</f>
+        <v>353.3</v>
+      </c>
+      <c r="O39">
+        <f>$C39*$C39/5</f>
+        <v>245</v>
+      </c>
+      <c r="P39">
+        <f>$O39-O38</f>
+        <v>13.800000000000011</v>
+      </c>
     </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C40" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="D40" s="1">
@@ -5172,36 +6788,51 @@
         <v>2210700</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>248800</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2042950</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>25300</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>900</v>
       </c>
       <c r="J40">
         <v>560</v>
       </c>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f>$J40-$S$7+$R$7</f>
         <v>480</v>
       </c>
       <c r="L40" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K40,100%,($R$4+$R$7)/$K40)</f>
         <v>0.41666666666666669</v>
       </c>
+      <c r="M40">
+        <v>32</v>
+      </c>
+      <c r="N40">
+        <f>$M40+$N39</f>
+        <v>385.3</v>
+      </c>
+      <c r="O40">
+        <f>$C40*$C40/5</f>
+        <v>259.2</v>
+      </c>
+      <c r="P40">
+        <f>$O40-O39</f>
+        <v>14.199999999999989</v>
+      </c>
     </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C41" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="D41" s="1">
@@ -5211,36 +6842,51 @@
         <v>2503000</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>276000</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2318950</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>27200</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="J41">
         <v>570</v>
       </c>
       <c r="K41">
-        <f t="shared" si="7"/>
+        <f>$J41-$S$7+$R$7</f>
         <v>490</v>
       </c>
       <c r="L41" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K41,100%,($R$4+$R$7)/$K41)</f>
         <v>0.40816326530612246</v>
       </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <f>$M41+$N40</f>
+        <v>419.3</v>
+      </c>
+      <c r="O41">
+        <f>$C41*$C41/5</f>
+        <v>273.8</v>
+      </c>
+      <c r="P41">
+        <f>$O41-O40</f>
+        <v>14.600000000000023</v>
+      </c>
     </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C42" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="D42" s="1">
@@ -5250,36 +6896,51 @@
         <v>2825500</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>305200</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2624150</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>29200</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="J42">
         <v>580</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f>$J42-$S$7+$R$7</f>
         <v>500</v>
       </c>
       <c r="L42" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K42,100%,($R$4+$R$7)/$K42)</f>
         <v>0.4</v>
       </c>
+      <c r="M42">
+        <v>36</v>
+      </c>
+      <c r="N42">
+        <f>$M42+$N41</f>
+        <v>455.3</v>
+      </c>
+      <c r="O42">
+        <f>$C42*$C42/5</f>
+        <v>288.8</v>
+      </c>
+      <c r="P42">
+        <f>$O42-O41</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C43" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
       <c r="D43" s="1">
@@ -5289,36 +6950,51 @@
         <v>3180300</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>336400</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>2960550</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>31200</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>1000</v>
       </c>
       <c r="J43">
         <v>590</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f>$J43-$S$7+$R$7</f>
         <v>510</v>
       </c>
       <c r="L43" s="8">
-        <f t="shared" si="8"/>
+        <f>IF($R$4+$R$7&gt;=$K43,100%,($R$4+$R$7)/$K43)</f>
         <v>0.39215686274509803</v>
       </c>
+      <c r="M43">
+        <v>38</v>
+      </c>
+      <c r="N43">
+        <f>$M43+$N42</f>
+        <v>493.3</v>
+      </c>
+      <c r="O43">
+        <f>$C43*$C43/5</f>
+        <v>304.2</v>
+      </c>
+      <c r="P43">
+        <f>$O43-O42</f>
+        <v>15.399999999999977</v>
+      </c>
     </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C44" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="D44" s="6">
@@ -5348,10 +7024,25 @@
       <c r="L44" s="9">
         <v>0.5</v>
       </c>
+      <c r="M44" s="12">
+        <v>50</v>
+      </c>
+      <c r="N44">
+        <f>$M44+$N43</f>
+        <v>543.29999999999995</v>
+      </c>
+      <c r="O44">
+        <f>$C44*$C44/5</f>
+        <v>320</v>
+      </c>
+      <c r="P44">
+        <f>$O44-O43</f>
+        <v>15.800000000000011</v>
+      </c>
     </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C45" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>41</v>
       </c>
       <c r="D45" s="1">
@@ -5379,17 +7070,32 @@
         <v>620</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K54" si="14">$J45-$O$7+$N$7</f>
+        <f>$J45-$S$7+$R$7</f>
         <v>540</v>
       </c>
       <c r="L45" s="8">
-        <f t="shared" ref="L45:L54" si="15">IF($N$4+$N$7&gt;=$K45,100%,($N$4+$N$7)/$K45)</f>
+        <f>IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
         <v>0.37037037037037035</v>
       </c>
+      <c r="M45">
+        <v>55</v>
+      </c>
+      <c r="N45">
+        <f>$M45+$N44</f>
+        <v>598.29999999999995</v>
+      </c>
+      <c r="O45">
+        <f>$C45*$C45/5</f>
+        <v>336.2</v>
+      </c>
+      <c r="P45">
+        <f>$O45-O44</f>
+        <v>16.199999999999989</v>
+      </c>
     </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C46" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="D46" s="1">
@@ -5399,11 +7105,11 @@
         <v>4200100</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:F54" si="16">E46-D45-E45</f>
+        <f t="shared" ref="F46:F54" si="10">E46-D45-E45</f>
         <v>370100</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ref="G46:G54" si="17">F46+G45</f>
+        <f t="shared" ref="G46:G54" si="11">F46+G45</f>
         <v>3930850</v>
       </c>
       <c r="H46" s="1">
@@ -5418,17 +7124,32 @@
         <v>640</v>
       </c>
       <c r="K46">
-        <f t="shared" si="14"/>
+        <f>$J46-$S$7+$R$7</f>
         <v>560</v>
       </c>
       <c r="L46" s="8">
-        <f t="shared" si="15"/>
+        <f>IF($R$4+$R$7&gt;=$K46,100%,($R$4+$R$7)/$K46)</f>
         <v>0.35714285714285715</v>
       </c>
+      <c r="M46">
+        <v>60</v>
+      </c>
+      <c r="N46">
+        <f>$M46+$N45</f>
+        <v>658.3</v>
+      </c>
+      <c r="O46">
+        <f>$C46*$C46/5</f>
+        <v>352.8</v>
+      </c>
+      <c r="P46">
+        <f>$O46-O45</f>
+        <v>16.600000000000023</v>
+      </c>
     </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C47" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>43</v>
       </c>
       <c r="D47" s="1">
@@ -5438,36 +7159,51 @@
         <v>4640000</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>406900</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4337750</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:H54" si="18">F47-F46</f>
+        <f t="shared" ref="H47:H54" si="12">F47-F46</f>
         <v>36800</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ref="I47:I54" si="19">H47-H46-I46</f>
+        <f t="shared" ref="I47:I54" si="13">H47-H46-I46</f>
         <v>1600</v>
       </c>
       <c r="J47">
         <v>660</v>
       </c>
       <c r="K47">
-        <f t="shared" si="14"/>
+        <f>$J47-$S$7+$R$7</f>
         <v>580</v>
       </c>
       <c r="L47" s="8">
-        <f t="shared" si="15"/>
+        <f>IF($R$4+$R$7&gt;=$K47,100%,($R$4+$R$7)/$K47)</f>
         <v>0.34482758620689657</v>
       </c>
+      <c r="M47">
+        <v>65</v>
+      </c>
+      <c r="N47">
+        <f>$M47+$N46</f>
+        <v>723.3</v>
+      </c>
+      <c r="O47">
+        <f>$C47*$C47/5</f>
+        <v>369.8</v>
+      </c>
+      <c r="P47">
+        <f>$O47-O46</f>
+        <v>17</v>
+      </c>
     </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C48" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="D48" s="1">
@@ -5477,36 +7213,51 @@
         <v>5123000</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>447000</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>4784750</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>40100</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1700</v>
       </c>
       <c r="J48">
         <v>680</v>
       </c>
       <c r="K48">
-        <f t="shared" si="14"/>
+        <f>$J48-$S$7+$R$7</f>
         <v>600</v>
       </c>
       <c r="L48" s="8">
-        <f t="shared" si="15"/>
+        <f>IF($R$4+$R$7&gt;=$K48,100%,($R$4+$R$7)/$K48)</f>
         <v>0.33333333333333331</v>
       </c>
+      <c r="M48">
+        <v>70</v>
+      </c>
+      <c r="N48">
+        <f>$M48+$N47</f>
+        <v>793.3</v>
+      </c>
+      <c r="O48">
+        <f>$C48*$C48/5</f>
+        <v>387.2</v>
+      </c>
+      <c r="P48">
+        <f>$O48-O47</f>
+        <v>17.399999999999977</v>
+      </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C49" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="D49" s="1">
@@ -5516,36 +7267,51 @@
         <v>5652600</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>490600</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>5275350</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>43600</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1800</v>
       </c>
       <c r="J49">
         <v>700</v>
       </c>
       <c r="K49">
-        <f t="shared" si="14"/>
+        <f>$J49-$S$7+$R$7</f>
         <v>620</v>
       </c>
       <c r="L49" s="8">
-        <f t="shared" si="15"/>
+        <f>IF($R$4+$R$7&gt;=$K49,100%,($R$4+$R$7)/$K49)</f>
         <v>0.32258064516129031</v>
       </c>
+      <c r="M49">
+        <v>75</v>
+      </c>
+      <c r="N49">
+        <f>$M49+$N48</f>
+        <v>868.3</v>
+      </c>
+      <c r="O49">
+        <f>$C49*$C49/5</f>
+        <v>405</v>
+      </c>
+      <c r="P49">
+        <f>$O49-O48</f>
+        <v>17.800000000000011</v>
+      </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C50" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="D50" s="1">
@@ -5555,36 +7321,51 @@
         <v>6232500</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>537900</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>5813250</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>47300</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>1900</v>
       </c>
       <c r="J50">
         <v>720</v>
       </c>
       <c r="K50">
-        <f t="shared" si="14"/>
+        <f>$J50-$S$7+$R$7</f>
         <v>640</v>
       </c>
       <c r="L50" s="8">
-        <f t="shared" si="15"/>
+        <f>IF($R$4+$R$7&gt;=$K50,100%,($R$4+$R$7)/$K50)</f>
         <v>0.3125</v>
       </c>
+      <c r="M50">
+        <v>80</v>
+      </c>
+      <c r="N50">
+        <f>$M50+$N49</f>
+        <v>948.3</v>
+      </c>
+      <c r="O50">
+        <f>$C50*$C50/5</f>
+        <v>423.2</v>
+      </c>
+      <c r="P50">
+        <f>$O50-O49</f>
+        <v>18.199999999999989</v>
+      </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C51" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>47</v>
       </c>
       <c r="D51" s="1">
@@ -5594,36 +7375,51 @@
         <v>6866600</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>589100</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>6402350</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>51200</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2000</v>
       </c>
       <c r="J51">
         <v>740</v>
       </c>
       <c r="K51">
-        <f t="shared" si="14"/>
+        <f>$J51-$S$7+$R$7</f>
         <v>660</v>
       </c>
       <c r="L51" s="8">
-        <f t="shared" si="15"/>
+        <f>IF($R$4+$R$7&gt;=$K51,100%,($R$4+$R$7)/$K51)</f>
         <v>0.30303030303030304</v>
       </c>
+      <c r="M51">
+        <v>85</v>
+      </c>
+      <c r="N51">
+        <f>$M51+$N50</f>
+        <v>1033.3</v>
+      </c>
+      <c r="O51">
+        <f>$C51*$C51/5</f>
+        <v>441.8</v>
+      </c>
+      <c r="P51">
+        <f>$O51-O50</f>
+        <v>18.600000000000023</v>
+      </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C52" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="D52" s="1">
@@ -5633,36 +7429,51 @@
         <v>7561000</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>644400</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7046750</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>55300</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2100</v>
       </c>
       <c r="J52">
         <v>760</v>
       </c>
       <c r="K52">
-        <f t="shared" si="14"/>
+        <f>$J52-$S$7+$R$7</f>
         <v>680</v>
       </c>
       <c r="L52" s="8">
-        <f t="shared" si="15"/>
+        <f>IF($R$4+$R$7&gt;=$K52,100%,($R$4+$R$7)/$K52)</f>
         <v>0.29411764705882354</v>
       </c>
+      <c r="M52">
+        <v>90</v>
+      </c>
+      <c r="N52">
+        <f>$M52+$N51</f>
+        <v>1123.3</v>
+      </c>
+      <c r="O52">
+        <f>$C52*$C52/5</f>
+        <v>460.8</v>
+      </c>
+      <c r="P52">
+        <f>$O52-O51</f>
+        <v>19</v>
+      </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C53" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>49</v>
       </c>
       <c r="D53" s="1">
@@ -5672,36 +7483,51 @@
         <v>8320000</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>704000</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>7750750</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>59600</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2200</v>
       </c>
       <c r="J53">
         <v>780</v>
       </c>
       <c r="K53">
-        <f t="shared" si="14"/>
+        <f>$J53-$S$7+$R$7</f>
         <v>700</v>
       </c>
       <c r="L53" s="8">
-        <f t="shared" si="15"/>
+        <f>IF($R$4+$R$7&gt;=$K53,100%,($R$4+$R$7)/$K53)</f>
         <v>0.2857142857142857</v>
       </c>
+      <c r="M53">
+        <v>95</v>
+      </c>
+      <c r="N53">
+        <f>$M53+$N52</f>
+        <v>1218.3</v>
+      </c>
+      <c r="O53">
+        <f>$C53*$C53/5</f>
+        <v>480.2</v>
+      </c>
+      <c r="P53">
+        <f>$O53-O52</f>
+        <v>19.399999999999977</v>
+      </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C54" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="D54" s="1">
@@ -5711,31 +7537,46 @@
         <v>9148100</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="10"/>
         <v>768100</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="11"/>
         <v>8518850</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>64100</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="13"/>
         <v>2300</v>
       </c>
       <c r="J54">
         <v>800</v>
       </c>
       <c r="K54">
-        <f t="shared" si="14"/>
+        <f>$J54-$S$7+$R$7</f>
         <v>720</v>
       </c>
       <c r="L54" s="8">
-        <f t="shared" si="15"/>
+        <f>IF($R$4+$R$7&gt;=$K54,100%,($R$4+$R$7)/$K54)</f>
         <v>0.27777777777777779</v>
+      </c>
+      <c r="M54" s="12">
+        <v>100</v>
+      </c>
+      <c r="N54">
+        <f>$M54+$N53</f>
+        <v>1318.3</v>
+      </c>
+      <c r="O54">
+        <f>$C54*$C54/5</f>
+        <v>500</v>
+      </c>
+      <c r="P54">
+        <f>$O54-O53</f>
+        <v>19.800000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/검 강화 게임.xlsx
+++ b/검 강화 게임.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\문서\GitHub\Unity_Weapon_Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F630AEB-174C-46C9-9A6D-BFCCD3C889D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CEAC8B-D004-4B31-83AA-E4A510715603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{D3FEDBA6-35E5-45CF-B54A-9F527DCBFA6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>SELL</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -122,6 +122,30 @@
     <t>AddBSS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalASB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalRB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddCost</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +154,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +226,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -248,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,12 +324,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +331,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1909,154 +1969,154 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.97297297297297303</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.94736842105263153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.92307692307692313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0.87804878048780488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0.83720930232558144</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.81818181818181823</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95238095238095233</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>0.78260869565217395</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86956521739130432</c:v>
+                  <c:v>0.76595744680851063</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.8</c:v>
+                  <c:v>0.73469387755102045</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7407407407407407</c:v>
+                  <c:v>0.70588235294117652</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.69230769230769229</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.68965517241379315</c:v>
+                  <c:v>0.67924528301886788</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.64516129032258063</c:v>
+                  <c:v>0.65454545454545454</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.60606060606060608</c:v>
+                  <c:v>0.63157894736842102</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.62068965517241381</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0.61016949152542377</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.5901639344262295</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.58064516129032262</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.5714285714285714</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.55555555555555558</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.54054054054054057</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.52631578947368418</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.51282051282051277</c:v>
-                </c:pt>
                 <c:pt idx="28">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.55384615384615388</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.54545454545454541</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.53731343283582089</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.52941176470588236</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.52173913043478259</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.51428571428571423</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.50704225352112675</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.48780487804878048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.47619047619047616</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.46511627906976744</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.45454545454545453</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.44444444444444442</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.43478260869565216</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.42553191489361702</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.41666666666666669</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.40816326530612246</c:v>
+                  <c:v>0.49315068493150682</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4</c:v>
+                  <c:v>0.48648648648648651</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.39215686274509803</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.37037037037037035</c:v>
+                  <c:v>0.46153846153846156</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.35714285714285715</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.34482758620689657</c:v>
+                  <c:v>0.43902439024390244</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.33333333333333331</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.32258064516129031</c:v>
+                  <c:v>0.41860465116279072</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.40909090909090912</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.30303030303030304</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.39130434782608697</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.38297872340425532</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4340,15 +4400,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>250633</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>115743</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>654045</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>133111</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>536523</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>201684</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4376,16 +4436,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>312626</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>69441</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>660008</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>192706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>178155</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>123229</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>525537</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4412,16 +4472,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>495905</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134258</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>14052</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>212699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>411239</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>47172</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>601740</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>125614</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4746,10 +4806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62FF258-7648-4ED0-AA06-DFEB56F203C0}">
-  <dimension ref="C2:S54"/>
+  <dimension ref="C2:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4761,12 +4821,12 @@
     <col min="10" max="12" width="8.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:39" x14ac:dyDescent="0.4">
       <c r="R2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4794,10 +4854,10 @@
       <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="N3" s="5" t="s">
@@ -4815,8 +4875,39 @@
       <c r="S3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="Z3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C4" s="2">
         <v>0</v>
       </c>
@@ -4842,11 +4933,11 @@
         <v>200</v>
       </c>
       <c r="K4">
-        <f>$J4-$S$7+$R$7</f>
-        <v>120</v>
-      </c>
-      <c r="L4" s="8">
-        <f>IF($R$4+$R$7&gt;=$K4,100%,($R$4+$R$7)/$K4)</f>
+        <f t="shared" ref="K4:K23" si="0">$J4-$S$7+$R$7</f>
+        <v>360</v>
+      </c>
+      <c r="L4" s="14">
+        <f t="shared" ref="L4:L23" si="1">IF($R$4+$R$7&gt;=$K4,100%,($R$4+$R$7)/$K4)</f>
         <v>1</v>
       </c>
       <c r="M4">
@@ -4867,10 +4958,37 @@
       <c r="S4">
         <v>1000</v>
       </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>50000</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>500</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C29" si="0">C4+1</f>
+        <f t="shared" ref="C5:C29" si="2">C4+1</f>
         <v>1</v>
       </c>
       <c r="D5" s="1">
@@ -4880,15 +4998,15 @@
         <v>50</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F23" si="1">E5-D4-E4</f>
+        <f t="shared" ref="F5:F23" si="3">E5-D4-E4</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G23" si="2">F5+G4</f>
+        <f t="shared" ref="G5:G23" si="4">F5+G4</f>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:H23" si="3">F5-F4</f>
+        <f t="shared" ref="H5:H23" si="5">F5-F4</f>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -4898,32 +5016,64 @@
         <v>210</v>
       </c>
       <c r="K5">
-        <f>$J5-$S$7+$R$7</f>
-        <v>130</v>
-      </c>
-      <c r="L5" s="8">
-        <f>IF($R$4+$R$7&gt;=$K5,100%,($R$4+$R$7)/$K5)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" si="1"/>
+        <v>0.97297297297297303</v>
       </c>
       <c r="M5">
         <v>0.4</v>
       </c>
       <c r="N5">
-        <f>$M5+$N4</f>
+        <f t="shared" ref="N5:N36" si="6">$M5+$N4</f>
         <v>0.4</v>
       </c>
       <c r="O5">
-        <f>$C5*$C5/5</f>
+        <f t="shared" ref="O5:O36" si="7">$C5*$C5/5</f>
         <v>0.2</v>
       </c>
       <c r="P5">
-        <f>$O5-O4</f>
+        <f t="shared" ref="P5:P36" si="8">$O5-O4</f>
         <v>0.2</v>
       </c>
+      <c r="Z5" s="2">
+        <f t="shared" ref="Z5:Z24" si="9">Z4+1</f>
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB23" si="10">$AA5-$AA4</f>
+        <v>50000</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="1">
+        <f t="shared" ref="AD5:AD24" si="11">$AC5+$AD4</f>
+        <v>32</v>
+      </c>
+      <c r="AF5" s="2">
+        <f t="shared" ref="AF5:AF24" si="12">AF4+1</f>
+        <v>1</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>100000</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="1">
+        <f t="shared" ref="AI5:AI24" si="13">$AH5+$AI4</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="D6" s="1">
@@ -4933,57 +5083,89 @@
         <v>200</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="H6" s="1">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
+      <c r="G6" s="1">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I23" si="4">H6-H5-I5</f>
+        <f t="shared" ref="I6:I23" si="14">H6-H5-I5</f>
         <v>50</v>
       </c>
       <c r="J6">
         <v>220</v>
       </c>
       <c r="K6">
-        <f>$J6-$S$7+$R$7</f>
-        <v>140</v>
-      </c>
-      <c r="L6" s="8">
-        <f>IF($R$4+$R$7&gt;=$K6,100%,($R$4+$R$7)/$K6)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="L6" s="14">
+        <f t="shared" si="1"/>
+        <v>0.94736842105263153</v>
       </c>
       <c r="M6">
         <v>0.6</v>
       </c>
       <c r="N6">
-        <f>$M6+$N5</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O6">
-        <f>$C6*$C6/5</f>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="P6">
-        <f>$O6-O5</f>
+        <f t="shared" si="8"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="R6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="S6" t="s">
         <v>12</v>
       </c>
+      <c r="Z6" s="2">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="10"/>
+        <v>50000</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="AF6" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" si="13"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D7" s="1">
@@ -4993,59 +5175,91 @@
         <v>500</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J7">
         <v>230</v>
       </c>
       <c r="K7">
-        <f>$J7-$S$7+$R$7</f>
-        <v>150</v>
-      </c>
-      <c r="L7" s="8">
-        <f>IF($R$4+$R$7&gt;=$K7,100%,($R$4+$R$7)/$K7)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="L7" s="14">
+        <f t="shared" si="1"/>
+        <v>0.92307692307692313</v>
       </c>
       <c r="M7">
         <v>0.8</v>
       </c>
       <c r="N7">
-        <f>$M7+$N6</f>
+        <f t="shared" si="6"/>
         <v>1.8</v>
       </c>
       <c r="O7">
-        <f>$C7*$C7/5</f>
+        <f t="shared" si="7"/>
         <v>1.8</v>
       </c>
       <c r="P7">
-        <f>$O7-O6</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R7">
-        <f>$R$11*32</f>
+        <f>INDEX(Z4:AD24,MATCH($R$11, $Z4:$Z24), 5)</f>
+        <v>160</v>
+      </c>
+      <c r="S7">
+        <f>INDEX(AF4:AI24,MATCH($S$11, $AF4:$AF24), 4)</f>
         <v>0</v>
       </c>
-      <c r="S7">
-        <f>$S$11*16</f>
-        <v>80</v>
+      <c r="Z7" s="2">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>230000</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="10"/>
+        <v>80000</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD7" s="1">
+        <f t="shared" si="11"/>
+        <v>96</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>210000</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI7" s="1">
+        <f t="shared" si="13"/>
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D8" s="1">
@@ -5055,51 +5269,83 @@
         <v>1000</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>500</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="J8">
         <v>240</v>
       </c>
       <c r="K8">
-        <f>$J8-$S$7+$R$7</f>
-        <v>160</v>
-      </c>
-      <c r="L8" s="8">
-        <f>IF($R$4+$R$7&gt;=$K8,100%,($R$4+$R$7)/$K8)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="L8" s="14">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8">
-        <f>$M8+$N7</f>
+        <f t="shared" si="6"/>
         <v>2.8</v>
       </c>
       <c r="O8">
-        <f>$C8*$C8/5</f>
+        <f t="shared" si="7"/>
         <v>3.2</v>
       </c>
       <c r="P8">
-        <f>$O8-O7</f>
+        <f t="shared" si="8"/>
         <v>1.4000000000000001</v>
       </c>
+      <c r="Z8" s="2">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>400000</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="10"/>
+        <v>170000</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD8" s="1">
+        <f t="shared" si="11"/>
+        <v>128</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>300000</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI8" s="1">
+        <f t="shared" si="13"/>
+        <v>64</v>
+      </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D9" s="1">
@@ -5109,51 +5355,83 @@
         <v>1800</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1050</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="J9">
         <v>250</v>
       </c>
       <c r="K9">
-        <f>$J9-$S$7+$R$7</f>
-        <v>170</v>
-      </c>
-      <c r="L9" s="8">
-        <f>IF($R$4+$R$7&gt;=$K9,100%,($R$4+$R$7)/$K9)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="1"/>
+        <v>0.87804878048780488</v>
       </c>
       <c r="M9">
         <v>1.2</v>
       </c>
       <c r="N9">
-        <f>$M9+$N8</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="O9">
-        <f>$C9*$C9/5</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="P9">
-        <f>$O9-O8</f>
+        <f t="shared" si="8"/>
         <v>1.7999999999999998</v>
       </c>
+      <c r="Z9" s="2">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>420000</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD9" s="1">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>420000</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI9" s="1">
+        <f t="shared" si="13"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D10" s="1">
@@ -5163,45 +5441,45 @@
         <v>3000</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1950</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="J10">
         <v>260</v>
       </c>
       <c r="K10">
-        <f>$J10-$S$7+$R$7</f>
-        <v>180</v>
-      </c>
-      <c r="L10" s="8">
-        <f>IF($R$4+$R$7&gt;=$K10,100%,($R$4+$R$7)/$K10)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M10">
         <v>1.4</v>
       </c>
       <c r="N10">
-        <f>$M10+$N9</f>
+        <f t="shared" si="6"/>
         <v>5.4</v>
       </c>
       <c r="O10">
-        <f>$C10*$C10/5</f>
+        <f t="shared" si="7"/>
         <v>7.2</v>
       </c>
       <c r="P10">
-        <f>$O10-O9</f>
+        <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="R10" t="s">
@@ -5210,10 +5488,42 @@
       <c r="S10" t="s">
         <v>18</v>
       </c>
+      <c r="Z10" s="2">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>560000</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="10"/>
+        <v>140000</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" si="11"/>
+        <v>192</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>560000</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI10" s="1">
+        <f t="shared" si="13"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="D11" s="1">
@@ -5223,57 +5533,89 @@
         <v>4800</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1400</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3350</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="J11">
         <v>270</v>
       </c>
       <c r="K11">
-        <f>$J11-$S$7+$R$7</f>
-        <v>190</v>
-      </c>
-      <c r="L11" s="8">
-        <f>IF($R$4+$R$7&gt;=$K11,100%,($R$4+$R$7)/$K11)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="1"/>
+        <v>0.83720930232558144</v>
       </c>
       <c r="M11">
         <v>1.6</v>
       </c>
       <c r="N11">
-        <f>$M11+$N10</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="O11">
-        <f>$C11*$C11/5</f>
+        <f t="shared" si="7"/>
         <v>9.8000000000000007</v>
       </c>
       <c r="P11">
-        <f>$O11-O10</f>
+        <f t="shared" si="8"/>
         <v>2.6000000000000005</v>
       </c>
       <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
         <v>0</v>
       </c>
-      <c r="S11">
-        <v>5</v>
+      <c r="Z11" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>500</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="10"/>
+        <v>-559500</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD11" s="1">
+        <f t="shared" si="11"/>
+        <v>224</v>
+      </c>
+      <c r="AF11" s="2">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>500</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI11" s="1">
+        <f t="shared" si="13"/>
+        <v>112</v>
       </c>
     </row>
-    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="D12" s="1">
@@ -5283,7 +5625,7 @@
         <v>7400</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2100</v>
       </c>
       <c r="G12" s="1">
@@ -5291,43 +5633,75 @@
         <v>5450</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>700</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="J12">
         <v>280</v>
       </c>
       <c r="K12">
-        <f>$J12-$S$7+$R$7</f>
-        <v>200</v>
-      </c>
-      <c r="L12" s="8">
-        <f>IF($R$4+$R$7&gt;=$K12,100%,($R$4+$R$7)/$K12)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="1"/>
+        <v>0.81818181818181823</v>
       </c>
       <c r="M12">
         <v>1.8</v>
       </c>
       <c r="N12">
-        <f>$M12+$N11</f>
+        <f t="shared" si="6"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="O12">
-        <f>$C12*$C12/5</f>
+        <f t="shared" si="7"/>
         <v>12.8</v>
       </c>
       <c r="P12">
-        <f>$O12-O11</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>650</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="1">
+        <f t="shared" si="11"/>
+        <v>256</v>
+      </c>
+      <c r="AF12" s="2">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>650</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI12" s="1">
+        <f t="shared" si="13"/>
+        <v>128</v>
+      </c>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="D13" s="1">
@@ -5337,51 +5711,83 @@
         <v>11050</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8450</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="J13">
         <v>290</v>
       </c>
       <c r="K13">
-        <f>$J13-$S$7+$R$7</f>
-        <v>210</v>
-      </c>
-      <c r="L13" s="8">
-        <f>IF($R$4+$R$7&gt;=$K13,100%,($R$4+$R$7)/$K13)</f>
-        <v>0.95238095238095233</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="M13">
         <v>2</v>
       </c>
       <c r="N13">
-        <f>$M13+$N12</f>
+        <f t="shared" si="6"/>
         <v>10.8</v>
       </c>
       <c r="O13">
-        <f>$C13*$C13/5</f>
+        <f t="shared" si="7"/>
         <v>16.2</v>
       </c>
       <c r="P13">
-        <f>$O13-O12</f>
+        <f t="shared" si="8"/>
         <v>3.3999999999999986</v>
       </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>800</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD13" s="1">
+        <f t="shared" si="11"/>
+        <v>288</v>
+      </c>
+      <c r="AF13" s="2">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>800</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI13" s="1">
+        <f t="shared" si="13"/>
+        <v>144</v>
+      </c>
     </row>
-    <row r="14" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="D14" s="1">
@@ -5391,51 +5797,84 @@
         <v>16000</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4150</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12600</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1150</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="J14">
         <v>300</v>
       </c>
       <c r="K14">
-        <f>$J14-$S$7+$R$7</f>
-        <v>220</v>
-      </c>
-      <c r="L14" s="8">
-        <f>IF($R$4+$R$7&gt;=$K14,100%,($R$4+$R$7)/$K14)</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="M14" s="12">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="1"/>
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="M14" s="10">
         <v>2.5</v>
       </c>
       <c r="N14">
-        <f>$M14+$N13</f>
+        <f t="shared" si="6"/>
         <v>13.3</v>
       </c>
       <c r="O14">
-        <f>$C14*$C14/5</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="P14">
-        <f>$O14-O13</f>
+        <f t="shared" si="8"/>
         <v>3.8000000000000007</v>
       </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD14" s="1">
+        <f t="shared" si="11"/>
+        <v>352</v>
+      </c>
+      <c r="AF14" s="2">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI14" s="1">
+        <f t="shared" si="13"/>
+        <v>160</v>
+      </c>
+      <c r="AJ14" s="11"/>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="D15" s="1">
@@ -5445,51 +5884,83 @@
         <v>22600</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5600</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18200</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1450</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="J15">
         <v>310</v>
       </c>
       <c r="K15">
-        <f>$J15-$S$7+$R$7</f>
-        <v>230</v>
-      </c>
-      <c r="L15" s="8">
-        <f>IF($R$4+$R$7&gt;=$K15,100%,($R$4+$R$7)/$K15)</f>
-        <v>0.86956521739130432</v>
+        <f t="shared" si="0"/>
+        <v>470</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="1"/>
+        <v>0.76595744680851063</v>
       </c>
       <c r="M15">
         <v>3</v>
       </c>
       <c r="N15">
-        <f>$M15+$N14</f>
+        <f t="shared" si="6"/>
         <v>16.3</v>
       </c>
       <c r="O15">
-        <f>$C15*$C15/5</f>
+        <f t="shared" si="7"/>
         <v>24.2</v>
       </c>
       <c r="P15">
-        <f>$O15-O14</f>
+        <f t="shared" si="8"/>
         <v>4.1999999999999993</v>
       </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD15" s="1">
+        <f t="shared" si="11"/>
+        <v>384</v>
+      </c>
+      <c r="AF15" s="2">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI15" s="1">
+        <f t="shared" si="13"/>
+        <v>176</v>
+      </c>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:39" x14ac:dyDescent="0.4">
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="D16" s="1">
@@ -5499,51 +5970,83 @@
         <v>31150</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7350</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25550</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1750</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="J16">
         <v>320</v>
       </c>
       <c r="K16">
-        <f>$J16-$S$7+$R$7</f>
-        <v>240</v>
-      </c>
-      <c r="L16" s="8">
-        <f>IF($R$4+$R$7&gt;=$K16,100%,($R$4+$R$7)/$K16)</f>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
       </c>
       <c r="M16">
         <v>3.5</v>
       </c>
       <c r="N16">
-        <f>$M16+$N15</f>
+        <f t="shared" si="6"/>
         <v>19.8</v>
       </c>
       <c r="O16">
-        <f>$C16*$C16/5</f>
+        <f t="shared" si="7"/>
         <v>28.8</v>
       </c>
       <c r="P16">
-        <f>$O16-O15</f>
+        <f t="shared" si="8"/>
         <v>4.6000000000000014</v>
       </c>
+      <c r="Z16" s="2">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>1400</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD16" s="1">
+        <f t="shared" si="11"/>
+        <v>416</v>
+      </c>
+      <c r="AF16" s="2">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>1400</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI16" s="1">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="D17" s="1">
@@ -5553,51 +6056,83 @@
         <v>42000</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9450</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35000</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2100</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="J17">
         <v>330</v>
       </c>
       <c r="K17">
-        <f>$J17-$S$7+$R$7</f>
-        <v>250</v>
-      </c>
-      <c r="L17" s="8">
-        <f>IF($R$4+$R$7&gt;=$K17,100%,($R$4+$R$7)/$K17)</f>
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="1"/>
+        <v>0.73469387755102045</v>
       </c>
       <c r="M17">
         <v>4</v>
       </c>
       <c r="N17">
-        <f>$M17+$N16</f>
+        <f t="shared" si="6"/>
         <v>23.8</v>
       </c>
       <c r="O17">
-        <f>$C17*$C17/5</f>
+        <f t="shared" si="7"/>
         <v>33.799999999999997</v>
       </c>
       <c r="P17">
-        <f>$O17-O16</f>
+        <f t="shared" si="8"/>
         <v>4.9999999999999964</v>
       </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>1650</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD17" s="1">
+        <f t="shared" si="11"/>
+        <v>448</v>
+      </c>
+      <c r="AF17" s="2">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>1650</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI17" s="1">
+        <f t="shared" si="13"/>
+        <v>208</v>
+      </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D18" s="1">
@@ -5607,51 +6142,83 @@
         <v>55600</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11950</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>46950</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="J18">
         <v>340</v>
       </c>
       <c r="K18">
-        <f>$J18-$S$7+$R$7</f>
-        <v>260</v>
-      </c>
-      <c r="L18" s="8">
-        <f>IF($R$4+$R$7&gt;=$K18,100%,($R$4+$R$7)/$K18)</f>
-        <v>0.76923076923076927</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="1"/>
+        <v>0.72</v>
       </c>
       <c r="M18">
         <v>4.5</v>
       </c>
       <c r="N18">
-        <f>$M18+$N17</f>
+        <f t="shared" si="6"/>
         <v>28.3</v>
       </c>
       <c r="O18">
-        <f>$C18*$C18/5</f>
+        <f t="shared" si="7"/>
         <v>39.200000000000003</v>
       </c>
       <c r="P18">
-        <f>$O18-O17</f>
+        <f t="shared" si="8"/>
         <v>5.4000000000000057</v>
       </c>
+      <c r="Z18" s="2">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>1900</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD18" s="1">
+        <f t="shared" si="11"/>
+        <v>480</v>
+      </c>
+      <c r="AF18" s="2">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>1900</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI18" s="1">
+        <f t="shared" si="13"/>
+        <v>224</v>
+      </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D19" s="1">
@@ -5661,51 +6228,83 @@
         <v>72350</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14850</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>61800</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2900</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="J19">
         <v>350</v>
       </c>
       <c r="K19">
-        <f>$J19-$S$7+$R$7</f>
-        <v>270</v>
-      </c>
-      <c r="L19" s="8">
-        <f>IF($R$4+$R$7&gt;=$K19,100%,($R$4+$R$7)/$K19)</f>
-        <v>0.7407407407407407</v>
+        <f t="shared" si="0"/>
+        <v>510</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="1"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="M19">
         <v>5</v>
       </c>
       <c r="N19">
-        <f>$M19+$N18</f>
+        <f t="shared" si="6"/>
         <v>33.299999999999997</v>
       </c>
       <c r="O19">
-        <f>$C19*$C19/5</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="P19">
-        <f>$O19-O18</f>
+        <f t="shared" si="8"/>
         <v>5.7999999999999972</v>
       </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>2200</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD19" s="1">
+        <f t="shared" si="11"/>
+        <v>512</v>
+      </c>
+      <c r="AF19" s="2">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>2200</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI19" s="1">
+        <f t="shared" si="13"/>
+        <v>240</v>
+      </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="D20" s="1">
@@ -5715,51 +6314,83 @@
         <v>92750</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18200</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80000</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3350</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="J20">
         <v>360</v>
       </c>
       <c r="K20">
-        <f>$J20-$S$7+$R$7</f>
-        <v>280</v>
-      </c>
-      <c r="L20" s="8">
-        <f>IF($R$4+$R$7&gt;=$K20,100%,($R$4+$R$7)/$K20)</f>
-        <v>0.7142857142857143</v>
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="1"/>
+        <v>0.69230769230769229</v>
       </c>
       <c r="M20">
         <v>5.5</v>
       </c>
       <c r="N20">
-        <f>$M20+$N19</f>
+        <f t="shared" si="6"/>
         <v>38.799999999999997</v>
       </c>
       <c r="O20">
-        <f>$C20*$C20/5</f>
+        <f t="shared" si="7"/>
         <v>51.2</v>
       </c>
       <c r="P20">
-        <f>$O20-O19</f>
+        <f t="shared" si="8"/>
         <v>6.2000000000000028</v>
       </c>
+      <c r="Z20" s="2">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="11"/>
+        <v>544</v>
+      </c>
+      <c r="AF20" s="2">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI20" s="1">
+        <f t="shared" si="13"/>
+        <v>256</v>
+      </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="D21" s="1">
@@ -5769,51 +6400,83 @@
         <v>117300</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22050</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>102050</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3850</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="J21">
         <v>370</v>
       </c>
       <c r="K21">
-        <f>$J21-$S$7+$R$7</f>
-        <v>290</v>
-      </c>
-      <c r="L21" s="8">
-        <f>IF($R$4+$R$7&gt;=$K21,100%,($R$4+$R$7)/$K21)</f>
-        <v>0.68965517241379315</v>
+        <f t="shared" si="0"/>
+        <v>530</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="1"/>
+        <v>0.67924528301886788</v>
       </c>
       <c r="M21">
         <v>6</v>
       </c>
       <c r="N21">
-        <f>$M21+$N20</f>
+        <f t="shared" si="6"/>
         <v>44.8</v>
       </c>
       <c r="O21">
-        <f>$C21*$C21/5</f>
+        <f t="shared" si="7"/>
         <v>57.8</v>
       </c>
       <c r="P21">
-        <f>$O21-O20</f>
+        <f t="shared" si="8"/>
         <v>6.5999999999999943</v>
       </c>
+      <c r="Z21" s="2">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD21" s="1">
+        <f t="shared" si="11"/>
+        <v>576</v>
+      </c>
+      <c r="AF21" s="2">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI21" s="1">
+        <f t="shared" si="13"/>
+        <v>272</v>
+      </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="D22" s="1">
@@ -5823,51 +6486,83 @@
         <v>146500</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26400</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>128450</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4350</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="J22">
         <v>380</v>
       </c>
       <c r="K22">
-        <f>$J22-$S$7+$R$7</f>
-        <v>300</v>
-      </c>
-      <c r="L22" s="8">
-        <f>IF($R$4+$R$7&gt;=$K22,100%,($R$4+$R$7)/$K22)</f>
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="M22">
         <v>6.5</v>
       </c>
       <c r="N22">
-        <f>$M22+$N21</f>
+        <f t="shared" si="6"/>
         <v>51.3</v>
       </c>
       <c r="O22">
-        <f>$C22*$C22/5</f>
+        <f t="shared" si="7"/>
         <v>64.8</v>
       </c>
       <c r="P22">
-        <f>$O22-O21</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
+      <c r="Z22" s="2">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>3100</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="11"/>
+        <v>608</v>
+      </c>
+      <c r="AF22" s="2">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>3100</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI22" s="1">
+        <f t="shared" si="13"/>
+        <v>288</v>
+      </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D23" s="1">
@@ -5877,51 +6572,83 @@
         <v>180900</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31300</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>159750</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4900</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="J23">
         <v>390</v>
       </c>
       <c r="K23">
-        <f>$J23-$S$7+$R$7</f>
-        <v>310</v>
-      </c>
-      <c r="L23" s="8">
-        <f>IF($R$4+$R$7&gt;=$K23,100%,($R$4+$R$7)/$K23)</f>
-        <v>0.64516129032258063</v>
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="1"/>
+        <v>0.65454545454545454</v>
       </c>
       <c r="M23">
         <v>7</v>
       </c>
       <c r="N23">
-        <f>$M23+$N22</f>
+        <f t="shared" si="6"/>
         <v>58.3</v>
       </c>
       <c r="O23">
-        <f>$C23*$C23/5</f>
+        <f t="shared" si="7"/>
         <v>72.2</v>
       </c>
       <c r="P23">
-        <f>$O23-O22</f>
+        <f t="shared" si="8"/>
         <v>7.4000000000000057</v>
       </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="9"/>
+        <v>19</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="10"/>
+        <v>300</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD23" s="1">
+        <f t="shared" si="11"/>
+        <v>640</v>
+      </c>
+      <c r="AF23" s="2">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI23" s="1">
+        <f t="shared" si="13"/>
+        <v>304</v>
+      </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D24" s="6">
@@ -5948,28 +6675,57 @@
       <c r="K24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="15">
         <v>0.7</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="10">
         <v>10</v>
       </c>
       <c r="N24">
-        <f>$M24+$N23</f>
+        <f t="shared" si="6"/>
         <v>68.3</v>
       </c>
       <c r="O24">
-        <f>$C24*$C24/5</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="P24">
-        <f>$O24-O23</f>
+        <f t="shared" si="8"/>
         <v>7.7999999999999972</v>
       </c>
+      <c r="Z24" s="2">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD24" s="1">
+        <f t="shared" si="11"/>
+        <v>704</v>
+      </c>
+      <c r="AF24" s="2">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AG24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI24" s="1">
+        <f t="shared" si="13"/>
+        <v>320</v>
+      </c>
+      <c r="AJ24" s="11"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="D25" s="1">
@@ -5997,32 +6753,32 @@
         <v>410</v>
       </c>
       <c r="K25">
-        <f>$J25-$S$7+$R$7</f>
-        <v>330</v>
-      </c>
-      <c r="L25" s="8">
-        <f>IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
-        <v>0.60606060606060608</v>
+        <f t="shared" ref="K25:K43" si="15">$J25-$S$7+$R$7</f>
+        <v>570</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" ref="L25:L43" si="16">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
+        <v>0.63157894736842102</v>
       </c>
       <c r="M25">
         <v>11</v>
       </c>
       <c r="N25">
-        <f>$M25+$N24</f>
+        <f t="shared" si="6"/>
         <v>79.3</v>
       </c>
       <c r="O25">
-        <f>$C25*$C25/5</f>
+        <f t="shared" si="7"/>
         <v>88.2</v>
       </c>
       <c r="P25">
-        <f>$O25-O24</f>
+        <f t="shared" si="8"/>
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="D26" s="1">
@@ -6032,11 +6788,11 @@
         <v>292000</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F43" si="5">E26-D25-E25</f>
+        <f t="shared" ref="F26:F43" si="17">E26-D25-E25</f>
         <v>37000</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G43" si="6">F26+G25</f>
+        <f t="shared" ref="G26:G43" si="18">F26+G25</f>
         <v>262450</v>
       </c>
       <c r="H26" s="1">
@@ -6051,32 +6807,32 @@
         <v>420</v>
       </c>
       <c r="K26">
-        <f>$J26-$S$7+$R$7</f>
-        <v>340</v>
-      </c>
-      <c r="L26" s="8">
-        <f>IF($R$4+$R$7&gt;=$K26,100%,($R$4+$R$7)/$K26)</f>
-        <v>0.58823529411764708</v>
+        <f t="shared" si="15"/>
+        <v>580</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="16"/>
+        <v>0.62068965517241381</v>
       </c>
       <c r="M26">
         <v>12</v>
       </c>
       <c r="N26">
-        <f>$M26+$N25</f>
+        <f t="shared" si="6"/>
         <v>91.3</v>
       </c>
       <c r="O26">
-        <f>$C26*$C26/5</f>
+        <f t="shared" si="7"/>
         <v>96.8</v>
       </c>
       <c r="P26">
-        <f>$O26-O25</f>
+        <f t="shared" si="8"/>
         <v>8.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="D27" s="1">
@@ -6086,51 +6842,51 @@
         <v>341200</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>43700</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>306150</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H43" si="7">F27-F26</f>
+        <f t="shared" ref="H27:H43" si="19">F27-F26</f>
         <v>6700</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:I43" si="8">H27-H26-I26</f>
+        <f t="shared" ref="I27:I43" si="20">H27-H26-I26</f>
         <v>500</v>
       </c>
       <c r="J27">
         <v>430</v>
       </c>
       <c r="K27">
-        <f>$J27-$S$7+$R$7</f>
-        <v>350</v>
-      </c>
-      <c r="L27" s="8">
-        <f>IF($R$4+$R$7&gt;=$K27,100%,($R$4+$R$7)/$K27)</f>
-        <v>0.5714285714285714</v>
+        <f t="shared" si="15"/>
+        <v>590</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="16"/>
+        <v>0.61016949152542377</v>
       </c>
       <c r="M27">
         <v>13</v>
       </c>
       <c r="N27">
-        <f>$M27+$N26</f>
+        <f t="shared" si="6"/>
         <v>104.3</v>
       </c>
       <c r="O27">
-        <f>$C27*$C27/5</f>
+        <f t="shared" si="7"/>
         <v>105.8</v>
       </c>
       <c r="P27">
-        <f>$O27-O26</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="D28" s="1">
@@ -6140,51 +6896,51 @@
         <v>398600</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>51400</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>357550</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7700</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>500</v>
       </c>
       <c r="J28">
         <v>440</v>
       </c>
       <c r="K28">
-        <f>$J28-$S$7+$R$7</f>
-        <v>360</v>
-      </c>
-      <c r="L28" s="8">
-        <f>IF($R$4+$R$7&gt;=$K28,100%,($R$4+$R$7)/$K28)</f>
-        <v>0.55555555555555558</v>
+        <f t="shared" si="15"/>
+        <v>600</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
       </c>
       <c r="M28">
         <v>14</v>
       </c>
       <c r="N28">
-        <f>$M28+$N27</f>
+        <f t="shared" si="6"/>
         <v>118.3</v>
       </c>
       <c r="O28">
-        <f>$C28*$C28/5</f>
+        <f t="shared" si="7"/>
         <v>115.2</v>
       </c>
       <c r="P28">
-        <f>$O28-O27</f>
+        <f t="shared" si="8"/>
         <v>9.4000000000000057</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="D29" s="1">
@@ -6194,51 +6950,51 @@
         <v>465300</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>60200</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>417750</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>8800</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>600</v>
       </c>
       <c r="J29">
         <v>450</v>
       </c>
       <c r="K29">
-        <f>$J29-$S$7+$R$7</f>
-        <v>370</v>
-      </c>
-      <c r="L29" s="8">
-        <f>IF($R$4+$R$7&gt;=$K29,100%,($R$4+$R$7)/$K29)</f>
-        <v>0.54054054054054057</v>
+        <f t="shared" si="15"/>
+        <v>610</v>
+      </c>
+      <c r="L29" s="14">
+        <f t="shared" si="16"/>
+        <v>0.5901639344262295</v>
       </c>
       <c r="M29">
         <v>15</v>
       </c>
       <c r="N29">
-        <f>$M29+$N28</f>
+        <f t="shared" si="6"/>
         <v>133.30000000000001</v>
       </c>
       <c r="O29">
-        <f>$C29*$C29/5</f>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="P29">
-        <f>$O29-O28</f>
+        <f t="shared" si="8"/>
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C30" s="2">
-        <f t="shared" ref="C30:C54" si="9">C29+1</f>
+        <f t="shared" ref="C30:C54" si="21">C29+1</f>
         <v>26</v>
       </c>
       <c r="D30" s="1">
@@ -6248,51 +7004,51 @@
         <v>542500</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>70200</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>487950</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>10000</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>600</v>
       </c>
       <c r="J30">
         <v>460</v>
       </c>
       <c r="K30">
-        <f>$J30-$S$7+$R$7</f>
-        <v>380</v>
-      </c>
-      <c r="L30" s="8">
-        <f>IF($R$4+$R$7&gt;=$K30,100%,($R$4+$R$7)/$K30)</f>
-        <v>0.52631578947368418</v>
+        <f t="shared" si="15"/>
+        <v>620</v>
+      </c>
+      <c r="L30" s="14">
+        <f t="shared" si="16"/>
+        <v>0.58064516129032262</v>
       </c>
       <c r="M30">
         <v>16</v>
       </c>
       <c r="N30">
-        <f>$M30+$N29</f>
+        <f t="shared" si="6"/>
         <v>149.30000000000001</v>
       </c>
       <c r="O30">
-        <f>$C30*$C30/5</f>
+        <f t="shared" si="7"/>
         <v>135.19999999999999</v>
       </c>
       <c r="P30">
-        <f>$O30-O29</f>
+        <f t="shared" si="8"/>
         <v>10.199999999999989</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>27</v>
       </c>
       <c r="D31" s="1">
@@ -6302,51 +7058,51 @@
         <v>631600</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>81400</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>569350</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>11200</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>600</v>
       </c>
       <c r="J31">
         <v>470</v>
       </c>
       <c r="K31">
-        <f>$J31-$S$7+$R$7</f>
-        <v>390</v>
-      </c>
-      <c r="L31" s="8">
-        <f>IF($R$4+$R$7&gt;=$K31,100%,($R$4+$R$7)/$K31)</f>
-        <v>0.51282051282051277</v>
+        <f t="shared" si="15"/>
+        <v>630</v>
+      </c>
+      <c r="L31" s="14">
+        <f t="shared" si="16"/>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M31">
         <v>17</v>
       </c>
       <c r="N31">
-        <f>$M31+$N30</f>
+        <f t="shared" si="6"/>
         <v>166.3</v>
       </c>
       <c r="O31">
-        <f>$C31*$C31/5</f>
+        <f t="shared" si="7"/>
         <v>145.80000000000001</v>
       </c>
       <c r="P31">
-        <f>$O31-O30</f>
+        <f t="shared" si="8"/>
         <v>10.600000000000023</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:36" x14ac:dyDescent="0.4">
       <c r="C32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="D32" s="1">
@@ -6356,51 +7112,51 @@
         <v>733900</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>93900</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>663250</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>12500</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>700</v>
       </c>
       <c r="J32">
         <v>480</v>
       </c>
       <c r="K32">
-        <f>$J32-$S$7+$R$7</f>
-        <v>400</v>
-      </c>
-      <c r="L32" s="8">
-        <f>IF($R$4+$R$7&gt;=$K32,100%,($R$4+$R$7)/$K32)</f>
-        <v>0.5</v>
+        <f t="shared" si="15"/>
+        <v>640</v>
+      </c>
+      <c r="L32" s="14">
+        <f t="shared" si="16"/>
+        <v>0.5625</v>
       </c>
       <c r="M32">
         <v>18</v>
       </c>
       <c r="N32">
-        <f>$M32+$N31</f>
+        <f t="shared" si="6"/>
         <v>184.3</v>
       </c>
       <c r="O32">
-        <f>$C32*$C32/5</f>
+        <f t="shared" si="7"/>
         <v>156.80000000000001</v>
       </c>
       <c r="P32">
-        <f>$O32-O31</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>29</v>
       </c>
       <c r="D33" s="1">
@@ -6410,51 +7166,51 @@
         <v>850900</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>107800</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>771050</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>13900</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>700</v>
       </c>
       <c r="J33">
         <v>490</v>
       </c>
       <c r="K33">
-        <f>$J33-$S$7+$R$7</f>
-        <v>410</v>
-      </c>
-      <c r="L33" s="8">
-        <f>IF($R$4+$R$7&gt;=$K33,100%,($R$4+$R$7)/$K33)</f>
-        <v>0.48780487804878048</v>
+        <f t="shared" si="15"/>
+        <v>650</v>
+      </c>
+      <c r="L33" s="14">
+        <f t="shared" si="16"/>
+        <v>0.55384615384615388</v>
       </c>
       <c r="M33">
         <v>19</v>
       </c>
       <c r="N33">
-        <f>$M33+$N32</f>
+        <f t="shared" si="6"/>
         <v>203.3</v>
       </c>
       <c r="O33">
-        <f>$C33*$C33/5</f>
+        <f t="shared" si="7"/>
         <v>168.2</v>
       </c>
       <c r="P33">
-        <f>$O33-O32</f>
+        <f t="shared" si="8"/>
         <v>11.399999999999977</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="D34" s="1">
@@ -6464,51 +7220,51 @@
         <v>984000</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>123100</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>894150</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>15300</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>700</v>
       </c>
       <c r="J34">
         <v>500</v>
       </c>
       <c r="K34">
-        <f>$J34-$S$7+$R$7</f>
-        <v>420</v>
-      </c>
-      <c r="L34" s="8">
-        <f>IF($R$4+$R$7&gt;=$K34,100%,($R$4+$R$7)/$K34)</f>
-        <v>0.47619047619047616</v>
-      </c>
-      <c r="M34" s="12">
+        <f t="shared" si="15"/>
+        <v>660</v>
+      </c>
+      <c r="L34" s="14">
+        <f t="shared" si="16"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="M34" s="10">
         <v>20</v>
       </c>
       <c r="N34">
-        <f>$M34+$N33</f>
+        <f t="shared" si="6"/>
         <v>223.3</v>
       </c>
       <c r="O34">
-        <f>$C34*$C34/5</f>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="P34">
-        <f>$O34-O33</f>
+        <f t="shared" si="8"/>
         <v>11.800000000000011</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>31</v>
       </c>
       <c r="D35" s="1">
@@ -6518,51 +7274,51 @@
         <v>1134700</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>139900</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1034050</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>16800</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>800</v>
       </c>
       <c r="J35">
         <v>510</v>
       </c>
       <c r="K35">
-        <f>$J35-$S$7+$R$7</f>
-        <v>430</v>
-      </c>
-      <c r="L35" s="8">
-        <f>IF($R$4+$R$7&gt;=$K35,100%,($R$4+$R$7)/$K35)</f>
-        <v>0.46511627906976744</v>
+        <f t="shared" si="15"/>
+        <v>670</v>
+      </c>
+      <c r="L35" s="14">
+        <f t="shared" si="16"/>
+        <v>0.53731343283582089</v>
       </c>
       <c r="M35">
         <v>22</v>
       </c>
       <c r="N35">
-        <f>$M35+$N34</f>
+        <f t="shared" si="6"/>
         <v>245.3</v>
       </c>
       <c r="O35">
-        <f>$C35*$C35/5</f>
+        <f t="shared" si="7"/>
         <v>192.2</v>
       </c>
       <c r="P35">
-        <f>$O35-O34</f>
+        <f t="shared" si="8"/>
         <v>12.199999999999989</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="D36" s="1">
@@ -6572,51 +7328,51 @@
         <v>1304600</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>158300</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1192350</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>18400</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>800</v>
       </c>
       <c r="J36">
         <v>520</v>
       </c>
       <c r="K36">
-        <f>$J36-$S$7+$R$7</f>
-        <v>440</v>
-      </c>
-      <c r="L36" s="8">
-        <f>IF($R$4+$R$7&gt;=$K36,100%,($R$4+$R$7)/$K36)</f>
-        <v>0.45454545454545453</v>
+        <f t="shared" si="15"/>
+        <v>680</v>
+      </c>
+      <c r="L36" s="14">
+        <f t="shared" si="16"/>
+        <v>0.52941176470588236</v>
       </c>
       <c r="M36">
         <v>24</v>
       </c>
       <c r="N36">
-        <f>$M36+$N35</f>
+        <f t="shared" si="6"/>
         <v>269.3</v>
       </c>
       <c r="O36">
-        <f>$C36*$C36/5</f>
+        <f t="shared" si="7"/>
         <v>204.8</v>
       </c>
       <c r="P36">
-        <f>$O36-O35</f>
+        <f t="shared" si="8"/>
         <v>12.600000000000023</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="D37" s="1">
@@ -6626,51 +7382,51 @@
         <v>1495400</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>178300</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1370650</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>20000</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>800</v>
       </c>
       <c r="J37">
         <v>530</v>
       </c>
       <c r="K37">
-        <f>$J37-$S$7+$R$7</f>
-        <v>450</v>
-      </c>
-      <c r="L37" s="8">
-        <f>IF($R$4+$R$7&gt;=$K37,100%,($R$4+$R$7)/$K37)</f>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="15"/>
+        <v>690</v>
+      </c>
+      <c r="L37" s="14">
+        <f t="shared" si="16"/>
+        <v>0.52173913043478259</v>
       </c>
       <c r="M37">
         <v>26</v>
       </c>
       <c r="N37">
-        <f>$M37+$N36</f>
+        <f t="shared" ref="N37:N54" si="22">$M37+$N36</f>
         <v>295.3</v>
       </c>
       <c r="O37">
-        <f>$C37*$C37/5</f>
+        <f t="shared" ref="O37:O54" si="23">$C37*$C37/5</f>
         <v>217.8</v>
       </c>
       <c r="P37">
-        <f>$O37-O36</f>
+        <f t="shared" ref="P37:P54" si="24">$O37-O36</f>
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>34</v>
       </c>
       <c r="D38" s="1">
@@ -6680,51 +7436,51 @@
         <v>1708800</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>200000</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1570650</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>21700</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>900</v>
       </c>
       <c r="J38">
         <v>540</v>
       </c>
       <c r="K38">
-        <f>$J38-$S$7+$R$7</f>
-        <v>460</v>
-      </c>
-      <c r="L38" s="8">
-        <f>IF($R$4+$R$7&gt;=$K38,100%,($R$4+$R$7)/$K38)</f>
-        <v>0.43478260869565216</v>
+        <f t="shared" si="15"/>
+        <v>700</v>
+      </c>
+      <c r="L38" s="14">
+        <f t="shared" si="16"/>
+        <v>0.51428571428571423</v>
       </c>
       <c r="M38">
         <v>28</v>
       </c>
       <c r="N38">
-        <f>$M38+$N37</f>
+        <f t="shared" si="22"/>
         <v>323.3</v>
       </c>
       <c r="O38">
-        <f>$C38*$C38/5</f>
+        <f t="shared" si="23"/>
         <v>231.2</v>
       </c>
       <c r="P38">
-        <f>$O38-O37</f>
+        <f t="shared" si="24"/>
         <v>13.399999999999977</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="D39" s="1">
@@ -6734,51 +7490,51 @@
         <v>1946600</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>223500</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1794150</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>23500</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>900</v>
       </c>
       <c r="J39">
         <v>550</v>
       </c>
       <c r="K39">
-        <f>$J39-$S$7+$R$7</f>
-        <v>470</v>
-      </c>
-      <c r="L39" s="8">
-        <f>IF($R$4+$R$7&gt;=$K39,100%,($R$4+$R$7)/$K39)</f>
-        <v>0.42553191489361702</v>
+        <f t="shared" si="15"/>
+        <v>710</v>
+      </c>
+      <c r="L39" s="14">
+        <f t="shared" si="16"/>
+        <v>0.50704225352112675</v>
       </c>
       <c r="M39">
         <v>30</v>
       </c>
       <c r="N39">
-        <f>$M39+$N38</f>
+        <f t="shared" si="22"/>
         <v>353.3</v>
       </c>
       <c r="O39">
-        <f>$C39*$C39/5</f>
+        <f t="shared" si="23"/>
         <v>245</v>
       </c>
       <c r="P39">
-        <f>$O39-O38</f>
+        <f t="shared" si="24"/>
         <v>13.800000000000011</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C40" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="D40" s="1">
@@ -6788,51 +7544,51 @@
         <v>2210700</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>248800</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2042950</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>25300</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>900</v>
       </c>
       <c r="J40">
         <v>560</v>
       </c>
       <c r="K40">
-        <f>$J40-$S$7+$R$7</f>
-        <v>480</v>
-      </c>
-      <c r="L40" s="8">
-        <f>IF($R$4+$R$7&gt;=$K40,100%,($R$4+$R$7)/$K40)</f>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="15"/>
+        <v>720</v>
+      </c>
+      <c r="L40" s="14">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
       </c>
       <c r="M40">
         <v>32</v>
       </c>
       <c r="N40">
-        <f>$M40+$N39</f>
+        <f t="shared" si="22"/>
         <v>385.3</v>
       </c>
       <c r="O40">
-        <f>$C40*$C40/5</f>
+        <f t="shared" si="23"/>
         <v>259.2</v>
       </c>
       <c r="P40">
-        <f>$O40-O39</f>
+        <f t="shared" si="24"/>
         <v>14.199999999999989</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C41" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="D41" s="1">
@@ -6842,51 +7598,51 @@
         <v>2503000</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>276000</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2318950</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>27200</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="J41">
         <v>570</v>
       </c>
       <c r="K41">
-        <f>$J41-$S$7+$R$7</f>
-        <v>490</v>
-      </c>
-      <c r="L41" s="8">
-        <f>IF($R$4+$R$7&gt;=$K41,100%,($R$4+$R$7)/$K41)</f>
-        <v>0.40816326530612246</v>
+        <f t="shared" si="15"/>
+        <v>730</v>
+      </c>
+      <c r="L41" s="14">
+        <f t="shared" si="16"/>
+        <v>0.49315068493150682</v>
       </c>
       <c r="M41">
         <v>34</v>
       </c>
       <c r="N41">
-        <f>$M41+$N40</f>
+        <f t="shared" si="22"/>
         <v>419.3</v>
       </c>
       <c r="O41">
-        <f>$C41*$C41/5</f>
+        <f t="shared" si="23"/>
         <v>273.8</v>
       </c>
       <c r="P41">
-        <f>$O41-O40</f>
+        <f t="shared" si="24"/>
         <v>14.600000000000023</v>
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C42" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>38</v>
       </c>
       <c r="D42" s="1">
@@ -6896,51 +7652,51 @@
         <v>2825500</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>305200</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2624150</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>29200</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="J42">
         <v>580</v>
       </c>
       <c r="K42">
-        <f>$J42-$S$7+$R$7</f>
-        <v>500</v>
-      </c>
-      <c r="L42" s="8">
-        <f>IF($R$4+$R$7&gt;=$K42,100%,($R$4+$R$7)/$K42)</f>
-        <v>0.4</v>
+        <f t="shared" si="15"/>
+        <v>740</v>
+      </c>
+      <c r="L42" s="14">
+        <f t="shared" si="16"/>
+        <v>0.48648648648648651</v>
       </c>
       <c r="M42">
         <v>36</v>
       </c>
       <c r="N42">
-        <f>$M42+$N41</f>
+        <f t="shared" si="22"/>
         <v>455.3</v>
       </c>
       <c r="O42">
-        <f>$C42*$C42/5</f>
+        <f t="shared" si="23"/>
         <v>288.8</v>
       </c>
       <c r="P42">
-        <f>$O42-O41</f>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C43" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="D43" s="1">
@@ -6950,51 +7706,51 @@
         <v>3180300</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>336400</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2960550</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>31200</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>1000</v>
       </c>
       <c r="J43">
         <v>590</v>
       </c>
       <c r="K43">
-        <f>$J43-$S$7+$R$7</f>
-        <v>510</v>
-      </c>
-      <c r="L43" s="8">
-        <f>IF($R$4+$R$7&gt;=$K43,100%,($R$4+$R$7)/$K43)</f>
-        <v>0.39215686274509803</v>
+        <f t="shared" si="15"/>
+        <v>750</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" si="16"/>
+        <v>0.48</v>
       </c>
       <c r="M43">
         <v>38</v>
       </c>
       <c r="N43">
-        <f>$M43+$N42</f>
+        <f t="shared" si="22"/>
         <v>493.3</v>
       </c>
       <c r="O43">
-        <f>$C43*$C43/5</f>
+        <f t="shared" si="23"/>
         <v>304.2</v>
       </c>
       <c r="P43">
-        <f>$O43-O42</f>
+        <f t="shared" si="24"/>
         <v>15.399999999999977</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="D44" s="6">
@@ -7021,28 +7777,28 @@
       <c r="K44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="15">
         <v>0.5</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="10">
         <v>50</v>
       </c>
       <c r="N44">
-        <f>$M44+$N43</f>
+        <f t="shared" si="22"/>
         <v>543.29999999999995</v>
       </c>
       <c r="O44">
-        <f>$C44*$C44/5</f>
+        <f t="shared" si="23"/>
         <v>320</v>
       </c>
       <c r="P44">
-        <f>$O44-O43</f>
+        <f t="shared" si="24"/>
         <v>15.800000000000011</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>41</v>
       </c>
       <c r="D45" s="1">
@@ -7070,32 +7826,32 @@
         <v>620</v>
       </c>
       <c r="K45">
-        <f>$J45-$S$7+$R$7</f>
-        <v>540</v>
-      </c>
-      <c r="L45" s="8">
-        <f>IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
-        <v>0.37037037037037035</v>
+        <f t="shared" ref="K45:K54" si="25">$J45-$S$7+$R$7</f>
+        <v>780</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" ref="L45:L54" si="26">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
+        <v>0.46153846153846156</v>
       </c>
       <c r="M45">
         <v>55</v>
       </c>
       <c r="N45">
-        <f>$M45+$N44</f>
+        <f t="shared" si="22"/>
         <v>598.29999999999995</v>
       </c>
       <c r="O45">
-        <f>$C45*$C45/5</f>
+        <f t="shared" si="23"/>
         <v>336.2</v>
       </c>
       <c r="P45">
-        <f>$O45-O44</f>
+        <f t="shared" si="24"/>
         <v>16.199999999999989</v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
       <c r="D46" s="1">
@@ -7105,11 +7861,11 @@
         <v>4200100</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:F54" si="10">E46-D45-E45</f>
+        <f t="shared" ref="F46:F54" si="27">E46-D45-E45</f>
         <v>370100</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ref="G46:G54" si="11">F46+G45</f>
+        <f t="shared" ref="G46:G54" si="28">F46+G45</f>
         <v>3930850</v>
       </c>
       <c r="H46" s="1">
@@ -7124,32 +7880,32 @@
         <v>640</v>
       </c>
       <c r="K46">
-        <f>$J46-$S$7+$R$7</f>
-        <v>560</v>
-      </c>
-      <c r="L46" s="8">
-        <f>IF($R$4+$R$7&gt;=$K46,100%,($R$4+$R$7)/$K46)</f>
-        <v>0.35714285714285715</v>
+        <f t="shared" si="25"/>
+        <v>800</v>
+      </c>
+      <c r="L46" s="14">
+        <f t="shared" si="26"/>
+        <v>0.45</v>
       </c>
       <c r="M46">
         <v>60</v>
       </c>
       <c r="N46">
-        <f>$M46+$N45</f>
+        <f t="shared" si="22"/>
         <v>658.3</v>
       </c>
       <c r="O46">
-        <f>$C46*$C46/5</f>
+        <f t="shared" si="23"/>
         <v>352.8</v>
       </c>
       <c r="P46">
-        <f>$O46-O45</f>
+        <f t="shared" si="24"/>
         <v>16.600000000000023</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>43</v>
       </c>
       <c r="D47" s="1">
@@ -7159,51 +7915,51 @@
         <v>4640000</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>406900</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>4337750</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:H54" si="12">F47-F46</f>
+        <f t="shared" ref="H47:H54" si="29">F47-F46</f>
         <v>36800</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ref="I47:I54" si="13">H47-H46-I46</f>
+        <f t="shared" ref="I47:I54" si="30">H47-H46-I46</f>
         <v>1600</v>
       </c>
       <c r="J47">
         <v>660</v>
       </c>
       <c r="K47">
-        <f>$J47-$S$7+$R$7</f>
-        <v>580</v>
-      </c>
-      <c r="L47" s="8">
-        <f>IF($R$4+$R$7&gt;=$K47,100%,($R$4+$R$7)/$K47)</f>
-        <v>0.34482758620689657</v>
+        <f t="shared" si="25"/>
+        <v>820</v>
+      </c>
+      <c r="L47" s="14">
+        <f t="shared" si="26"/>
+        <v>0.43902439024390244</v>
       </c>
       <c r="M47">
         <v>65</v>
       </c>
       <c r="N47">
-        <f>$M47+$N46</f>
+        <f t="shared" si="22"/>
         <v>723.3</v>
       </c>
       <c r="O47">
-        <f>$C47*$C47/5</f>
+        <f t="shared" si="23"/>
         <v>369.8</v>
       </c>
       <c r="P47">
-        <f>$O47-O46</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C48" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
       <c r="D48" s="1">
@@ -7213,51 +7969,51 @@
         <v>5123000</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>447000</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>4784750</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>40100</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>1700</v>
       </c>
       <c r="J48">
         <v>680</v>
       </c>
       <c r="K48">
-        <f>$J48-$S$7+$R$7</f>
-        <v>600</v>
-      </c>
-      <c r="L48" s="8">
-        <f>IF($R$4+$R$7&gt;=$K48,100%,($R$4+$R$7)/$K48)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="25"/>
+        <v>840</v>
+      </c>
+      <c r="L48" s="14">
+        <f t="shared" si="26"/>
+        <v>0.42857142857142855</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <f>$M48+$N47</f>
+        <f t="shared" si="22"/>
         <v>793.3</v>
       </c>
       <c r="O48">
-        <f>$C48*$C48/5</f>
+        <f t="shared" si="23"/>
         <v>387.2</v>
       </c>
       <c r="P48">
-        <f>$O48-O47</f>
+        <f t="shared" si="24"/>
         <v>17.399999999999977</v>
       </c>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C49" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>45</v>
       </c>
       <c r="D49" s="1">
@@ -7267,51 +8023,51 @@
         <v>5652600</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>490600</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>5275350</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>43600</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>1800</v>
       </c>
       <c r="J49">
         <v>700</v>
       </c>
       <c r="K49">
-        <f>$J49-$S$7+$R$7</f>
-        <v>620</v>
-      </c>
-      <c r="L49" s="8">
-        <f>IF($R$4+$R$7&gt;=$K49,100%,($R$4+$R$7)/$K49)</f>
-        <v>0.32258064516129031</v>
+        <f t="shared" si="25"/>
+        <v>860</v>
+      </c>
+      <c r="L49" s="14">
+        <f t="shared" si="26"/>
+        <v>0.41860465116279072</v>
       </c>
       <c r="M49">
         <v>75</v>
       </c>
       <c r="N49">
-        <f>$M49+$N48</f>
+        <f t="shared" si="22"/>
         <v>868.3</v>
       </c>
       <c r="O49">
-        <f>$C49*$C49/5</f>
+        <f t="shared" si="23"/>
         <v>405</v>
       </c>
       <c r="P49">
-        <f>$O49-O48</f>
+        <f t="shared" si="24"/>
         <v>17.800000000000011</v>
       </c>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C50" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>46</v>
       </c>
       <c r="D50" s="1">
@@ -7321,51 +8077,51 @@
         <v>6232500</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>537900</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>5813250</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>47300</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>1900</v>
       </c>
       <c r="J50">
         <v>720</v>
       </c>
       <c r="K50">
-        <f>$J50-$S$7+$R$7</f>
-        <v>640</v>
-      </c>
-      <c r="L50" s="8">
-        <f>IF($R$4+$R$7&gt;=$K50,100%,($R$4+$R$7)/$K50)</f>
-        <v>0.3125</v>
+        <f t="shared" si="25"/>
+        <v>880</v>
+      </c>
+      <c r="L50" s="14">
+        <f t="shared" si="26"/>
+        <v>0.40909090909090912</v>
       </c>
       <c r="M50">
         <v>80</v>
       </c>
       <c r="N50">
-        <f>$M50+$N49</f>
+        <f t="shared" si="22"/>
         <v>948.3</v>
       </c>
       <c r="O50">
-        <f>$C50*$C50/5</f>
+        <f t="shared" si="23"/>
         <v>423.2</v>
       </c>
       <c r="P50">
-        <f>$O50-O49</f>
+        <f t="shared" si="24"/>
         <v>18.199999999999989</v>
       </c>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C51" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="D51" s="1">
@@ -7375,51 +8131,51 @@
         <v>6866600</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>589100</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>6402350</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>51200</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>2000</v>
       </c>
       <c r="J51">
         <v>740</v>
       </c>
       <c r="K51">
-        <f>$J51-$S$7+$R$7</f>
-        <v>660</v>
-      </c>
-      <c r="L51" s="8">
-        <f>IF($R$4+$R$7&gt;=$K51,100%,($R$4+$R$7)/$K51)</f>
-        <v>0.30303030303030304</v>
+        <f t="shared" si="25"/>
+        <v>900</v>
+      </c>
+      <c r="L51" s="14">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
       </c>
       <c r="M51">
         <v>85</v>
       </c>
       <c r="N51">
-        <f>$M51+$N50</f>
+        <f t="shared" si="22"/>
         <v>1033.3</v>
       </c>
       <c r="O51">
-        <f>$C51*$C51/5</f>
+        <f t="shared" si="23"/>
         <v>441.8</v>
       </c>
       <c r="P51">
-        <f>$O51-O50</f>
+        <f t="shared" si="24"/>
         <v>18.600000000000023</v>
       </c>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C52" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="D52" s="1">
@@ -7429,51 +8185,51 @@
         <v>7561000</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>644400</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>7046750</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>55300</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>2100</v>
       </c>
       <c r="J52">
         <v>760</v>
       </c>
       <c r="K52">
-        <f>$J52-$S$7+$R$7</f>
-        <v>680</v>
-      </c>
-      <c r="L52" s="8">
-        <f>IF($R$4+$R$7&gt;=$K52,100%,($R$4+$R$7)/$K52)</f>
-        <v>0.29411764705882354</v>
+        <f t="shared" si="25"/>
+        <v>920</v>
+      </c>
+      <c r="L52" s="14">
+        <f t="shared" si="26"/>
+        <v>0.39130434782608697</v>
       </c>
       <c r="M52">
         <v>90</v>
       </c>
       <c r="N52">
-        <f>$M52+$N51</f>
+        <f t="shared" si="22"/>
         <v>1123.3</v>
       </c>
       <c r="O52">
-        <f>$C52*$C52/5</f>
+        <f t="shared" si="23"/>
         <v>460.8</v>
       </c>
       <c r="P52">
-        <f>$O52-O51</f>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C53" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>49</v>
       </c>
       <c r="D53" s="1">
@@ -7483,51 +8239,51 @@
         <v>8320000</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>704000</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>7750750</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>59600</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>2200</v>
       </c>
       <c r="J53">
         <v>780</v>
       </c>
       <c r="K53">
-        <f>$J53-$S$7+$R$7</f>
-        <v>700</v>
-      </c>
-      <c r="L53" s="8">
-        <f>IF($R$4+$R$7&gt;=$K53,100%,($R$4+$R$7)/$K53)</f>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="25"/>
+        <v>940</v>
+      </c>
+      <c r="L53" s="14">
+        <f t="shared" si="26"/>
+        <v>0.38297872340425532</v>
       </c>
       <c r="M53">
         <v>95</v>
       </c>
       <c r="N53">
-        <f>$M53+$N52</f>
+        <f t="shared" si="22"/>
         <v>1218.3</v>
       </c>
       <c r="O53">
-        <f>$C53*$C53/5</f>
+        <f t="shared" si="23"/>
         <v>480.2</v>
       </c>
       <c r="P53">
-        <f>$O53-O52</f>
+        <f t="shared" si="24"/>
         <v>19.399999999999977</v>
       </c>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C54" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="D54" s="1">
@@ -7537,52 +8293,52 @@
         <v>9148100</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>768100</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>8518850</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>64100</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>2300</v>
       </c>
       <c r="J54">
         <v>800</v>
       </c>
       <c r="K54">
-        <f>$J54-$S$7+$R$7</f>
-        <v>720</v>
-      </c>
-      <c r="L54" s="8">
-        <f>IF($R$4+$R$7&gt;=$K54,100%,($R$4+$R$7)/$K54)</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="M54" s="12">
+        <f t="shared" si="25"/>
+        <v>960</v>
+      </c>
+      <c r="L54" s="14">
+        <f t="shared" si="26"/>
+        <v>0.375</v>
+      </c>
+      <c r="M54" s="10">
         <v>100</v>
       </c>
       <c r="N54">
-        <f>$M54+$N53</f>
+        <f t="shared" si="22"/>
         <v>1318.3</v>
       </c>
       <c r="O54">
-        <f>$C54*$C54/5</f>
+        <f t="shared" si="23"/>
         <v>500</v>
       </c>
       <c r="P54">
-        <f>$O54-O53</f>
+        <f t="shared" si="24"/>
         <v>19.800000000000011</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4:C23 C25:C29">
-    <cfRule type="colorScale" priority="195">
+    <cfRule type="colorScale" priority="242">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7592,7 +8348,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G23 G25:G29">
-    <cfRule type="colorScale" priority="193">
+    <cfRule type="colorScale" priority="240">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7602,7 +8358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F23 F25:F29">
-    <cfRule type="colorScale" priority="192">
+    <cfRule type="colorScale" priority="239">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7612,242 +8368,242 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="96" priority="191" operator="lessThan">
+    <cfRule type="cellIs" dxfId="96" priority="238" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="95" priority="166" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="213" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="94" priority="165" operator="lessThan">
+    <cfRule type="cellIs" dxfId="94" priority="212" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="93" priority="164" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="211" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="92" priority="163" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="210" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="91" priority="162" operator="lessThan">
+    <cfRule type="cellIs" dxfId="91" priority="209" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="90" priority="161" operator="lessThan">
+    <cfRule type="cellIs" dxfId="90" priority="208" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="89" priority="160" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="207" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="88" priority="159" operator="lessThan">
+    <cfRule type="cellIs" dxfId="88" priority="206" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="87" priority="158" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="205" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="86" priority="157" operator="lessThan">
+    <cfRule type="cellIs" dxfId="86" priority="204" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="85" priority="156" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="203" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="84" priority="155" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="202" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="83" priority="154" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="201" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="82" priority="153" operator="lessThan">
+    <cfRule type="cellIs" dxfId="82" priority="200" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="81" priority="152" operator="lessThan">
+    <cfRule type="cellIs" dxfId="81" priority="199" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="80" priority="151" operator="lessThan">
+    <cfRule type="cellIs" dxfId="80" priority="198" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="79" priority="150" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="197" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="78" priority="149" operator="lessThan">
+    <cfRule type="cellIs" dxfId="78" priority="196" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="77" priority="147" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="194" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="76" priority="146" operator="lessThan">
+    <cfRule type="cellIs" dxfId="76" priority="193" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="75" priority="145" operator="lessThan">
+    <cfRule type="cellIs" dxfId="75" priority="192" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="74" priority="144" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="191" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="73" priority="143" operator="lessThan">
+    <cfRule type="cellIs" dxfId="73" priority="190" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="72" priority="141" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="188" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="71" priority="93" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="140" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="70" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="139" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="69" priority="91" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="138" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="68" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="137" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="67" priority="89" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="136" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="66" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="135" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="65" priority="87" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="134" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="64" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="133" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="63" priority="85" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="132" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="62" priority="84" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="131" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="61" priority="83" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="130" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="60" priority="82" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="129" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="59" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="128" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="58" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="127" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="57" priority="79" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="126" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="56" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="125" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="55" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="124" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="54" priority="75" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="122" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="53" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="121" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" dxfId="52" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="120" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" dxfId="51" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="119" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" dxfId="50" priority="71" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="118" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30:C34">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="117">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7857,7 +8613,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G34">
-    <cfRule type="colorScale" priority="69">
+    <cfRule type="colorScale" priority="116">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7867,7 +8623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F34">
-    <cfRule type="colorScale" priority="68">
+    <cfRule type="colorScale" priority="115">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7877,57 +8633,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="49" priority="67" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="114" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="48" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="113" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="47" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="112" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="46" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="111" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="45" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="110" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30">
-    <cfRule type="cellIs" dxfId="44" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="109" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31">
-    <cfRule type="cellIs" dxfId="43" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="108" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="cellIs" dxfId="42" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="107" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="41" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="106" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="40" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="105" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:C39">
-    <cfRule type="colorScale" priority="57">
+    <cfRule type="colorScale" priority="104">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7937,7 +8693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:G39">
-    <cfRule type="colorScale" priority="56">
+    <cfRule type="colorScale" priority="103">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7947,7 +8703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F39">
-    <cfRule type="colorScale" priority="55">
+    <cfRule type="colorScale" priority="102">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -7957,57 +8713,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="39" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="101" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="38" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="100" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="37" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="99" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="98" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="97" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="34" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="96" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="33" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="95" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="32" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="94" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="31" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="93" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="30" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="92" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:C44">
-    <cfRule type="colorScale" priority="44">
+    <cfRule type="colorScale" priority="91">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8017,7 +8773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:G43">
-    <cfRule type="colorScale" priority="43">
+    <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8027,7 +8783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F43">
-    <cfRule type="colorScale" priority="42">
+    <cfRule type="colorScale" priority="89">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8037,47 +8793,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="88" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="28" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="87" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="27" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="86" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="26" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="85" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="25" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="83" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="24" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="82" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="23" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="81" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="22" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="80" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C49">
-    <cfRule type="colorScale" priority="31">
+    <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8087,7 +8843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45:G49">
-    <cfRule type="colorScale" priority="30">
+    <cfRule type="colorScale" priority="77">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8097,7 +8853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F49">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8107,57 +8863,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="75" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="74" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="73" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="72" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="71" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="70" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="69" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="68" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="67" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="66" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C54">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8167,7 +8923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:G54">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8177,7 +8933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F54">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8187,57 +8943,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="62" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="61" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="60" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="59" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="58" operator="lessThan">
       <formula>0+$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="57" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="56" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="55" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="54" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="53" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C54">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8249,7 +9005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F43 F45:F54">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8259,7 +9015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G43 G45:G54">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8269,13 +9025,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H43 H45:H54">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="49" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I43 I45:I54">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="lessThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z23">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <color rgb="FFF97B7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4:Z24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4:AF23">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="4" tint="0.59999389629810485"/>
+        <color rgb="FFF97B7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4:AF24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/검 강화 게임.xlsx
+++ b/검 강화 게임.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\문서\GitHub\Unity_Weapon_Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CEAC8B-D004-4B31-83AA-E4A510715603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EF1E8E-0F2A-4BE2-A408-3A3BC5EBC0B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{D3FEDBA6-35E5-45CF-B54A-9F527DCBFA6E}"/>
   </bookViews>
@@ -1969,154 +1969,154 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97297297297297303</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.94736842105263153</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92307692307692313</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.87804878048780488</c:v>
+                  <c:v>0.99638989169675085</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.97872340425531912</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.9616724738675958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9452054794520548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92929292929292928</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91390728476821192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89902280130293155</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88461538461538458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87066246056782337</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.8571428571428571</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83720930232558144</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81818181818181823</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.78260869565217395</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.76595744680851063</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.73469387755102045</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.72</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.70588235294117652</c:v>
+                  <c:v>0.84403669724770647</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.69230769230769229</c:v>
+                  <c:v>0.83132530120481929</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.67924528301886788</c:v>
+                  <c:v>0.81899109792284863</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.80701754385964908</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.65454545454545454</c:v>
+                  <c:v>0.79538904899135443</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>0.77310924369747902</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.76243093922651939</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.75204359673024523</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74193548387096775</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73209549071618041</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72251308900523559</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.71317829457364346</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70408163265306123</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.69521410579345089</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.68656716417910446</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.67813267813267808</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.66990291262135926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.66187050359712229</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.65402843601895733</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.6463700234192038</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.63888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.63157894736842102</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.62068965517241381</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.61016949152542377</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.5901639344262295</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.58064516129032262</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.5714285714285714</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.5625</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.55384615384615388</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.54545454545454541</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.53731343283582089</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.52941176470588236</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.52173913043478259</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.51428571428571423</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.50704225352112675</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.49315068493150682</c:v>
-                </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.48648648648648651</c:v>
+                  <c:v>0.6244343891402715</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.48</c:v>
+                  <c:v>0.6174496644295302</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.46153846153846156</c:v>
+                  <c:v>0.59740259740259738</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.45</c:v>
+                  <c:v>0.5847457627118644</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.43902439024390244</c:v>
+                  <c:v>0.57261410788381739</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.56097560975609762</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.41860465116279072</c:v>
+                  <c:v>0.54980079681274896</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.40909090909090912</c:v>
+                  <c:v>0.5390625</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.4</c:v>
+                  <c:v>0.52873563218390807</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.39130434782608697</c:v>
+                  <c:v>0.51879699248120303</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.38297872340425532</c:v>
+                  <c:v>0.5092250922509225</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.375</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4808,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62FF258-7648-4ED0-AA06-DFEB56F203C0}">
   <dimension ref="C2:AM54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4934,7 +4934,7 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K23" si="0">$J4-$S$7+$R$7</f>
-        <v>360</v>
+        <v>504</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" ref="L4:L23" si="1">IF($R$4+$R$7&gt;=$K4,100%,($R$4+$R$7)/$K4)</f>
@@ -5017,11 +5017,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>514</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" si="1"/>
-        <v>0.97297297297297303</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0.4</v>
@@ -5103,11 +5103,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>524</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="1"/>
-        <v>0.94736842105263153</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <v>0.6</v>
@@ -5195,11 +5195,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>534</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="1"/>
-        <v>0.92307692307692313</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0.8</v>
@@ -5218,11 +5218,11 @@
       </c>
       <c r="R7">
         <f>INDEX(Z4:AD24,MATCH($R$11, $Z4:$Z24), 5)</f>
-        <v>160</v>
+        <v>352</v>
       </c>
       <c r="S7">
         <f>INDEX(AF4:AI24,MATCH($S$11, $AF4:$AF24), 4)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="9"/>
@@ -5289,11 +5289,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>544</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -5375,11 +5375,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>410</v>
+        <v>554</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="1"/>
-        <v>0.87804878048780488</v>
+        <v>0.99638989169675085</v>
       </c>
       <c r="M9">
         <v>1.2</v>
@@ -5461,11 +5461,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>420</v>
+        <v>564</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="M10">
         <v>1.4</v>
@@ -5553,11 +5553,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>430</v>
+        <v>574</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="1"/>
-        <v>0.83720930232558144</v>
+        <v>0.9616724738675958</v>
       </c>
       <c r="M11">
         <v>1.6</v>
@@ -5575,10 +5575,10 @@
         <v>2.6000000000000005</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="9"/>
@@ -5645,11 +5645,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>440</v>
+        <v>584</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="1"/>
-        <v>0.81818181818181823</v>
+        <v>0.9452054794520548</v>
       </c>
       <c r="M12">
         <v>1.8</v>
@@ -5731,11 +5731,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>594</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.92929292929292928</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -5817,11 +5817,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>604</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="1"/>
-        <v>0.78260869565217395</v>
+        <v>0.91390728476821192</v>
       </c>
       <c r="M14" s="10">
         <v>2.5</v>
@@ -5904,11 +5904,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="1"/>
-        <v>0.76595744680851063</v>
+        <v>0.89902280130293155</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -5990,11 +5990,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>480</v>
+        <v>624</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="M16">
         <v>3.5</v>
@@ -6076,11 +6076,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>490</v>
+        <v>634</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="1"/>
-        <v>0.73469387755102045</v>
+        <v>0.87066246056782337</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -6162,11 +6162,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>644</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="1"/>
-        <v>0.72</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M18">
         <v>4.5</v>
@@ -6248,11 +6248,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>510</v>
+        <v>654</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="1"/>
-        <v>0.70588235294117652</v>
+        <v>0.84403669724770647</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -6334,11 +6334,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>520</v>
+        <v>664</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="1"/>
-        <v>0.69230769230769229</v>
+        <v>0.83132530120481929</v>
       </c>
       <c r="M20">
         <v>5.5</v>
@@ -6420,11 +6420,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>530</v>
+        <v>674</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" si="1"/>
-        <v>0.67924528301886788</v>
+        <v>0.81899109792284863</v>
       </c>
       <c r="M21">
         <v>6</v>
@@ -6506,11 +6506,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>540</v>
+        <v>684</v>
       </c>
       <c r="L22" s="14">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.80701754385964908</v>
       </c>
       <c r="M22">
         <v>6.5</v>
@@ -6592,11 +6592,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>550</v>
+        <v>694</v>
       </c>
       <c r="L23" s="14">
         <f t="shared" si="1"/>
-        <v>0.65454545454545454</v>
+        <v>0.79538904899135443</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -6754,11 +6754,11 @@
       </c>
       <c r="K25">
         <f t="shared" ref="K25:K43" si="15">$J25-$S$7+$R$7</f>
-        <v>570</v>
+        <v>714</v>
       </c>
       <c r="L25" s="14">
         <f t="shared" ref="L25:L43" si="16">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
-        <v>0.63157894736842102</v>
+        <v>0.77310924369747902</v>
       </c>
       <c r="M25">
         <v>11</v>
@@ -6808,11 +6808,11 @@
       </c>
       <c r="K26">
         <f t="shared" si="15"/>
-        <v>580</v>
+        <v>724</v>
       </c>
       <c r="L26" s="14">
         <f t="shared" si="16"/>
-        <v>0.62068965517241381</v>
+        <v>0.76243093922651939</v>
       </c>
       <c r="M26">
         <v>12</v>
@@ -6862,11 +6862,11 @@
       </c>
       <c r="K27">
         <f t="shared" si="15"/>
-        <v>590</v>
+        <v>734</v>
       </c>
       <c r="L27" s="14">
         <f t="shared" si="16"/>
-        <v>0.61016949152542377</v>
+        <v>0.75204359673024523</v>
       </c>
       <c r="M27">
         <v>13</v>
@@ -6916,11 +6916,11 @@
       </c>
       <c r="K28">
         <f t="shared" si="15"/>
-        <v>600</v>
+        <v>744</v>
       </c>
       <c r="L28" s="14">
         <f t="shared" si="16"/>
-        <v>0.6</v>
+        <v>0.74193548387096775</v>
       </c>
       <c r="M28">
         <v>14</v>
@@ -6970,11 +6970,11 @@
       </c>
       <c r="K29">
         <f t="shared" si="15"/>
-        <v>610</v>
+        <v>754</v>
       </c>
       <c r="L29" s="14">
         <f t="shared" si="16"/>
-        <v>0.5901639344262295</v>
+        <v>0.73209549071618041</v>
       </c>
       <c r="M29">
         <v>15</v>
@@ -7024,11 +7024,11 @@
       </c>
       <c r="K30">
         <f t="shared" si="15"/>
-        <v>620</v>
+        <v>764</v>
       </c>
       <c r="L30" s="14">
         <f t="shared" si="16"/>
-        <v>0.58064516129032262</v>
+        <v>0.72251308900523559</v>
       </c>
       <c r="M30">
         <v>16</v>
@@ -7078,11 +7078,11 @@
       </c>
       <c r="K31">
         <f t="shared" si="15"/>
-        <v>630</v>
+        <v>774</v>
       </c>
       <c r="L31" s="14">
         <f t="shared" si="16"/>
-        <v>0.5714285714285714</v>
+        <v>0.71317829457364346</v>
       </c>
       <c r="M31">
         <v>17</v>
@@ -7132,11 +7132,11 @@
       </c>
       <c r="K32">
         <f t="shared" si="15"/>
-        <v>640</v>
+        <v>784</v>
       </c>
       <c r="L32" s="14">
         <f t="shared" si="16"/>
-        <v>0.5625</v>
+        <v>0.70408163265306123</v>
       </c>
       <c r="M32">
         <v>18</v>
@@ -7186,11 +7186,11 @@
       </c>
       <c r="K33">
         <f t="shared" si="15"/>
-        <v>650</v>
+        <v>794</v>
       </c>
       <c r="L33" s="14">
         <f t="shared" si="16"/>
-        <v>0.55384615384615388</v>
+        <v>0.69521410579345089</v>
       </c>
       <c r="M33">
         <v>19</v>
@@ -7240,11 +7240,11 @@
       </c>
       <c r="K34">
         <f t="shared" si="15"/>
-        <v>660</v>
+        <v>804</v>
       </c>
       <c r="L34" s="14">
         <f t="shared" si="16"/>
-        <v>0.54545454545454541</v>
+        <v>0.68656716417910446</v>
       </c>
       <c r="M34" s="10">
         <v>20</v>
@@ -7294,11 +7294,11 @@
       </c>
       <c r="K35">
         <f t="shared" si="15"/>
-        <v>670</v>
+        <v>814</v>
       </c>
       <c r="L35" s="14">
         <f t="shared" si="16"/>
-        <v>0.53731343283582089</v>
+        <v>0.67813267813267808</v>
       </c>
       <c r="M35">
         <v>22</v>
@@ -7348,11 +7348,11 @@
       </c>
       <c r="K36">
         <f t="shared" si="15"/>
-        <v>680</v>
+        <v>824</v>
       </c>
       <c r="L36" s="14">
         <f t="shared" si="16"/>
-        <v>0.52941176470588236</v>
+        <v>0.66990291262135926</v>
       </c>
       <c r="M36">
         <v>24</v>
@@ -7402,11 +7402,11 @@
       </c>
       <c r="K37">
         <f t="shared" si="15"/>
-        <v>690</v>
+        <v>834</v>
       </c>
       <c r="L37" s="14">
         <f t="shared" si="16"/>
-        <v>0.52173913043478259</v>
+        <v>0.66187050359712229</v>
       </c>
       <c r="M37">
         <v>26</v>
@@ -7456,11 +7456,11 @@
       </c>
       <c r="K38">
         <f t="shared" si="15"/>
-        <v>700</v>
+        <v>844</v>
       </c>
       <c r="L38" s="14">
         <f t="shared" si="16"/>
-        <v>0.51428571428571423</v>
+        <v>0.65402843601895733</v>
       </c>
       <c r="M38">
         <v>28</v>
@@ -7510,11 +7510,11 @@
       </c>
       <c r="K39">
         <f t="shared" si="15"/>
-        <v>710</v>
+        <v>854</v>
       </c>
       <c r="L39" s="14">
         <f t="shared" si="16"/>
-        <v>0.50704225352112675</v>
+        <v>0.6463700234192038</v>
       </c>
       <c r="M39">
         <v>30</v>
@@ -7564,11 +7564,11 @@
       </c>
       <c r="K40">
         <f t="shared" si="15"/>
-        <v>720</v>
+        <v>864</v>
       </c>
       <c r="L40" s="14">
         <f t="shared" si="16"/>
-        <v>0.5</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="M40">
         <v>32</v>
@@ -7618,11 +7618,11 @@
       </c>
       <c r="K41">
         <f t="shared" si="15"/>
-        <v>730</v>
+        <v>874</v>
       </c>
       <c r="L41" s="14">
         <f t="shared" si="16"/>
-        <v>0.49315068493150682</v>
+        <v>0.63157894736842102</v>
       </c>
       <c r="M41">
         <v>34</v>
@@ -7672,11 +7672,11 @@
       </c>
       <c r="K42">
         <f t="shared" si="15"/>
-        <v>740</v>
+        <v>884</v>
       </c>
       <c r="L42" s="14">
         <f t="shared" si="16"/>
-        <v>0.48648648648648651</v>
+        <v>0.6244343891402715</v>
       </c>
       <c r="M42">
         <v>36</v>
@@ -7726,11 +7726,11 @@
       </c>
       <c r="K43">
         <f t="shared" si="15"/>
-        <v>750</v>
+        <v>894</v>
       </c>
       <c r="L43" s="14">
         <f t="shared" si="16"/>
-        <v>0.48</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="M43">
         <v>38</v>
@@ -7827,11 +7827,11 @@
       </c>
       <c r="K45">
         <f t="shared" ref="K45:K54" si="25">$J45-$S$7+$R$7</f>
-        <v>780</v>
+        <v>924</v>
       </c>
       <c r="L45" s="14">
         <f t="shared" ref="L45:L54" si="26">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
-        <v>0.46153846153846156</v>
+        <v>0.59740259740259738</v>
       </c>
       <c r="M45">
         <v>55</v>
@@ -7881,11 +7881,11 @@
       </c>
       <c r="K46">
         <f t="shared" si="25"/>
-        <v>800</v>
+        <v>944</v>
       </c>
       <c r="L46" s="14">
         <f t="shared" si="26"/>
-        <v>0.45</v>
+        <v>0.5847457627118644</v>
       </c>
       <c r="M46">
         <v>60</v>
@@ -7935,11 +7935,11 @@
       </c>
       <c r="K47">
         <f t="shared" si="25"/>
-        <v>820</v>
+        <v>964</v>
       </c>
       <c r="L47" s="14">
         <f t="shared" si="26"/>
-        <v>0.43902439024390244</v>
+        <v>0.57261410788381739</v>
       </c>
       <c r="M47">
         <v>65</v>
@@ -7989,11 +7989,11 @@
       </c>
       <c r="K48">
         <f t="shared" si="25"/>
-        <v>840</v>
+        <v>984</v>
       </c>
       <c r="L48" s="14">
         <f t="shared" si="26"/>
-        <v>0.42857142857142855</v>
+        <v>0.56097560975609762</v>
       </c>
       <c r="M48">
         <v>70</v>
@@ -8043,11 +8043,11 @@
       </c>
       <c r="K49">
         <f t="shared" si="25"/>
-        <v>860</v>
+        <v>1004</v>
       </c>
       <c r="L49" s="14">
         <f t="shared" si="26"/>
-        <v>0.41860465116279072</v>
+        <v>0.54980079681274896</v>
       </c>
       <c r="M49">
         <v>75</v>
@@ -8097,11 +8097,11 @@
       </c>
       <c r="K50">
         <f t="shared" si="25"/>
-        <v>880</v>
+        <v>1024</v>
       </c>
       <c r="L50" s="14">
         <f t="shared" si="26"/>
-        <v>0.40909090909090912</v>
+        <v>0.5390625</v>
       </c>
       <c r="M50">
         <v>80</v>
@@ -8151,11 +8151,11 @@
       </c>
       <c r="K51">
         <f t="shared" si="25"/>
-        <v>900</v>
+        <v>1044</v>
       </c>
       <c r="L51" s="14">
         <f t="shared" si="26"/>
-        <v>0.4</v>
+        <v>0.52873563218390807</v>
       </c>
       <c r="M51">
         <v>85</v>
@@ -8205,11 +8205,11 @@
       </c>
       <c r="K52">
         <f t="shared" si="25"/>
-        <v>920</v>
+        <v>1064</v>
       </c>
       <c r="L52" s="14">
         <f t="shared" si="26"/>
-        <v>0.39130434782608697</v>
+        <v>0.51879699248120303</v>
       </c>
       <c r="M52">
         <v>90</v>
@@ -8259,11 +8259,11 @@
       </c>
       <c r="K53">
         <f t="shared" si="25"/>
-        <v>940</v>
+        <v>1084</v>
       </c>
       <c r="L53" s="14">
         <f t="shared" si="26"/>
-        <v>0.38297872340425532</v>
+        <v>0.5092250922509225</v>
       </c>
       <c r="M53">
         <v>95</v>
@@ -8313,11 +8313,11 @@
       </c>
       <c r="K54">
         <f t="shared" si="25"/>
-        <v>960</v>
+        <v>1104</v>
       </c>
       <c r="L54" s="14">
         <f t="shared" si="26"/>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="M54" s="10">
         <v>100</v>

--- a/검 강화 게임.xlsx
+++ b/검 강화 게임.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\문서\GitHub\Unity_Weapon_Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EF1E8E-0F2A-4BE2-A408-3A3BC5EBC0B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897D3F40-36EB-42AA-BC8A-EC9ABA929F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{D3FEDBA6-35E5-45CF-B54A-9F527DCBFA6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>SELL</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -146,6 +146,30 @@
     <t>AddCost</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>AddMarginP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalAMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMPlevel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TapGold</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stats</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -154,7 +178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +277,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -299,7 +331,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,6 +379,9 @@
     </xf>
     <xf numFmtId="176" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1313,154 +1348,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>300</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>550</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>900</c:v>
+                  <c:v>972</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1400</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2100</c:v>
+                  <c:v>2256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3000</c:v>
+                  <c:v>3219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4150</c:v>
+                  <c:v>4447</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5600</c:v>
+                  <c:v>5996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7350</c:v>
+                  <c:v>7863</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9450</c:v>
+                  <c:v>10101</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11950</c:v>
+                  <c:v>12766</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14850</c:v>
+                  <c:v>15855</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18200</c:v>
+                  <c:v>19424</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22050</c:v>
+                  <c:v>23523</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26400</c:v>
+                  <c:v>28152</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31300</c:v>
+                  <c:v>33364</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65700</c:v>
+                  <c:v>69846</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37000</c:v>
+                  <c:v>39520</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43700</c:v>
+                  <c:v>46652</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>51400</c:v>
+                  <c:v>54844</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60200</c:v>
+                  <c:v>64202</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>70200</c:v>
+                  <c:v>74832</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>81400</c:v>
+                  <c:v>86746</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>93900</c:v>
+                  <c:v>100038</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>107800</c:v>
+                  <c:v>114820</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>123100</c:v>
+                  <c:v>131086</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>139900</c:v>
+                  <c:v>148942</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>158300</c:v>
+                  <c:v>168494</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>178300</c:v>
+                  <c:v>189748</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>200000</c:v>
+                  <c:v>212804</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>223500</c:v>
+                  <c:v>237768</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>248800</c:v>
+                  <c:v>264646</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>276000</c:v>
+                  <c:v>293538</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>305200</c:v>
+                  <c:v>324550</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>336400</c:v>
+                  <c:v>357688</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>600200</c:v>
+                  <c:v>637382</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>370100</c:v>
+                  <c:v>394106</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>406900</c:v>
+                  <c:v>433294</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>447000</c:v>
+                  <c:v>475980</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>490600</c:v>
+                  <c:v>522376</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>537900</c:v>
+                  <c:v>572694</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>589100</c:v>
+                  <c:v>627146</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>644400</c:v>
+                  <c:v>686064</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>704000</c:v>
+                  <c:v>749540</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>768100</c:v>
+                  <c:v>817786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,154 +1543,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>200</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1050</c:v>
+                  <c:v>1158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1950</c:v>
+                  <c:v>2130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3350</c:v>
+                  <c:v>3638</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5450</c:v>
+                  <c:v>5894</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8450</c:v>
+                  <c:v>9113</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12600</c:v>
+                  <c:v>13560</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18200</c:v>
+                  <c:v>19556</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>25550</c:v>
+                  <c:v>27419</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35000</c:v>
+                  <c:v>37520</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46950</c:v>
+                  <c:v>50286</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61800</c:v>
+                  <c:v>66141</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80000</c:v>
+                  <c:v>85565</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>102050</c:v>
+                  <c:v>109088</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>128450</c:v>
+                  <c:v>137240</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159750</c:v>
+                  <c:v>170604</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>225450</c:v>
+                  <c:v>240450</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>262450</c:v>
+                  <c:v>279970</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>306150</c:v>
+                  <c:v>326622</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>357550</c:v>
+                  <c:v>381466</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>417750</c:v>
+                  <c:v>445668</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>487950</c:v>
+                  <c:v>520500</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>569350</c:v>
+                  <c:v>607246</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>663250</c:v>
+                  <c:v>707284</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>771050</c:v>
+                  <c:v>822104</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>894150</c:v>
+                  <c:v>953190</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1034050</c:v>
+                  <c:v>1102132</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1192350</c:v>
+                  <c:v>1270626</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1370650</c:v>
+                  <c:v>1460374</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1570650</c:v>
+                  <c:v>1673178</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1794150</c:v>
+                  <c:v>1910946</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2042950</c:v>
+                  <c:v>2175592</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2318950</c:v>
+                  <c:v>2469130</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2624150</c:v>
+                  <c:v>2793680</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2960550</c:v>
+                  <c:v>3151368</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3560750</c:v>
+                  <c:v>3788750</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3930850</c:v>
+                  <c:v>4182856</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4337750</c:v>
+                  <c:v>4616150</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4784750</c:v>
+                  <c:v>5092130</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5275350</c:v>
+                  <c:v>5614506</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5813250</c:v>
+                  <c:v>6187200</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6402350</c:v>
+                  <c:v>6814346</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7046750</c:v>
+                  <c:v>7500410</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7750750</c:v>
+                  <c:v>8249950</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8518850</c:v>
+                  <c:v>9067736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,145 +2013,145 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>0.97826086956521741</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.99638989169675085</c:v>
+                  <c:v>0.95238095238095233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97872340425531912</c:v>
+                  <c:v>0.92783505154639179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.9616724738675958</c:v>
+                  <c:v>0.90452261306532666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9452054794520548</c:v>
+                  <c:v>0.88235294117647056</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92929292929292928</c:v>
+                  <c:v>0.86124401913875603</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.91390728476821192</c:v>
+                  <c:v>0.84112149532710279</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.89902280130293155</c:v>
+                  <c:v>0.82191780821917804</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88461538461538458</c:v>
+                  <c:v>0.8035714285714286</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87066246056782337</c:v>
+                  <c:v>0.78602620087336239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.84403669724770647</c:v>
+                  <c:v>0.7531380753138075</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83132530120481929</c:v>
+                  <c:v>0.73770491803278693</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.81899109792284863</c:v>
+                  <c:v>0.72289156626506024</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.80701754385964908</c:v>
+                  <c:v>0.70866141732283461</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.79538904899135443</c:v>
+                  <c:v>0.69498069498069504</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.77310924369747902</c:v>
+                  <c:v>0.66914498141263945</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.76243093922651939</c:v>
+                  <c:v>0.65693430656934304</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.75204359673024523</c:v>
+                  <c:v>0.64516129032258063</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.74193548387096775</c:v>
+                  <c:v>0.63380281690140849</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.73209549071618041</c:v>
+                  <c:v>0.62283737024221453</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.72251308900523559</c:v>
+                  <c:v>0.61224489795918369</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.71317829457364346</c:v>
+                  <c:v>0.60200668896321075</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.70408163265306123</c:v>
+                  <c:v>0.59210526315789469</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.69521410579345089</c:v>
+                  <c:v>0.58252427184466016</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.68656716417910446</c:v>
+                  <c:v>0.57324840764331209</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.67813267813267808</c:v>
+                  <c:v>0.56426332288401249</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.66990291262135926</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.66187050359712229</c:v>
+                  <c:v>0.54711246200607899</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.65402843601895733</c:v>
+                  <c:v>0.53892215568862278</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.6463700234192038</c:v>
+                  <c:v>0.53097345132743368</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.63888888888888884</c:v>
+                  <c:v>0.52325581395348841</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.63157894736842102</c:v>
+                  <c:v>0.51575931232091687</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.6244343891402715</c:v>
+                  <c:v>0.50847457627118642</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.6174496644295302</c:v>
+                  <c:v>0.50139275766016711</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.59740259740259738</c:v>
+                  <c:v>0.48128342245989303</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5847457627118644</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.57261410788381739</c:v>
+                  <c:v>0.45685279187817257</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.56097560975609762</c:v>
+                  <c:v>0.44554455445544555</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.54980079681274896</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.5390625</c:v>
+                  <c:v>0.42452830188679247</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.52873563218390807</c:v>
+                  <c:v>0.41474654377880182</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.51879699248120303</c:v>
+                  <c:v>0.40540540540540543</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5092250922509225</c:v>
+                  <c:v>0.3964757709251101</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5</c:v>
+                  <c:v>0.38793103448275862</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4401,15 +4436,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>654045</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>115742</xdr:rowOff>
+      <xdr:colOff>609222</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138155</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>536523</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>201684</xdr:rowOff>
+      <xdr:colOff>491700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>224096</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4437,15 +4472,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>660008</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>192706</xdr:rowOff>
+      <xdr:colOff>581567</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>525537</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22376</xdr:rowOff>
+      <xdr:colOff>447096</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112024</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4806,10 +4841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62FF258-7648-4ED0-AA06-DFEB56F203C0}">
-  <dimension ref="C2:AM54"/>
+  <dimension ref="C2:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4821,12 +4856,15 @@
     <col min="10" max="12" width="8.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:41" x14ac:dyDescent="0.4">
       <c r="R2" t="s">
         <v>19</v>
       </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4875,6 +4913,9 @@
       <c r="S3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
       <c r="Z3" s="1" t="s">
         <v>5</v>
       </c>
@@ -4890,24 +4931,28 @@
       <c r="AD3" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="AE3" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="AF3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
+      <c r="AL3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C4" s="2">
         <v>0</v>
       </c>
@@ -4934,7 +4979,7 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K23" si="0">$J4-$S$7+$R$7</f>
-        <v>504</v>
+        <v>328</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" ref="L4:L23" si="1">IF($R$4+$R$7&gt;=$K4,100%,($R$4+$R$7)/$K4)</f>
@@ -4958,6 +5003,9 @@
       <c r="S4">
         <v>1000</v>
       </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
       <c r="Z4" s="2">
         <v>0</v>
       </c>
@@ -4973,20 +5021,26 @@
       <c r="AD4" s="1">
         <v>0</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AE4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1">
         <v>0</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="1">
         <v>500</v>
       </c>
-      <c r="AH4" s="1">
+      <c r="AN4" s="1">
         <v>16</v>
       </c>
-      <c r="AI4" s="1">
+      <c r="AO4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C5" s="2">
         <f t="shared" ref="C5:C29" si="2">C4+1</f>
         <v>1</v>
@@ -4995,19 +5049,20 @@
         <v>100</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <f>50*(100+$U$7)/100</f>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F23" si="3">E5-D4-E4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G23" si="4">F5+G4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5:H23" si="5">F5-F4</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -5017,7 +5072,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>514</v>
+        <v>338</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" si="1"/>
@@ -5053,25 +5108,32 @@
         <v>32</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" ref="AD5:AD24" si="11">$AC5+$AD4</f>
+        <f>$AC4+$AD4</f>
         <v>32</v>
       </c>
-      <c r="AF5" s="2">
-        <f t="shared" ref="AF5:AF24" si="12">AF4+1</f>
+      <c r="AE5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="1">
+        <f>$AF4+$AE4</f>
         <v>1</v>
       </c>
-      <c r="AG5" s="1">
+      <c r="AL5" s="2">
+        <f t="shared" ref="AL5:AL24" si="11">AL4+1</f>
+        <v>1</v>
+      </c>
+      <c r="AM5" s="1">
         <v>100000</v>
       </c>
-      <c r="AH5" s="1">
+      <c r="AN5" s="1">
         <v>16</v>
       </c>
-      <c r="AI5" s="1">
-        <f t="shared" ref="AI5:AI24" si="13">$AH5+$AI4</f>
+      <c r="AO5" s="1">
+        <f t="shared" ref="AO5:AO24" si="12">$AN5+$AO4</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C6" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -5080,30 +5142,31 @@
         <v>150</v>
       </c>
       <c r="E6" s="1">
-        <v>200</v>
+        <f>200*(100+$U$7)/100</f>
+        <v>212</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f>E6-D5-E5</f>
+        <v>59</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="5"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I23" si="14">H6-H5-I5</f>
-        <v>50</v>
+        <f t="shared" ref="I6:I23" si="13">H6-H5-I5</f>
+        <v>53</v>
       </c>
       <c r="J6">
         <v>220</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>524</v>
+        <v>348</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="1"/>
@@ -5130,6 +5193,9 @@
       <c r="S6" t="s">
         <v>12</v>
       </c>
+      <c r="U6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="Z6" s="2">
         <f t="shared" si="9"/>
         <v>2</v>
@@ -5145,25 +5211,32 @@
         <v>32</v>
       </c>
       <c r="AD6" s="1">
+        <f>$AC5+$AD5</f>
+        <v>64</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="1">
+        <f>$AF5+$AE5</f>
+        <v>3</v>
+      </c>
+      <c r="AL6" s="2">
         <f t="shared" si="11"/>
-        <v>64</v>
-      </c>
-      <c r="AF6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>150000</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO6" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>150000</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI6" s="1">
-        <f t="shared" si="13"/>
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C7" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -5172,22 +5245,23 @@
         <v>200</v>
       </c>
       <c r="E7" s="1">
-        <v>500</v>
+        <f>500*(100+$U$7)/100</f>
+        <v>530</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J7">
@@ -5195,7 +5269,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>534</v>
+        <v>358</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="1"/>
@@ -5217,12 +5291,16 @@
         <v>1</v>
       </c>
       <c r="R7">
-        <f>INDEX(Z4:AD24,MATCH($R$11, $Z4:$Z24), 5)</f>
-        <v>352</v>
+        <f>INDEX(Z4:AF24,MATCH($R$11, $Z4:$Z24), 5)</f>
+        <v>160</v>
       </c>
       <c r="S7">
-        <f>INDEX(AF4:AI24,MATCH($S$11, $AF4:$AF24), 4)</f>
-        <v>48</v>
+        <f>INDEX(AL4:AO24,MATCH($R$14, $AL4:$AL24), 4)</f>
+        <v>32</v>
+      </c>
+      <c r="U7">
+        <f>INDEX(Z4:AF24,MATCH($S$11, $Z4:$Z24), 7)</f>
+        <v>6</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="9"/>
@@ -5239,25 +5317,32 @@
         <v>32</v>
       </c>
       <c r="AD7" s="1">
+        <f>$AC6+$AD6</f>
+        <v>96</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF7" s="1">
+        <f>$AF6+$AE6</f>
+        <v>6</v>
+      </c>
+      <c r="AL7" s="2">
         <f t="shared" si="11"/>
-        <v>96</v>
-      </c>
-      <c r="AF7" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>210000</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO7" s="1">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>210000</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI7" s="1">
-        <f t="shared" si="13"/>
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C8" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -5266,34 +5351,35 @@
         <v>250</v>
       </c>
       <c r="E8" s="1">
-        <v>1000</v>
+        <f>1000*(100+$U$7)/100</f>
+        <v>1060</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="5"/>
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="14"/>
-        <v>50</v>
+        <f t="shared" si="13"/>
+        <v>53</v>
       </c>
       <c r="J8">
         <v>240</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>544</v>
+        <v>368</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.97826086956521741</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -5315,35 +5401,42 @@
         <v>4</v>
       </c>
       <c r="AA8" s="1">
-        <v>400000</v>
+        <v>350000</v>
       </c>
       <c r="AB8">
         <f t="shared" si="10"/>
-        <v>170000</v>
+        <v>120000</v>
       </c>
       <c r="AC8" s="1">
         <v>32</v>
       </c>
       <c r="AD8" s="1">
+        <f>$AC7+$AD7</f>
+        <v>128</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF8" s="1">
+        <f>$AF7+$AE7</f>
+        <v>10</v>
+      </c>
+      <c r="AL8" s="2">
         <f t="shared" si="11"/>
-        <v>128</v>
-      </c>
-      <c r="AF8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>300000</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO8" s="1">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>300000</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI8" s="1">
-        <f t="shared" si="13"/>
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C9" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -5352,34 +5445,35 @@
         <v>300</v>
       </c>
       <c r="E9" s="1">
-        <v>1800</v>
+        <f>1800*(100+$U$7)/100</f>
+        <v>1908</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>1050</v>
+        <v>1158</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="5"/>
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="14"/>
-        <v>50</v>
+        <f t="shared" si="13"/>
+        <v>53</v>
       </c>
       <c r="J9">
         <v>250</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>554</v>
+        <v>378</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="1"/>
-        <v>0.99638989169675085</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="M9">
         <v>1.2</v>
@@ -5401,35 +5495,42 @@
         <v>5</v>
       </c>
       <c r="AA9" s="1">
-        <v>420000</v>
+        <v>530000</v>
       </c>
       <c r="AB9">
         <f t="shared" si="10"/>
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="AC9" s="1">
         <v>32</v>
       </c>
       <c r="AD9" s="1">
+        <f>$AC8+$AD8</f>
+        <v>160</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="1">
+        <f>$AF8+$AE8</f>
+        <v>15</v>
+      </c>
+      <c r="AL9" s="2">
         <f t="shared" si="11"/>
-        <v>160</v>
-      </c>
-      <c r="AF9" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>420000</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO9" s="1">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>420000</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI9" s="1">
-        <f t="shared" si="13"/>
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C10" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -5438,34 +5539,35 @@
         <v>400</v>
       </c>
       <c r="E10" s="1">
-        <v>3000</v>
+        <f>3000*(100+$U$7)/100</f>
+        <v>3180</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>972</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="4"/>
-        <v>1950</v>
+        <v>2130</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="5"/>
-        <v>350</v>
+        <v>374</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="14"/>
-        <v>50</v>
+        <f t="shared" si="13"/>
+        <v>53</v>
       </c>
       <c r="J10">
         <v>260</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>564</v>
+        <v>388</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="1"/>
-        <v>0.97872340425531912</v>
+        <v>0.92783505154639179</v>
       </c>
       <c r="M10">
         <v>1.4</v>
@@ -5486,42 +5588,49 @@
         <v>17</v>
       </c>
       <c r="S10" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Z10" s="2">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AA10" s="1">
-        <v>560000</v>
+        <v>780000</v>
       </c>
       <c r="AB10">
         <f t="shared" si="10"/>
-        <v>140000</v>
+        <v>250000</v>
       </c>
       <c r="AC10" s="1">
         <v>32</v>
       </c>
       <c r="AD10" s="1">
+        <f>$AC9+$AD9</f>
+        <v>192</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF10" s="1">
+        <f>$AF9+$AE9</f>
+        <v>21</v>
+      </c>
+      <c r="AL10" s="2">
         <f t="shared" si="11"/>
-        <v>192</v>
-      </c>
-      <c r="AF10" s="2">
+        <v>6</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>560000</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO10" s="1">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>560000</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI10" s="1">
-        <f t="shared" si="13"/>
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C11" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -5530,34 +5639,35 @@
         <v>500</v>
       </c>
       <c r="E11" s="1">
-        <v>4800</v>
+        <f>4800*(100+$U$7)/100</f>
+        <v>5088</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>1400</v>
+        <v>1508</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>3350</v>
+        <v>3638</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="5"/>
-        <v>500</v>
+        <v>536</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="14"/>
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>109</v>
       </c>
       <c r="J11">
         <v>270</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>574</v>
+        <v>398</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="1"/>
-        <v>0.9616724738675958</v>
+        <v>0.90452261306532666</v>
       </c>
       <c r="M11">
         <v>1.6</v>
@@ -5575,7 +5685,7 @@
         <v>2.6000000000000005</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -5585,35 +5695,42 @@
         <v>7</v>
       </c>
       <c r="AA11" s="1">
-        <v>500</v>
+        <v>1120000</v>
       </c>
       <c r="AB11">
         <f t="shared" si="10"/>
-        <v>-559500</v>
+        <v>340000</v>
       </c>
       <c r="AC11" s="1">
         <v>32</v>
       </c>
       <c r="AD11" s="1">
+        <f>$AC10+$AD10</f>
+        <v>224</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF11" s="1">
+        <f>$AF10+$AE10</f>
+        <v>28</v>
+      </c>
+      <c r="AL11" s="2">
         <f t="shared" si="11"/>
-        <v>224</v>
-      </c>
-      <c r="AF11" s="2">
+        <v>7</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>500</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO11" s="1">
         <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>500</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI11" s="1">
-        <f t="shared" si="13"/>
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C12" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -5622,34 +5739,35 @@
         <v>650</v>
       </c>
       <c r="E12" s="1">
-        <v>7400</v>
+        <f>7400*(100+$U$7)/100</f>
+        <v>7844</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>2100</v>
+        <v>2256</v>
       </c>
       <c r="G12" s="1">
         <f>F12+G11</f>
-        <v>5450</v>
+        <v>5894</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="5"/>
-        <v>700</v>
+        <v>748</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="14"/>
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>103</v>
       </c>
       <c r="J12">
         <v>280</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>584</v>
+        <v>408</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="1"/>
-        <v>0.9452054794520548</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="M12">
         <v>1.8</v>
@@ -5671,35 +5789,42 @@
         <v>8</v>
       </c>
       <c r="AA12" s="1">
-        <v>650</v>
+        <v>1520000</v>
       </c>
       <c r="AB12">
         <f t="shared" si="10"/>
-        <v>150</v>
+        <v>400000</v>
       </c>
       <c r="AC12" s="1">
         <v>32</v>
       </c>
       <c r="AD12" s="1">
+        <f>$AC11+$AD11</f>
+        <v>256</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>9</v>
+      </c>
+      <c r="AF12" s="1">
+        <f>$AF11+$AE11</f>
+        <v>36</v>
+      </c>
+      <c r="AL12" s="2">
         <f t="shared" si="11"/>
-        <v>256</v>
-      </c>
-      <c r="AF12" s="2">
+        <v>8</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>650</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO12" s="1">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>650</v>
-      </c>
-      <c r="AH12" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI12" s="1">
-        <f t="shared" si="13"/>
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C13" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -5708,34 +5833,35 @@
         <v>800</v>
       </c>
       <c r="E13" s="1">
-        <v>11050</v>
+        <f>11050*(100+$U$7)/100</f>
+        <v>11713</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>3219</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="4"/>
-        <v>8450</v>
+        <v>9113</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="5"/>
-        <v>900</v>
+        <v>963</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="14"/>
-        <v>100</v>
+        <f t="shared" si="13"/>
+        <v>112</v>
       </c>
       <c r="J13">
         <v>290</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>594</v>
+        <v>418</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="1"/>
-        <v>0.92929292929292928</v>
+        <v>0.86124401913875603</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -5752,6 +5878,9 @@
         <f t="shared" si="8"/>
         <v>3.3999999999999986</v>
       </c>
+      <c r="R13" t="s">
+        <v>18</v>
+      </c>
       <c r="Z13" s="2">
         <f t="shared" si="9"/>
         <v>9</v>
@@ -5761,31 +5890,38 @@
       </c>
       <c r="AB13">
         <f t="shared" si="10"/>
-        <v>150</v>
+        <v>-1519200</v>
       </c>
       <c r="AC13" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AD13" s="1">
+        <f>$AC12+$AD12</f>
+        <v>288</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="1">
+        <f>$AF12+$AE12</f>
+        <v>45</v>
+      </c>
+      <c r="AL13" s="2">
         <f t="shared" si="11"/>
-        <v>288</v>
-      </c>
-      <c r="AF13" s="2">
+        <v>9</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>800</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO13" s="1">
         <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>800</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI13" s="1">
-        <f t="shared" si="13"/>
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C14" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -5794,34 +5930,35 @@
         <v>1000</v>
       </c>
       <c r="E14" s="1">
-        <v>16000</v>
+        <f>16000*(100+$U$7)/100</f>
+        <v>16960</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>4150</v>
+        <v>4447</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>12600</v>
+        <v>13560</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="5"/>
-        <v>1150</v>
+        <v>1228</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="14"/>
-        <v>150</v>
+        <f t="shared" si="13"/>
+        <v>153</v>
       </c>
       <c r="J14">
         <v>300</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>604</v>
+        <v>428</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="1"/>
-        <v>0.91390728476821192</v>
+        <v>0.84112149532710279</v>
       </c>
       <c r="M14" s="10">
         <v>2.5</v>
@@ -5838,6 +5975,9 @@
         <f t="shared" si="8"/>
         <v>3.8000000000000007</v>
       </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
       <c r="Z14" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
@@ -5850,29 +5990,36 @@
         <v>200</v>
       </c>
       <c r="AC14" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AD14" s="1">
+        <f>$AC13+$AD13</f>
+        <v>352</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>11</v>
+      </c>
+      <c r="AF14" s="1">
+        <f>$AF13+$AE13</f>
+        <v>55</v>
+      </c>
+      <c r="AJ14" s="11"/>
+      <c r="AL14" s="2">
         <f t="shared" si="11"/>
-        <v>352</v>
-      </c>
-      <c r="AF14" s="2">
+        <v>10</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO14" s="1">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI14" s="1">
-        <f t="shared" si="13"/>
         <v>160</v>
       </c>
-      <c r="AJ14" s="11"/>
     </row>
-    <row r="15" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C15" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -5881,34 +6028,35 @@
         <v>1200</v>
       </c>
       <c r="E15" s="1">
-        <v>22600</v>
+        <f>22600*(100+$U$7)/100</f>
+        <v>23956</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>5600</v>
+        <v>5996</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>18200</v>
+        <v>19556</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="5"/>
-        <v>1450</v>
+        <v>1549</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="14"/>
-        <v>150</v>
+        <f t="shared" si="13"/>
+        <v>168</v>
       </c>
       <c r="J15">
         <v>310</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>614</v>
+        <v>438</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="1"/>
-        <v>0.89902280130293155</v>
+        <v>0.82191780821917804</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -5940,25 +6088,32 @@
         <v>32</v>
       </c>
       <c r="AD15" s="1">
+        <f>$AC14+$AD14</f>
+        <v>384</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF15" s="1">
+        <f>$AF14+$AE14</f>
+        <v>66</v>
+      </c>
+      <c r="AL15" s="2">
         <f t="shared" si="11"/>
-        <v>384</v>
-      </c>
-      <c r="AF15" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>1200</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO15" s="1">
         <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>1200</v>
-      </c>
-      <c r="AH15" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI15" s="1">
-        <f t="shared" si="13"/>
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="3:39" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C16" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -5967,22 +6122,23 @@
         <v>1400</v>
       </c>
       <c r="E16" s="1">
-        <v>31150</v>
+        <f>31150*(100+$U$7)/100</f>
+        <v>33019</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>7350</v>
+        <v>7863</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>25550</v>
+        <v>27419</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="5"/>
-        <v>1750</v>
+        <v>1867</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>150</v>
       </c>
       <c r="J16">
@@ -5990,11 +6146,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>624</v>
+        <v>448</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="1"/>
-        <v>0.88461538461538458</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="M16">
         <v>3.5</v>
@@ -6026,25 +6182,32 @@
         <v>32</v>
       </c>
       <c r="AD16" s="1">
+        <f>$AC15+$AD15</f>
+        <v>416</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>13</v>
+      </c>
+      <c r="AF16" s="1">
+        <f>$AF15+$AE15</f>
+        <v>78</v>
+      </c>
+      <c r="AL16" s="2">
         <f t="shared" si="11"/>
-        <v>416</v>
-      </c>
-      <c r="AF16" s="2">
+        <v>12</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>1400</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO16" s="1">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>1400</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI16" s="1">
-        <f t="shared" si="13"/>
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C17" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -6053,34 +6216,35 @@
         <v>1650</v>
       </c>
       <c r="E17" s="1">
-        <v>42000</v>
+        <f>42000*(100+$U$7)/100</f>
+        <v>44520</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>9450</v>
+        <v>10101</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>35000</v>
+        <v>37520</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="5"/>
-        <v>2100</v>
+        <v>2238</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="14"/>
-        <v>200</v>
+        <f t="shared" si="13"/>
+        <v>221</v>
       </c>
       <c r="J17">
         <v>330</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>634</v>
+        <v>458</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="1"/>
-        <v>0.87066246056782337</v>
+        <v>0.78602620087336239</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -6112,25 +6276,32 @@
         <v>32</v>
       </c>
       <c r="AD17" s="1">
+        <f>$AC16+$AD16</f>
+        <v>448</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>14</v>
+      </c>
+      <c r="AF17" s="1">
+        <f>$AF16+$AE16</f>
+        <v>91</v>
+      </c>
+      <c r="AL17" s="2">
         <f t="shared" si="11"/>
-        <v>448</v>
-      </c>
-      <c r="AF17" s="2">
+        <v>13</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>1650</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO17" s="1">
         <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="AG17" s="1">
-        <v>1650</v>
-      </c>
-      <c r="AH17" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI17" s="1">
-        <f t="shared" si="13"/>
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C18" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -6139,34 +6310,35 @@
         <v>1900</v>
       </c>
       <c r="E18" s="1">
-        <v>55600</v>
+        <f>55600*(100+$U$7)/100</f>
+        <v>58936</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>11950</v>
+        <v>12766</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>46950</v>
+        <v>50286</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="5"/>
-        <v>2500</v>
+        <v>2665</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="14"/>
-        <v>200</v>
+        <f t="shared" si="13"/>
+        <v>206</v>
       </c>
       <c r="J18">
         <v>340</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>644</v>
+        <v>468</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="M18">
         <v>4.5</v>
@@ -6198,25 +6370,32 @@
         <v>32</v>
       </c>
       <c r="AD18" s="1">
+        <f>$AC17+$AD17</f>
+        <v>480</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>15</v>
+      </c>
+      <c r="AF18" s="1">
+        <f>$AF17+$AE17</f>
+        <v>105</v>
+      </c>
+      <c r="AL18" s="2">
         <f t="shared" si="11"/>
-        <v>480</v>
-      </c>
-      <c r="AF18" s="2">
+        <v>14</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>1900</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO18" s="1">
         <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="AG18" s="1">
-        <v>1900</v>
-      </c>
-      <c r="AH18" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI18" s="1">
-        <f t="shared" si="13"/>
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C19" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -6225,34 +6404,35 @@
         <v>2200</v>
       </c>
       <c r="E19" s="1">
-        <v>72350</v>
+        <f>72350*(100+$U$7)/100</f>
+        <v>76691</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="3"/>
-        <v>14850</v>
+        <v>15855</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="4"/>
-        <v>61800</v>
+        <v>66141</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="5"/>
-        <v>2900</v>
+        <v>3089</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="14"/>
-        <v>200</v>
+        <f t="shared" si="13"/>
+        <v>218</v>
       </c>
       <c r="J19">
         <v>350</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>654</v>
+        <v>478</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="1"/>
-        <v>0.84403669724770647</v>
+        <v>0.7531380753138075</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -6284,25 +6464,32 @@
         <v>32</v>
       </c>
       <c r="AD19" s="1">
+        <f>$AC18+$AD18</f>
+        <v>512</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF19" s="1">
+        <f>$AF18+$AE18</f>
+        <v>120</v>
+      </c>
+      <c r="AL19" s="2">
         <f t="shared" si="11"/>
-        <v>512</v>
-      </c>
-      <c r="AF19" s="2">
+        <v>15</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>2200</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO19" s="1">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="AG19" s="1">
-        <v>2200</v>
-      </c>
-      <c r="AH19" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI19" s="1">
-        <f t="shared" si="13"/>
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C20" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -6311,34 +6498,35 @@
         <v>2500</v>
       </c>
       <c r="E20" s="1">
-        <v>92750</v>
+        <f>92750*(100+$U$7)/100</f>
+        <v>98315</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>18200</v>
+        <v>19424</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>80000</v>
+        <v>85565</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="5"/>
-        <v>3350</v>
+        <v>3569</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="14"/>
-        <v>250</v>
+        <f t="shared" si="13"/>
+        <v>262</v>
       </c>
       <c r="J20">
         <v>360</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>664</v>
+        <v>488</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="1"/>
-        <v>0.83132530120481929</v>
+        <v>0.73770491803278693</v>
       </c>
       <c r="M20">
         <v>5.5</v>
@@ -6370,25 +6558,32 @@
         <v>32</v>
       </c>
       <c r="AD20" s="1">
+        <f>$AC19+$AD19</f>
+        <v>544</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>17</v>
+      </c>
+      <c r="AF20" s="1">
+        <f>$AF19+$AE19</f>
+        <v>136</v>
+      </c>
+      <c r="AL20" s="2">
         <f t="shared" si="11"/>
-        <v>544</v>
-      </c>
-      <c r="AF20" s="2">
+        <v>16</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>2500</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO20" s="1">
         <f t="shared" si="12"/>
-        <v>16</v>
-      </c>
-      <c r="AG20" s="1">
-        <v>2500</v>
-      </c>
-      <c r="AH20" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI20" s="1">
-        <f t="shared" si="13"/>
         <v>256</v>
       </c>
     </row>
-    <row r="21" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C21" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -6397,34 +6592,35 @@
         <v>2800</v>
       </c>
       <c r="E21" s="1">
-        <v>117300</v>
+        <f>117300*(100+$U$7)/100</f>
+        <v>124338</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="3"/>
-        <v>22050</v>
+        <v>23523</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>102050</v>
+        <v>109088</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="5"/>
-        <v>3850</v>
+        <v>4099</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="14"/>
-        <v>250</v>
+        <f t="shared" si="13"/>
+        <v>268</v>
       </c>
       <c r="J21">
         <v>370</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>674</v>
+        <v>498</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" si="1"/>
-        <v>0.81899109792284863</v>
+        <v>0.72289156626506024</v>
       </c>
       <c r="M21">
         <v>6</v>
@@ -6456,25 +6652,32 @@
         <v>32</v>
       </c>
       <c r="AD21" s="1">
+        <f>$AC20+$AD20</f>
+        <v>576</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>18</v>
+      </c>
+      <c r="AF21" s="1">
+        <f>$AF20+$AE20</f>
+        <v>153</v>
+      </c>
+      <c r="AL21" s="2">
         <f t="shared" si="11"/>
-        <v>576</v>
-      </c>
-      <c r="AF21" s="2">
+        <v>17</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>2800</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO21" s="1">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="AG21" s="1">
-        <v>2800</v>
-      </c>
-      <c r="AH21" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI21" s="1">
-        <f t="shared" si="13"/>
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C22" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -6483,34 +6686,35 @@
         <v>3100</v>
       </c>
       <c r="E22" s="1">
-        <v>146500</v>
+        <f>146500*(100+$U$7)/100</f>
+        <v>155290</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="3"/>
-        <v>26400</v>
+        <v>28152</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>128450</v>
+        <v>137240</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="5"/>
-        <v>4350</v>
+        <v>4629</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="14"/>
-        <v>250</v>
+        <f t="shared" si="13"/>
+        <v>262</v>
       </c>
       <c r="J22">
         <v>380</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>684</v>
+        <v>508</v>
       </c>
       <c r="L22" s="14">
         <f t="shared" si="1"/>
-        <v>0.80701754385964908</v>
+        <v>0.70866141732283461</v>
       </c>
       <c r="M22">
         <v>6.5</v>
@@ -6542,25 +6746,32 @@
         <v>32</v>
       </c>
       <c r="AD22" s="1">
+        <f>$AC21+$AD21</f>
+        <v>608</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>19</v>
+      </c>
+      <c r="AF22" s="1">
+        <f>$AF21+$AE21</f>
+        <v>171</v>
+      </c>
+      <c r="AL22" s="2">
         <f t="shared" si="11"/>
-        <v>608</v>
-      </c>
-      <c r="AF22" s="2">
+        <v>18</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>3100</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO22" s="1">
         <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="AG22" s="1">
-        <v>3100</v>
-      </c>
-      <c r="AH22" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI22" s="1">
-        <f t="shared" si="13"/>
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C23" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -6569,34 +6780,35 @@
         <v>3400</v>
       </c>
       <c r="E23" s="1">
-        <v>180900</v>
+        <f>180900*(100+$U$7)/100</f>
+        <v>191754</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="3"/>
-        <v>31300</v>
+        <v>33364</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>159750</v>
+        <v>170604</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="5"/>
-        <v>4900</v>
+        <v>5212</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="14"/>
-        <v>300</v>
+        <f t="shared" si="13"/>
+        <v>321</v>
       </c>
       <c r="J23">
         <v>390</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>694</v>
+        <v>518</v>
       </c>
       <c r="L23" s="14">
         <f t="shared" si="1"/>
-        <v>0.79538904899135443</v>
+        <v>0.69498069498069504</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -6625,28 +6837,35 @@
         <v>300</v>
       </c>
       <c r="AC23" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="AD23" s="1">
+        <f>$AC22+$AD22</f>
+        <v>640</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>20</v>
+      </c>
+      <c r="AF23" s="1">
+        <f>$AF22+$AE22</f>
+        <v>190</v>
+      </c>
+      <c r="AL23" s="2">
         <f t="shared" si="11"/>
-        <v>640</v>
-      </c>
-      <c r="AF23" s="2">
+        <v>19</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>3400</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO23" s="1">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="AG23" s="1">
-        <v>3400</v>
-      </c>
-      <c r="AH23" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI23" s="1">
-        <f t="shared" si="13"/>
         <v>304</v>
       </c>
     </row>
-    <row r="24" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C24" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -6701,29 +6920,36 @@
         <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AD24" s="1">
+        <f>$AC23+$AD23</f>
+        <v>704</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>21</v>
+      </c>
+      <c r="AF24" s="1">
+        <f>$AF23+$AE23</f>
+        <v>210</v>
+      </c>
+      <c r="AJ24" s="11"/>
+      <c r="AL24" s="2">
         <f t="shared" si="11"/>
-        <v>704</v>
-      </c>
-      <c r="AF24" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM24" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>16</v>
+      </c>
+      <c r="AO24" s="1">
         <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="AG24" s="12">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI24" s="1">
-        <f t="shared" si="13"/>
         <v>320</v>
       </c>
-      <c r="AJ24" s="11"/>
     </row>
-    <row r="25" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C25" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
@@ -6732,19 +6958,20 @@
         <v>5000</v>
       </c>
       <c r="E25" s="1">
-        <v>250000</v>
+        <f>250000*(100+$U$7)/100</f>
+        <v>265000</v>
       </c>
       <c r="F25" s="1">
         <f>E25-D23-E23</f>
-        <v>65700</v>
+        <v>69846</v>
       </c>
       <c r="G25" s="1">
         <f>F25+G23</f>
-        <v>225450</v>
+        <v>240450</v>
       </c>
       <c r="H25" s="1">
         <f>F25-F23</f>
-        <v>34400</v>
+        <v>36482</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -6753,12 +6980,12 @@
         <v>410</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K43" si="15">$J25-$S$7+$R$7</f>
-        <v>714</v>
+        <f t="shared" ref="K25:K43" si="14">$J25-$S$7+$R$7</f>
+        <v>538</v>
       </c>
       <c r="L25" s="14">
-        <f t="shared" ref="L25:L43" si="16">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
-        <v>0.77310924369747902</v>
+        <f t="shared" ref="L25:L43" si="15">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
+        <v>0.66914498141263945</v>
       </c>
       <c r="M25">
         <v>11</v>
@@ -6776,7 +7003,7 @@
         <v>8.2000000000000028</v>
       </c>
     </row>
-    <row r="26" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C26" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
@@ -6785,34 +7012,35 @@
         <v>5500</v>
       </c>
       <c r="E26" s="1">
-        <v>292000</v>
+        <f>292000*(100+$U$7)/100</f>
+        <v>309520</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F43" si="17">E26-D25-E25</f>
-        <v>37000</v>
+        <f t="shared" ref="F26:F43" si="16">E26-D25-E25</f>
+        <v>39520</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G43" si="18">F26+G25</f>
-        <v>262450</v>
+        <f t="shared" ref="G26:G43" si="17">F26+G25</f>
+        <v>279970</v>
       </c>
       <c r="H26" s="1">
         <f>F26-F23</f>
-        <v>5700</v>
+        <v>6156</v>
       </c>
       <c r="I26" s="1">
         <f>H26-H23-I23</f>
-        <v>500</v>
+        <v>623</v>
       </c>
       <c r="J26">
         <v>420</v>
       </c>
       <c r="K26">
+        <f t="shared" si="14"/>
+        <v>548</v>
+      </c>
+      <c r="L26" s="14">
         <f t="shared" si="15"/>
-        <v>724</v>
-      </c>
-      <c r="L26" s="14">
-        <f t="shared" si="16"/>
-        <v>0.76243093922651939</v>
+        <v>0.65693430656934304</v>
       </c>
       <c r="M26">
         <v>12</v>
@@ -6830,7 +7058,7 @@
         <v>8.5999999999999943</v>
       </c>
     </row>
-    <row r="27" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C27" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
@@ -6839,34 +7067,35 @@
         <v>6000</v>
       </c>
       <c r="E27" s="1">
-        <v>341200</v>
+        <f>341200*(100+$U$7)/100</f>
+        <v>361672</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="16"/>
+        <v>46652</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="17"/>
-        <v>43700</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="18"/>
-        <v>306150</v>
+        <v>326622</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H43" si="19">F27-F26</f>
-        <v>6700</v>
+        <f t="shared" ref="H27:H43" si="18">F27-F26</f>
+        <v>7132</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:I43" si="20">H27-H26-I26</f>
-        <v>500</v>
+        <f t="shared" ref="I27:I43" si="19">H27-H26-I26</f>
+        <v>353</v>
       </c>
       <c r="J27">
         <v>430</v>
       </c>
       <c r="K27">
+        <f t="shared" si="14"/>
+        <v>558</v>
+      </c>
+      <c r="L27" s="14">
         <f t="shared" si="15"/>
-        <v>734</v>
-      </c>
-      <c r="L27" s="14">
-        <f t="shared" si="16"/>
-        <v>0.75204359673024523</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="M27">
         <v>13</v>
@@ -6884,7 +7113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C28" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
@@ -6893,34 +7122,35 @@
         <v>6500</v>
       </c>
       <c r="E28" s="1">
-        <v>398600</v>
+        <f>398600*(100+$U$7)/100</f>
+        <v>422516</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="16"/>
+        <v>54844</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="17"/>
-        <v>51400</v>
-      </c>
-      <c r="G28" s="1">
+        <v>381466</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="18"/>
-        <v>357550</v>
-      </c>
-      <c r="H28" s="1">
+        <v>8192</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" si="19"/>
-        <v>7700</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="20"/>
-        <v>500</v>
+        <v>707</v>
       </c>
       <c r="J28">
         <v>440</v>
       </c>
       <c r="K28">
+        <f t="shared" si="14"/>
+        <v>568</v>
+      </c>
+      <c r="L28" s="14">
         <f t="shared" si="15"/>
-        <v>744</v>
-      </c>
-      <c r="L28" s="14">
-        <f t="shared" si="16"/>
-        <v>0.74193548387096775</v>
+        <v>0.63380281690140849</v>
       </c>
       <c r="M28">
         <v>14</v>
@@ -6938,7 +7168,7 @@
         <v>9.4000000000000057</v>
       </c>
     </row>
-    <row r="29" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C29" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
@@ -6947,34 +7177,35 @@
         <v>7000</v>
       </c>
       <c r="E29" s="1">
-        <v>465300</v>
+        <f>465300*(100+$U$7)/100</f>
+        <v>493218</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="16"/>
+        <v>64202</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="17"/>
-        <v>60200</v>
-      </c>
-      <c r="G29" s="1">
+        <v>445668</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="18"/>
-        <v>417750</v>
-      </c>
-      <c r="H29" s="1">
+        <v>9358</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" si="19"/>
-        <v>8800</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="20"/>
-        <v>600</v>
+        <v>459</v>
       </c>
       <c r="J29">
         <v>450</v>
       </c>
       <c r="K29">
+        <f t="shared" si="14"/>
+        <v>578</v>
+      </c>
+      <c r="L29" s="14">
         <f t="shared" si="15"/>
-        <v>754</v>
-      </c>
-      <c r="L29" s="14">
-        <f t="shared" si="16"/>
-        <v>0.73209549071618041</v>
+        <v>0.62283737024221453</v>
       </c>
       <c r="M29">
         <v>15</v>
@@ -6992,43 +7223,44 @@
         <v>9.7999999999999972</v>
       </c>
     </row>
-    <row r="30" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C30" s="2">
-        <f t="shared" ref="C30:C54" si="21">C29+1</f>
+        <f t="shared" ref="C30:C54" si="20">C29+1</f>
         <v>26</v>
       </c>
       <c r="D30" s="1">
         <v>7700</v>
       </c>
       <c r="E30" s="1">
-        <v>542500</v>
+        <f>542500*(100+$U$7)/100</f>
+        <v>575050</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="16"/>
+        <v>74832</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="17"/>
-        <v>70200</v>
-      </c>
-      <c r="G30" s="1">
+        <v>520500</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="18"/>
-        <v>487950</v>
-      </c>
-      <c r="H30" s="1">
+        <v>10630</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" si="19"/>
-        <v>10000</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="20"/>
-        <v>600</v>
+        <v>813</v>
       </c>
       <c r="J30">
         <v>460</v>
       </c>
       <c r="K30">
+        <f t="shared" si="14"/>
+        <v>588</v>
+      </c>
+      <c r="L30" s="14">
         <f t="shared" si="15"/>
-        <v>764</v>
-      </c>
-      <c r="L30" s="14">
-        <f t="shared" si="16"/>
-        <v>0.72251308900523559</v>
+        <v>0.61224489795918369</v>
       </c>
       <c r="M30">
         <v>16</v>
@@ -7046,43 +7278,44 @@
         <v>10.199999999999989</v>
       </c>
     </row>
-    <row r="31" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C31" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>27</v>
       </c>
       <c r="D31" s="1">
         <v>8400</v>
       </c>
       <c r="E31" s="1">
-        <v>631600</v>
+        <f>631600*(100+$U$7)/100</f>
+        <v>669496</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="16"/>
+        <v>86746</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="17"/>
-        <v>81400</v>
-      </c>
-      <c r="G31" s="1">
+        <v>607246</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="18"/>
-        <v>569350</v>
-      </c>
-      <c r="H31" s="1">
+        <v>11914</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" si="19"/>
-        <v>11200</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="20"/>
-        <v>600</v>
+        <v>471</v>
       </c>
       <c r="J31">
         <v>470</v>
       </c>
       <c r="K31">
+        <f t="shared" si="14"/>
+        <v>598</v>
+      </c>
+      <c r="L31" s="14">
         <f t="shared" si="15"/>
-        <v>774</v>
-      </c>
-      <c r="L31" s="14">
-        <f t="shared" si="16"/>
-        <v>0.71317829457364346</v>
+        <v>0.60200668896321075</v>
       </c>
       <c r="M31">
         <v>17</v>
@@ -7100,43 +7333,44 @@
         <v>10.600000000000023</v>
       </c>
     </row>
-    <row r="32" spans="3:36" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C32" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>28</v>
       </c>
       <c r="D32" s="1">
         <v>9200</v>
       </c>
       <c r="E32" s="1">
-        <v>733900</v>
+        <f>733900*(100+$U$7)/100</f>
+        <v>777934</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="16"/>
+        <v>100038</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="17"/>
-        <v>93900</v>
-      </c>
-      <c r="G32" s="1">
+        <v>707284</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="18"/>
-        <v>663250</v>
-      </c>
-      <c r="H32" s="1">
+        <v>13292</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" si="19"/>
-        <v>12500</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="20"/>
-        <v>700</v>
+        <v>907</v>
       </c>
       <c r="J32">
         <v>480</v>
       </c>
       <c r="K32">
+        <f t="shared" si="14"/>
+        <v>608</v>
+      </c>
+      <c r="L32" s="14">
         <f t="shared" si="15"/>
-        <v>784</v>
-      </c>
-      <c r="L32" s="14">
-        <f t="shared" si="16"/>
-        <v>0.70408163265306123</v>
+        <v>0.59210526315789469</v>
       </c>
       <c r="M32">
         <v>18</v>
@@ -7156,41 +7390,42 @@
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>29</v>
       </c>
       <c r="D33" s="1">
         <v>10000</v>
       </c>
       <c r="E33" s="1">
-        <v>850900</v>
+        <f>850900*(100+$U$7)/100</f>
+        <v>901954</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="16"/>
+        <v>114820</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="17"/>
-        <v>107800</v>
-      </c>
-      <c r="G33" s="1">
+        <v>822104</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="18"/>
-        <v>771050</v>
-      </c>
-      <c r="H33" s="1">
+        <v>14782</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" si="19"/>
-        <v>13900</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="20"/>
-        <v>700</v>
+        <v>583</v>
       </c>
       <c r="J33">
         <v>490</v>
       </c>
       <c r="K33">
+        <f t="shared" si="14"/>
+        <v>618</v>
+      </c>
+      <c r="L33" s="14">
         <f t="shared" si="15"/>
-        <v>794</v>
-      </c>
-      <c r="L33" s="14">
-        <f t="shared" si="16"/>
-        <v>0.69521410579345089</v>
+        <v>0.58252427184466016</v>
       </c>
       <c r="M33">
         <v>19</v>
@@ -7210,41 +7445,42 @@
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>30</v>
       </c>
       <c r="D34" s="1">
         <v>10800</v>
       </c>
       <c r="E34" s="1">
-        <v>984000</v>
+        <f>984000*(100+$U$7)/100</f>
+        <v>1043040</v>
       </c>
       <c r="F34" s="1">
+        <f t="shared" si="16"/>
+        <v>131086</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="17"/>
-        <v>123100</v>
-      </c>
-      <c r="G34" s="1">
+        <v>953190</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="18"/>
-        <v>894150</v>
-      </c>
-      <c r="H34" s="1">
+        <v>16266</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" si="19"/>
-        <v>15300</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="20"/>
-        <v>700</v>
+        <v>901</v>
       </c>
       <c r="J34">
         <v>500</v>
       </c>
       <c r="K34">
+        <f t="shared" si="14"/>
+        <v>628</v>
+      </c>
+      <c r="L34" s="14">
         <f t="shared" si="15"/>
-        <v>804</v>
-      </c>
-      <c r="L34" s="14">
-        <f t="shared" si="16"/>
-        <v>0.68656716417910446</v>
+        <v>0.57324840764331209</v>
       </c>
       <c r="M34" s="10">
         <v>20</v>
@@ -7264,41 +7500,42 @@
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>31</v>
       </c>
       <c r="D35" s="1">
         <v>11600</v>
       </c>
       <c r="E35" s="1">
-        <v>1134700</v>
+        <f>1134700*(100+$U$7)/100</f>
+        <v>1202782</v>
       </c>
       <c r="F35" s="1">
+        <f t="shared" si="16"/>
+        <v>148942</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="17"/>
-        <v>139900</v>
-      </c>
-      <c r="G35" s="1">
+        <v>1102132</v>
+      </c>
+      <c r="H35" s="1">
         <f t="shared" si="18"/>
-        <v>1034050</v>
-      </c>
-      <c r="H35" s="1">
+        <v>17856</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" si="19"/>
-        <v>16800</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="20"/>
-        <v>800</v>
+        <v>689</v>
       </c>
       <c r="J35">
         <v>510</v>
       </c>
       <c r="K35">
+        <f t="shared" si="14"/>
+        <v>638</v>
+      </c>
+      <c r="L35" s="14">
         <f t="shared" si="15"/>
-        <v>814</v>
-      </c>
-      <c r="L35" s="14">
-        <f t="shared" si="16"/>
-        <v>0.67813267813267808</v>
+        <v>0.56426332288401249</v>
       </c>
       <c r="M35">
         <v>22</v>
@@ -7318,41 +7555,42 @@
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>32</v>
       </c>
       <c r="D36" s="1">
         <v>12500</v>
       </c>
       <c r="E36" s="1">
-        <v>1304600</v>
+        <f>1304600*(100+$U$7)/100</f>
+        <v>1382876</v>
       </c>
       <c r="F36" s="1">
+        <f t="shared" si="16"/>
+        <v>168494</v>
+      </c>
+      <c r="G36" s="1">
         <f t="shared" si="17"/>
-        <v>158300</v>
-      </c>
-      <c r="G36" s="1">
+        <v>1270626</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="18"/>
-        <v>1192350</v>
-      </c>
-      <c r="H36" s="1">
+        <v>19552</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" si="19"/>
-        <v>18400</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="20"/>
-        <v>800</v>
+        <v>1007</v>
       </c>
       <c r="J36">
         <v>520</v>
       </c>
       <c r="K36">
+        <f t="shared" si="14"/>
+        <v>648</v>
+      </c>
+      <c r="L36" s="14">
         <f t="shared" si="15"/>
-        <v>824</v>
-      </c>
-      <c r="L36" s="14">
-        <f t="shared" si="16"/>
-        <v>0.66990291262135926</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M36">
         <v>24</v>
@@ -7372,385 +7610,392 @@
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C37" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>33</v>
       </c>
       <c r="D37" s="1">
         <v>13400</v>
       </c>
       <c r="E37" s="1">
-        <v>1495400</v>
+        <f>1495400*(100+$U$7)/100</f>
+        <v>1585124</v>
       </c>
       <c r="F37" s="1">
+        <f t="shared" si="16"/>
+        <v>189748</v>
+      </c>
+      <c r="G37" s="1">
         <f t="shared" si="17"/>
-        <v>178300</v>
-      </c>
-      <c r="G37" s="1">
+        <v>1460374</v>
+      </c>
+      <c r="H37" s="1">
         <f t="shared" si="18"/>
-        <v>1370650</v>
-      </c>
-      <c r="H37" s="1">
+        <v>21254</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" si="19"/>
-        <v>20000</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="20"/>
-        <v>800</v>
+        <v>695</v>
       </c>
       <c r="J37">
         <v>530</v>
       </c>
       <c r="K37">
+        <f t="shared" si="14"/>
+        <v>658</v>
+      </c>
+      <c r="L37" s="14">
         <f t="shared" si="15"/>
-        <v>834</v>
-      </c>
-      <c r="L37" s="14">
-        <f t="shared" si="16"/>
-        <v>0.66187050359712229</v>
+        <v>0.54711246200607899</v>
       </c>
       <c r="M37">
         <v>26</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N54" si="22">$M37+$N36</f>
+        <f t="shared" ref="N37:N54" si="21">$M37+$N36</f>
         <v>295.3</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37:O54" si="23">$C37*$C37/5</f>
+        <f t="shared" ref="O37:O54" si="22">$C37*$C37/5</f>
         <v>217.8</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="P37:P54" si="24">$O37-O36</f>
+        <f t="shared" ref="P37:P54" si="23">$O37-O36</f>
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C38" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>34</v>
       </c>
       <c r="D38" s="1">
         <v>14300</v>
       </c>
       <c r="E38" s="1">
-        <v>1708800</v>
+        <f>1708800*(100+$U$7)/100</f>
+        <v>1811328</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="16"/>
+        <v>212804</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="17"/>
-        <v>200000</v>
-      </c>
-      <c r="G38" s="1">
+        <v>1673178</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="18"/>
-        <v>1570650</v>
-      </c>
-      <c r="H38" s="1">
+        <v>23056</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" si="19"/>
-        <v>21700</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="20"/>
-        <v>900</v>
+        <v>1107</v>
       </c>
       <c r="J38">
         <v>540</v>
       </c>
       <c r="K38">
+        <f t="shared" si="14"/>
+        <v>668</v>
+      </c>
+      <c r="L38" s="14">
         <f t="shared" si="15"/>
-        <v>844</v>
-      </c>
-      <c r="L38" s="14">
-        <f t="shared" si="16"/>
-        <v>0.65402843601895733</v>
+        <v>0.53892215568862278</v>
       </c>
       <c r="M38">
         <v>28</v>
       </c>
       <c r="N38">
+        <f t="shared" si="21"/>
+        <v>323.3</v>
+      </c>
+      <c r="O38">
         <f t="shared" si="22"/>
-        <v>323.3</v>
-      </c>
-      <c r="O38">
+        <v>231.2</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="23"/>
-        <v>231.2</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="24"/>
         <v>13.399999999999977</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C39" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>35</v>
       </c>
       <c r="D39" s="1">
         <v>15300</v>
       </c>
       <c r="E39" s="1">
-        <v>1946600</v>
+        <f>1946600*(100+$U$7)/100</f>
+        <v>2063396</v>
       </c>
       <c r="F39" s="1">
+        <f t="shared" si="16"/>
+        <v>237768</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="17"/>
-        <v>223500</v>
-      </c>
-      <c r="G39" s="1">
+        <v>1910946</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="18"/>
-        <v>1794150</v>
-      </c>
-      <c r="H39" s="1">
+        <v>24964</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" si="19"/>
-        <v>23500</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="20"/>
-        <v>900</v>
+        <v>801</v>
       </c>
       <c r="J39">
         <v>550</v>
       </c>
       <c r="K39">
+        <f t="shared" si="14"/>
+        <v>678</v>
+      </c>
+      <c r="L39" s="14">
         <f t="shared" si="15"/>
-        <v>854</v>
-      </c>
-      <c r="L39" s="14">
-        <f t="shared" si="16"/>
-        <v>0.6463700234192038</v>
+        <v>0.53097345132743368</v>
       </c>
       <c r="M39">
         <v>30</v>
       </c>
       <c r="N39">
+        <f t="shared" si="21"/>
+        <v>353.3</v>
+      </c>
+      <c r="O39">
         <f t="shared" si="22"/>
-        <v>353.3</v>
-      </c>
-      <c r="O39">
+        <v>245</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="23"/>
-        <v>245</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="24"/>
         <v>13.800000000000011</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>36</v>
       </c>
       <c r="D40" s="1">
         <v>16300</v>
       </c>
       <c r="E40" s="1">
-        <v>2210700</v>
+        <f>2210700*(100+$U$7)/100</f>
+        <v>2343342</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="16"/>
+        <v>264646</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="17"/>
-        <v>248800</v>
-      </c>
-      <c r="G40" s="1">
+        <v>2175592</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="18"/>
-        <v>2042950</v>
-      </c>
-      <c r="H40" s="1">
+        <v>26878</v>
+      </c>
+      <c r="I40" s="1">
         <f t="shared" si="19"/>
-        <v>25300</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="20"/>
-        <v>900</v>
+        <v>1113</v>
       </c>
       <c r="J40">
         <v>560</v>
       </c>
       <c r="K40">
+        <f t="shared" si="14"/>
+        <v>688</v>
+      </c>
+      <c r="L40" s="14">
         <f t="shared" si="15"/>
-        <v>864</v>
-      </c>
-      <c r="L40" s="14">
-        <f t="shared" si="16"/>
-        <v>0.63888888888888884</v>
+        <v>0.52325581395348841</v>
       </c>
       <c r="M40">
         <v>32</v>
       </c>
       <c r="N40">
+        <f t="shared" si="21"/>
+        <v>385.3</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="22"/>
-        <v>385.3</v>
-      </c>
-      <c r="O40">
+        <v>259.2</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="23"/>
-        <v>259.2</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="24"/>
         <v>14.199999999999989</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C41" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>37</v>
       </c>
       <c r="D41" s="1">
         <v>17300</v>
       </c>
       <c r="E41" s="1">
-        <v>2503000</v>
+        <f>2503000*(100+$U$7)/100</f>
+        <v>2653180</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" si="16"/>
+        <v>293538</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="17"/>
-        <v>276000</v>
-      </c>
-      <c r="G41" s="1">
+        <v>2469130</v>
+      </c>
+      <c r="H41" s="1">
         <f t="shared" si="18"/>
-        <v>2318950</v>
-      </c>
-      <c r="H41" s="1">
+        <v>28892</v>
+      </c>
+      <c r="I41" s="1">
         <f t="shared" si="19"/>
-        <v>27200</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="20"/>
-        <v>1000</v>
+        <v>901</v>
       </c>
       <c r="J41">
         <v>570</v>
       </c>
       <c r="K41">
+        <f t="shared" si="14"/>
+        <v>698</v>
+      </c>
+      <c r="L41" s="14">
         <f t="shared" si="15"/>
-        <v>874</v>
-      </c>
-      <c r="L41" s="14">
-        <f t="shared" si="16"/>
-        <v>0.63157894736842102</v>
+        <v>0.51575931232091687</v>
       </c>
       <c r="M41">
         <v>34</v>
       </c>
       <c r="N41">
+        <f t="shared" si="21"/>
+        <v>419.3</v>
+      </c>
+      <c r="O41">
         <f t="shared" si="22"/>
-        <v>419.3</v>
-      </c>
-      <c r="O41">
+        <v>273.8</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="23"/>
-        <v>273.8</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="24"/>
         <v>14.600000000000023</v>
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C42" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>38</v>
       </c>
       <c r="D42" s="1">
         <v>18400</v>
       </c>
       <c r="E42" s="1">
-        <v>2825500</v>
+        <f>2825500*(100+$U$7)/100</f>
+        <v>2995030</v>
       </c>
       <c r="F42" s="1">
+        <f t="shared" si="16"/>
+        <v>324550</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="17"/>
-        <v>305200</v>
-      </c>
-      <c r="G42" s="1">
+        <v>2793680</v>
+      </c>
+      <c r="H42" s="1">
         <f t="shared" si="18"/>
-        <v>2624150</v>
-      </c>
-      <c r="H42" s="1">
+        <v>31012</v>
+      </c>
+      <c r="I42" s="1">
         <f t="shared" si="19"/>
-        <v>29200</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="20"/>
-        <v>1000</v>
+        <v>1219</v>
       </c>
       <c r="J42">
         <v>580</v>
       </c>
       <c r="K42">
+        <f t="shared" si="14"/>
+        <v>708</v>
+      </c>
+      <c r="L42" s="14">
         <f t="shared" si="15"/>
-        <v>884</v>
-      </c>
-      <c r="L42" s="14">
-        <f t="shared" si="16"/>
-        <v>0.6244343891402715</v>
+        <v>0.50847457627118642</v>
       </c>
       <c r="M42">
         <v>36</v>
       </c>
       <c r="N42">
+        <f t="shared" si="21"/>
+        <v>455.3</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="22"/>
-        <v>455.3</v>
-      </c>
-      <c r="O42">
+        <v>288.8</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="23"/>
-        <v>288.8</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="24"/>
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C43" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>39</v>
       </c>
       <c r="D43" s="1">
         <v>19500</v>
       </c>
       <c r="E43" s="1">
-        <v>3180300</v>
+        <f>3180300*(100+$U$7)/100</f>
+        <v>3371118</v>
       </c>
       <c r="F43" s="1">
+        <f t="shared" si="16"/>
+        <v>357688</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="17"/>
-        <v>336400</v>
-      </c>
-      <c r="G43" s="1">
+        <v>3151368</v>
+      </c>
+      <c r="H43" s="1">
         <f t="shared" si="18"/>
-        <v>2960550</v>
-      </c>
-      <c r="H43" s="1">
+        <v>33138</v>
+      </c>
+      <c r="I43" s="1">
         <f t="shared" si="19"/>
-        <v>31200</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="20"/>
-        <v>1000</v>
+        <v>907</v>
       </c>
       <c r="J43">
         <v>590</v>
       </c>
       <c r="K43">
+        <f t="shared" si="14"/>
+        <v>718</v>
+      </c>
+      <c r="L43" s="14">
         <f t="shared" si="15"/>
-        <v>894</v>
-      </c>
-      <c r="L43" s="14">
-        <f t="shared" si="16"/>
-        <v>0.6174496644295302</v>
+        <v>0.50139275766016711</v>
       </c>
       <c r="M43">
         <v>38</v>
       </c>
       <c r="N43">
+        <f t="shared" si="21"/>
+        <v>493.3</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="22"/>
-        <v>493.3</v>
-      </c>
-      <c r="O43">
+        <v>304.2</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="23"/>
-        <v>304.2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="24"/>
         <v>15.399999999999977</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C44" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>40</v>
       </c>
       <c r="D44" s="6">
@@ -7784,40 +8029,41 @@
         <v>50</v>
       </c>
       <c r="N44">
+        <f t="shared" si="21"/>
+        <v>543.29999999999995</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="22"/>
-        <v>543.29999999999995</v>
-      </c>
-      <c r="O44">
+        <v>320</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="23"/>
-        <v>320</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="24"/>
         <v>15.800000000000011</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C45" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>41</v>
       </c>
       <c r="D45" s="1">
         <v>30000</v>
       </c>
       <c r="E45" s="1">
-        <v>3800000</v>
+        <f>3800000*(100+$U$7)/100</f>
+        <v>4028000</v>
       </c>
       <c r="F45" s="1">
         <f>E45-D43-E43</f>
-        <v>600200</v>
+        <v>637382</v>
       </c>
       <c r="G45" s="1">
         <f>F45+G43</f>
-        <v>3560750</v>
+        <v>3788750</v>
       </c>
       <c r="H45" s="1">
         <f>F45-F43</f>
-        <v>263800</v>
+        <v>279694</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -7826,512 +8072,521 @@
         <v>620</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K54" si="25">$J45-$S$7+$R$7</f>
-        <v>924</v>
+        <f t="shared" ref="K45:K54" si="24">$J45-$S$7+$R$7</f>
+        <v>748</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" ref="L45:L54" si="26">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
-        <v>0.59740259740259738</v>
+        <f t="shared" ref="L45:L54" si="25">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
+        <v>0.48128342245989303</v>
       </c>
       <c r="M45">
         <v>55</v>
       </c>
       <c r="N45">
+        <f t="shared" si="21"/>
+        <v>598.29999999999995</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="22"/>
-        <v>598.29999999999995</v>
-      </c>
-      <c r="O45">
+        <v>336.2</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="23"/>
-        <v>336.2</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="24"/>
         <v>16.199999999999989</v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C46" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42</v>
       </c>
       <c r="D46" s="1">
         <v>33000</v>
       </c>
       <c r="E46" s="1">
-        <v>4200100</v>
+        <f>4200100*(100+$U$7)/100</f>
+        <v>4452106</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:F54" si="27">E46-D45-E45</f>
-        <v>370100</v>
+        <f t="shared" ref="F46:F54" si="26">E46-D45-E45</f>
+        <v>394106</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ref="G46:G54" si="28">F46+G45</f>
-        <v>3930850</v>
+        <f t="shared" ref="G46:G54" si="27">F46+G45</f>
+        <v>4182856</v>
       </c>
       <c r="H46" s="1">
         <f>F46-F43</f>
-        <v>33700</v>
+        <v>36418</v>
       </c>
       <c r="I46" s="1">
         <f>H46-H43-I43</f>
-        <v>1500</v>
+        <v>2373</v>
       </c>
       <c r="J46">
         <v>640</v>
       </c>
       <c r="K46">
+        <f t="shared" si="24"/>
+        <v>768</v>
+      </c>
+      <c r="L46" s="14">
         <f t="shared" si="25"/>
-        <v>944</v>
-      </c>
-      <c r="L46" s="14">
-        <f t="shared" si="26"/>
-        <v>0.5847457627118644</v>
+        <v>0.46875</v>
       </c>
       <c r="M46">
         <v>60</v>
       </c>
       <c r="N46">
+        <f t="shared" si="21"/>
+        <v>658.3</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="22"/>
-        <v>658.3</v>
-      </c>
-      <c r="O46">
+        <v>352.8</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="23"/>
-        <v>352.8</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="24"/>
         <v>16.600000000000023</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C47" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>43</v>
       </c>
       <c r="D47" s="1">
         <v>36000</v>
       </c>
       <c r="E47" s="1">
-        <v>4640000</v>
+        <f>4640000*(100+$U$7)/100</f>
+        <v>4918400</v>
       </c>
       <c r="F47" s="1">
+        <f t="shared" si="26"/>
+        <v>433294</v>
+      </c>
+      <c r="G47" s="1">
         <f t="shared" si="27"/>
-        <v>406900</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" si="28"/>
-        <v>4337750</v>
+        <v>4616150</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:H54" si="29">F47-F46</f>
-        <v>36800</v>
+        <f t="shared" ref="H47:H54" si="28">F47-F46</f>
+        <v>39188</v>
       </c>
       <c r="I47" s="1">
-        <f t="shared" ref="I47:I54" si="30">H47-H46-I46</f>
-        <v>1600</v>
+        <f>H47-H46-I46</f>
+        <v>397</v>
       </c>
       <c r="J47">
         <v>660</v>
       </c>
       <c r="K47">
+        <f t="shared" si="24"/>
+        <v>788</v>
+      </c>
+      <c r="L47" s="14">
         <f t="shared" si="25"/>
-        <v>964</v>
-      </c>
-      <c r="L47" s="14">
-        <f t="shared" si="26"/>
-        <v>0.57261410788381739</v>
+        <v>0.45685279187817257</v>
       </c>
       <c r="M47">
         <v>65</v>
       </c>
       <c r="N47">
+        <f t="shared" si="21"/>
+        <v>723.3</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="22"/>
-        <v>723.3</v>
-      </c>
-      <c r="O47">
+        <v>369.8</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="23"/>
-        <v>369.8</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="24"/>
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C48" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>44</v>
       </c>
       <c r="D48" s="1">
         <v>39000</v>
       </c>
       <c r="E48" s="1">
-        <v>5123000</v>
+        <f>5123000*(100+$U$7)/100</f>
+        <v>5430380</v>
       </c>
       <c r="F48" s="1">
+        <f t="shared" si="26"/>
+        <v>475980</v>
+      </c>
+      <c r="G48" s="1">
         <f t="shared" si="27"/>
-        <v>447000</v>
-      </c>
-      <c r="G48" s="1">
+        <v>5092130</v>
+      </c>
+      <c r="H48" s="1">
         <f t="shared" si="28"/>
-        <v>4784750</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="29"/>
-        <v>40100</v>
+        <v>42686</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" si="30"/>
-        <v>1700</v>
+        <f t="shared" ref="I48:I54" si="29">H48-H47-I47</f>
+        <v>3101</v>
       </c>
       <c r="J48">
         <v>680</v>
       </c>
       <c r="K48">
+        <f t="shared" si="24"/>
+        <v>808</v>
+      </c>
+      <c r="L48" s="14">
         <f t="shared" si="25"/>
-        <v>984</v>
-      </c>
-      <c r="L48" s="14">
-        <f t="shared" si="26"/>
-        <v>0.56097560975609762</v>
+        <v>0.44554455445544555</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
+        <f t="shared" si="21"/>
+        <v>793.3</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="22"/>
-        <v>793.3</v>
-      </c>
-      <c r="O48">
+        <v>387.2</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="23"/>
-        <v>387.2</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="24"/>
         <v>17.399999999999977</v>
       </c>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C49" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>45</v>
       </c>
       <c r="D49" s="1">
         <v>42000</v>
       </c>
       <c r="E49" s="1">
-        <v>5652600</v>
+        <f>5652600*(100+$U$7)/100</f>
+        <v>5991756</v>
       </c>
       <c r="F49" s="1">
+        <f t="shared" si="26"/>
+        <v>522376</v>
+      </c>
+      <c r="G49" s="1">
         <f t="shared" si="27"/>
-        <v>490600</v>
-      </c>
-      <c r="G49" s="1">
+        <v>5614506</v>
+      </c>
+      <c r="H49" s="1">
         <f t="shared" si="28"/>
-        <v>5275350</v>
-      </c>
-      <c r="H49" s="1">
+        <v>46396</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" si="29"/>
-        <v>43600</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" si="30"/>
-        <v>1800</v>
+        <v>609</v>
       </c>
       <c r="J49">
         <v>700</v>
       </c>
       <c r="K49">
+        <f t="shared" si="24"/>
+        <v>828</v>
+      </c>
+      <c r="L49" s="14">
         <f t="shared" si="25"/>
-        <v>1004</v>
-      </c>
-      <c r="L49" s="14">
-        <f t="shared" si="26"/>
-        <v>0.54980079681274896</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="M49">
         <v>75</v>
       </c>
       <c r="N49">
+        <f t="shared" si="21"/>
+        <v>868.3</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="22"/>
-        <v>868.3</v>
-      </c>
-      <c r="O49">
+        <v>405</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="23"/>
-        <v>405</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="24"/>
         <v>17.800000000000011</v>
       </c>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C50" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>46</v>
       </c>
       <c r="D50" s="1">
         <v>45000</v>
       </c>
       <c r="E50" s="1">
-        <v>6232500</v>
+        <f>6232500*(100+$U$7)/100</f>
+        <v>6606450</v>
       </c>
       <c r="F50" s="1">
+        <f t="shared" si="26"/>
+        <v>572694</v>
+      </c>
+      <c r="G50" s="1">
         <f t="shared" si="27"/>
-        <v>537900</v>
-      </c>
-      <c r="G50" s="1">
+        <v>6187200</v>
+      </c>
+      <c r="H50" s="1">
         <f t="shared" si="28"/>
-        <v>5813250</v>
-      </c>
-      <c r="H50" s="1">
+        <v>50318</v>
+      </c>
+      <c r="I50" s="1">
         <f t="shared" si="29"/>
-        <v>47300</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="30"/>
-        <v>1900</v>
+        <v>3313</v>
       </c>
       <c r="J50">
         <v>720</v>
       </c>
       <c r="K50">
+        <f t="shared" si="24"/>
+        <v>848</v>
+      </c>
+      <c r="L50" s="14">
         <f t="shared" si="25"/>
-        <v>1024</v>
-      </c>
-      <c r="L50" s="14">
-        <f t="shared" si="26"/>
-        <v>0.5390625</v>
+        <v>0.42452830188679247</v>
       </c>
       <c r="M50">
         <v>80</v>
       </c>
       <c r="N50">
+        <f t="shared" si="21"/>
+        <v>948.3</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="22"/>
-        <v>948.3</v>
-      </c>
-      <c r="O50">
+        <v>423.2</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="23"/>
-        <v>423.2</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="24"/>
         <v>18.199999999999989</v>
       </c>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C51" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>47</v>
       </c>
       <c r="D51" s="1">
         <v>50000</v>
       </c>
       <c r="E51" s="1">
-        <v>6866600</v>
+        <f>6866600*(100+$U$7)/100</f>
+        <v>7278596</v>
       </c>
       <c r="F51" s="1">
+        <f t="shared" si="26"/>
+        <v>627146</v>
+      </c>
+      <c r="G51" s="1">
         <f t="shared" si="27"/>
-        <v>589100</v>
-      </c>
-      <c r="G51" s="1">
+        <v>6814346</v>
+      </c>
+      <c r="H51" s="1">
         <f t="shared" si="28"/>
-        <v>6402350</v>
-      </c>
-      <c r="H51" s="1">
+        <v>54452</v>
+      </c>
+      <c r="I51" s="1">
         <f t="shared" si="29"/>
-        <v>51200</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="30"/>
-        <v>2000</v>
+        <v>821</v>
       </c>
       <c r="J51">
         <v>740</v>
       </c>
       <c r="K51">
+        <f t="shared" si="24"/>
+        <v>868</v>
+      </c>
+      <c r="L51" s="14">
         <f t="shared" si="25"/>
-        <v>1044</v>
-      </c>
-      <c r="L51" s="14">
-        <f t="shared" si="26"/>
-        <v>0.52873563218390807</v>
+        <v>0.41474654377880182</v>
       </c>
       <c r="M51">
         <v>85</v>
       </c>
       <c r="N51">
+        <f t="shared" si="21"/>
+        <v>1033.3</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="22"/>
-        <v>1033.3</v>
-      </c>
-      <c r="O51">
+        <v>441.8</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="23"/>
-        <v>441.8</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="24"/>
         <v>18.600000000000023</v>
       </c>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C52" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>48</v>
       </c>
       <c r="D52" s="1">
         <v>55000</v>
       </c>
       <c r="E52" s="1">
-        <v>7561000</v>
+        <f>7561000*(100+$U$7)/100</f>
+        <v>8014660</v>
       </c>
       <c r="F52" s="1">
+        <f t="shared" si="26"/>
+        <v>686064</v>
+      </c>
+      <c r="G52" s="1">
         <f t="shared" si="27"/>
-        <v>644400</v>
-      </c>
-      <c r="G52" s="1">
+        <v>7500410</v>
+      </c>
+      <c r="H52" s="1">
         <f t="shared" si="28"/>
-        <v>7046750</v>
-      </c>
-      <c r="H52" s="1">
+        <v>58918</v>
+      </c>
+      <c r="I52" s="1">
         <f t="shared" si="29"/>
-        <v>55300</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="30"/>
-        <v>2100</v>
+        <v>3645</v>
       </c>
       <c r="J52">
         <v>760</v>
       </c>
       <c r="K52">
+        <f t="shared" si="24"/>
+        <v>888</v>
+      </c>
+      <c r="L52" s="14">
         <f t="shared" si="25"/>
-        <v>1064</v>
-      </c>
-      <c r="L52" s="14">
-        <f t="shared" si="26"/>
-        <v>0.51879699248120303</v>
+        <v>0.40540540540540543</v>
       </c>
       <c r="M52">
         <v>90</v>
       </c>
       <c r="N52">
+        <f t="shared" si="21"/>
+        <v>1123.3</v>
+      </c>
+      <c r="O52">
         <f t="shared" si="22"/>
-        <v>1123.3</v>
-      </c>
-      <c r="O52">
+        <v>460.8</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="23"/>
-        <v>460.8</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="24"/>
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C53" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>49</v>
       </c>
       <c r="D53" s="1">
         <v>60000</v>
       </c>
       <c r="E53" s="1">
-        <v>8320000</v>
+        <f>8320000*(100+$U$7)/100</f>
+        <v>8819200</v>
       </c>
       <c r="F53" s="1">
+        <f t="shared" si="26"/>
+        <v>749540</v>
+      </c>
+      <c r="G53" s="1">
         <f t="shared" si="27"/>
-        <v>704000</v>
-      </c>
-      <c r="G53" s="1">
+        <v>8249950</v>
+      </c>
+      <c r="H53" s="1">
         <f t="shared" si="28"/>
-        <v>7750750</v>
-      </c>
-      <c r="H53" s="1">
+        <v>63476</v>
+      </c>
+      <c r="I53" s="1">
         <f t="shared" si="29"/>
-        <v>59600</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="30"/>
-        <v>2200</v>
+        <v>913</v>
       </c>
       <c r="J53">
         <v>780</v>
       </c>
       <c r="K53">
+        <f t="shared" si="24"/>
+        <v>908</v>
+      </c>
+      <c r="L53" s="14">
         <f t="shared" si="25"/>
-        <v>1084</v>
-      </c>
-      <c r="L53" s="14">
-        <f t="shared" si="26"/>
-        <v>0.5092250922509225</v>
+        <v>0.3964757709251101</v>
       </c>
       <c r="M53">
         <v>95</v>
       </c>
       <c r="N53">
+        <f t="shared" si="21"/>
+        <v>1218.3</v>
+      </c>
+      <c r="O53">
         <f t="shared" si="22"/>
-        <v>1218.3</v>
-      </c>
-      <c r="O53">
+        <v>480.2</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="23"/>
-        <v>480.2</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="24"/>
         <v>19.399999999999977</v>
       </c>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C54" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>50</v>
       </c>
       <c r="D54" s="1">
         <v>100</v>
       </c>
       <c r="E54" s="1">
-        <v>9148100</v>
+        <f>9148100*(100+$U$7)/100</f>
+        <v>9696986</v>
       </c>
       <c r="F54" s="1">
+        <f t="shared" si="26"/>
+        <v>817786</v>
+      </c>
+      <c r="G54" s="1">
         <f t="shared" si="27"/>
-        <v>768100</v>
-      </c>
-      <c r="G54" s="1">
+        <v>9067736</v>
+      </c>
+      <c r="H54" s="1">
         <f t="shared" si="28"/>
-        <v>8518850</v>
-      </c>
-      <c r="H54" s="1">
+        <v>68246</v>
+      </c>
+      <c r="I54" s="1">
         <f t="shared" si="29"/>
-        <v>64100</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="30"/>
-        <v>2300</v>
+        <v>3857</v>
       </c>
       <c r="J54">
         <v>800</v>
       </c>
       <c r="K54">
+        <f t="shared" si="24"/>
+        <v>928</v>
+      </c>
+      <c r="L54" s="14">
         <f t="shared" si="25"/>
-        <v>1104</v>
-      </c>
-      <c r="L54" s="14">
-        <f t="shared" si="26"/>
-        <v>0.5</v>
+        <v>0.38793103448275862</v>
       </c>
       <c r="M54" s="10">
         <v>100</v>
       </c>
       <c r="N54">
+        <f t="shared" si="21"/>
+        <v>1318.3</v>
+      </c>
+      <c r="O54">
         <f t="shared" si="22"/>
-        <v>1318.3</v>
-      </c>
-      <c r="O54">
+        <v>500</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="23"/>
-        <v>500</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="24"/>
         <v>19.800000000000011</v>
       </c>
     </row>
@@ -9056,7 +9311,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF4:AF23">
+  <conditionalFormatting sqref="AL4:AL23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9066,7 +9321,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF4:AF24">
+  <conditionalFormatting sqref="AL4:AL24">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/검 강화 게임.xlsx
+++ b/검 강화 게임.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\문서\GitHub\Unity_Weapon_Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897D3F40-36EB-42AA-BC8A-EC9ABA929F9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E3DBA-40CC-467A-BD4A-FC0CABF35239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{D3FEDBA6-35E5-45CF-B54A-9F527DCBFA6E}"/>
   </bookViews>
@@ -1348,154 +1348,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>330</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>598</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>972</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1508</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2256</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3219</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4447</c:v>
+                  <c:v>4150</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5996</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7863</c:v>
+                  <c:v>7350</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10101</c:v>
+                  <c:v>9450</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12766</c:v>
+                  <c:v>11950</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15855</c:v>
+                  <c:v>14850</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19424</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23523</c:v>
+                  <c:v>22050</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28152</c:v>
+                  <c:v>26400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33364</c:v>
+                  <c:v>31300</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>69846</c:v>
+                  <c:v>65700</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39520</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>46652</c:v>
+                  <c:v>43700</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54844</c:v>
+                  <c:v>51400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>64202</c:v>
+                  <c:v>60200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>74832</c:v>
+                  <c:v>70200</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>86746</c:v>
+                  <c:v>81400</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100038</c:v>
+                  <c:v>93900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>114820</c:v>
+                  <c:v>107800</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>131086</c:v>
+                  <c:v>123100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>148942</c:v>
+                  <c:v>139900</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>168494</c:v>
+                  <c:v>158300</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>189748</c:v>
+                  <c:v>178300</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>212804</c:v>
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>237768</c:v>
+                  <c:v>223500</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>264646</c:v>
+                  <c:v>248800</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>293538</c:v>
+                  <c:v>276000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>324550</c:v>
+                  <c:v>305200</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>357688</c:v>
+                  <c:v>336400</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>637382</c:v>
+                  <c:v>600200</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>394106</c:v>
+                  <c:v>370100</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>433294</c:v>
+                  <c:v>406900</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>475980</c:v>
+                  <c:v>447000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>522376</c:v>
+                  <c:v>490600</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>572694</c:v>
+                  <c:v>537900</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>627146</c:v>
+                  <c:v>589100</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>686064</c:v>
+                  <c:v>644400</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>749540</c:v>
+                  <c:v>704000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>817786</c:v>
+                  <c:v>768100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,154 +1543,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>560</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1158</c:v>
+                  <c:v>1050</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2130</c:v>
+                  <c:v>1950</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3638</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5894</c:v>
+                  <c:v>5450</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9113</c:v>
+                  <c:v>8450</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13560</c:v>
+                  <c:v>12600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19556</c:v>
+                  <c:v>18200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27419</c:v>
+                  <c:v>25550</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37520</c:v>
+                  <c:v>35000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50286</c:v>
+                  <c:v>46950</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>66141</c:v>
+                  <c:v>61800</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>85565</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>109088</c:v>
+                  <c:v>102050</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>137240</c:v>
+                  <c:v>128450</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170604</c:v>
+                  <c:v>159750</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>240450</c:v>
+                  <c:v>225450</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>279970</c:v>
+                  <c:v>262450</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>326622</c:v>
+                  <c:v>306150</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>381466</c:v>
+                  <c:v>357550</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>445668</c:v>
+                  <c:v>417750</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>520500</c:v>
+                  <c:v>487950</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>607246</c:v>
+                  <c:v>569350</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>707284</c:v>
+                  <c:v>663250</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>822104</c:v>
+                  <c:v>771050</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>953190</c:v>
+                  <c:v>894150</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1102132</c:v>
+                  <c:v>1034050</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1270626</c:v>
+                  <c:v>1192350</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1460374</c:v>
+                  <c:v>1370650</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1673178</c:v>
+                  <c:v>1570650</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1910946</c:v>
+                  <c:v>1794150</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2175592</c:v>
+                  <c:v>2042950</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2469130</c:v>
+                  <c:v>2318950</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2793680</c:v>
+                  <c:v>2624150</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3151368</c:v>
+                  <c:v>2960550</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3788750</c:v>
+                  <c:v>3560750</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4182856</c:v>
+                  <c:v>3930850</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4616150</c:v>
+                  <c:v>4337750</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5092130</c:v>
+                  <c:v>4784750</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5614506</c:v>
+                  <c:v>5275350</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6187200</c:v>
+                  <c:v>5813250</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6814346</c:v>
+                  <c:v>6402350</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7500410</c:v>
+                  <c:v>7046750</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8249950</c:v>
+                  <c:v>7750750</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9067736</c:v>
+                  <c:v>8518850</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,154 +2004,154 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.95238095238095233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.90909090909090906</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.86956521739130432</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97826086956521741</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.95238095238095233</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92783505154639179</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.90452261306532666</c:v>
+                  <c:v>0.7407407407407407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>0.7142857142857143</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86124401913875603</c:v>
+                  <c:v>0.68965517241379315</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84112149532710279</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.82191780821917804</c:v>
+                  <c:v>0.64516129032258063</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.8035714285714286</c:v>
+                  <c:v>0.625</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.78602620087336239</c:v>
+                  <c:v>0.60606060606060608</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.58823529411764708</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.7531380753138075</c:v>
+                  <c:v>0.5714285714285714</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.73770491803278693</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.72289156626506024</c:v>
+                  <c:v>0.54054054054054057</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.70866141732283461</c:v>
+                  <c:v>0.52631578947368418</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.69498069498069504</c:v>
+                  <c:v>0.51282051282051277</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.66914498141263945</c:v>
+                  <c:v>0.48780487804878048</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.65693430656934304</c:v>
+                  <c:v>0.47619047619047616</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.64516129032258063</c:v>
+                  <c:v>0.46511627906976744</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.63380281690140849</c:v>
+                  <c:v>0.45454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.62283737024221453</c:v>
+                  <c:v>0.44444444444444442</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.61224489795918369</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.60200668896321075</c:v>
+                  <c:v>0.42553191489361702</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.59210526315789469</c:v>
+                  <c:v>0.41666666666666669</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.58252427184466016</c:v>
+                  <c:v>0.40816326530612246</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.57324840764331209</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.56426332288401249</c:v>
+                  <c:v>0.39215686274509803</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.38461538461538464</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.54711246200607899</c:v>
+                  <c:v>0.37735849056603776</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.53892215568862278</c:v>
+                  <c:v>0.37037037037037035</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.53097345132743368</c:v>
+                  <c:v>0.36363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.52325581395348841</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.51575931232091687</c:v>
+                  <c:v>0.35087719298245612</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.50847457627118642</c:v>
+                  <c:v>0.34482758620689657</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.50139275766016711</c:v>
+                  <c:v>0.33898305084745761</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.48128342245989303</c:v>
+                  <c:v>0.32258064516129031</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.45685279187817257</c:v>
+                  <c:v>0.30303030303030304</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.44554455445544555</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.43478260869565216</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.42452830188679247</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.41474654377880182</c:v>
+                  <c:v>0.27027027027027029</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.40540540540540543</c:v>
+                  <c:v>0.26315789473684209</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.3964757709251101</c:v>
+                  <c:v>0.25641025641025639</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.38793103448275862</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,8 +4843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62FF258-7648-4ED0-AA06-DFEB56F203C0}">
   <dimension ref="C2:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4979,7 +4979,7 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K23" si="0">$J4-$S$7+$R$7</f>
-        <v>328</v>
+        <v>200</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" ref="L4:L23" si="1">IF($R$4+$R$7&gt;=$K4,100%,($R$4+$R$7)/$K4)</f>
@@ -5050,19 +5050,19 @@
       </c>
       <c r="E5" s="1">
         <f>50*(100+$U$7)/100</f>
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" ref="F5:F23" si="3">E5-D4-E4</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G23" si="4">F5+G4</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" ref="H5:H23" si="5">F5-F4</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
@@ -5072,11 +5072,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>210</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="M5">
         <v>0.4</v>
@@ -5108,18 +5108,18 @@
         <v>32</v>
       </c>
       <c r="AD5" s="1">
-        <f>$AC4+$AD4</f>
+        <f t="shared" ref="AD5:AD24" si="11">$AC4+$AD4</f>
         <v>32</v>
       </c>
       <c r="AE5" s="1">
         <v>2</v>
       </c>
       <c r="AF5" s="1">
-        <f>$AF4+$AE4</f>
+        <f t="shared" ref="AF5:AF24" si="12">$AF4+$AE4</f>
         <v>1</v>
       </c>
       <c r="AL5" s="2">
-        <f t="shared" ref="AL5:AL24" si="11">AL4+1</f>
+        <f t="shared" ref="AL5:AL24" si="13">AL4+1</f>
         <v>1</v>
       </c>
       <c r="AM5" s="1">
@@ -5129,7 +5129,7 @@
         <v>16</v>
       </c>
       <c r="AO5" s="1">
-        <f t="shared" ref="AO5:AO24" si="12">$AN5+$AO4</f>
+        <f t="shared" ref="AO5:AO24" si="14">$AN5+$AO4</f>
         <v>16</v>
       </c>
     </row>
@@ -5143,34 +5143,34 @@
       </c>
       <c r="E6" s="1">
         <f>200*(100+$U$7)/100</f>
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
         <f>E6-D5-E5</f>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="4"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I23" si="13">H6-H5-I5</f>
-        <v>53</v>
+        <f t="shared" ref="I6:I23" si="15">H6-H5-I5</f>
+        <v>50</v>
       </c>
       <c r="J6">
         <v>220</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>348</v>
+        <v>220</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="M6">
         <v>0.6</v>
@@ -5211,18 +5211,18 @@
         <v>32</v>
       </c>
       <c r="AD6" s="1">
-        <f>$AC5+$AD5</f>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="AE6" s="1">
         <v>3</v>
       </c>
       <c r="AF6" s="1">
-        <f>$AF5+$AE5</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AL6" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AM6" s="1">
@@ -5232,7 +5232,7 @@
         <v>16</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
     </row>
@@ -5246,22 +5246,22 @@
       </c>
       <c r="E7" s="1">
         <f>500*(100+$U$7)/100</f>
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="3"/>
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="4"/>
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J7">
@@ -5269,11 +5269,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>358</v>
+        <v>230</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="M7">
         <v>0.8</v>
@@ -5292,15 +5292,15 @@
       </c>
       <c r="R7">
         <f>INDEX(Z4:AF24,MATCH($R$11, $Z4:$Z24), 5)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <f>INDEX(AL4:AO24,MATCH($R$14, $AL4:$AL24), 4)</f>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <f>INDEX(Z4:AF24,MATCH($S$11, $Z4:$Z24), 7)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" si="9"/>
@@ -5317,18 +5317,18 @@
         <v>32</v>
       </c>
       <c r="AD7" s="1">
-        <f>$AC6+$AD6</f>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="AE7" s="1">
         <v>4</v>
       </c>
       <c r="AF7" s="1">
-        <f>$AF6+$AE6</f>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AL7" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AM7" s="1">
@@ -5338,7 +5338,7 @@
         <v>16</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
     </row>
@@ -5352,34 +5352,34 @@
       </c>
       <c r="E8" s="1">
         <f>1000*(100+$U$7)/100</f>
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="3"/>
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="4"/>
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="5"/>
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="13"/>
-        <v>53</v>
+        <f t="shared" si="15"/>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>240</v>
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" si="1"/>
-        <v>0.97826086956521741</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -5411,18 +5411,18 @@
         <v>32</v>
       </c>
       <c r="AD8" s="1">
-        <f>$AC7+$AD7</f>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="AE8" s="1">
         <v>5</v>
       </c>
       <c r="AF8" s="1">
-        <f>$AF7+$AE7</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="AL8" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AM8" s="1">
@@ -5432,7 +5432,7 @@
         <v>16</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
     </row>
@@ -5446,34 +5446,34 @@
       </c>
       <c r="E9" s="1">
         <f>1800*(100+$U$7)/100</f>
-        <v>1908</v>
+        <v>1800</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="3"/>
-        <v>598</v>
+        <v>550</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="4"/>
-        <v>1158</v>
+        <v>1050</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="5"/>
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="13"/>
-        <v>53</v>
+        <f t="shared" si="15"/>
+        <v>50</v>
       </c>
       <c r="J9">
         <v>250</v>
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>378</v>
+        <v>250</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="1"/>
-        <v>0.95238095238095233</v>
+        <v>0.8</v>
       </c>
       <c r="M9">
         <v>1.2</v>
@@ -5505,18 +5505,18 @@
         <v>32</v>
       </c>
       <c r="AD9" s="1">
-        <f>$AC8+$AD8</f>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="AE9" s="1">
         <v>6</v>
       </c>
       <c r="AF9" s="1">
-        <f>$AF8+$AE8</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AM9" s="1">
@@ -5526,7 +5526,7 @@
         <v>16</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
     </row>
@@ -5540,34 +5540,34 @@
       </c>
       <c r="E10" s="1">
         <f>3000*(100+$U$7)/100</f>
-        <v>3180</v>
+        <v>3000</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="3"/>
-        <v>972</v>
+        <v>900</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="4"/>
-        <v>2130</v>
+        <v>1950</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="5"/>
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="13"/>
-        <v>53</v>
+        <f t="shared" si="15"/>
+        <v>50</v>
       </c>
       <c r="J10">
         <v>260</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>388</v>
+        <v>260</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="1"/>
-        <v>0.92783505154639179</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="M10">
         <v>1.4</v>
@@ -5605,18 +5605,18 @@
         <v>32</v>
       </c>
       <c r="AD10" s="1">
-        <f>$AC9+$AD9</f>
+        <f t="shared" si="11"/>
         <v>192</v>
       </c>
       <c r="AE10" s="1">
         <v>7</v>
       </c>
       <c r="AF10" s="1">
-        <f>$AF9+$AE9</f>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="AL10" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AM10" s="1">
@@ -5626,7 +5626,7 @@
         <v>16</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
     </row>
@@ -5640,34 +5640,34 @@
       </c>
       <c r="E11" s="1">
         <f>4800*(100+$U$7)/100</f>
-        <v>5088</v>
+        <v>4800</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" si="3"/>
-        <v>1508</v>
+        <v>1400</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="4"/>
-        <v>3638</v>
+        <v>3350</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="5"/>
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="13"/>
-        <v>109</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="J11">
         <v>270</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>270</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="1"/>
-        <v>0.90452261306532666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="M11">
         <v>1.6</v>
@@ -5685,10 +5685,10 @@
         <v>2.6000000000000005</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="2">
         <f t="shared" si="9"/>
@@ -5705,18 +5705,18 @@
         <v>32</v>
       </c>
       <c r="AD11" s="1">
-        <f>$AC10+$AD10</f>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
       <c r="AE11" s="1">
         <v>8</v>
       </c>
       <c r="AF11" s="1">
-        <f>$AF10+$AE10</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="AL11" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AM11" s="1">
@@ -5726,7 +5726,7 @@
         <v>16</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
     </row>
@@ -5740,34 +5740,34 @@
       </c>
       <c r="E12" s="1">
         <f>7400*(100+$U$7)/100</f>
-        <v>7844</v>
+        <v>7400</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="3"/>
-        <v>2256</v>
+        <v>2100</v>
       </c>
       <c r="G12" s="1">
         <f>F12+G11</f>
-        <v>5894</v>
+        <v>5450</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="5"/>
-        <v>748</v>
+        <v>700</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="13"/>
-        <v>103</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="J12">
         <v>280</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>408</v>
+        <v>280</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="1"/>
-        <v>0.88235294117647056</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M12">
         <v>1.8</v>
@@ -5799,18 +5799,18 @@
         <v>32</v>
       </c>
       <c r="AD12" s="1">
-        <f>$AC11+$AD11</f>
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
       <c r="AE12" s="1">
         <v>9</v>
       </c>
       <c r="AF12" s="1">
-        <f>$AF11+$AE11</f>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AM12" s="1">
@@ -5820,7 +5820,7 @@
         <v>16</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
     </row>
@@ -5834,34 +5834,34 @@
       </c>
       <c r="E13" s="1">
         <f>11050*(100+$U$7)/100</f>
-        <v>11713</v>
+        <v>11050</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" si="3"/>
-        <v>3219</v>
+        <v>3000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="4"/>
-        <v>9113</v>
+        <v>8450</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="5"/>
-        <v>963</v>
+        <v>900</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="13"/>
-        <v>112</v>
+        <f t="shared" si="15"/>
+        <v>100</v>
       </c>
       <c r="J13">
         <v>290</v>
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>418</v>
+        <v>290</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="1"/>
-        <v>0.86124401913875603</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="M13">
         <v>2</v>
@@ -5896,18 +5896,18 @@
         <v>64</v>
       </c>
       <c r="AD13" s="1">
-        <f>$AC12+$AD12</f>
+        <f t="shared" si="11"/>
         <v>288</v>
       </c>
       <c r="AE13" s="1">
         <v>10</v>
       </c>
       <c r="AF13" s="1">
-        <f>$AF12+$AE12</f>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AM13" s="1">
@@ -5917,7 +5917,7 @@
         <v>16</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>144</v>
       </c>
     </row>
@@ -5931,34 +5931,34 @@
       </c>
       <c r="E14" s="1">
         <f>16000*(100+$U$7)/100</f>
-        <v>16960</v>
+        <v>16000</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>4447</v>
+        <v>4150</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>13560</v>
+        <v>12600</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="5"/>
-        <v>1228</v>
+        <v>1150</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="13"/>
-        <v>153</v>
+        <f t="shared" si="15"/>
+        <v>150</v>
       </c>
       <c r="J14">
         <v>300</v>
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="1"/>
-        <v>0.84112149532710279</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="M14" s="10">
         <v>2.5</v>
@@ -5976,7 +5976,7 @@
         <v>3.8000000000000007</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="2">
         <f t="shared" si="9"/>
@@ -5993,19 +5993,19 @@
         <v>32</v>
       </c>
       <c r="AD14" s="1">
-        <f>$AC13+$AD13</f>
+        <f t="shared" si="11"/>
         <v>352</v>
       </c>
       <c r="AE14" s="1">
         <v>11</v>
       </c>
       <c r="AF14" s="1">
-        <f>$AF13+$AE13</f>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="AJ14" s="11"/>
       <c r="AL14" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AM14" s="1">
@@ -6015,7 +6015,7 @@
         <v>16</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>160</v>
       </c>
     </row>
@@ -6029,34 +6029,34 @@
       </c>
       <c r="E15" s="1">
         <f>22600*(100+$U$7)/100</f>
-        <v>23956</v>
+        <v>22600</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>5996</v>
+        <v>5600</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>19556</v>
+        <v>18200</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="5"/>
-        <v>1549</v>
+        <v>1450</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="13"/>
-        <v>168</v>
+        <f t="shared" si="15"/>
+        <v>150</v>
       </c>
       <c r="J15">
         <v>310</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>310</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="1"/>
-        <v>0.82191780821917804</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -6088,18 +6088,18 @@
         <v>32</v>
       </c>
       <c r="AD15" s="1">
-        <f>$AC14+$AD14</f>
+        <f t="shared" si="11"/>
         <v>384</v>
       </c>
       <c r="AE15" s="1">
         <v>12</v>
       </c>
       <c r="AF15" s="1">
-        <f>$AF14+$AE14</f>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AM15" s="1">
@@ -6109,7 +6109,7 @@
         <v>16</v>
       </c>
       <c r="AO15" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>176</v>
       </c>
     </row>
@@ -6123,22 +6123,22 @@
       </c>
       <c r="E16" s="1">
         <f>31150*(100+$U$7)/100</f>
-        <v>33019</v>
+        <v>31150</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>7863</v>
+        <v>7350</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>27419</v>
+        <v>25550</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="5"/>
-        <v>1867</v>
+        <v>1750</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="J16">
@@ -6146,11 +6146,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>448</v>
+        <v>320</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="1"/>
-        <v>0.8035714285714286</v>
+        <v>0.625</v>
       </c>
       <c r="M16">
         <v>3.5</v>
@@ -6182,18 +6182,18 @@
         <v>32</v>
       </c>
       <c r="AD16" s="1">
-        <f>$AC15+$AD15</f>
+        <f t="shared" si="11"/>
         <v>416</v>
       </c>
       <c r="AE16" s="1">
         <v>13</v>
       </c>
       <c r="AF16" s="1">
-        <f>$AF15+$AE15</f>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AM16" s="1">
@@ -6203,7 +6203,7 @@
         <v>16</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>192</v>
       </c>
     </row>
@@ -6217,34 +6217,34 @@
       </c>
       <c r="E17" s="1">
         <f>42000*(100+$U$7)/100</f>
-        <v>44520</v>
+        <v>42000</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="3"/>
-        <v>10101</v>
+        <v>9450</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="4"/>
-        <v>37520</v>
+        <v>35000</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="5"/>
-        <v>2238</v>
+        <v>2100</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="13"/>
-        <v>221</v>
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
       <c r="J17">
         <v>330</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>458</v>
+        <v>330</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="1"/>
-        <v>0.78602620087336239</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="M17">
         <v>4</v>
@@ -6276,18 +6276,18 @@
         <v>32</v>
       </c>
       <c r="AD17" s="1">
-        <f>$AC16+$AD16</f>
+        <f t="shared" si="11"/>
         <v>448</v>
       </c>
       <c r="AE17" s="1">
         <v>14</v>
       </c>
       <c r="AF17" s="1">
-        <f>$AF16+$AE16</f>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="AL17" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="AM17" s="1">
@@ -6297,7 +6297,7 @@
         <v>16</v>
       </c>
       <c r="AO17" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>208</v>
       </c>
     </row>
@@ -6311,34 +6311,34 @@
       </c>
       <c r="E18" s="1">
         <f>55600*(100+$U$7)/100</f>
-        <v>58936</v>
+        <v>55600</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" si="3"/>
-        <v>12766</v>
+        <v>11950</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="4"/>
-        <v>50286</v>
+        <v>46950</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="5"/>
-        <v>2665</v>
+        <v>2500</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="13"/>
-        <v>206</v>
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
       <c r="J18">
         <v>340</v>
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>468</v>
+        <v>340</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="1"/>
-        <v>0.76923076923076927</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="M18">
         <v>4.5</v>
@@ -6370,18 +6370,18 @@
         <v>32</v>
       </c>
       <c r="AD18" s="1">
-        <f>$AC17+$AD17</f>
+        <f t="shared" si="11"/>
         <v>480</v>
       </c>
       <c r="AE18" s="1">
         <v>15</v>
       </c>
       <c r="AF18" s="1">
-        <f>$AF17+$AE17</f>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AM18" s="1">
@@ -6391,7 +6391,7 @@
         <v>16</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
     </row>
@@ -6405,34 +6405,34 @@
       </c>
       <c r="E19" s="1">
         <f>72350*(100+$U$7)/100</f>
-        <v>76691</v>
+        <v>72350</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="3"/>
-        <v>15855</v>
+        <v>14850</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="4"/>
-        <v>66141</v>
+        <v>61800</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="5"/>
-        <v>3089</v>
+        <v>2900</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="13"/>
-        <v>218</v>
+        <f t="shared" si="15"/>
+        <v>200</v>
       </c>
       <c r="J19">
         <v>350</v>
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>478</v>
+        <v>350</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="1"/>
-        <v>0.7531380753138075</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="M19">
         <v>5</v>
@@ -6464,18 +6464,18 @@
         <v>32</v>
       </c>
       <c r="AD19" s="1">
-        <f>$AC18+$AD18</f>
+        <f t="shared" si="11"/>
         <v>512</v>
       </c>
       <c r="AE19" s="1">
         <v>16</v>
       </c>
       <c r="AF19" s="1">
-        <f>$AF18+$AE18</f>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="AL19" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AM19" s="1">
@@ -6485,7 +6485,7 @@
         <v>16</v>
       </c>
       <c r="AO19" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
     </row>
@@ -6499,34 +6499,34 @@
       </c>
       <c r="E20" s="1">
         <f>92750*(100+$U$7)/100</f>
-        <v>98315</v>
+        <v>92750</v>
       </c>
       <c r="F20" s="1">
         <f t="shared" si="3"/>
-        <v>19424</v>
+        <v>18200</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="4"/>
-        <v>85565</v>
+        <v>80000</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="5"/>
-        <v>3569</v>
+        <v>3350</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="13"/>
-        <v>262</v>
+        <f t="shared" si="15"/>
+        <v>250</v>
       </c>
       <c r="J20">
         <v>360</v>
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>360</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="1"/>
-        <v>0.73770491803278693</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="M20">
         <v>5.5</v>
@@ -6558,18 +6558,18 @@
         <v>32</v>
       </c>
       <c r="AD20" s="1">
-        <f>$AC19+$AD19</f>
+        <f t="shared" si="11"/>
         <v>544</v>
       </c>
       <c r="AE20" s="1">
         <v>17</v>
       </c>
       <c r="AF20" s="1">
-        <f>$AF19+$AE19</f>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="AM20" s="1">
@@ -6579,7 +6579,7 @@
         <v>16</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
     </row>
@@ -6593,34 +6593,34 @@
       </c>
       <c r="E21" s="1">
         <f>117300*(100+$U$7)/100</f>
-        <v>124338</v>
+        <v>117300</v>
       </c>
       <c r="F21" s="1">
         <f t="shared" si="3"/>
-        <v>23523</v>
+        <v>22050</v>
       </c>
       <c r="G21" s="1">
         <f t="shared" si="4"/>
-        <v>109088</v>
+        <v>102050</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="5"/>
-        <v>4099</v>
+        <v>3850</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="13"/>
-        <v>268</v>
+        <f t="shared" si="15"/>
+        <v>250</v>
       </c>
       <c r="J21">
         <v>370</v>
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>498</v>
+        <v>370</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" si="1"/>
-        <v>0.72289156626506024</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="M21">
         <v>6</v>
@@ -6652,18 +6652,18 @@
         <v>32</v>
       </c>
       <c r="AD21" s="1">
-        <f>$AC20+$AD20</f>
+        <f t="shared" si="11"/>
         <v>576</v>
       </c>
       <c r="AE21" s="1">
         <v>18</v>
       </c>
       <c r="AF21" s="1">
-        <f>$AF20+$AE20</f>
+        <f t="shared" si="12"/>
         <v>153</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AM21" s="1">
@@ -6673,7 +6673,7 @@
         <v>16</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>272</v>
       </c>
     </row>
@@ -6687,34 +6687,34 @@
       </c>
       <c r="E22" s="1">
         <f>146500*(100+$U$7)/100</f>
-        <v>155290</v>
+        <v>146500</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" si="3"/>
-        <v>28152</v>
+        <v>26400</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="4"/>
-        <v>137240</v>
+        <v>128450</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="5"/>
-        <v>4629</v>
+        <v>4350</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="13"/>
-        <v>262</v>
+        <f t="shared" si="15"/>
+        <v>250</v>
       </c>
       <c r="J22">
         <v>380</v>
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>508</v>
+        <v>380</v>
       </c>
       <c r="L22" s="14">
         <f t="shared" si="1"/>
-        <v>0.70866141732283461</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="M22">
         <v>6.5</v>
@@ -6746,18 +6746,18 @@
         <v>32</v>
       </c>
       <c r="AD22" s="1">
-        <f>$AC21+$AD21</f>
+        <f t="shared" si="11"/>
         <v>608</v>
       </c>
       <c r="AE22" s="1">
         <v>19</v>
       </c>
       <c r="AF22" s="1">
-        <f>$AF21+$AE21</f>
+        <f t="shared" si="12"/>
         <v>171</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="AM22" s="1">
@@ -6767,7 +6767,7 @@
         <v>16</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
     </row>
@@ -6781,34 +6781,34 @@
       </c>
       <c r="E23" s="1">
         <f>180900*(100+$U$7)/100</f>
-        <v>191754</v>
+        <v>180900</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="3"/>
-        <v>33364</v>
+        <v>31300</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="4"/>
-        <v>170604</v>
+        <v>159750</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="5"/>
-        <v>5212</v>
+        <v>4900</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="13"/>
-        <v>321</v>
+        <f t="shared" si="15"/>
+        <v>300</v>
       </c>
       <c r="J23">
         <v>390</v>
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>390</v>
       </c>
       <c r="L23" s="14">
         <f t="shared" si="1"/>
-        <v>0.69498069498069504</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="M23">
         <v>7</v>
@@ -6840,18 +6840,18 @@
         <v>64</v>
       </c>
       <c r="AD23" s="1">
-        <f>$AC22+$AD22</f>
+        <f t="shared" si="11"/>
         <v>640</v>
       </c>
       <c r="AE23" s="1">
         <v>20</v>
       </c>
       <c r="AF23" s="1">
-        <f>$AF22+$AE22</f>
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="AM23" s="1">
@@ -6861,7 +6861,7 @@
         <v>16</v>
       </c>
       <c r="AO23" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
     </row>
@@ -6923,19 +6923,19 @@
         <v>32</v>
       </c>
       <c r="AD24" s="1">
-        <f>$AC23+$AD23</f>
+        <f t="shared" si="11"/>
         <v>704</v>
       </c>
       <c r="AE24" s="1">
         <v>21</v>
       </c>
       <c r="AF24" s="1">
-        <f>$AF23+$AE23</f>
+        <f t="shared" si="12"/>
         <v>210</v>
       </c>
       <c r="AJ24" s="11"/>
       <c r="AL24" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="AM24" s="12">
@@ -6945,7 +6945,7 @@
         <v>16</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>320</v>
       </c>
     </row>
@@ -6959,19 +6959,19 @@
       </c>
       <c r="E25" s="1">
         <f>250000*(100+$U$7)/100</f>
-        <v>265000</v>
+        <v>250000</v>
       </c>
       <c r="F25" s="1">
         <f>E25-D23-E23</f>
-        <v>69846</v>
+        <v>65700</v>
       </c>
       <c r="G25" s="1">
         <f>F25+G23</f>
-        <v>240450</v>
+        <v>225450</v>
       </c>
       <c r="H25" s="1">
         <f>F25-F23</f>
-        <v>36482</v>
+        <v>34400</v>
       </c>
       <c r="I25" s="1">
         <v>0</v>
@@ -6980,12 +6980,12 @@
         <v>410</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K43" si="14">$J25-$S$7+$R$7</f>
-        <v>538</v>
+        <f t="shared" ref="K25:K43" si="16">$J25-$S$7+$R$7</f>
+        <v>410</v>
       </c>
       <c r="L25" s="14">
-        <f t="shared" ref="L25:L43" si="15">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
-        <v>0.66914498141263945</v>
+        <f t="shared" ref="L25:L43" si="17">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
+        <v>0.48780487804878048</v>
       </c>
       <c r="M25">
         <v>11</v>
@@ -7013,34 +7013,34 @@
       </c>
       <c r="E26" s="1">
         <f>292000*(100+$U$7)/100</f>
-        <v>309520</v>
+        <v>292000</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F43" si="16">E26-D25-E25</f>
-        <v>39520</v>
+        <f t="shared" ref="F26:F43" si="18">E26-D25-E25</f>
+        <v>37000</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G43" si="17">F26+G25</f>
-        <v>279970</v>
+        <f t="shared" ref="G26:G43" si="19">F26+G25</f>
+        <v>262450</v>
       </c>
       <c r="H26" s="1">
         <f>F26-F23</f>
-        <v>6156</v>
+        <v>5700</v>
       </c>
       <c r="I26" s="1">
         <f>H26-H23-I23</f>
-        <v>623</v>
+        <v>500</v>
       </c>
       <c r="J26">
         <v>420</v>
       </c>
       <c r="K26">
-        <f t="shared" si="14"/>
-        <v>548</v>
+        <f t="shared" si="16"/>
+        <v>420</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" si="15"/>
-        <v>0.65693430656934304</v>
+        <f t="shared" si="17"/>
+        <v>0.47619047619047616</v>
       </c>
       <c r="M26">
         <v>12</v>
@@ -7068,34 +7068,34 @@
       </c>
       <c r="E27" s="1">
         <f>341200*(100+$U$7)/100</f>
-        <v>361672</v>
+        <v>341200</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="16"/>
-        <v>46652</v>
+        <f t="shared" si="18"/>
+        <v>43700</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="17"/>
-        <v>326622</v>
+        <f t="shared" si="19"/>
+        <v>306150</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H43" si="18">F27-F26</f>
-        <v>7132</v>
+        <f t="shared" ref="H27:H43" si="20">F27-F26</f>
+        <v>6700</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:I43" si="19">H27-H26-I26</f>
-        <v>353</v>
+        <f t="shared" ref="I27:I43" si="21">H27-H26-I26</f>
+        <v>500</v>
       </c>
       <c r="J27">
         <v>430</v>
       </c>
       <c r="K27">
-        <f t="shared" si="14"/>
-        <v>558</v>
+        <f t="shared" si="16"/>
+        <v>430</v>
       </c>
       <c r="L27" s="14">
-        <f t="shared" si="15"/>
-        <v>0.64516129032258063</v>
+        <f t="shared" si="17"/>
+        <v>0.46511627906976744</v>
       </c>
       <c r="M27">
         <v>13</v>
@@ -7123,34 +7123,34 @@
       </c>
       <c r="E28" s="1">
         <f>398600*(100+$U$7)/100</f>
-        <v>422516</v>
+        <v>398600</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="16"/>
-        <v>54844</v>
+        <f t="shared" si="18"/>
+        <v>51400</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="17"/>
-        <v>381466</v>
+        <f t="shared" si="19"/>
+        <v>357550</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="18"/>
-        <v>8192</v>
+        <f t="shared" si="20"/>
+        <v>7700</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="19"/>
-        <v>707</v>
+        <f t="shared" si="21"/>
+        <v>500</v>
       </c>
       <c r="J28">
         <v>440</v>
       </c>
       <c r="K28">
-        <f t="shared" si="14"/>
-        <v>568</v>
+        <f t="shared" si="16"/>
+        <v>440</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="15"/>
-        <v>0.63380281690140849</v>
+        <f t="shared" si="17"/>
+        <v>0.45454545454545453</v>
       </c>
       <c r="M28">
         <v>14</v>
@@ -7178,34 +7178,34 @@
       </c>
       <c r="E29" s="1">
         <f>465300*(100+$U$7)/100</f>
-        <v>493218</v>
+        <v>465300</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="16"/>
-        <v>64202</v>
+        <f t="shared" si="18"/>
+        <v>60200</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="17"/>
-        <v>445668</v>
+        <f t="shared" si="19"/>
+        <v>417750</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="18"/>
-        <v>9358</v>
+        <f t="shared" si="20"/>
+        <v>8800</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="19"/>
-        <v>459</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="J29">
         <v>450</v>
       </c>
       <c r="K29">
-        <f t="shared" si="14"/>
-        <v>578</v>
+        <f t="shared" si="16"/>
+        <v>450</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="15"/>
-        <v>0.62283737024221453</v>
+        <f t="shared" si="17"/>
+        <v>0.44444444444444442</v>
       </c>
       <c r="M29">
         <v>15</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="30" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C30" s="2">
-        <f t="shared" ref="C30:C54" si="20">C29+1</f>
+        <f t="shared" ref="C30:C54" si="22">C29+1</f>
         <v>26</v>
       </c>
       <c r="D30" s="1">
@@ -7233,34 +7233,34 @@
       </c>
       <c r="E30" s="1">
         <f>542500*(100+$U$7)/100</f>
-        <v>575050</v>
+        <v>542500</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="16"/>
-        <v>74832</v>
+        <f t="shared" si="18"/>
+        <v>70200</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="17"/>
-        <v>520500</v>
+        <f t="shared" si="19"/>
+        <v>487950</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="18"/>
-        <v>10630</v>
+        <f t="shared" si="20"/>
+        <v>10000</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="19"/>
-        <v>813</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="J30">
         <v>460</v>
       </c>
       <c r="K30">
-        <f t="shared" si="14"/>
-        <v>588</v>
+        <f t="shared" si="16"/>
+        <v>460</v>
       </c>
       <c r="L30" s="14">
-        <f t="shared" si="15"/>
-        <v>0.61224489795918369</v>
+        <f t="shared" si="17"/>
+        <v>0.43478260869565216</v>
       </c>
       <c r="M30">
         <v>16</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="31" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C31" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="D31" s="1">
@@ -7288,34 +7288,34 @@
       </c>
       <c r="E31" s="1">
         <f>631600*(100+$U$7)/100</f>
-        <v>669496</v>
+        <v>631600</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="16"/>
-        <v>86746</v>
+        <f t="shared" si="18"/>
+        <v>81400</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="17"/>
-        <v>607246</v>
+        <f t="shared" si="19"/>
+        <v>569350</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="18"/>
-        <v>11914</v>
+        <f t="shared" si="20"/>
+        <v>11200</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="19"/>
-        <v>471</v>
+        <f t="shared" si="21"/>
+        <v>600</v>
       </c>
       <c r="J31">
         <v>470</v>
       </c>
       <c r="K31">
-        <f t="shared" si="14"/>
-        <v>598</v>
+        <f t="shared" si="16"/>
+        <v>470</v>
       </c>
       <c r="L31" s="14">
-        <f t="shared" si="15"/>
-        <v>0.60200668896321075</v>
+        <f t="shared" si="17"/>
+        <v>0.42553191489361702</v>
       </c>
       <c r="M31">
         <v>17</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="32" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C32" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="D32" s="1">
@@ -7343,34 +7343,34 @@
       </c>
       <c r="E32" s="1">
         <f>733900*(100+$U$7)/100</f>
-        <v>777934</v>
+        <v>733900</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="16"/>
-        <v>100038</v>
+        <f t="shared" si="18"/>
+        <v>93900</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="17"/>
-        <v>707284</v>
+        <f t="shared" si="19"/>
+        <v>663250</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="18"/>
-        <v>13292</v>
+        <f t="shared" si="20"/>
+        <v>12500</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="19"/>
-        <v>907</v>
+        <f t="shared" si="21"/>
+        <v>700</v>
       </c>
       <c r="J32">
         <v>480</v>
       </c>
       <c r="K32">
-        <f t="shared" si="14"/>
-        <v>608</v>
+        <f t="shared" si="16"/>
+        <v>480</v>
       </c>
       <c r="L32" s="14">
-        <f t="shared" si="15"/>
-        <v>0.59210526315789469</v>
+        <f t="shared" si="17"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="M32">
         <v>18</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
       <c r="D33" s="1">
@@ -7398,34 +7398,34 @@
       </c>
       <c r="E33" s="1">
         <f>850900*(100+$U$7)/100</f>
-        <v>901954</v>
+        <v>850900</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="16"/>
-        <v>114820</v>
+        <f t="shared" si="18"/>
+        <v>107800</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="17"/>
-        <v>822104</v>
+        <f t="shared" si="19"/>
+        <v>771050</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="18"/>
-        <v>14782</v>
+        <f t="shared" si="20"/>
+        <v>13900</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="19"/>
-        <v>583</v>
+        <f t="shared" si="21"/>
+        <v>700</v>
       </c>
       <c r="J33">
         <v>490</v>
       </c>
       <c r="K33">
-        <f t="shared" si="14"/>
-        <v>618</v>
+        <f t="shared" si="16"/>
+        <v>490</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" si="15"/>
-        <v>0.58252427184466016</v>
+        <f t="shared" si="17"/>
+        <v>0.40816326530612246</v>
       </c>
       <c r="M33">
         <v>19</v>
@@ -7445,7 +7445,7 @@
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="D34" s="1">
@@ -7453,34 +7453,34 @@
       </c>
       <c r="E34" s="1">
         <f>984000*(100+$U$7)/100</f>
-        <v>1043040</v>
+        <v>984000</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="16"/>
-        <v>131086</v>
+        <f t="shared" si="18"/>
+        <v>123100</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="17"/>
-        <v>953190</v>
+        <f t="shared" si="19"/>
+        <v>894150</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="18"/>
-        <v>16266</v>
+        <f t="shared" si="20"/>
+        <v>15300</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="19"/>
-        <v>901</v>
+        <f t="shared" si="21"/>
+        <v>700</v>
       </c>
       <c r="J34">
         <v>500</v>
       </c>
       <c r="K34">
-        <f t="shared" si="14"/>
-        <v>628</v>
+        <f t="shared" si="16"/>
+        <v>500</v>
       </c>
       <c r="L34" s="14">
-        <f t="shared" si="15"/>
-        <v>0.57324840764331209</v>
+        <f t="shared" si="17"/>
+        <v>0.4</v>
       </c>
       <c r="M34" s="10">
         <v>20</v>
@@ -7500,7 +7500,7 @@
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="D35" s="1">
@@ -7508,34 +7508,34 @@
       </c>
       <c r="E35" s="1">
         <f>1134700*(100+$U$7)/100</f>
-        <v>1202782</v>
+        <v>1134700</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="16"/>
-        <v>148942</v>
+        <f t="shared" si="18"/>
+        <v>139900</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="17"/>
-        <v>1102132</v>
+        <f t="shared" si="19"/>
+        <v>1034050</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="18"/>
-        <v>17856</v>
+        <f t="shared" si="20"/>
+        <v>16800</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="19"/>
-        <v>689</v>
+        <f t="shared" si="21"/>
+        <v>800</v>
       </c>
       <c r="J35">
         <v>510</v>
       </c>
       <c r="K35">
-        <f t="shared" si="14"/>
-        <v>638</v>
+        <f t="shared" si="16"/>
+        <v>510</v>
       </c>
       <c r="L35" s="14">
-        <f t="shared" si="15"/>
-        <v>0.56426332288401249</v>
+        <f t="shared" si="17"/>
+        <v>0.39215686274509803</v>
       </c>
       <c r="M35">
         <v>22</v>
@@ -7555,7 +7555,7 @@
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="D36" s="1">
@@ -7563,34 +7563,34 @@
       </c>
       <c r="E36" s="1">
         <f>1304600*(100+$U$7)/100</f>
-        <v>1382876</v>
+        <v>1304600</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="16"/>
-        <v>168494</v>
+        <f t="shared" si="18"/>
+        <v>158300</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="17"/>
-        <v>1270626</v>
+        <f t="shared" si="19"/>
+        <v>1192350</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="18"/>
-        <v>19552</v>
+        <f t="shared" si="20"/>
+        <v>18400</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="19"/>
-        <v>1007</v>
+        <f t="shared" si="21"/>
+        <v>800</v>
       </c>
       <c r="J36">
         <v>520</v>
       </c>
       <c r="K36">
-        <f t="shared" si="14"/>
-        <v>648</v>
+        <f t="shared" si="16"/>
+        <v>520</v>
       </c>
       <c r="L36" s="14">
-        <f t="shared" si="15"/>
-        <v>0.55555555555555558</v>
+        <f t="shared" si="17"/>
+        <v>0.38461538461538464</v>
       </c>
       <c r="M36">
         <v>24</v>
@@ -7610,7 +7610,7 @@
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C37" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>33</v>
       </c>
       <c r="D37" s="1">
@@ -7618,54 +7618,54 @@
       </c>
       <c r="E37" s="1">
         <f>1495400*(100+$U$7)/100</f>
-        <v>1585124</v>
+        <v>1495400</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="16"/>
-        <v>189748</v>
+        <f t="shared" si="18"/>
+        <v>178300</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="17"/>
-        <v>1460374</v>
+        <f t="shared" si="19"/>
+        <v>1370650</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="18"/>
-        <v>21254</v>
+        <f t="shared" si="20"/>
+        <v>20000</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="19"/>
-        <v>695</v>
+        <f t="shared" si="21"/>
+        <v>800</v>
       </c>
       <c r="J37">
         <v>530</v>
       </c>
       <c r="K37">
-        <f t="shared" si="14"/>
-        <v>658</v>
+        <f t="shared" si="16"/>
+        <v>530</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" si="15"/>
-        <v>0.54711246200607899</v>
+        <f t="shared" si="17"/>
+        <v>0.37735849056603776</v>
       </c>
       <c r="M37">
         <v>26</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N54" si="21">$M37+$N36</f>
+        <f t="shared" ref="N37:N54" si="23">$M37+$N36</f>
         <v>295.3</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37:O54" si="22">$C37*$C37/5</f>
+        <f t="shared" ref="O37:O54" si="24">$C37*$C37/5</f>
         <v>217.8</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="P37:P54" si="23">$O37-O36</f>
+        <f t="shared" ref="P37:P54" si="25">$O37-O36</f>
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C38" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
       <c r="D38" s="1">
@@ -7673,54 +7673,54 @@
       </c>
       <c r="E38" s="1">
         <f>1708800*(100+$U$7)/100</f>
-        <v>1811328</v>
+        <v>1708800</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="16"/>
-        <v>212804</v>
+        <f t="shared" si="18"/>
+        <v>200000</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="17"/>
-        <v>1673178</v>
+        <f t="shared" si="19"/>
+        <v>1570650</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="18"/>
-        <v>23056</v>
+        <f t="shared" si="20"/>
+        <v>21700</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="19"/>
-        <v>1107</v>
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
       <c r="J38">
         <v>540</v>
       </c>
       <c r="K38">
-        <f t="shared" si="14"/>
-        <v>668</v>
+        <f t="shared" si="16"/>
+        <v>540</v>
       </c>
       <c r="L38" s="14">
-        <f t="shared" si="15"/>
-        <v>0.53892215568862278</v>
+        <f t="shared" si="17"/>
+        <v>0.37037037037037035</v>
       </c>
       <c r="M38">
         <v>28</v>
       </c>
       <c r="N38">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>323.3</v>
       </c>
       <c r="O38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>231.2</v>
       </c>
       <c r="P38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>13.399999999999977</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C39" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="D39" s="1">
@@ -7728,54 +7728,54 @@
       </c>
       <c r="E39" s="1">
         <f>1946600*(100+$U$7)/100</f>
-        <v>2063396</v>
+        <v>1946600</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="16"/>
-        <v>237768</v>
+        <f t="shared" si="18"/>
+        <v>223500</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="17"/>
-        <v>1910946</v>
+        <f t="shared" si="19"/>
+        <v>1794150</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="18"/>
-        <v>24964</v>
+        <f t="shared" si="20"/>
+        <v>23500</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="19"/>
-        <v>801</v>
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
       <c r="J39">
         <v>550</v>
       </c>
       <c r="K39">
-        <f t="shared" si="14"/>
-        <v>678</v>
+        <f t="shared" si="16"/>
+        <v>550</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="15"/>
-        <v>0.53097345132743368</v>
+        <f t="shared" si="17"/>
+        <v>0.36363636363636365</v>
       </c>
       <c r="M39">
         <v>30</v>
       </c>
       <c r="N39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>353.3</v>
       </c>
       <c r="O39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>245</v>
       </c>
       <c r="P39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>13.800000000000011</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C40" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="D40" s="1">
@@ -7783,54 +7783,54 @@
       </c>
       <c r="E40" s="1">
         <f>2210700*(100+$U$7)/100</f>
-        <v>2343342</v>
+        <v>2210700</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="16"/>
-        <v>264646</v>
+        <f t="shared" si="18"/>
+        <v>248800</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="17"/>
-        <v>2175592</v>
+        <f t="shared" si="19"/>
+        <v>2042950</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="18"/>
-        <v>26878</v>
+        <f t="shared" si="20"/>
+        <v>25300</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="19"/>
-        <v>1113</v>
+        <f t="shared" si="21"/>
+        <v>900</v>
       </c>
       <c r="J40">
         <v>560</v>
       </c>
       <c r="K40">
-        <f t="shared" si="14"/>
-        <v>688</v>
+        <f t="shared" si="16"/>
+        <v>560</v>
       </c>
       <c r="L40" s="14">
-        <f t="shared" si="15"/>
-        <v>0.52325581395348841</v>
+        <f t="shared" si="17"/>
+        <v>0.35714285714285715</v>
       </c>
       <c r="M40">
         <v>32</v>
       </c>
       <c r="N40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>385.3</v>
       </c>
       <c r="O40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>259.2</v>
       </c>
       <c r="P40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>14.199999999999989</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C41" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="D41" s="1">
@@ -7838,54 +7838,54 @@
       </c>
       <c r="E41" s="1">
         <f>2503000*(100+$U$7)/100</f>
-        <v>2653180</v>
+        <v>2503000</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="16"/>
-        <v>293538</v>
+        <f t="shared" si="18"/>
+        <v>276000</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="17"/>
-        <v>2469130</v>
+        <f t="shared" si="19"/>
+        <v>2318950</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="18"/>
-        <v>28892</v>
+        <f t="shared" si="20"/>
+        <v>27200</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="19"/>
-        <v>901</v>
+        <f t="shared" si="21"/>
+        <v>1000</v>
       </c>
       <c r="J41">
         <v>570</v>
       </c>
       <c r="K41">
-        <f t="shared" si="14"/>
-        <v>698</v>
+        <f t="shared" si="16"/>
+        <v>570</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="15"/>
-        <v>0.51575931232091687</v>
+        <f t="shared" si="17"/>
+        <v>0.35087719298245612</v>
       </c>
       <c r="M41">
         <v>34</v>
       </c>
       <c r="N41">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>419.3</v>
       </c>
       <c r="O41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>273.8</v>
       </c>
       <c r="P41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>14.600000000000023</v>
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C42" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
       <c r="D42" s="1">
@@ -7893,54 +7893,54 @@
       </c>
       <c r="E42" s="1">
         <f>2825500*(100+$U$7)/100</f>
-        <v>2995030</v>
+        <v>2825500</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="16"/>
-        <v>324550</v>
+        <f t="shared" si="18"/>
+        <v>305200</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="17"/>
-        <v>2793680</v>
+        <f t="shared" si="19"/>
+        <v>2624150</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="18"/>
-        <v>31012</v>
+        <f t="shared" si="20"/>
+        <v>29200</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="19"/>
-        <v>1219</v>
+        <f t="shared" si="21"/>
+        <v>1000</v>
       </c>
       <c r="J42">
         <v>580</v>
       </c>
       <c r="K42">
-        <f t="shared" si="14"/>
-        <v>708</v>
+        <f t="shared" si="16"/>
+        <v>580</v>
       </c>
       <c r="L42" s="14">
-        <f t="shared" si="15"/>
-        <v>0.50847457627118642</v>
+        <f t="shared" si="17"/>
+        <v>0.34482758620689657</v>
       </c>
       <c r="M42">
         <v>36</v>
       </c>
       <c r="N42">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>455.3</v>
       </c>
       <c r="O42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>288.8</v>
       </c>
       <c r="P42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C43" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
       <c r="D43" s="1">
@@ -7948,54 +7948,54 @@
       </c>
       <c r="E43" s="1">
         <f>3180300*(100+$U$7)/100</f>
-        <v>3371118</v>
+        <v>3180300</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="16"/>
-        <v>357688</v>
+        <f t="shared" si="18"/>
+        <v>336400</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="17"/>
-        <v>3151368</v>
+        <f t="shared" si="19"/>
+        <v>2960550</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="18"/>
-        <v>33138</v>
+        <f t="shared" si="20"/>
+        <v>31200</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="19"/>
-        <v>907</v>
+        <f t="shared" si="21"/>
+        <v>1000</v>
       </c>
       <c r="J43">
         <v>590</v>
       </c>
       <c r="K43">
-        <f t="shared" si="14"/>
-        <v>718</v>
+        <f t="shared" si="16"/>
+        <v>590</v>
       </c>
       <c r="L43" s="14">
-        <f t="shared" si="15"/>
-        <v>0.50139275766016711</v>
+        <f t="shared" si="17"/>
+        <v>0.33898305084745761</v>
       </c>
       <c r="M43">
         <v>38</v>
       </c>
       <c r="N43">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>493.3</v>
       </c>
       <c r="O43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>304.2</v>
       </c>
       <c r="P43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>15.399999999999977</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C44" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="D44" s="6">
@@ -8029,21 +8029,21 @@
         <v>50</v>
       </c>
       <c r="N44">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>543.29999999999995</v>
       </c>
       <c r="O44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>320</v>
       </c>
       <c r="P44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>15.800000000000011</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C45" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="D45" s="1">
@@ -8051,19 +8051,19 @@
       </c>
       <c r="E45" s="1">
         <f>3800000*(100+$U$7)/100</f>
-        <v>4028000</v>
+        <v>3800000</v>
       </c>
       <c r="F45" s="1">
         <f>E45-D43-E43</f>
-        <v>637382</v>
+        <v>600200</v>
       </c>
       <c r="G45" s="1">
         <f>F45+G43</f>
-        <v>3788750</v>
+        <v>3560750</v>
       </c>
       <c r="H45" s="1">
         <f>F45-F43</f>
-        <v>279694</v>
+        <v>263800</v>
       </c>
       <c r="I45" s="1">
         <v>0</v>
@@ -8072,32 +8072,32 @@
         <v>620</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K54" si="24">$J45-$S$7+$R$7</f>
-        <v>748</v>
+        <f t="shared" ref="K45:K54" si="26">$J45-$S$7+$R$7</f>
+        <v>620</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" ref="L45:L54" si="25">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
-        <v>0.48128342245989303</v>
+        <f t="shared" ref="L45:L54" si="27">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
+        <v>0.32258064516129031</v>
       </c>
       <c r="M45">
         <v>55</v>
       </c>
       <c r="N45">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>598.29999999999995</v>
       </c>
       <c r="O45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>336.2</v>
       </c>
       <c r="P45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>16.199999999999989</v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C46" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="D46" s="1">
@@ -8105,54 +8105,54 @@
       </c>
       <c r="E46" s="1">
         <f>4200100*(100+$U$7)/100</f>
-        <v>4452106</v>
+        <v>4200100</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:F54" si="26">E46-D45-E45</f>
-        <v>394106</v>
+        <f t="shared" ref="F46:F54" si="28">E46-D45-E45</f>
+        <v>370100</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ref="G46:G54" si="27">F46+G45</f>
-        <v>4182856</v>
+        <f t="shared" ref="G46:G54" si="29">F46+G45</f>
+        <v>3930850</v>
       </c>
       <c r="H46" s="1">
         <f>F46-F43</f>
-        <v>36418</v>
+        <v>33700</v>
       </c>
       <c r="I46" s="1">
         <f>H46-H43-I43</f>
-        <v>2373</v>
+        <v>1500</v>
       </c>
       <c r="J46">
         <v>640</v>
       </c>
       <c r="K46">
-        <f t="shared" si="24"/>
-        <v>768</v>
+        <f t="shared" si="26"/>
+        <v>640</v>
       </c>
       <c r="L46" s="14">
-        <f t="shared" si="25"/>
-        <v>0.46875</v>
+        <f t="shared" si="27"/>
+        <v>0.3125</v>
       </c>
       <c r="M46">
         <v>60</v>
       </c>
       <c r="N46">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>658.3</v>
       </c>
       <c r="O46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>352.8</v>
       </c>
       <c r="P46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>16.600000000000023</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C47" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="D47" s="1">
@@ -8160,54 +8160,54 @@
       </c>
       <c r="E47" s="1">
         <f>4640000*(100+$U$7)/100</f>
-        <v>4918400</v>
+        <v>4640000</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="26"/>
-        <v>433294</v>
+        <f t="shared" si="28"/>
+        <v>406900</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="27"/>
-        <v>4616150</v>
+        <f t="shared" si="29"/>
+        <v>4337750</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:H54" si="28">F47-F46</f>
-        <v>39188</v>
+        <f t="shared" ref="H47:H54" si="30">F47-F46</f>
+        <v>36800</v>
       </c>
       <c r="I47" s="1">
         <f>H47-H46-I46</f>
-        <v>397</v>
+        <v>1600</v>
       </c>
       <c r="J47">
         <v>660</v>
       </c>
       <c r="K47">
-        <f t="shared" si="24"/>
-        <v>788</v>
+        <f t="shared" si="26"/>
+        <v>660</v>
       </c>
       <c r="L47" s="14">
-        <f t="shared" si="25"/>
-        <v>0.45685279187817257</v>
+        <f t="shared" si="27"/>
+        <v>0.30303030303030304</v>
       </c>
       <c r="M47">
         <v>65</v>
       </c>
       <c r="N47">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>723.3</v>
       </c>
       <c r="O47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>369.8</v>
       </c>
       <c r="P47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C48" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="D48" s="1">
@@ -8215,54 +8215,54 @@
       </c>
       <c r="E48" s="1">
         <f>5123000*(100+$U$7)/100</f>
-        <v>5430380</v>
+        <v>5123000</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="26"/>
-        <v>475980</v>
+        <f t="shared" si="28"/>
+        <v>447000</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="27"/>
-        <v>5092130</v>
+        <f t="shared" si="29"/>
+        <v>4784750</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="28"/>
-        <v>42686</v>
+        <f t="shared" si="30"/>
+        <v>40100</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" ref="I48:I54" si="29">H48-H47-I47</f>
-        <v>3101</v>
+        <f t="shared" ref="I48:I54" si="31">H48-H47-I47</f>
+        <v>1700</v>
       </c>
       <c r="J48">
         <v>680</v>
       </c>
       <c r="K48">
-        <f t="shared" si="24"/>
-        <v>808</v>
+        <f t="shared" si="26"/>
+        <v>680</v>
       </c>
       <c r="L48" s="14">
-        <f t="shared" si="25"/>
-        <v>0.44554455445544555</v>
+        <f t="shared" si="27"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="M48">
         <v>70</v>
       </c>
       <c r="N48">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>793.3</v>
       </c>
       <c r="O48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>387.2</v>
       </c>
       <c r="P48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>17.399999999999977</v>
       </c>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C49" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="D49" s="1">
@@ -8270,54 +8270,54 @@
       </c>
       <c r="E49" s="1">
         <f>5652600*(100+$U$7)/100</f>
-        <v>5991756</v>
+        <v>5652600</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="26"/>
-        <v>522376</v>
+        <f t="shared" si="28"/>
+        <v>490600</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="27"/>
-        <v>5614506</v>
+        <f t="shared" si="29"/>
+        <v>5275350</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="28"/>
-        <v>46396</v>
+        <f t="shared" si="30"/>
+        <v>43600</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="29"/>
-        <v>609</v>
+        <f t="shared" si="31"/>
+        <v>1800</v>
       </c>
       <c r="J49">
         <v>700</v>
       </c>
       <c r="K49">
-        <f t="shared" si="24"/>
-        <v>828</v>
+        <f t="shared" si="26"/>
+        <v>700</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="25"/>
-        <v>0.43478260869565216</v>
+        <f t="shared" si="27"/>
+        <v>0.2857142857142857</v>
       </c>
       <c r="M49">
         <v>75</v>
       </c>
       <c r="N49">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>868.3</v>
       </c>
       <c r="O49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>405</v>
       </c>
       <c r="P49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>17.800000000000011</v>
       </c>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C50" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
       <c r="D50" s="1">
@@ -8325,54 +8325,54 @@
       </c>
       <c r="E50" s="1">
         <f>6232500*(100+$U$7)/100</f>
-        <v>6606450</v>
+        <v>6232500</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="26"/>
-        <v>572694</v>
+        <f t="shared" si="28"/>
+        <v>537900</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="27"/>
-        <v>6187200</v>
+        <f t="shared" si="29"/>
+        <v>5813250</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="28"/>
-        <v>50318</v>
+        <f t="shared" si="30"/>
+        <v>47300</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="29"/>
-        <v>3313</v>
+        <f t="shared" si="31"/>
+        <v>1900</v>
       </c>
       <c r="J50">
         <v>720</v>
       </c>
       <c r="K50">
-        <f t="shared" si="24"/>
-        <v>848</v>
+        <f t="shared" si="26"/>
+        <v>720</v>
       </c>
       <c r="L50" s="14">
-        <f t="shared" si="25"/>
-        <v>0.42452830188679247</v>
+        <f t="shared" si="27"/>
+        <v>0.27777777777777779</v>
       </c>
       <c r="M50">
         <v>80</v>
       </c>
       <c r="N50">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>948.3</v>
       </c>
       <c r="O50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>423.2</v>
       </c>
       <c r="P50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>18.199999999999989</v>
       </c>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C51" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="D51" s="1">
@@ -8380,54 +8380,54 @@
       </c>
       <c r="E51" s="1">
         <f>6866600*(100+$U$7)/100</f>
-        <v>7278596</v>
+        <v>6866600</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="26"/>
-        <v>627146</v>
+        <f t="shared" si="28"/>
+        <v>589100</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="27"/>
-        <v>6814346</v>
+        <f t="shared" si="29"/>
+        <v>6402350</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="28"/>
-        <v>54452</v>
+        <f t="shared" si="30"/>
+        <v>51200</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="29"/>
-        <v>821</v>
+        <f t="shared" si="31"/>
+        <v>2000</v>
       </c>
       <c r="J51">
         <v>740</v>
       </c>
       <c r="K51">
-        <f t="shared" si="24"/>
-        <v>868</v>
+        <f t="shared" si="26"/>
+        <v>740</v>
       </c>
       <c r="L51" s="14">
-        <f t="shared" si="25"/>
-        <v>0.41474654377880182</v>
+        <f t="shared" si="27"/>
+        <v>0.27027027027027029</v>
       </c>
       <c r="M51">
         <v>85</v>
       </c>
       <c r="N51">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1033.3</v>
       </c>
       <c r="O51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>441.8</v>
       </c>
       <c r="P51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>18.600000000000023</v>
       </c>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C52" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="D52" s="1">
@@ -8435,54 +8435,54 @@
       </c>
       <c r="E52" s="1">
         <f>7561000*(100+$U$7)/100</f>
-        <v>8014660</v>
+        <v>7561000</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="26"/>
-        <v>686064</v>
+        <f t="shared" si="28"/>
+        <v>644400</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="27"/>
-        <v>7500410</v>
+        <f t="shared" si="29"/>
+        <v>7046750</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="28"/>
-        <v>58918</v>
+        <f t="shared" si="30"/>
+        <v>55300</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="29"/>
-        <v>3645</v>
+        <f t="shared" si="31"/>
+        <v>2100</v>
       </c>
       <c r="J52">
         <v>760</v>
       </c>
       <c r="K52">
-        <f t="shared" si="24"/>
-        <v>888</v>
+        <f t="shared" si="26"/>
+        <v>760</v>
       </c>
       <c r="L52" s="14">
-        <f t="shared" si="25"/>
-        <v>0.40540540540540543</v>
+        <f t="shared" si="27"/>
+        <v>0.26315789473684209</v>
       </c>
       <c r="M52">
         <v>90</v>
       </c>
       <c r="N52">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1123.3</v>
       </c>
       <c r="O52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>460.8</v>
       </c>
       <c r="P52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C53" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="D53" s="1">
@@ -8490,54 +8490,54 @@
       </c>
       <c r="E53" s="1">
         <f>8320000*(100+$U$7)/100</f>
-        <v>8819200</v>
+        <v>8320000</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="26"/>
-        <v>749540</v>
+        <f t="shared" si="28"/>
+        <v>704000</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="27"/>
-        <v>8249950</v>
+        <f t="shared" si="29"/>
+        <v>7750750</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="28"/>
-        <v>63476</v>
+        <f t="shared" si="30"/>
+        <v>59600</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="29"/>
-        <v>913</v>
+        <f t="shared" si="31"/>
+        <v>2200</v>
       </c>
       <c r="J53">
         <v>780</v>
       </c>
       <c r="K53">
-        <f t="shared" si="24"/>
-        <v>908</v>
+        <f t="shared" si="26"/>
+        <v>780</v>
       </c>
       <c r="L53" s="14">
-        <f t="shared" si="25"/>
-        <v>0.3964757709251101</v>
+        <f t="shared" si="27"/>
+        <v>0.25641025641025639</v>
       </c>
       <c r="M53">
         <v>95</v>
       </c>
       <c r="N53">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1218.3</v>
       </c>
       <c r="O53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>480.2</v>
       </c>
       <c r="P53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>19.399999999999977</v>
       </c>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C54" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="D54" s="1">
@@ -8545,48 +8545,48 @@
       </c>
       <c r="E54" s="1">
         <f>9148100*(100+$U$7)/100</f>
-        <v>9696986</v>
+        <v>9148100</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="26"/>
-        <v>817786</v>
+        <f t="shared" si="28"/>
+        <v>768100</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="27"/>
-        <v>9067736</v>
+        <f t="shared" si="29"/>
+        <v>8518850</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="28"/>
-        <v>68246</v>
+        <f t="shared" si="30"/>
+        <v>64100</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="29"/>
-        <v>3857</v>
+        <f t="shared" si="31"/>
+        <v>2300</v>
       </c>
       <c r="J54">
         <v>800</v>
       </c>
       <c r="K54">
-        <f t="shared" si="24"/>
-        <v>928</v>
+        <f t="shared" si="26"/>
+        <v>800</v>
       </c>
       <c r="L54" s="14">
-        <f t="shared" si="25"/>
-        <v>0.38793103448275862</v>
+        <f t="shared" si="27"/>
+        <v>0.25</v>
       </c>
       <c r="M54" s="10">
         <v>100</v>
       </c>
       <c r="N54">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1318.3</v>
       </c>
       <c r="O54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="P54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>19.800000000000011</v>
       </c>
     </row>

--- a/검 강화 게임.xlsx
+++ b/검 강화 게임.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\문서\GitHub\Unity_Weapon_Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9E3DBA-40CC-467A-BD4A-FC0CABF35239}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A990AD5F-ABAE-4316-86BA-9B9DAA0AE946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{D3FEDBA6-35E5-45CF-B54A-9F527DCBFA6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>SELL</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>Stats</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2434,154 +2438,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.8</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13.3</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16.3</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.8</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.8</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28.3</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>33.299999999999997</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>38.799999999999997</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44.8</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>51.3</c:v>
+                  <c:v>513</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>58.3</c:v>
+                  <c:v>583</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>68.3</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>79.3</c:v>
+                  <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>91.3</c:v>
+                  <c:v>913</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>104.3</c:v>
+                  <c:v>1043</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>118.3</c:v>
+                  <c:v>1183</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>133.30000000000001</c:v>
+                  <c:v>1333</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>149.30000000000001</c:v>
+                  <c:v>1493</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>166.3</c:v>
+                  <c:v>1663</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>184.3</c:v>
+                  <c:v>1843</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>203.3</c:v>
+                  <c:v>2033</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>223.3</c:v>
+                  <c:v>2233</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>245.3</c:v>
+                  <c:v>2453</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>269.3</c:v>
+                  <c:v>2693</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>295.3</c:v>
+                  <c:v>2953</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>323.3</c:v>
+                  <c:v>3233</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>353.3</c:v>
+                  <c:v>3533</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>385.3</c:v>
+                  <c:v>3853</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>419.3</c:v>
+                  <c:v>4193</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>455.3</c:v>
+                  <c:v>4553</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>493.3</c:v>
+                  <c:v>4933</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>543.29999999999995</c:v>
+                  <c:v>5433</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>598.29999999999995</c:v>
+                  <c:v>5983</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>658.3</c:v>
+                  <c:v>6583</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>723.3</c:v>
+                  <c:v>7233</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>793.3</c:v>
+                  <c:v>7933</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>868.3</c:v>
+                  <c:v>8683</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>948.3</c:v>
+                  <c:v>9483</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1033.3</c:v>
+                  <c:v>10333</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1123.3</c:v>
+                  <c:v>11233</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1218.3</c:v>
+                  <c:v>12183</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1318.3</c:v>
+                  <c:v>13183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4843,8 +4847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62FF258-7648-4ED0-AA06-DFEB56F203C0}">
   <dimension ref="C2:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P2" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+    <sheetView tabSelected="1" topLeftCell="H29" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4986,7 +4990,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -5031,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="AN4" s="1">
         <v>16</v>
@@ -5079,47 +5083,47 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="M5">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N36" si="6">$M5+$N4</f>
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O36" si="7">$C5*$C5/5</f>
-        <v>0.2</v>
+        <f>$C5*$C5*2</f>
+        <v>2</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P36" si="8">$O5-O4</f>
-        <v>0.2</v>
+        <f t="shared" ref="P5:P36" si="7">$O5-O4</f>
+        <v>2</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" ref="Z5:Z24" si="9">Z4+1</f>
+        <f t="shared" ref="Z5:Z24" si="8">Z4+1</f>
         <v>1</v>
       </c>
       <c r="AA5" s="1">
         <v>100000</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AB23" si="10">$AA5-$AA4</f>
+        <f t="shared" ref="AB5:AB23" si="9">$AA5-$AA4</f>
         <v>50000</v>
       </c>
       <c r="AC5" s="1">
         <v>32</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" ref="AD5:AD24" si="11">$AC4+$AD4</f>
+        <f t="shared" ref="AD5:AD24" si="10">$AC4+$AD4</f>
         <v>32</v>
       </c>
       <c r="AE5" s="1">
         <v>2</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF24" si="12">$AF4+$AE4</f>
+        <f t="shared" ref="AF5:AF24" si="11">$AF4+$AE4</f>
         <v>1</v>
       </c>
       <c r="AL5" s="2">
-        <f t="shared" ref="AL5:AL24" si="13">AL4+1</f>
+        <f t="shared" ref="AL5:AL24" si="12">AL4+1</f>
         <v>1</v>
       </c>
       <c r="AM5" s="1">
@@ -5129,7 +5133,7 @@
         <v>16</v>
       </c>
       <c r="AO5" s="1">
-        <f t="shared" ref="AO5:AO24" si="14">$AN5+$AO4</f>
+        <f t="shared" ref="AO5:AO24" si="13">$AN5+$AO4</f>
         <v>16</v>
       </c>
     </row>
@@ -5158,7 +5162,7 @@
         <v>50</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I23" si="15">H6-H5-I5</f>
+        <f t="shared" ref="I6:I23" si="14">H6-H5-I5</f>
         <v>50</v>
       </c>
       <c r="J6">
@@ -5173,19 +5177,19 @@
         <v>0.90909090909090906</v>
       </c>
       <c r="M6">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O6">
+        <f>$C6*$C6*2</f>
+        <v>8</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="7"/>
-        <v>0.8</v>
-      </c>
-      <c r="P6">
-        <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
+        <v>6</v>
       </c>
       <c r="R6" s="8" t="s">
         <v>16</v>
@@ -5197,32 +5201,32 @@
         <v>32</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AA6" s="1">
         <v>150000</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>50000</v>
       </c>
       <c r="AC6" s="1">
         <v>32</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="AE6" s="1">
         <v>3</v>
       </c>
       <c r="AF6" s="1">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AL6" s="2">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="AL6" s="2">
-        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AM6" s="1">
@@ -5232,7 +5236,7 @@
         <v>16</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>32</v>
       </c>
     </row>
@@ -5261,7 +5265,7 @@
         <v>100</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J7">
@@ -5276,19 +5280,19 @@
         <v>0.86956521739130432</v>
       </c>
       <c r="M7">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <f t="shared" si="6"/>
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="O7">
+        <f>$C7*$C7*2</f>
+        <v>18</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="7"/>
-        <v>1.8</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R7">
         <f>INDEX(Z4:AF24,MATCH($R$11, $Z4:$Z24), 5)</f>
@@ -5303,32 +5307,32 @@
         <v>0</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AA7" s="1">
         <v>230000</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>80000</v>
       </c>
       <c r="AC7" s="1">
         <v>32</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="AE7" s="1">
         <v>4</v>
       </c>
       <c r="AF7" s="1">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AL7" s="2">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AL7" s="2">
-        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AM7" s="1">
@@ -5338,7 +5342,7 @@
         <v>16</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>48</v>
       </c>
     </row>
@@ -5367,7 +5371,7 @@
         <v>150</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="J8">
@@ -5382,47 +5386,47 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
-        <v>2.8</v>
+        <v>28</v>
       </c>
       <c r="O8">
+        <f>$C8*$C8*2</f>
+        <v>32</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="7"/>
-        <v>3.2</v>
-      </c>
-      <c r="P8">
+        <v>14</v>
+      </c>
+      <c r="Z8" s="2">
         <f t="shared" si="8"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="Z8" s="2">
-        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AA8" s="1">
         <v>350000</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>120000</v>
       </c>
       <c r="AC8" s="1">
         <v>32</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>128</v>
       </c>
       <c r="AE8" s="1">
         <v>5</v>
       </c>
       <c r="AF8" s="1">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AL8" s="2">
         <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="AL8" s="2">
-        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AM8" s="1">
@@ -5432,7 +5436,7 @@
         <v>16</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>64</v>
       </c>
     </row>
@@ -5461,7 +5465,7 @@
         <v>250</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="J9">
@@ -5476,47 +5480,47 @@
         <v>0.8</v>
       </c>
       <c r="M9">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="N9">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="O9">
+        <f>$C9*$C9*2</f>
+        <v>50</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="7"/>
-        <v>5</v>
-      </c>
-      <c r="P9">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="2">
         <f t="shared" si="8"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="Z9" s="2">
-        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AA9" s="1">
         <v>530000</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>180000</v>
       </c>
       <c r="AC9" s="1">
         <v>32</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="AE9" s="1">
         <v>6</v>
       </c>
       <c r="AF9" s="1">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AL9" s="2">
         <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="AL9" s="2">
-        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AM9" s="1">
@@ -5526,7 +5530,7 @@
         <v>16</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
     </row>
@@ -5555,7 +5559,7 @@
         <v>350</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>50</v>
       </c>
       <c r="J10">
@@ -5570,19 +5574,19 @@
         <v>0.76923076923076927</v>
       </c>
       <c r="M10">
-        <v>1.4</v>
+        <v>14</v>
       </c>
       <c r="N10">
         <f t="shared" si="6"/>
-        <v>5.4</v>
+        <v>54</v>
       </c>
       <c r="O10">
+        <f>$C10*$C10*2</f>
+        <v>72</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="7"/>
-        <v>7.2</v>
-      </c>
-      <c r="P10">
-        <f t="shared" si="8"/>
-        <v>2.2000000000000002</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
         <v>17</v>
@@ -5591,32 +5595,32 @@
         <v>33</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AA10" s="1">
         <v>780000</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>250000</v>
       </c>
       <c r="AC10" s="1">
         <v>32</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>192</v>
       </c>
       <c r="AE10" s="1">
         <v>7</v>
       </c>
       <c r="AF10" s="1">
+        <f t="shared" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="AL10" s="2">
         <f t="shared" si="12"/>
-        <v>21</v>
-      </c>
-      <c r="AL10" s="2">
-        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AM10" s="1">
@@ -5626,7 +5630,7 @@
         <v>16</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>96</v>
       </c>
     </row>
@@ -5655,7 +5659,7 @@
         <v>500</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="J11">
@@ -5670,19 +5674,19 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="M11">
-        <v>1.6</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="O11">
+        <f>$C11*$C11*2</f>
+        <v>98</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="7"/>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="8"/>
-        <v>2.6000000000000005</v>
+        <v>26</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -5691,32 +5695,32 @@
         <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AA11" s="1">
         <v>1120000</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>340000</v>
       </c>
       <c r="AC11" s="1">
         <v>32</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>224</v>
       </c>
       <c r="AE11" s="1">
         <v>8</v>
       </c>
       <c r="AF11" s="1">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="AL11" s="2">
         <f t="shared" si="12"/>
-        <v>28</v>
-      </c>
-      <c r="AL11" s="2">
-        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AM11" s="1">
@@ -5726,7 +5730,7 @@
         <v>16</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
     </row>
@@ -5755,7 +5759,7 @@
         <v>700</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="J12">
@@ -5770,47 +5774,47 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="M12">
-        <v>1.8</v>
+        <v>18</v>
       </c>
       <c r="N12">
         <f t="shared" si="6"/>
-        <v>8.8000000000000007</v>
+        <v>88</v>
       </c>
       <c r="O12">
+        <f>$C12*$C12*2</f>
+        <v>128</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="7"/>
-        <v>12.8</v>
-      </c>
-      <c r="P12">
+        <v>30</v>
+      </c>
+      <c r="Z12" s="2">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="Z12" s="2">
-        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AA12" s="1">
         <v>1520000</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>400000</v>
       </c>
       <c r="AC12" s="1">
         <v>32</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="AE12" s="1">
         <v>9</v>
       </c>
       <c r="AF12" s="1">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="AL12" s="2">
         <f t="shared" si="12"/>
-        <v>36</v>
-      </c>
-      <c r="AL12" s="2">
-        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AM12" s="1">
@@ -5820,7 +5824,7 @@
         <v>16</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>128</v>
       </c>
     </row>
@@ -5849,7 +5853,7 @@
         <v>900</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>100</v>
       </c>
       <c r="J13">
@@ -5864,50 +5868,50 @@
         <v>0.68965517241379315</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <f t="shared" si="6"/>
-        <v>10.8</v>
+        <v>108</v>
       </c>
       <c r="O13">
+        <f>$C13*$C13*2</f>
+        <v>162</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="7"/>
-        <v>16.2</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="8"/>
-        <v>3.3999999999999986</v>
+        <v>34</v>
       </c>
       <c r="R13" t="s">
         <v>18</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AA13" s="1">
         <v>800</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-1519200</v>
       </c>
       <c r="AC13" s="1">
         <v>64</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>288</v>
       </c>
       <c r="AE13" s="1">
         <v>10</v>
       </c>
       <c r="AF13" s="1">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="AL13" s="2">
         <f t="shared" si="12"/>
-        <v>45</v>
-      </c>
-      <c r="AL13" s="2">
-        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AM13" s="1">
@@ -5917,7 +5921,7 @@
         <v>16</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>144</v>
       </c>
     </row>
@@ -5946,7 +5950,7 @@
         <v>1150</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="J14">
@@ -5961,51 +5965,51 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="M14" s="10">
-        <v>2.5</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <f t="shared" si="6"/>
-        <v>13.3</v>
+        <v>133</v>
       </c>
       <c r="O14">
+        <f>$C14*$C14*2</f>
+        <v>200</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="P14">
-        <f t="shared" si="8"/>
-        <v>3.8000000000000007</v>
+        <v>38</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="AA14" s="1">
         <v>1000</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="AC14" s="1">
         <v>32</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>352</v>
       </c>
       <c r="AE14" s="1">
         <v>11</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>55</v>
       </c>
       <c r="AJ14" s="11"/>
       <c r="AL14" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="AM14" s="1">
@@ -6015,7 +6019,7 @@
         <v>16</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>160</v>
       </c>
     </row>
@@ -6044,7 +6048,7 @@
         <v>1450</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="J15">
@@ -6059,47 +6063,47 @@
         <v>0.64516129032258063</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <f t="shared" si="6"/>
-        <v>16.3</v>
+        <v>163</v>
       </c>
       <c r="O15">
+        <f>$C15*$C15*2</f>
+        <v>242</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="7"/>
-        <v>24.2</v>
-      </c>
-      <c r="P15">
+        <v>42</v>
+      </c>
+      <c r="Z15" s="2">
         <f t="shared" si="8"/>
-        <v>4.1999999999999993</v>
-      </c>
-      <c r="Z15" s="2">
-        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="AA15" s="1">
         <v>1200</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="AC15" s="1">
         <v>32</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>384</v>
       </c>
       <c r="AE15" s="1">
         <v>12</v>
       </c>
       <c r="AF15" s="1">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="AL15" s="2">
         <f t="shared" si="12"/>
-        <v>66</v>
-      </c>
-      <c r="AL15" s="2">
-        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AM15" s="1">
@@ -6109,7 +6113,7 @@
         <v>16</v>
       </c>
       <c r="AO15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>176</v>
       </c>
     </row>
@@ -6138,7 +6142,7 @@
         <v>1750</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>150</v>
       </c>
       <c r="J16">
@@ -6153,47 +6157,47 @@
         <v>0.625</v>
       </c>
       <c r="M16">
-        <v>3.5</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <f t="shared" si="6"/>
-        <v>19.8</v>
+        <v>198</v>
       </c>
       <c r="O16">
+        <f>$C16*$C16*2</f>
+        <v>288</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="7"/>
-        <v>28.8</v>
-      </c>
-      <c r="P16">
+        <v>46</v>
+      </c>
+      <c r="Z16" s="2">
         <f t="shared" si="8"/>
-        <v>4.6000000000000014</v>
-      </c>
-      <c r="Z16" s="2">
-        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="AA16" s="1">
         <v>1400</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="AC16" s="1">
         <v>32</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>416</v>
       </c>
       <c r="AE16" s="1">
         <v>13</v>
       </c>
       <c r="AF16" s="1">
+        <f t="shared" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="AL16" s="2">
         <f t="shared" si="12"/>
-        <v>78</v>
-      </c>
-      <c r="AL16" s="2">
-        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AM16" s="1">
@@ -6203,7 +6207,7 @@
         <v>16</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>192</v>
       </c>
     </row>
@@ -6232,7 +6236,7 @@
         <v>2100</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="J17">
@@ -6247,47 +6251,47 @@
         <v>0.60606060606060608</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <f t="shared" si="6"/>
-        <v>23.8</v>
+        <v>238</v>
       </c>
       <c r="O17">
+        <f>$C17*$C17*2</f>
+        <v>338</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="7"/>
-        <v>33.799999999999997</v>
-      </c>
-      <c r="P17">
+        <v>50</v>
+      </c>
+      <c r="Z17" s="2">
         <f t="shared" si="8"/>
-        <v>4.9999999999999964</v>
-      </c>
-      <c r="Z17" s="2">
-        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="AA17" s="1">
         <v>1650</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="AC17" s="1">
         <v>32</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>448</v>
       </c>
       <c r="AE17" s="1">
         <v>14</v>
       </c>
       <c r="AF17" s="1">
+        <f t="shared" si="11"/>
+        <v>91</v>
+      </c>
+      <c r="AL17" s="2">
         <f t="shared" si="12"/>
-        <v>91</v>
-      </c>
-      <c r="AL17" s="2">
-        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="AM17" s="1">
@@ -6297,7 +6301,7 @@
         <v>16</v>
       </c>
       <c r="AO17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>208</v>
       </c>
     </row>
@@ -6326,7 +6330,7 @@
         <v>2500</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="J18">
@@ -6341,47 +6345,47 @@
         <v>0.58823529411764708</v>
       </c>
       <c r="M18">
-        <v>4.5</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <f t="shared" si="6"/>
-        <v>28.3</v>
+        <v>283</v>
       </c>
       <c r="O18">
+        <f>$C18*$C18*2</f>
+        <v>392</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="7"/>
-        <v>39.200000000000003</v>
-      </c>
-      <c r="P18">
+        <v>54</v>
+      </c>
+      <c r="Z18" s="2">
         <f t="shared" si="8"/>
-        <v>5.4000000000000057</v>
-      </c>
-      <c r="Z18" s="2">
-        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="AA18" s="1">
         <v>1900</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>250</v>
       </c>
       <c r="AC18" s="1">
         <v>32</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>480</v>
       </c>
       <c r="AE18" s="1">
         <v>15</v>
       </c>
       <c r="AF18" s="1">
+        <f t="shared" si="11"/>
+        <v>105</v>
+      </c>
+      <c r="AL18" s="2">
         <f t="shared" si="12"/>
-        <v>105</v>
-      </c>
-      <c r="AL18" s="2">
-        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AM18" s="1">
@@ -6391,7 +6395,7 @@
         <v>16</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>224</v>
       </c>
     </row>
@@ -6420,7 +6424,7 @@
         <v>2900</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>200</v>
       </c>
       <c r="J19">
@@ -6435,47 +6439,47 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="M19">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <f t="shared" si="6"/>
-        <v>33.299999999999997</v>
+        <v>333</v>
       </c>
       <c r="O19">
+        <f>$C19*$C19*2</f>
+        <v>450</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="P19">
+        <v>58</v>
+      </c>
+      <c r="Z19" s="2">
         <f t="shared" si="8"/>
-        <v>5.7999999999999972</v>
-      </c>
-      <c r="Z19" s="2">
-        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="AA19" s="1">
         <v>2200</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="AC19" s="1">
         <v>32</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>512</v>
       </c>
       <c r="AE19" s="1">
         <v>16</v>
       </c>
       <c r="AF19" s="1">
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="AL19" s="2">
         <f t="shared" si="12"/>
-        <v>120</v>
-      </c>
-      <c r="AL19" s="2">
-        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AM19" s="1">
@@ -6485,7 +6489,7 @@
         <v>16</v>
       </c>
       <c r="AO19" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>240</v>
       </c>
     </row>
@@ -6514,7 +6518,7 @@
         <v>3350</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="J20">
@@ -6529,47 +6533,47 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="M20">
-        <v>5.5</v>
+        <v>55</v>
       </c>
       <c r="N20">
         <f t="shared" si="6"/>
-        <v>38.799999999999997</v>
+        <v>388</v>
       </c>
       <c r="O20">
+        <f>$C20*$C20*2</f>
+        <v>512</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="7"/>
-        <v>51.2</v>
-      </c>
-      <c r="P20">
+        <v>62</v>
+      </c>
+      <c r="Z20" s="2">
         <f t="shared" si="8"/>
-        <v>6.2000000000000028</v>
-      </c>
-      <c r="Z20" s="2">
-        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AA20" s="1">
         <v>2500</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="AC20" s="1">
         <v>32</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>544</v>
       </c>
       <c r="AE20" s="1">
         <v>17</v>
       </c>
       <c r="AF20" s="1">
+        <f t="shared" si="11"/>
+        <v>136</v>
+      </c>
+      <c r="AL20" s="2">
         <f t="shared" si="12"/>
-        <v>136</v>
-      </c>
-      <c r="AL20" s="2">
-        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="AM20" s="1">
@@ -6579,7 +6583,7 @@
         <v>16</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>256</v>
       </c>
     </row>
@@ -6608,7 +6612,7 @@
         <v>3850</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="J21">
@@ -6623,47 +6627,47 @@
         <v>0.54054054054054057</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <f t="shared" si="6"/>
-        <v>44.8</v>
+        <v>448</v>
       </c>
       <c r="O21">
+        <f>$C21*$C21*2</f>
+        <v>578</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="7"/>
-        <v>57.8</v>
-      </c>
-      <c r="P21">
+        <v>66</v>
+      </c>
+      <c r="Z21" s="2">
         <f t="shared" si="8"/>
-        <v>6.5999999999999943</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="AA21" s="1">
         <v>2800</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="AC21" s="1">
         <v>32</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>576</v>
       </c>
       <c r="AE21" s="1">
         <v>18</v>
       </c>
       <c r="AF21" s="1">
+        <f t="shared" si="11"/>
+        <v>153</v>
+      </c>
+      <c r="AL21" s="2">
         <f t="shared" si="12"/>
-        <v>153</v>
-      </c>
-      <c r="AL21" s="2">
-        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AM21" s="1">
@@ -6673,7 +6677,7 @@
         <v>16</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>272</v>
       </c>
     </row>
@@ -6702,7 +6706,7 @@
         <v>4350</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>250</v>
       </c>
       <c r="J22">
@@ -6717,47 +6721,47 @@
         <v>0.52631578947368418</v>
       </c>
       <c r="M22">
-        <v>6.5</v>
+        <v>65</v>
       </c>
       <c r="N22">
         <f t="shared" si="6"/>
-        <v>51.3</v>
+        <v>513</v>
       </c>
       <c r="O22">
+        <f>$C22*$C22*2</f>
+        <v>648</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="7"/>
-        <v>64.8</v>
-      </c>
-      <c r="P22">
+        <v>70</v>
+      </c>
+      <c r="Z22" s="2">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="Z22" s="2">
-        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="AA22" s="1">
         <v>3100</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="AC22" s="1">
         <v>32</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>608</v>
       </c>
       <c r="AE22" s="1">
         <v>19</v>
       </c>
       <c r="AF22" s="1">
+        <f t="shared" si="11"/>
+        <v>171</v>
+      </c>
+      <c r="AL22" s="2">
         <f t="shared" si="12"/>
-        <v>171</v>
-      </c>
-      <c r="AL22" s="2">
-        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="AM22" s="1">
@@ -6767,7 +6771,7 @@
         <v>16</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>288</v>
       </c>
     </row>
@@ -6796,7 +6800,7 @@
         <v>4900</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>300</v>
       </c>
       <c r="J23">
@@ -6811,47 +6815,47 @@
         <v>0.51282051282051277</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="N23">
         <f t="shared" si="6"/>
-        <v>58.3</v>
+        <v>583</v>
       </c>
       <c r="O23">
+        <f>$C23*$C23*2</f>
+        <v>722</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="7"/>
-        <v>72.2</v>
-      </c>
-      <c r="P23">
+        <v>74</v>
+      </c>
+      <c r="Z23" s="2">
         <f t="shared" si="8"/>
-        <v>7.4000000000000057</v>
-      </c>
-      <c r="Z23" s="2">
-        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="AA23" s="1">
         <v>3400</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="AC23" s="1">
         <v>64</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="AE23" s="1">
         <v>20</v>
       </c>
       <c r="AF23" s="1">
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="AL23" s="2">
         <f t="shared" si="12"/>
-        <v>190</v>
-      </c>
-      <c r="AL23" s="2">
-        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="AM23" s="1">
@@ -6861,7 +6865,7 @@
         <v>16</v>
       </c>
       <c r="AO23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>304</v>
       </c>
     </row>
@@ -6898,22 +6902,22 @@
         <v>0.7</v>
       </c>
       <c r="M24" s="10">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="N24">
         <f t="shared" si="6"/>
-        <v>68.3</v>
+        <v>683</v>
       </c>
       <c r="O24">
+        <f>$C24*$C24*2</f>
+        <v>800</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="P24">
+        <v>78</v>
+      </c>
+      <c r="Z24" s="2">
         <f t="shared" si="8"/>
-        <v>7.7999999999999972</v>
-      </c>
-      <c r="Z24" s="2">
-        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="AA24" s="12">
@@ -6923,19 +6927,19 @@
         <v>32</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>704</v>
       </c>
       <c r="AE24" s="1">
         <v>21</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>210</v>
       </c>
       <c r="AJ24" s="11"/>
       <c r="AL24" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="AM24" s="12">
@@ -6945,7 +6949,7 @@
         <v>16</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>320</v>
       </c>
     </row>
@@ -6980,27 +6984,27 @@
         <v>410</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K43" si="16">$J25-$S$7+$R$7</f>
+        <f t="shared" ref="K25:K43" si="15">$J25-$S$7+$R$7</f>
         <v>410</v>
       </c>
       <c r="L25" s="14">
-        <f t="shared" ref="L25:L43" si="17">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
+        <f t="shared" ref="L25:L43" si="16">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
         <v>0.48780487804878048</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="N25">
         <f t="shared" si="6"/>
-        <v>79.3</v>
+        <v>793</v>
       </c>
       <c r="O25">
+        <f>$C25*$C25*2</f>
+        <v>882</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="7"/>
-        <v>88.2</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="8"/>
-        <v>8.2000000000000028</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="3:41" x14ac:dyDescent="0.4">
@@ -7016,11 +7020,11 @@
         <v>292000</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F43" si="18">E26-D25-E25</f>
+        <f t="shared" ref="F26:F43" si="17">E26-D25-E25</f>
         <v>37000</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G43" si="19">F26+G25</f>
+        <f t="shared" ref="G26:G43" si="18">F26+G25</f>
         <v>262450</v>
       </c>
       <c r="H26" s="1">
@@ -7035,27 +7039,27 @@
         <v>420</v>
       </c>
       <c r="K26">
+        <f t="shared" si="15"/>
+        <v>420</v>
+      </c>
+      <c r="L26" s="14">
         <f t="shared" si="16"/>
-        <v>420</v>
-      </c>
-      <c r="L26" s="14">
-        <f t="shared" si="17"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="N26">
         <f t="shared" si="6"/>
-        <v>91.3</v>
+        <v>913</v>
       </c>
       <c r="O26">
+        <f>$C26*$C26*2</f>
+        <v>968</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="7"/>
-        <v>96.8</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="8"/>
-        <v>8.5999999999999943</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="3:41" x14ac:dyDescent="0.4">
@@ -7071,46 +7075,46 @@
         <v>341200</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="17"/>
+        <v>43700</v>
+      </c>
+      <c r="G27" s="1">
         <f t="shared" si="18"/>
-        <v>43700</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="19"/>
         <v>306150</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H43" si="20">F27-F26</f>
+        <f t="shared" ref="H27:H43" si="19">F27-F26</f>
         <v>6700</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:I43" si="21">H27-H26-I26</f>
+        <f t="shared" ref="I27:I43" si="20">H27-H26-I26</f>
         <v>500</v>
       </c>
       <c r="J27">
         <v>430</v>
       </c>
       <c r="K27">
+        <f t="shared" si="15"/>
+        <v>430</v>
+      </c>
+      <c r="L27" s="14">
         <f t="shared" si="16"/>
-        <v>430</v>
-      </c>
-      <c r="L27" s="14">
-        <f t="shared" si="17"/>
         <v>0.46511627906976744</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="N27">
         <f t="shared" si="6"/>
-        <v>104.3</v>
+        <v>1043</v>
       </c>
       <c r="O27">
+        <f>$C27*$C27*2</f>
+        <v>1058</v>
+      </c>
+      <c r="P27">
         <f t="shared" si="7"/>
-        <v>105.8</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="8"/>
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="3:41" x14ac:dyDescent="0.4">
@@ -7126,46 +7130,46 @@
         <v>398600</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="17"/>
+        <v>51400</v>
+      </c>
+      <c r="G28" s="1">
         <f t="shared" si="18"/>
-        <v>51400</v>
-      </c>
-      <c r="G28" s="1">
+        <v>357550</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="19"/>
-        <v>357550</v>
-      </c>
-      <c r="H28" s="1">
+        <v>7700</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" si="20"/>
-        <v>7700</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="21"/>
         <v>500</v>
       </c>
       <c r="J28">
         <v>440</v>
       </c>
       <c r="K28">
+        <f t="shared" si="15"/>
+        <v>440</v>
+      </c>
+      <c r="L28" s="14">
         <f t="shared" si="16"/>
-        <v>440</v>
-      </c>
-      <c r="L28" s="14">
-        <f t="shared" si="17"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="M28">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="N28">
         <f t="shared" si="6"/>
-        <v>118.3</v>
+        <v>1183</v>
       </c>
       <c r="O28">
+        <f>$C28*$C28*2</f>
+        <v>1152</v>
+      </c>
+      <c r="P28">
         <f t="shared" si="7"/>
-        <v>115.2</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="8"/>
-        <v>9.4000000000000057</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="3:41" x14ac:dyDescent="0.4">
@@ -7181,51 +7185,51 @@
         <v>465300</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="17"/>
+        <v>60200</v>
+      </c>
+      <c r="G29" s="1">
         <f t="shared" si="18"/>
-        <v>60200</v>
-      </c>
-      <c r="G29" s="1">
+        <v>417750</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="19"/>
-        <v>417750</v>
-      </c>
-      <c r="H29" s="1">
+        <v>8800</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" si="20"/>
-        <v>8800</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="21"/>
         <v>600</v>
       </c>
       <c r="J29">
         <v>450</v>
       </c>
       <c r="K29">
+        <f t="shared" si="15"/>
+        <v>450</v>
+      </c>
+      <c r="L29" s="14">
         <f t="shared" si="16"/>
-        <v>450</v>
-      </c>
-      <c r="L29" s="14">
-        <f t="shared" si="17"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="N29">
         <f t="shared" si="6"/>
-        <v>133.30000000000001</v>
+        <v>1333</v>
       </c>
       <c r="O29">
+        <f>$C29*$C29*2</f>
+        <v>1250</v>
+      </c>
+      <c r="P29">
         <f t="shared" si="7"/>
-        <v>125</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="8"/>
-        <v>9.7999999999999972</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C30" s="2">
-        <f t="shared" ref="C30:C54" si="22">C29+1</f>
+        <f t="shared" ref="C30:C54" si="21">C29+1</f>
         <v>26</v>
       </c>
       <c r="D30" s="1">
@@ -7236,51 +7240,51 @@
         <v>542500</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="17"/>
+        <v>70200</v>
+      </c>
+      <c r="G30" s="1">
         <f t="shared" si="18"/>
-        <v>70200</v>
-      </c>
-      <c r="G30" s="1">
+        <v>487950</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="19"/>
-        <v>487950</v>
-      </c>
-      <c r="H30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" si="20"/>
-        <v>10000</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="21"/>
         <v>600</v>
       </c>
       <c r="J30">
         <v>460</v>
       </c>
       <c r="K30">
+        <f t="shared" si="15"/>
+        <v>460</v>
+      </c>
+      <c r="L30" s="14">
         <f t="shared" si="16"/>
-        <v>460</v>
-      </c>
-      <c r="L30" s="14">
-        <f t="shared" si="17"/>
         <v>0.43478260869565216</v>
       </c>
       <c r="M30">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="N30">
         <f t="shared" si="6"/>
-        <v>149.30000000000001</v>
+        <v>1493</v>
       </c>
       <c r="O30">
+        <f>$C30*$C30*2</f>
+        <v>1352</v>
+      </c>
+      <c r="P30">
         <f t="shared" si="7"/>
-        <v>135.19999999999999</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="8"/>
-        <v>10.199999999999989</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C31" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>27</v>
       </c>
       <c r="D31" s="1">
@@ -7291,51 +7295,51 @@
         <v>631600</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="17"/>
+        <v>81400</v>
+      </c>
+      <c r="G31" s="1">
         <f t="shared" si="18"/>
-        <v>81400</v>
-      </c>
-      <c r="G31" s="1">
+        <v>569350</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="19"/>
-        <v>569350</v>
-      </c>
-      <c r="H31" s="1">
+        <v>11200</v>
+      </c>
+      <c r="I31" s="1">
         <f t="shared" si="20"/>
-        <v>11200</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="21"/>
         <v>600</v>
       </c>
       <c r="J31">
         <v>470</v>
       </c>
       <c r="K31">
+        <f t="shared" si="15"/>
+        <v>470</v>
+      </c>
+      <c r="L31" s="14">
         <f t="shared" si="16"/>
-        <v>470</v>
-      </c>
-      <c r="L31" s="14">
-        <f t="shared" si="17"/>
         <v>0.42553191489361702</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="N31">
         <f t="shared" si="6"/>
-        <v>166.3</v>
+        <v>1663</v>
       </c>
       <c r="O31">
+        <f>$C31*$C31*2</f>
+        <v>1458</v>
+      </c>
+      <c r="P31">
         <f t="shared" si="7"/>
-        <v>145.80000000000001</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="8"/>
-        <v>10.600000000000023</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C32" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>28</v>
       </c>
       <c r="D32" s="1">
@@ -7346,51 +7350,51 @@
         <v>733900</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="17"/>
+        <v>93900</v>
+      </c>
+      <c r="G32" s="1">
         <f t="shared" si="18"/>
-        <v>93900</v>
-      </c>
-      <c r="G32" s="1">
+        <v>663250</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="19"/>
-        <v>663250</v>
-      </c>
-      <c r="H32" s="1">
+        <v>12500</v>
+      </c>
+      <c r="I32" s="1">
         <f t="shared" si="20"/>
-        <v>12500</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="21"/>
         <v>700</v>
       </c>
       <c r="J32">
         <v>480</v>
       </c>
       <c r="K32">
+        <f t="shared" si="15"/>
+        <v>480</v>
+      </c>
+      <c r="L32" s="14">
         <f t="shared" si="16"/>
-        <v>480</v>
-      </c>
-      <c r="L32" s="14">
-        <f t="shared" si="17"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="N32">
         <f t="shared" si="6"/>
-        <v>184.3</v>
+        <v>1843</v>
       </c>
       <c r="O32">
+        <f>$C32*$C32*2</f>
+        <v>1568</v>
+      </c>
+      <c r="P32">
         <f t="shared" si="7"/>
-        <v>156.80000000000001</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="8"/>
-        <v>11</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>29</v>
       </c>
       <c r="D33" s="1">
@@ -7401,51 +7405,51 @@
         <v>850900</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="17"/>
+        <v>107800</v>
+      </c>
+      <c r="G33" s="1">
         <f t="shared" si="18"/>
-        <v>107800</v>
-      </c>
-      <c r="G33" s="1">
+        <v>771050</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="19"/>
-        <v>771050</v>
-      </c>
-      <c r="H33" s="1">
+        <v>13900</v>
+      </c>
+      <c r="I33" s="1">
         <f t="shared" si="20"/>
-        <v>13900</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="21"/>
         <v>700</v>
       </c>
       <c r="J33">
         <v>490</v>
       </c>
       <c r="K33">
+        <f t="shared" si="15"/>
+        <v>490</v>
+      </c>
+      <c r="L33" s="14">
         <f t="shared" si="16"/>
-        <v>490</v>
-      </c>
-      <c r="L33" s="14">
-        <f t="shared" si="17"/>
         <v>0.40816326530612246</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="N33">
         <f t="shared" si="6"/>
-        <v>203.3</v>
+        <v>2033</v>
       </c>
       <c r="O33">
+        <f>$C33*$C33*2</f>
+        <v>1682</v>
+      </c>
+      <c r="P33">
         <f t="shared" si="7"/>
-        <v>168.2</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="8"/>
-        <v>11.399999999999977</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>30</v>
       </c>
       <c r="D34" s="1">
@@ -7456,51 +7460,51 @@
         <v>984000</v>
       </c>
       <c r="F34" s="1">
+        <f t="shared" si="17"/>
+        <v>123100</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="18"/>
-        <v>123100</v>
-      </c>
-      <c r="G34" s="1">
+        <v>894150</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="19"/>
-        <v>894150</v>
-      </c>
-      <c r="H34" s="1">
+        <v>15300</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" si="20"/>
-        <v>15300</v>
-      </c>
-      <c r="I34" s="1">
-        <f t="shared" si="21"/>
         <v>700</v>
       </c>
       <c r="J34">
         <v>500</v>
       </c>
       <c r="K34">
+        <f t="shared" si="15"/>
+        <v>500</v>
+      </c>
+      <c r="L34" s="14">
         <f t="shared" si="16"/>
-        <v>500</v>
-      </c>
-      <c r="L34" s="14">
-        <f t="shared" si="17"/>
         <v>0.4</v>
       </c>
       <c r="M34" s="10">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="N34">
         <f t="shared" si="6"/>
-        <v>223.3</v>
+        <v>2233</v>
       </c>
       <c r="O34">
+        <f>$C34*$C34*2</f>
+        <v>1800</v>
+      </c>
+      <c r="P34">
         <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="8"/>
-        <v>11.800000000000011</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>31</v>
       </c>
       <c r="D35" s="1">
@@ -7511,51 +7515,51 @@
         <v>1134700</v>
       </c>
       <c r="F35" s="1">
+        <f t="shared" si="17"/>
+        <v>139900</v>
+      </c>
+      <c r="G35" s="1">
         <f t="shared" si="18"/>
-        <v>139900</v>
-      </c>
-      <c r="G35" s="1">
+        <v>1034050</v>
+      </c>
+      <c r="H35" s="1">
         <f t="shared" si="19"/>
-        <v>1034050</v>
-      </c>
-      <c r="H35" s="1">
+        <v>16800</v>
+      </c>
+      <c r="I35" s="1">
         <f t="shared" si="20"/>
-        <v>16800</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="J35">
         <v>510</v>
       </c>
       <c r="K35">
+        <f t="shared" si="15"/>
+        <v>510</v>
+      </c>
+      <c r="L35" s="14">
         <f t="shared" si="16"/>
-        <v>510</v>
-      </c>
-      <c r="L35" s="14">
-        <f t="shared" si="17"/>
         <v>0.39215686274509803</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>220</v>
       </c>
       <c r="N35">
         <f t="shared" si="6"/>
-        <v>245.3</v>
+        <v>2453</v>
       </c>
       <c r="O35">
+        <f>$C35*$C35*2</f>
+        <v>1922</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="7"/>
-        <v>192.2</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="8"/>
-        <v>12.199999999999989</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>32</v>
       </c>
       <c r="D36" s="1">
@@ -7566,51 +7570,51 @@
         <v>1304600</v>
       </c>
       <c r="F36" s="1">
+        <f t="shared" si="17"/>
+        <v>158300</v>
+      </c>
+      <c r="G36" s="1">
         <f t="shared" si="18"/>
-        <v>158300</v>
-      </c>
-      <c r="G36" s="1">
+        <v>1192350</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="19"/>
-        <v>1192350</v>
-      </c>
-      <c r="H36" s="1">
+        <v>18400</v>
+      </c>
+      <c r="I36" s="1">
         <f t="shared" si="20"/>
-        <v>18400</v>
-      </c>
-      <c r="I36" s="1">
-        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="J36">
         <v>520</v>
       </c>
       <c r="K36">
+        <f t="shared" si="15"/>
+        <v>520</v>
+      </c>
+      <c r="L36" s="14">
         <f t="shared" si="16"/>
-        <v>520</v>
-      </c>
-      <c r="L36" s="14">
-        <f t="shared" si="17"/>
         <v>0.38461538461538464</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="N36">
         <f t="shared" si="6"/>
-        <v>269.3</v>
+        <v>2693</v>
       </c>
       <c r="O36">
+        <f>$C36*$C36*2</f>
+        <v>2048</v>
+      </c>
+      <c r="P36">
         <f t="shared" si="7"/>
-        <v>204.8</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="8"/>
-        <v>12.600000000000023</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C37" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>33</v>
       </c>
       <c r="D37" s="1">
@@ -7621,51 +7625,51 @@
         <v>1495400</v>
       </c>
       <c r="F37" s="1">
+        <f t="shared" si="17"/>
+        <v>178300</v>
+      </c>
+      <c r="G37" s="1">
         <f t="shared" si="18"/>
-        <v>178300</v>
-      </c>
-      <c r="G37" s="1">
+        <v>1370650</v>
+      </c>
+      <c r="H37" s="1">
         <f t="shared" si="19"/>
-        <v>1370650</v>
-      </c>
-      <c r="H37" s="1">
+        <v>20000</v>
+      </c>
+      <c r="I37" s="1">
         <f t="shared" si="20"/>
-        <v>20000</v>
-      </c>
-      <c r="I37" s="1">
-        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="J37">
         <v>530</v>
       </c>
       <c r="K37">
+        <f t="shared" si="15"/>
+        <v>530</v>
+      </c>
+      <c r="L37" s="14">
         <f t="shared" si="16"/>
-        <v>530</v>
-      </c>
-      <c r="L37" s="14">
-        <f t="shared" si="17"/>
         <v>0.37735849056603776</v>
       </c>
       <c r="M37">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N54" si="23">$M37+$N36</f>
-        <v>295.3</v>
+        <f t="shared" ref="N37:N54" si="22">$M37+$N36</f>
+        <v>2953</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37:O54" si="24">$C37*$C37/5</f>
-        <v>217.8</v>
+        <f>$C37*$C37*2</f>
+        <v>2178</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="P37:P54" si="25">$O37-O36</f>
-        <v>13</v>
+        <f t="shared" ref="P37:P54" si="23">$O37-O36</f>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C38" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>34</v>
       </c>
       <c r="D38" s="1">
@@ -7676,51 +7680,51 @@
         <v>1708800</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="17"/>
+        <v>200000</v>
+      </c>
+      <c r="G38" s="1">
         <f t="shared" si="18"/>
-        <v>200000</v>
-      </c>
-      <c r="G38" s="1">
+        <v>1570650</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="19"/>
-        <v>1570650</v>
-      </c>
-      <c r="H38" s="1">
+        <v>21700</v>
+      </c>
+      <c r="I38" s="1">
         <f t="shared" si="20"/>
-        <v>21700</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="21"/>
         <v>900</v>
       </c>
       <c r="J38">
         <v>540</v>
       </c>
       <c r="K38">
+        <f t="shared" si="15"/>
+        <v>540</v>
+      </c>
+      <c r="L38" s="14">
         <f t="shared" si="16"/>
-        <v>540</v>
-      </c>
-      <c r="L38" s="14">
-        <f t="shared" si="17"/>
         <v>0.37037037037037035</v>
       </c>
       <c r="M38">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="N38">
+        <f t="shared" si="22"/>
+        <v>3233</v>
+      </c>
+      <c r="O38">
+        <f>$C38*$C38*2</f>
+        <v>2312</v>
+      </c>
+      <c r="P38">
         <f t="shared" si="23"/>
-        <v>323.3</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="24"/>
-        <v>231.2</v>
-      </c>
-      <c r="P38">
-        <f t="shared" si="25"/>
-        <v>13.399999999999977</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C39" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>35</v>
       </c>
       <c r="D39" s="1">
@@ -7731,51 +7735,51 @@
         <v>1946600</v>
       </c>
       <c r="F39" s="1">
+        <f t="shared" si="17"/>
+        <v>223500</v>
+      </c>
+      <c r="G39" s="1">
         <f t="shared" si="18"/>
-        <v>223500</v>
-      </c>
-      <c r="G39" s="1">
+        <v>1794150</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="19"/>
-        <v>1794150</v>
-      </c>
-      <c r="H39" s="1">
+        <v>23500</v>
+      </c>
+      <c r="I39" s="1">
         <f t="shared" si="20"/>
-        <v>23500</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" si="21"/>
         <v>900</v>
       </c>
       <c r="J39">
         <v>550</v>
       </c>
       <c r="K39">
+        <f t="shared" si="15"/>
+        <v>550</v>
+      </c>
+      <c r="L39" s="14">
         <f t="shared" si="16"/>
-        <v>550</v>
-      </c>
-      <c r="L39" s="14">
-        <f t="shared" si="17"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="N39">
+        <f t="shared" si="22"/>
+        <v>3533</v>
+      </c>
+      <c r="O39">
+        <f>$C39*$C39*2</f>
+        <v>2450</v>
+      </c>
+      <c r="P39">
         <f t="shared" si="23"/>
-        <v>353.3</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="24"/>
-        <v>245</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="25"/>
-        <v>13.800000000000011</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C40" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>36</v>
       </c>
       <c r="D40" s="1">
@@ -7786,51 +7790,51 @@
         <v>2210700</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="17"/>
+        <v>248800</v>
+      </c>
+      <c r="G40" s="1">
         <f t="shared" si="18"/>
-        <v>248800</v>
-      </c>
-      <c r="G40" s="1">
+        <v>2042950</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="19"/>
-        <v>2042950</v>
-      </c>
-      <c r="H40" s="1">
+        <v>25300</v>
+      </c>
+      <c r="I40" s="1">
         <f t="shared" si="20"/>
-        <v>25300</v>
-      </c>
-      <c r="I40" s="1">
-        <f t="shared" si="21"/>
         <v>900</v>
       </c>
       <c r="J40">
         <v>560</v>
       </c>
       <c r="K40">
+        <f t="shared" si="15"/>
+        <v>560</v>
+      </c>
+      <c r="L40" s="14">
         <f t="shared" si="16"/>
-        <v>560</v>
-      </c>
-      <c r="L40" s="14">
-        <f t="shared" si="17"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="M40">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="N40">
+        <f t="shared" si="22"/>
+        <v>3853</v>
+      </c>
+      <c r="O40">
+        <f>$C40*$C40*2</f>
+        <v>2592</v>
+      </c>
+      <c r="P40">
         <f t="shared" si="23"/>
-        <v>385.3</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="24"/>
-        <v>259.2</v>
-      </c>
-      <c r="P40">
-        <f t="shared" si="25"/>
-        <v>14.199999999999989</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C41" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>37</v>
       </c>
       <c r="D41" s="1">
@@ -7841,51 +7845,51 @@
         <v>2503000</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" si="17"/>
+        <v>276000</v>
+      </c>
+      <c r="G41" s="1">
         <f t="shared" si="18"/>
-        <v>276000</v>
-      </c>
-      <c r="G41" s="1">
+        <v>2318950</v>
+      </c>
+      <c r="H41" s="1">
         <f t="shared" si="19"/>
-        <v>2318950</v>
-      </c>
-      <c r="H41" s="1">
+        <v>27200</v>
+      </c>
+      <c r="I41" s="1">
         <f t="shared" si="20"/>
-        <v>27200</v>
-      </c>
-      <c r="I41" s="1">
-        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="J41">
         <v>570</v>
       </c>
       <c r="K41">
+        <f t="shared" si="15"/>
+        <v>570</v>
+      </c>
+      <c r="L41" s="14">
         <f t="shared" si="16"/>
-        <v>570</v>
-      </c>
-      <c r="L41" s="14">
-        <f t="shared" si="17"/>
         <v>0.35087719298245612</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="N41">
+        <f t="shared" si="22"/>
+        <v>4193</v>
+      </c>
+      <c r="O41">
+        <f>$C41*$C41*2</f>
+        <v>2738</v>
+      </c>
+      <c r="P41">
         <f t="shared" si="23"/>
-        <v>419.3</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="24"/>
-        <v>273.8</v>
-      </c>
-      <c r="P41">
-        <f t="shared" si="25"/>
-        <v>14.600000000000023</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C42" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>38</v>
       </c>
       <c r="D42" s="1">
@@ -7896,51 +7900,51 @@
         <v>2825500</v>
       </c>
       <c r="F42" s="1">
+        <f t="shared" si="17"/>
+        <v>305200</v>
+      </c>
+      <c r="G42" s="1">
         <f t="shared" si="18"/>
-        <v>305200</v>
-      </c>
-      <c r="G42" s="1">
+        <v>2624150</v>
+      </c>
+      <c r="H42" s="1">
         <f t="shared" si="19"/>
-        <v>2624150</v>
-      </c>
-      <c r="H42" s="1">
+        <v>29200</v>
+      </c>
+      <c r="I42" s="1">
         <f t="shared" si="20"/>
-        <v>29200</v>
-      </c>
-      <c r="I42" s="1">
-        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="J42">
         <v>580</v>
       </c>
       <c r="K42">
+        <f t="shared" si="15"/>
+        <v>580</v>
+      </c>
+      <c r="L42" s="14">
         <f t="shared" si="16"/>
-        <v>580</v>
-      </c>
-      <c r="L42" s="14">
-        <f t="shared" si="17"/>
         <v>0.34482758620689657</v>
       </c>
       <c r="M42">
-        <v>36</v>
+        <v>360</v>
       </c>
       <c r="N42">
+        <f t="shared" si="22"/>
+        <v>4553</v>
+      </c>
+      <c r="O42">
+        <f>$C42*$C42*2</f>
+        <v>2888</v>
+      </c>
+      <c r="P42">
         <f t="shared" si="23"/>
-        <v>455.3</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="24"/>
-        <v>288.8</v>
-      </c>
-      <c r="P42">
-        <f t="shared" si="25"/>
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C43" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>39</v>
       </c>
       <c r="D43" s="1">
@@ -7951,51 +7955,51 @@
         <v>3180300</v>
       </c>
       <c r="F43" s="1">
+        <f t="shared" si="17"/>
+        <v>336400</v>
+      </c>
+      <c r="G43" s="1">
         <f t="shared" si="18"/>
-        <v>336400</v>
-      </c>
-      <c r="G43" s="1">
+        <v>2960550</v>
+      </c>
+      <c r="H43" s="1">
         <f t="shared" si="19"/>
-        <v>2960550</v>
-      </c>
-      <c r="H43" s="1">
+        <v>31200</v>
+      </c>
+      <c r="I43" s="1">
         <f t="shared" si="20"/>
-        <v>31200</v>
-      </c>
-      <c r="I43" s="1">
-        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="J43">
         <v>590</v>
       </c>
       <c r="K43">
+        <f t="shared" si="15"/>
+        <v>590</v>
+      </c>
+      <c r="L43" s="14">
         <f t="shared" si="16"/>
-        <v>590</v>
-      </c>
-      <c r="L43" s="14">
-        <f t="shared" si="17"/>
         <v>0.33898305084745761</v>
       </c>
       <c r="M43">
-        <v>38</v>
+        <v>380</v>
       </c>
       <c r="N43">
+        <f t="shared" si="22"/>
+        <v>4933</v>
+      </c>
+      <c r="O43">
+        <f>$C43*$C43*2</f>
+        <v>3042</v>
+      </c>
+      <c r="P43">
         <f t="shared" si="23"/>
-        <v>493.3</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="24"/>
-        <v>304.2</v>
-      </c>
-      <c r="P43">
-        <f t="shared" si="25"/>
-        <v>15.399999999999977</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C44" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>40</v>
       </c>
       <c r="D44" s="6">
@@ -8026,24 +8030,24 @@
         <v>0.5</v>
       </c>
       <c r="M44" s="10">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="N44">
+        <f t="shared" si="22"/>
+        <v>5433</v>
+      </c>
+      <c r="O44">
+        <f>$C44*$C44*2</f>
+        <v>3200</v>
+      </c>
+      <c r="P44">
         <f t="shared" si="23"/>
-        <v>543.29999999999995</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="24"/>
-        <v>320</v>
-      </c>
-      <c r="P44">
-        <f t="shared" si="25"/>
-        <v>15.800000000000011</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C45" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>41</v>
       </c>
       <c r="D45" s="1">
@@ -8072,32 +8076,32 @@
         <v>620</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K54" si="26">$J45-$S$7+$R$7</f>
+        <f t="shared" ref="K45:K54" si="24">$J45-$S$7+$R$7</f>
         <v>620</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" ref="L45:L54" si="27">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
+        <f t="shared" ref="L45:L54" si="25">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
         <v>0.32258064516129031</v>
       </c>
       <c r="M45">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="N45">
+        <f t="shared" si="22"/>
+        <v>5983</v>
+      </c>
+      <c r="O45">
+        <f>$C45*$C45*2</f>
+        <v>3362</v>
+      </c>
+      <c r="P45">
         <f t="shared" si="23"/>
-        <v>598.29999999999995</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="24"/>
-        <v>336.2</v>
-      </c>
-      <c r="P45">
-        <f t="shared" si="25"/>
-        <v>16.199999999999989</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C46" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>42</v>
       </c>
       <c r="D46" s="1">
@@ -8108,11 +8112,11 @@
         <v>4200100</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:F54" si="28">E46-D45-E45</f>
+        <f t="shared" ref="F46:F54" si="26">E46-D45-E45</f>
         <v>370100</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ref="G46:G54" si="29">F46+G45</f>
+        <f t="shared" ref="G46:G54" si="27">F46+G45</f>
         <v>3930850</v>
       </c>
       <c r="H46" s="1">
@@ -8127,32 +8131,32 @@
         <v>640</v>
       </c>
       <c r="K46">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>640</v>
       </c>
       <c r="L46" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.3125</v>
       </c>
       <c r="M46">
-        <v>60</v>
+        <v>600</v>
       </c>
       <c r="N46">
+        <f t="shared" si="22"/>
+        <v>6583</v>
+      </c>
+      <c r="O46">
+        <f>$C46*$C46*2</f>
+        <v>3528</v>
+      </c>
+      <c r="P46">
         <f t="shared" si="23"/>
-        <v>658.3</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="24"/>
-        <v>352.8</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="25"/>
-        <v>16.600000000000023</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C47" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43</v>
       </c>
       <c r="D47" s="1">
@@ -8163,15 +8167,15 @@
         <v>4640000</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>406900</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>4337750</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:H54" si="30">F47-F46</f>
+        <f t="shared" ref="H47:H54" si="28">F47-F46</f>
         <v>36800</v>
       </c>
       <c r="I47" s="1">
@@ -8182,32 +8186,32 @@
         <v>660</v>
       </c>
       <c r="K47">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>660</v>
       </c>
       <c r="L47" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.30303030303030304</v>
       </c>
       <c r="M47">
-        <v>65</v>
+        <v>650</v>
       </c>
       <c r="N47">
+        <f t="shared" si="22"/>
+        <v>7233</v>
+      </c>
+      <c r="O47">
+        <f>$C47*$C47*2</f>
+        <v>3698</v>
+      </c>
+      <c r="P47">
         <f t="shared" si="23"/>
-        <v>723.3</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="24"/>
-        <v>369.8</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="25"/>
-        <v>17</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C48" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>44</v>
       </c>
       <c r="D48" s="1">
@@ -8218,51 +8222,51 @@
         <v>5123000</v>
       </c>
       <c r="F48" s="1">
+        <f t="shared" si="26"/>
+        <v>447000</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="27"/>
+        <v>4784750</v>
+      </c>
+      <c r="H48" s="1">
         <f t="shared" si="28"/>
-        <v>447000</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="29"/>
-        <v>4784750</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="30"/>
         <v>40100</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" ref="I48:I54" si="31">H48-H47-I47</f>
+        <f t="shared" ref="I48:I54" si="29">H48-H47-I47</f>
         <v>1700</v>
       </c>
       <c r="J48">
         <v>680</v>
       </c>
       <c r="K48">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>680</v>
       </c>
       <c r="L48" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="M48">
-        <v>70</v>
+        <v>700</v>
       </c>
       <c r="N48">
+        <f t="shared" si="22"/>
+        <v>7933</v>
+      </c>
+      <c r="O48">
+        <f>$C48*$C48*2</f>
+        <v>3872</v>
+      </c>
+      <c r="P48">
         <f t="shared" si="23"/>
-        <v>793.3</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="24"/>
-        <v>387.2</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="25"/>
-        <v>17.399999999999977</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C49" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>45</v>
       </c>
       <c r="D49" s="1">
@@ -8273,51 +8277,51 @@
         <v>5652600</v>
       </c>
       <c r="F49" s="1">
+        <f t="shared" si="26"/>
+        <v>490600</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="27"/>
+        <v>5275350</v>
+      </c>
+      <c r="H49" s="1">
         <f t="shared" si="28"/>
-        <v>490600</v>
-      </c>
-      <c r="G49" s="1">
+        <v>43600</v>
+      </c>
+      <c r="I49" s="1">
         <f t="shared" si="29"/>
-        <v>5275350</v>
-      </c>
-      <c r="H49" s="1">
-        <f t="shared" si="30"/>
-        <v>43600</v>
-      </c>
-      <c r="I49" s="1">
-        <f t="shared" si="31"/>
         <v>1800</v>
       </c>
       <c r="J49">
         <v>700</v>
       </c>
       <c r="K49">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>700</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="M49">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="N49">
+        <f t="shared" si="22"/>
+        <v>8683</v>
+      </c>
+      <c r="O49">
+        <f>$C49*$C49*2</f>
+        <v>4050</v>
+      </c>
+      <c r="P49">
         <f t="shared" si="23"/>
-        <v>868.3</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="24"/>
-        <v>405</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="25"/>
-        <v>17.800000000000011</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C50" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>46</v>
       </c>
       <c r="D50" s="1">
@@ -8328,51 +8332,51 @@
         <v>6232500</v>
       </c>
       <c r="F50" s="1">
+        <f t="shared" si="26"/>
+        <v>537900</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="27"/>
+        <v>5813250</v>
+      </c>
+      <c r="H50" s="1">
         <f t="shared" si="28"/>
-        <v>537900</v>
-      </c>
-      <c r="G50" s="1">
+        <v>47300</v>
+      </c>
+      <c r="I50" s="1">
         <f t="shared" si="29"/>
-        <v>5813250</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="30"/>
-        <v>47300</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="31"/>
         <v>1900</v>
       </c>
       <c r="J50">
         <v>720</v>
       </c>
       <c r="K50">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>720</v>
       </c>
       <c r="L50" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="M50">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="N50">
+        <f t="shared" si="22"/>
+        <v>9483</v>
+      </c>
+      <c r="O50">
+        <f>$C50*$C50*2</f>
+        <v>4232</v>
+      </c>
+      <c r="P50">
         <f t="shared" si="23"/>
-        <v>948.3</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="24"/>
-        <v>423.2</v>
-      </c>
-      <c r="P50">
-        <f t="shared" si="25"/>
-        <v>18.199999999999989</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C51" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="D51" s="1">
@@ -8383,51 +8387,51 @@
         <v>6866600</v>
       </c>
       <c r="F51" s="1">
+        <f t="shared" si="26"/>
+        <v>589100</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="27"/>
+        <v>6402350</v>
+      </c>
+      <c r="H51" s="1">
         <f t="shared" si="28"/>
-        <v>589100</v>
-      </c>
-      <c r="G51" s="1">
+        <v>51200</v>
+      </c>
+      <c r="I51" s="1">
         <f t="shared" si="29"/>
-        <v>6402350</v>
-      </c>
-      <c r="H51" s="1">
-        <f t="shared" si="30"/>
-        <v>51200</v>
-      </c>
-      <c r="I51" s="1">
-        <f t="shared" si="31"/>
         <v>2000</v>
       </c>
       <c r="J51">
         <v>740</v>
       </c>
       <c r="K51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>740</v>
       </c>
       <c r="L51" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.27027027027027029</v>
       </c>
       <c r="M51">
-        <v>85</v>
+        <v>850</v>
       </c>
       <c r="N51">
+        <f t="shared" si="22"/>
+        <v>10333</v>
+      </c>
+      <c r="O51">
+        <f>$C51*$C51*2</f>
+        <v>4418</v>
+      </c>
+      <c r="P51">
         <f t="shared" si="23"/>
-        <v>1033.3</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="24"/>
-        <v>441.8</v>
-      </c>
-      <c r="P51">
-        <f t="shared" si="25"/>
-        <v>18.600000000000023</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C52" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>48</v>
       </c>
       <c r="D52" s="1">
@@ -8438,51 +8442,51 @@
         <v>7561000</v>
       </c>
       <c r="F52" s="1">
+        <f t="shared" si="26"/>
+        <v>644400</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="27"/>
+        <v>7046750</v>
+      </c>
+      <c r="H52" s="1">
         <f t="shared" si="28"/>
-        <v>644400</v>
-      </c>
-      <c r="G52" s="1">
+        <v>55300</v>
+      </c>
+      <c r="I52" s="1">
         <f t="shared" si="29"/>
-        <v>7046750</v>
-      </c>
-      <c r="H52" s="1">
-        <f t="shared" si="30"/>
-        <v>55300</v>
-      </c>
-      <c r="I52" s="1">
-        <f t="shared" si="31"/>
         <v>2100</v>
       </c>
       <c r="J52">
         <v>760</v>
       </c>
       <c r="K52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>760</v>
       </c>
       <c r="L52" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="M52">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="N52">
+        <f t="shared" si="22"/>
+        <v>11233</v>
+      </c>
+      <c r="O52">
+        <f>$C52*$C52*2</f>
+        <v>4608</v>
+      </c>
+      <c r="P52">
         <f t="shared" si="23"/>
-        <v>1123.3</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="24"/>
-        <v>460.8</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="25"/>
-        <v>19</v>
+        <v>190</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C53" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>49</v>
       </c>
       <c r="D53" s="1">
@@ -8493,51 +8497,51 @@
         <v>8320000</v>
       </c>
       <c r="F53" s="1">
+        <f t="shared" si="26"/>
+        <v>704000</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="27"/>
+        <v>7750750</v>
+      </c>
+      <c r="H53" s="1">
         <f t="shared" si="28"/>
-        <v>704000</v>
-      </c>
-      <c r="G53" s="1">
+        <v>59600</v>
+      </c>
+      <c r="I53" s="1">
         <f t="shared" si="29"/>
-        <v>7750750</v>
-      </c>
-      <c r="H53" s="1">
-        <f t="shared" si="30"/>
-        <v>59600</v>
-      </c>
-      <c r="I53" s="1">
-        <f t="shared" si="31"/>
         <v>2200</v>
       </c>
       <c r="J53">
         <v>780</v>
       </c>
       <c r="K53">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>780</v>
       </c>
       <c r="L53" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.25641025641025639</v>
       </c>
       <c r="M53">
-        <v>95</v>
+        <v>950</v>
       </c>
       <c r="N53">
+        <f t="shared" si="22"/>
+        <v>12183</v>
+      </c>
+      <c r="O53">
+        <f>$C53*$C53*2</f>
+        <v>4802</v>
+      </c>
+      <c r="P53">
         <f t="shared" si="23"/>
-        <v>1218.3</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="24"/>
-        <v>480.2</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="25"/>
-        <v>19.399999999999977</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C54" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>50</v>
       </c>
       <c r="D54" s="1">
@@ -8548,46 +8552,49 @@
         <v>9148100</v>
       </c>
       <c r="F54" s="1">
+        <f t="shared" si="26"/>
+        <v>768100</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="27"/>
+        <v>8518850</v>
+      </c>
+      <c r="H54" s="1">
         <f t="shared" si="28"/>
-        <v>768100</v>
-      </c>
-      <c r="G54" s="1">
+        <v>64100</v>
+      </c>
+      <c r="I54" s="1">
         <f t="shared" si="29"/>
-        <v>8518850</v>
-      </c>
-      <c r="H54" s="1">
-        <f t="shared" si="30"/>
-        <v>64100</v>
-      </c>
-      <c r="I54" s="1">
-        <f t="shared" si="31"/>
         <v>2300</v>
       </c>
       <c r="J54">
         <v>800</v>
       </c>
       <c r="K54">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>800</v>
       </c>
       <c r="L54" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.25</v>
       </c>
       <c r="M54" s="10">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N54">
+        <f t="shared" si="22"/>
+        <v>13183</v>
+      </c>
+      <c r="O54">
+        <f>$C54*$C54*2</f>
+        <v>5000</v>
+      </c>
+      <c r="P54">
         <f t="shared" si="23"/>
-        <v>1318.3</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="24"/>
-        <v>500</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="25"/>
-        <v>19.800000000000011</v>
+        <v>198</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/검 강화 게임.xlsx
+++ b/검 강화 게임.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\문서\GitHub\Unity_Weapon_Forge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A990AD5F-ABAE-4316-86BA-9B9DAA0AE946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B344163D-E119-425A-BB27-B439D360CAFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{D3FEDBA6-35E5-45CF-B54A-9F527DCBFA6E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>SELL</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -168,6 +168,10 @@
   </si>
   <si>
     <t>Stats</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -2008,154 +2012,154 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95238095238095233</c:v>
+                  <c:v>0.98220640569395012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90909090909090906</c:v>
+                  <c:v>0.965034965034965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.86956521739130432</c:v>
+                  <c:v>0.94845360824742264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>0.93243243243243246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9169435215946844</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.90196078431372551</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7407407407407407</c:v>
+                  <c:v>0.887459807073955</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7142857142857143</c:v>
+                  <c:v>0.87341772151898733</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68965517241379315</c:v>
+                  <c:v>0.85981308411214952</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.84662576687116564</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.64516129032258063</c:v>
+                  <c:v>0.83383685800604235</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.625</c:v>
+                  <c:v>0.8214285714285714</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60606060606060608</c:v>
+                  <c:v>0.80938416422287385</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>0.79768786127167635</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5714285714285714</c:v>
+                  <c:v>0.78632478632478631</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.7752808988764045</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.54054054054054057</c:v>
+                  <c:v>0.76454293628808867</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.52631578947368418</c:v>
+                  <c:v>0.75409836065573765</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.51282051282051277</c:v>
+                  <c:v>0.7439353099730458</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.48780487804878048</c:v>
+                  <c:v>0.72440944881889768</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.47619047619047616</c:v>
+                  <c:v>0.71502590673575128</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.46511627906976744</c:v>
+                  <c:v>0.70588235294117652</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.45454545454545453</c:v>
+                  <c:v>0.69696969696969702</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.44444444444444442</c:v>
+                  <c:v>0.6882793017456359</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.43478260869565216</c:v>
+                  <c:v>0.67980295566502458</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.42553191489361702</c:v>
+                  <c:v>0.67153284671532842</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.41666666666666669</c:v>
+                  <c:v>0.66346153846153844</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.40816326530612246</c:v>
+                  <c:v>0.6555819477434679</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4</c:v>
+                  <c:v>0.647887323943662</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.39215686274509803</c:v>
+                  <c:v>0.6403712296983759</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.38461538461538464</c:v>
+                  <c:v>0.6330275229357798</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.37735849056603776</c:v>
+                  <c:v>0.62585034013605445</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.37037037037037035</c:v>
+                  <c:v>0.6188340807174888</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.36363636363636365</c:v>
+                  <c:v>0.61197339246119731</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.35714285714285715</c:v>
+                  <c:v>0.60526315789473684</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.35087719298245612</c:v>
+                  <c:v>0.59869848156182215</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.34482758620689657</c:v>
+                  <c:v>0.59227467811158796</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.33898305084745761</c:v>
+                  <c:v>0.5859872611464968</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.32258064516129031</c:v>
+                  <c:v>0.5679012345679012</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.3125</c:v>
+                  <c:v>0.55645161290322576</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.30303030303030304</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.53488372093023251</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.52471482889733845</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.5149253731343284</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.27027027027027029</c:v>
+                  <c:v>0.50549450549450547</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.26315789473684209</c:v>
+                  <c:v>0.49640287769784175</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.25641025641025639</c:v>
+                  <c:v>0.48763250883392228</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.25</c:v>
+                  <c:v>0.47916666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4847,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C62FF258-7648-4ED0-AA06-DFEB56F203C0}">
   <dimension ref="C2:AO54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H29" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" topLeftCell="L9" zoomScale="71" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4983,7 +4987,7 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K23" si="0">$J4-$S$7+$R$7</f>
-        <v>200</v>
+        <v>552</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" ref="L4:L23" si="1">IF($R$4+$R$7&gt;=$K4,100%,($R$4+$R$7)/$K4)</f>
@@ -5076,11 +5080,11 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>562</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" si="1"/>
-        <v>0.95238095238095233</v>
+        <v>0.98220640569395012</v>
       </c>
       <c r="M5">
         <v>4</v>
@@ -5090,40 +5094,40 @@
         <v>4</v>
       </c>
       <c r="O5">
-        <f>$C5*$C5*2</f>
+        <f t="shared" ref="O5:O36" si="7">$C5*$C5*2</f>
         <v>2</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P36" si="7">$O5-O4</f>
+        <f t="shared" ref="P5:P36" si="8">$O5-O4</f>
         <v>2</v>
       </c>
       <c r="Z5" s="2">
-        <f t="shared" ref="Z5:Z24" si="8">Z4+1</f>
+        <f t="shared" ref="Z5:Z24" si="9">Z4+1</f>
         <v>1</v>
       </c>
       <c r="AA5" s="1">
         <v>100000</v>
       </c>
       <c r="AB5">
-        <f t="shared" ref="AB5:AB23" si="9">$AA5-$AA4</f>
+        <f t="shared" ref="AB5:AB23" si="10">$AA5-$AA4</f>
         <v>50000</v>
       </c>
       <c r="AC5" s="1">
         <v>32</v>
       </c>
       <c r="AD5" s="1">
-        <f t="shared" ref="AD5:AD24" si="10">$AC4+$AD4</f>
+        <f t="shared" ref="AD5:AD24" si="11">$AC4+$AD4</f>
         <v>32</v>
       </c>
       <c r="AE5" s="1">
         <v>2</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" ref="AF5:AF24" si="11">$AF4+$AE4</f>
+        <f t="shared" ref="AF5:AF24" si="12">$AF4+$AE4</f>
         <v>1</v>
       </c>
       <c r="AL5" s="2">
-        <f t="shared" ref="AL5:AL24" si="12">AL4+1</f>
+        <f t="shared" ref="AL5:AL24" si="13">AL4+1</f>
         <v>1</v>
       </c>
       <c r="AM5" s="1">
@@ -5133,7 +5137,7 @@
         <v>16</v>
       </c>
       <c r="AO5" s="1">
-        <f t="shared" ref="AO5:AO24" si="13">$AN5+$AO4</f>
+        <f t="shared" ref="AO5:AO24" si="14">$AN5+$AO4</f>
         <v>16</v>
       </c>
     </row>
@@ -5162,7 +5166,7 @@
         <v>50</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" ref="I6:I23" si="14">H6-H5-I5</f>
+        <f t="shared" ref="I6:I23" si="15">H6-H5-I5</f>
         <v>50</v>
       </c>
       <c r="J6">
@@ -5170,11 +5174,11 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>572</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="1"/>
-        <v>0.90909090909090906</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -5184,11 +5188,11 @@
         <v>10</v>
       </c>
       <c r="O6">
-        <f>$C6*$C6*2</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="P6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="R6" s="8" t="s">
@@ -5201,32 +5205,32 @@
         <v>32</v>
       </c>
       <c r="Z6" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AA6" s="1">
         <v>150000</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50000</v>
       </c>
       <c r="AC6" s="1">
         <v>32</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="AE6" s="1">
         <v>3</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="AL6" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="AM6" s="1">
@@ -5236,7 +5240,7 @@
         <v>16</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>32</v>
       </c>
     </row>
@@ -5265,7 +5269,7 @@
         <v>100</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J7">
@@ -5273,11 +5277,11 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>582</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="1"/>
-        <v>0.86956521739130432</v>
+        <v>0.94845360824742264</v>
       </c>
       <c r="M7">
         <v>8</v>
@@ -5287,16 +5291,16 @@
         <v>18</v>
       </c>
       <c r="O7">
-        <f>$C7*$C7*2</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="P7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="R7">
         <f>INDEX(Z4:AF24,MATCH($R$11, $Z4:$Z24), 5)</f>
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="S7">
         <f>INDEX(AL4:AO24,MATCH($R$14, $AL4:$AL24), 4)</f>
@@ -5307,32 +5311,32 @@
         <v>0</v>
       </c>
       <c r="Z7" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AA7" s="1">
         <v>230000</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>80000</v>
       </c>
       <c r="AC7" s="1">
         <v>32</v>
       </c>
       <c r="AD7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
       <c r="AE7" s="1">
         <v>4</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="AL7" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AM7" s="1">
@@ -5342,7 +5346,7 @@
         <v>16</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>48</v>
       </c>
     </row>
@@ -5371,7 +5375,7 @@
         <v>150</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="J8">
@@ -5379,11 +5383,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>592</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.93243243243243246</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -5393,40 +5397,40 @@
         <v>28</v>
       </c>
       <c r="O8">
-        <f>$C8*$C8*2</f>
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
       <c r="P8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="Z8" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AA8" s="1">
         <v>350000</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120000</v>
       </c>
       <c r="AC8" s="1">
         <v>32</v>
       </c>
       <c r="AD8" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
       <c r="AE8" s="1">
         <v>5</v>
       </c>
       <c r="AF8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="AL8" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AM8" s="1">
@@ -5436,7 +5440,7 @@
         <v>16</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>64</v>
       </c>
     </row>
@@ -5465,7 +5469,7 @@
         <v>250</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="J9">
@@ -5473,11 +5477,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>602</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.9169435215946844</v>
       </c>
       <c r="M9">
         <v>12</v>
@@ -5487,40 +5491,40 @@
         <v>40</v>
       </c>
       <c r="O9">
-        <f>$C9*$C9*2</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="P9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="Z9" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AA9" s="1">
         <v>530000</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>180000</v>
       </c>
       <c r="AC9" s="1">
         <v>32</v>
       </c>
       <c r="AD9" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>160</v>
       </c>
       <c r="AE9" s="1">
         <v>6</v>
       </c>
       <c r="AF9" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="AL9" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AM9" s="1">
@@ -5530,7 +5534,7 @@
         <v>16</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>80</v>
       </c>
     </row>
@@ -5559,7 +5563,7 @@
         <v>350</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>50</v>
       </c>
       <c r="J10">
@@ -5567,11 +5571,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>612</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="1"/>
-        <v>0.76923076923076927</v>
+        <v>0.90196078431372551</v>
       </c>
       <c r="M10">
         <v>14</v>
@@ -5581,11 +5585,11 @@
         <v>54</v>
       </c>
       <c r="O10">
-        <f>$C10*$C10*2</f>
+        <f t="shared" si="7"/>
         <v>72</v>
       </c>
       <c r="P10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="R10" t="s">
@@ -5595,32 +5599,32 @@
         <v>33</v>
       </c>
       <c r="Z10" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AA10" s="1">
         <v>780000</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>250000</v>
       </c>
       <c r="AC10" s="1">
         <v>32</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>192</v>
       </c>
       <c r="AE10" s="1">
         <v>7</v>
       </c>
       <c r="AF10" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="AL10" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AM10" s="1">
@@ -5630,7 +5634,7 @@
         <v>16</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>96</v>
       </c>
     </row>
@@ -5659,7 +5663,7 @@
         <v>500</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="J11">
@@ -5667,11 +5671,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>622</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="1"/>
-        <v>0.7407407407407407</v>
+        <v>0.887459807073955</v>
       </c>
       <c r="M11">
         <v>16</v>
@@ -5681,46 +5685,46 @@
         <v>70</v>
       </c>
       <c r="O11">
-        <f>$C11*$C11*2</f>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="P11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="Z11" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AA11" s="1">
         <v>1120000</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>340000</v>
       </c>
       <c r="AC11" s="1">
         <v>32</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
       <c r="AE11" s="1">
         <v>8</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="AL11" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AM11" s="1">
@@ -5730,7 +5734,7 @@
         <v>16</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>112</v>
       </c>
     </row>
@@ -5759,7 +5763,7 @@
         <v>700</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="J12">
@@ -5767,11 +5771,11 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>632</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <v>0.87341772151898733</v>
       </c>
       <c r="M12">
         <v>18</v>
@@ -5781,40 +5785,40 @@
         <v>88</v>
       </c>
       <c r="O12">
-        <f>$C12*$C12*2</f>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="P12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AA12" s="1">
         <v>1520000</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>400000</v>
       </c>
       <c r="AC12" s="1">
         <v>32</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
       <c r="AE12" s="1">
         <v>9</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AM12" s="1">
@@ -5824,7 +5828,7 @@
         <v>16</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>128</v>
       </c>
     </row>
@@ -5853,7 +5857,7 @@
         <v>900</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>100</v>
       </c>
       <c r="J13">
@@ -5861,11 +5865,11 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>290</v>
+        <v>642</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="1"/>
-        <v>0.68965517241379315</v>
+        <v>0.85981308411214952</v>
       </c>
       <c r="M13">
         <v>20</v>
@@ -5875,43 +5879,43 @@
         <v>108</v>
       </c>
       <c r="O13">
-        <f>$C13*$C13*2</f>
+        <f t="shared" si="7"/>
         <v>162</v>
       </c>
       <c r="P13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="R13" t="s">
         <v>18</v>
       </c>
       <c r="Z13" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="AA13" s="1">
         <v>800</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-1519200</v>
       </c>
       <c r="AC13" s="1">
         <v>64</v>
       </c>
       <c r="AD13" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>288</v>
       </c>
       <c r="AE13" s="1">
         <v>10</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="AM13" s="1">
@@ -5921,7 +5925,7 @@
         <v>16</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>144</v>
       </c>
     </row>
@@ -5950,7 +5954,7 @@
         <v>1150</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="J14">
@@ -5958,11 +5962,11 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>652</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.84662576687116564</v>
       </c>
       <c r="M14" s="10">
         <v>25</v>
@@ -5972,44 +5976,44 @@
         <v>133</v>
       </c>
       <c r="O14">
-        <f>$C14*$C14*2</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="P14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="Z14" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="AA14" s="1">
         <v>1000</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="AC14" s="1">
         <v>32</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>352</v>
       </c>
       <c r="AE14" s="1">
         <v>11</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
       <c r="AJ14" s="11"/>
       <c r="AL14" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="AM14" s="1">
@@ -6019,7 +6023,7 @@
         <v>16</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>160</v>
       </c>
     </row>
@@ -6048,7 +6052,7 @@
         <v>1450</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="J15">
@@ -6056,11 +6060,11 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>310</v>
+        <v>662</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="1"/>
-        <v>0.64516129032258063</v>
+        <v>0.83383685800604235</v>
       </c>
       <c r="M15">
         <v>30</v>
@@ -6070,40 +6074,43 @@
         <v>163</v>
       </c>
       <c r="O15">
-        <f>$C15*$C15*2</f>
+        <f t="shared" si="7"/>
         <v>242</v>
       </c>
       <c r="P15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42</v>
       </c>
       <c r="Z15" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="AA15" s="1">
         <v>1200</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="AC15" s="1">
         <v>32</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>384</v>
       </c>
       <c r="AE15" s="1">
         <v>12</v>
       </c>
       <c r="AF15" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
+      <c r="AH15" t="s">
+        <v>37</v>
+      </c>
       <c r="AL15" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="AM15" s="1">
@@ -6113,7 +6120,7 @@
         <v>16</v>
       </c>
       <c r="AO15" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>176</v>
       </c>
     </row>
@@ -6142,7 +6149,7 @@
         <v>1750</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>150</v>
       </c>
       <c r="J16">
@@ -6150,11 +6157,11 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>672</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="M16">
         <v>35</v>
@@ -6164,40 +6171,40 @@
         <v>198</v>
       </c>
       <c r="O16">
-        <f>$C16*$C16*2</f>
+        <f t="shared" si="7"/>
         <v>288</v>
       </c>
       <c r="P16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>46</v>
       </c>
       <c r="Z16" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="AA16" s="1">
         <v>1400</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>200</v>
       </c>
       <c r="AC16" s="1">
         <v>32</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>416</v>
       </c>
       <c r="AE16" s="1">
         <v>13</v>
       </c>
       <c r="AF16" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>78</v>
       </c>
       <c r="AL16" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AM16" s="1">
@@ -6207,7 +6214,7 @@
         <v>16</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>192</v>
       </c>
     </row>
@@ -6236,7 +6243,7 @@
         <v>2100</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="J17">
@@ -6244,11 +6251,11 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>682</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="1"/>
-        <v>0.60606060606060608</v>
+        <v>0.80938416422287385</v>
       </c>
       <c r="M17">
         <v>40</v>
@@ -6258,40 +6265,40 @@
         <v>238</v>
       </c>
       <c r="O17">
-        <f>$C17*$C17*2</f>
+        <f t="shared" si="7"/>
         <v>338</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="AA17" s="1">
         <v>1650</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="AC17" s="1">
         <v>32</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>448</v>
       </c>
       <c r="AE17" s="1">
         <v>14</v>
       </c>
       <c r="AF17" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>91</v>
       </c>
       <c r="AL17" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="AM17" s="1">
@@ -6301,7 +6308,7 @@
         <v>16</v>
       </c>
       <c r="AO17" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>208</v>
       </c>
     </row>
@@ -6330,7 +6337,7 @@
         <v>2500</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="J18">
@@ -6338,11 +6345,11 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>692</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="1"/>
-        <v>0.58823529411764708</v>
+        <v>0.79768786127167635</v>
       </c>
       <c r="M18">
         <v>45</v>
@@ -6352,40 +6359,40 @@
         <v>283</v>
       </c>
       <c r="O18">
-        <f>$C18*$C18*2</f>
+        <f t="shared" si="7"/>
         <v>392</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="Z18" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="AA18" s="1">
         <v>1900</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>250</v>
       </c>
       <c r="AC18" s="1">
         <v>32</v>
       </c>
       <c r="AD18" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>480</v>
       </c>
       <c r="AE18" s="1">
         <v>15</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="AL18" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="AM18" s="1">
@@ -6395,7 +6402,7 @@
         <v>16</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>224</v>
       </c>
     </row>
@@ -6424,7 +6431,7 @@
         <v>2900</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>200</v>
       </c>
       <c r="J19">
@@ -6432,11 +6439,11 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>702</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+        <v>0.78632478632478631</v>
       </c>
       <c r="M19">
         <v>50</v>
@@ -6446,40 +6453,40 @@
         <v>333</v>
       </c>
       <c r="O19">
-        <f>$C19*$C19*2</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="Z19" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="AA19" s="1">
         <v>2200</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="AC19" s="1">
         <v>32</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>512</v>
       </c>
       <c r="AE19" s="1">
         <v>16</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>120</v>
       </c>
       <c r="AL19" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="AM19" s="1">
@@ -6489,7 +6496,7 @@
         <v>16</v>
       </c>
       <c r="AO19" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>240</v>
       </c>
     </row>
@@ -6518,7 +6525,7 @@
         <v>3350</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="J20">
@@ -6526,11 +6533,11 @@
       </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>712</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="M20">
         <v>55</v>
@@ -6540,40 +6547,40 @@
         <v>388</v>
       </c>
       <c r="O20">
-        <f>$C20*$C20*2</f>
+        <f t="shared" si="7"/>
         <v>512</v>
       </c>
       <c r="P20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="Z20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AA20" s="1">
         <v>2500</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="AC20" s="1">
         <v>32</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>544</v>
       </c>
       <c r="AE20" s="1">
         <v>17</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>136</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="AM20" s="1">
@@ -6583,7 +6590,7 @@
         <v>16</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>256</v>
       </c>
     </row>
@@ -6612,7 +6619,7 @@
         <v>3850</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="J21">
@@ -6620,11 +6627,11 @@
       </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>370</v>
+        <v>722</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" si="1"/>
-        <v>0.54054054054054057</v>
+        <v>0.76454293628808867</v>
       </c>
       <c r="M21">
         <v>60</v>
@@ -6634,40 +6641,40 @@
         <v>448</v>
       </c>
       <c r="O21">
-        <f>$C21*$C21*2</f>
+        <f t="shared" si="7"/>
         <v>578</v>
       </c>
       <c r="P21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="AA21" s="1">
         <v>2800</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="AC21" s="1">
         <v>32</v>
       </c>
       <c r="AD21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>576</v>
       </c>
       <c r="AE21" s="1">
         <v>18</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>153</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AM21" s="1">
@@ -6677,7 +6684,7 @@
         <v>16</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>272</v>
       </c>
     </row>
@@ -6706,7 +6713,7 @@
         <v>4350</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>250</v>
       </c>
       <c r="J22">
@@ -6714,11 +6721,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>732</v>
       </c>
       <c r="L22" s="14">
         <f t="shared" si="1"/>
-        <v>0.52631578947368418</v>
+        <v>0.75409836065573765</v>
       </c>
       <c r="M22">
         <v>65</v>
@@ -6728,40 +6735,40 @@
         <v>513</v>
       </c>
       <c r="O22">
-        <f>$C22*$C22*2</f>
+        <f t="shared" si="7"/>
         <v>648</v>
       </c>
       <c r="P22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="AA22" s="1">
         <v>3100</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="AC22" s="1">
         <v>32</v>
       </c>
       <c r="AD22" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>608</v>
       </c>
       <c r="AE22" s="1">
         <v>19</v>
       </c>
       <c r="AF22" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>171</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="AM22" s="1">
@@ -6771,7 +6778,7 @@
         <v>16</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>288</v>
       </c>
     </row>
@@ -6800,7 +6807,7 @@
         <v>4900</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>300</v>
       </c>
       <c r="J23">
@@ -6808,11 +6815,11 @@
       </c>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>390</v>
+        <v>742</v>
       </c>
       <c r="L23" s="14">
         <f t="shared" si="1"/>
-        <v>0.51282051282051277</v>
+        <v>0.7439353099730458</v>
       </c>
       <c r="M23">
         <v>70</v>
@@ -6822,40 +6829,40 @@
         <v>583</v>
       </c>
       <c r="O23">
-        <f>$C23*$C23*2</f>
+        <f t="shared" si="7"/>
         <v>722</v>
       </c>
       <c r="P23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="AA23" s="1">
         <v>3400</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="AC23" s="1">
         <v>64</v>
       </c>
       <c r="AD23" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>640</v>
       </c>
       <c r="AE23" s="1">
         <v>20</v>
       </c>
       <c r="AF23" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="AM23" s="1">
@@ -6865,7 +6872,7 @@
         <v>16</v>
       </c>
       <c r="AO23" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>304</v>
       </c>
     </row>
@@ -6909,15 +6916,15 @@
         <v>683</v>
       </c>
       <c r="O24">
-        <f>$C24*$C24*2</f>
+        <f t="shared" si="7"/>
         <v>800</v>
       </c>
       <c r="P24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="AA24" s="12">
@@ -6927,19 +6934,19 @@
         <v>32</v>
       </c>
       <c r="AD24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>704</v>
       </c>
       <c r="AE24" s="1">
         <v>21</v>
       </c>
       <c r="AF24" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>210</v>
       </c>
       <c r="AJ24" s="11"/>
       <c r="AL24" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="AM24" s="12">
@@ -6949,7 +6956,7 @@
         <v>16</v>
       </c>
       <c r="AO24" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>320</v>
       </c>
     </row>
@@ -6984,12 +6991,12 @@
         <v>410</v>
       </c>
       <c r="K25">
-        <f t="shared" ref="K25:K43" si="15">$J25-$S$7+$R$7</f>
-        <v>410</v>
+        <f t="shared" ref="K25:K43" si="16">$J25-$S$7+$R$7</f>
+        <v>762</v>
       </c>
       <c r="L25" s="14">
-        <f t="shared" ref="L25:L43" si="16">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
-        <v>0.48780487804878048</v>
+        <f t="shared" ref="L25:L43" si="17">IF($R$4+$R$7&gt;=$K25,100%,($R$4+$R$7)/$K25)</f>
+        <v>0.72440944881889768</v>
       </c>
       <c r="M25">
         <v>110</v>
@@ -6999,11 +7006,11 @@
         <v>793</v>
       </c>
       <c r="O25">
-        <f>$C25*$C25*2</f>
+        <f t="shared" si="7"/>
         <v>882</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
     </row>
@@ -7020,11 +7027,11 @@
         <v>292000</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" ref="F26:F43" si="17">E26-D25-E25</f>
+        <f t="shared" ref="F26:F43" si="18">E26-D25-E25</f>
         <v>37000</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" ref="G26:G43" si="18">F26+G25</f>
+        <f t="shared" ref="G26:G43" si="19">F26+G25</f>
         <v>262450</v>
       </c>
       <c r="H26" s="1">
@@ -7039,12 +7046,12 @@
         <v>420</v>
       </c>
       <c r="K26">
-        <f t="shared" si="15"/>
-        <v>420</v>
+        <f t="shared" si="16"/>
+        <v>772</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" si="16"/>
-        <v>0.47619047619047616</v>
+        <f t="shared" si="17"/>
+        <v>0.71502590673575128</v>
       </c>
       <c r="M26">
         <v>120</v>
@@ -7054,11 +7061,11 @@
         <v>913</v>
       </c>
       <c r="O26">
-        <f>$C26*$C26*2</f>
+        <f t="shared" si="7"/>
         <v>968</v>
       </c>
       <c r="P26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
     </row>
@@ -7075,31 +7082,31 @@
         <v>341200</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>43700</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>306150</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:H43" si="19">F27-F26</f>
+        <f t="shared" ref="H27:H43" si="20">F27-F26</f>
         <v>6700</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27:I43" si="20">H27-H26-I26</f>
+        <f t="shared" ref="I27:I43" si="21">H27-H26-I26</f>
         <v>500</v>
       </c>
       <c r="J27">
         <v>430</v>
       </c>
       <c r="K27">
-        <f t="shared" si="15"/>
-        <v>430</v>
+        <f t="shared" si="16"/>
+        <v>782</v>
       </c>
       <c r="L27" s="14">
-        <f t="shared" si="16"/>
-        <v>0.46511627906976744</v>
+        <f t="shared" si="17"/>
+        <v>0.70588235294117652</v>
       </c>
       <c r="M27">
         <v>130</v>
@@ -7109,11 +7116,11 @@
         <v>1043</v>
       </c>
       <c r="O27">
-        <f>$C27*$C27*2</f>
+        <f t="shared" si="7"/>
         <v>1058</v>
       </c>
       <c r="P27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
@@ -7130,31 +7137,31 @@
         <v>398600</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>51400</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>357550</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7700</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>500</v>
       </c>
       <c r="J28">
         <v>440</v>
       </c>
       <c r="K28">
-        <f t="shared" si="15"/>
-        <v>440</v>
+        <f t="shared" si="16"/>
+        <v>792</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="16"/>
-        <v>0.45454545454545453</v>
+        <f t="shared" si="17"/>
+        <v>0.69696969696969702</v>
       </c>
       <c r="M28">
         <v>140</v>
@@ -7164,11 +7171,11 @@
         <v>1183</v>
       </c>
       <c r="O28">
-        <f>$C28*$C28*2</f>
+        <f t="shared" si="7"/>
         <v>1152</v>
       </c>
       <c r="P28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
     </row>
@@ -7185,31 +7192,31 @@
         <v>465300</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>60200</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>417750</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8800</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>600</v>
       </c>
       <c r="J29">
         <v>450</v>
       </c>
       <c r="K29">
-        <f t="shared" si="15"/>
-        <v>450</v>
+        <f t="shared" si="16"/>
+        <v>802</v>
       </c>
       <c r="L29" s="14">
-        <f t="shared" si="16"/>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="17"/>
+        <v>0.6882793017456359</v>
       </c>
       <c r="M29">
         <v>150</v>
@@ -7219,17 +7226,17 @@
         <v>1333</v>
       </c>
       <c r="O29">
-        <f>$C29*$C29*2</f>
+        <f t="shared" si="7"/>
         <v>1250</v>
       </c>
       <c r="P29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>98</v>
       </c>
     </row>
     <row r="30" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C30" s="2">
-        <f t="shared" ref="C30:C54" si="21">C29+1</f>
+        <f t="shared" ref="C30:C54" si="22">C29+1</f>
         <v>26</v>
       </c>
       <c r="D30" s="1">
@@ -7240,31 +7247,31 @@
         <v>542500</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>70200</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>487950</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>10000</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>600</v>
       </c>
       <c r="J30">
         <v>460</v>
       </c>
       <c r="K30">
-        <f t="shared" si="15"/>
-        <v>460</v>
+        <f t="shared" si="16"/>
+        <v>812</v>
       </c>
       <c r="L30" s="14">
-        <f t="shared" si="16"/>
-        <v>0.43478260869565216</v>
+        <f t="shared" si="17"/>
+        <v>0.67980295566502458</v>
       </c>
       <c r="M30">
         <v>160</v>
@@ -7274,17 +7281,17 @@
         <v>1493</v>
       </c>
       <c r="O30">
-        <f>$C30*$C30*2</f>
+        <f t="shared" si="7"/>
         <v>1352</v>
       </c>
       <c r="P30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C31" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27</v>
       </c>
       <c r="D31" s="1">
@@ -7295,31 +7302,31 @@
         <v>631600</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>81400</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>569350</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>11200</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>600</v>
       </c>
       <c r="J31">
         <v>470</v>
       </c>
       <c r="K31">
-        <f t="shared" si="15"/>
-        <v>470</v>
+        <f t="shared" si="16"/>
+        <v>822</v>
       </c>
       <c r="L31" s="14">
-        <f t="shared" si="16"/>
-        <v>0.42553191489361702</v>
+        <f t="shared" si="17"/>
+        <v>0.67153284671532842</v>
       </c>
       <c r="M31">
         <v>170</v>
@@ -7329,17 +7336,17 @@
         <v>1663</v>
       </c>
       <c r="O31">
-        <f>$C31*$C31*2</f>
+        <f t="shared" si="7"/>
         <v>1458</v>
       </c>
       <c r="P31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="3:41" x14ac:dyDescent="0.4">
       <c r="C32" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>28</v>
       </c>
       <c r="D32" s="1">
@@ -7350,31 +7357,31 @@
         <v>733900</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>93900</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>663250</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>12500</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>700</v>
       </c>
       <c r="J32">
         <v>480</v>
       </c>
       <c r="K32">
-        <f t="shared" si="15"/>
-        <v>480</v>
+        <f t="shared" si="16"/>
+        <v>832</v>
       </c>
       <c r="L32" s="14">
-        <f t="shared" si="16"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="17"/>
+        <v>0.66346153846153844</v>
       </c>
       <c r="M32">
         <v>180</v>
@@ -7384,17 +7391,17 @@
         <v>1843</v>
       </c>
       <c r="O32">
-        <f>$C32*$C32*2</f>
+        <f t="shared" si="7"/>
         <v>1568</v>
       </c>
       <c r="P32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
     </row>
     <row r="33" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C33" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29</v>
       </c>
       <c r="D33" s="1">
@@ -7405,31 +7412,31 @@
         <v>850900</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>107800</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>771050</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>13900</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>700</v>
       </c>
       <c r="J33">
         <v>490</v>
       </c>
       <c r="K33">
-        <f t="shared" si="15"/>
-        <v>490</v>
+        <f t="shared" si="16"/>
+        <v>842</v>
       </c>
       <c r="L33" s="14">
-        <f t="shared" si="16"/>
-        <v>0.40816326530612246</v>
+        <f t="shared" si="17"/>
+        <v>0.6555819477434679</v>
       </c>
       <c r="M33">
         <v>190</v>
@@ -7439,17 +7446,17 @@
         <v>2033</v>
       </c>
       <c r="O33">
-        <f>$C33*$C33*2</f>
+        <f t="shared" si="7"/>
         <v>1682</v>
       </c>
       <c r="P33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C34" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>30</v>
       </c>
       <c r="D34" s="1">
@@ -7460,31 +7467,31 @@
         <v>984000</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>123100</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>894150</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>15300</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>700</v>
       </c>
       <c r="J34">
         <v>500</v>
       </c>
       <c r="K34">
-        <f t="shared" si="15"/>
-        <v>500</v>
+        <f t="shared" si="16"/>
+        <v>852</v>
       </c>
       <c r="L34" s="14">
-        <f t="shared" si="16"/>
-        <v>0.4</v>
+        <f t="shared" si="17"/>
+        <v>0.647887323943662</v>
       </c>
       <c r="M34" s="10">
         <v>200</v>
@@ -7494,17 +7501,17 @@
         <v>2233</v>
       </c>
       <c r="O34">
-        <f>$C34*$C34*2</f>
+        <f t="shared" si="7"/>
         <v>1800</v>
       </c>
       <c r="P34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>118</v>
       </c>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C35" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>31</v>
       </c>
       <c r="D35" s="1">
@@ -7515,31 +7522,31 @@
         <v>1134700</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>139900</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1034050</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>16800</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="J35">
         <v>510</v>
       </c>
       <c r="K35">
-        <f t="shared" si="15"/>
-        <v>510</v>
+        <f t="shared" si="16"/>
+        <v>862</v>
       </c>
       <c r="L35" s="14">
-        <f t="shared" si="16"/>
-        <v>0.39215686274509803</v>
+        <f t="shared" si="17"/>
+        <v>0.6403712296983759</v>
       </c>
       <c r="M35">
         <v>220</v>
@@ -7549,17 +7556,17 @@
         <v>2453</v>
       </c>
       <c r="O35">
-        <f>$C35*$C35*2</f>
+        <f t="shared" si="7"/>
         <v>1922</v>
       </c>
       <c r="P35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>122</v>
       </c>
     </row>
     <row r="36" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C36" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>32</v>
       </c>
       <c r="D36" s="1">
@@ -7570,31 +7577,31 @@
         <v>1304600</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>158300</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1192350</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>18400</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="J36">
         <v>520</v>
       </c>
       <c r="K36">
-        <f t="shared" si="15"/>
-        <v>520</v>
+        <f t="shared" si="16"/>
+        <v>872</v>
       </c>
       <c r="L36" s="14">
-        <f t="shared" si="16"/>
-        <v>0.38461538461538464</v>
+        <f t="shared" si="17"/>
+        <v>0.6330275229357798</v>
       </c>
       <c r="M36">
         <v>240</v>
@@ -7604,17 +7611,17 @@
         <v>2693</v>
       </c>
       <c r="O36">
-        <f>$C36*$C36*2</f>
+        <f t="shared" si="7"/>
         <v>2048</v>
       </c>
       <c r="P36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
     </row>
     <row r="37" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C37" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>33</v>
       </c>
       <c r="D37" s="1">
@@ -7625,51 +7632,51 @@
         <v>1495400</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>178300</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1370650</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>20000</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>800</v>
       </c>
       <c r="J37">
         <v>530</v>
       </c>
       <c r="K37">
-        <f t="shared" si="15"/>
-        <v>530</v>
+        <f t="shared" si="16"/>
+        <v>882</v>
       </c>
       <c r="L37" s="14">
-        <f t="shared" si="16"/>
-        <v>0.37735849056603776</v>
+        <f t="shared" si="17"/>
+        <v>0.62585034013605445</v>
       </c>
       <c r="M37">
         <v>260</v>
       </c>
       <c r="N37">
-        <f t="shared" ref="N37:N54" si="22">$M37+$N36</f>
+        <f t="shared" ref="N37:N54" si="23">$M37+$N36</f>
         <v>2953</v>
       </c>
       <c r="O37">
-        <f>$C37*$C37*2</f>
+        <f t="shared" ref="O37:O54" si="24">$C37*$C37*2</f>
         <v>2178</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="P37:P54" si="23">$O37-O36</f>
+        <f t="shared" ref="P37:P54" si="25">$O37-O36</f>
         <v>130</v>
       </c>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C38" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>34</v>
       </c>
       <c r="D38" s="1">
@@ -7680,51 +7687,51 @@
         <v>1708800</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>200000</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1570650</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>21700</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>900</v>
       </c>
       <c r="J38">
         <v>540</v>
       </c>
       <c r="K38">
-        <f t="shared" si="15"/>
-        <v>540</v>
+        <f t="shared" si="16"/>
+        <v>892</v>
       </c>
       <c r="L38" s="14">
-        <f t="shared" si="16"/>
-        <v>0.37037037037037035</v>
+        <f t="shared" si="17"/>
+        <v>0.6188340807174888</v>
       </c>
       <c r="M38">
         <v>280</v>
       </c>
       <c r="N38">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3233</v>
       </c>
       <c r="O38">
-        <f>$C38*$C38*2</f>
+        <f t="shared" si="24"/>
         <v>2312</v>
       </c>
       <c r="P38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C39" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="D39" s="1">
@@ -7735,51 +7742,51 @@
         <v>1946600</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>223500</v>
       </c>
       <c r="G39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1794150</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>23500</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>900</v>
       </c>
       <c r="J39">
         <v>550</v>
       </c>
       <c r="K39">
-        <f t="shared" si="15"/>
-        <v>550</v>
+        <f t="shared" si="16"/>
+        <v>902</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="16"/>
-        <v>0.36363636363636365</v>
+        <f t="shared" si="17"/>
+        <v>0.61197339246119731</v>
       </c>
       <c r="M39">
         <v>300</v>
       </c>
       <c r="N39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3533</v>
       </c>
       <c r="O39">
-        <f>$C39*$C39*2</f>
+        <f t="shared" si="24"/>
         <v>2450</v>
       </c>
       <c r="P39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C40" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>36</v>
       </c>
       <c r="D40" s="1">
@@ -7790,51 +7797,51 @@
         <v>2210700</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>248800</v>
       </c>
       <c r="G40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2042950</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>25300</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>900</v>
       </c>
       <c r="J40">
         <v>560</v>
       </c>
       <c r="K40">
-        <f t="shared" si="15"/>
-        <v>560</v>
+        <f t="shared" si="16"/>
+        <v>912</v>
       </c>
       <c r="L40" s="14">
-        <f t="shared" si="16"/>
-        <v>0.35714285714285715</v>
+        <f t="shared" si="17"/>
+        <v>0.60526315789473684</v>
       </c>
       <c r="M40">
         <v>320</v>
       </c>
       <c r="N40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3853</v>
       </c>
       <c r="O40">
-        <f>$C40*$C40*2</f>
+        <f t="shared" si="24"/>
         <v>2592</v>
       </c>
       <c r="P40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>142</v>
       </c>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C41" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>37</v>
       </c>
       <c r="D41" s="1">
@@ -7845,51 +7852,51 @@
         <v>2503000</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>276000</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2318950</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>27200</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="J41">
         <v>570</v>
       </c>
       <c r="K41">
-        <f t="shared" si="15"/>
-        <v>570</v>
+        <f t="shared" si="16"/>
+        <v>922</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="16"/>
-        <v>0.35087719298245612</v>
+        <f t="shared" si="17"/>
+        <v>0.59869848156182215</v>
       </c>
       <c r="M41">
         <v>340</v>
       </c>
       <c r="N41">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4193</v>
       </c>
       <c r="O41">
-        <f>$C41*$C41*2</f>
+        <f t="shared" si="24"/>
         <v>2738</v>
       </c>
       <c r="P41">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>146</v>
       </c>
     </row>
     <row r="42" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C42" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>38</v>
       </c>
       <c r="D42" s="1">
@@ -7900,51 +7907,51 @@
         <v>2825500</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>305200</v>
       </c>
       <c r="G42" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2624150</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>29200</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="J42">
         <v>580</v>
       </c>
       <c r="K42">
-        <f t="shared" si="15"/>
-        <v>580</v>
+        <f t="shared" si="16"/>
+        <v>932</v>
       </c>
       <c r="L42" s="14">
-        <f t="shared" si="16"/>
-        <v>0.34482758620689657</v>
+        <f t="shared" si="17"/>
+        <v>0.59227467811158796</v>
       </c>
       <c r="M42">
         <v>360</v>
       </c>
       <c r="N42">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4553</v>
       </c>
       <c r="O42">
-        <f>$C42*$C42*2</f>
+        <f t="shared" si="24"/>
         <v>2888</v>
       </c>
       <c r="P42">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C43" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>39</v>
       </c>
       <c r="D43" s="1">
@@ -7955,51 +7962,51 @@
         <v>3180300</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>336400</v>
       </c>
       <c r="G43" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2960550</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>31200</v>
       </c>
       <c r="I43" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1000</v>
       </c>
       <c r="J43">
         <v>590</v>
       </c>
       <c r="K43">
-        <f t="shared" si="15"/>
-        <v>590</v>
+        <f t="shared" si="16"/>
+        <v>942</v>
       </c>
       <c r="L43" s="14">
-        <f t="shared" si="16"/>
-        <v>0.33898305084745761</v>
+        <f t="shared" si="17"/>
+        <v>0.5859872611464968</v>
       </c>
       <c r="M43">
         <v>380</v>
       </c>
       <c r="N43">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4933</v>
       </c>
       <c r="O43">
-        <f>$C43*$C43*2</f>
+        <f t="shared" si="24"/>
         <v>3042</v>
       </c>
       <c r="P43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>154</v>
       </c>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C44" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>40</v>
       </c>
       <c r="D44" s="6">
@@ -8033,21 +8040,21 @@
         <v>500</v>
       </c>
       <c r="N44">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5433</v>
       </c>
       <c r="O44">
-        <f>$C44*$C44*2</f>
+        <f t="shared" si="24"/>
         <v>3200</v>
       </c>
       <c r="P44">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>158</v>
       </c>
     </row>
     <row r="45" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C45" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>41</v>
       </c>
       <c r="D45" s="1">
@@ -8076,32 +8083,32 @@
         <v>620</v>
       </c>
       <c r="K45">
-        <f t="shared" ref="K45:K54" si="24">$J45-$S$7+$R$7</f>
-        <v>620</v>
+        <f t="shared" ref="K45:K54" si="26">$J45-$S$7+$R$7</f>
+        <v>972</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" ref="L45:L54" si="25">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
-        <v>0.32258064516129031</v>
+        <f t="shared" ref="L45:L54" si="27">IF($R$4+$R$7&gt;=$K45,100%,($R$4+$R$7)/$K45)</f>
+        <v>0.5679012345679012</v>
       </c>
       <c r="M45">
         <v>550</v>
       </c>
       <c r="N45">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>5983</v>
       </c>
       <c r="O45">
-        <f>$C45*$C45*2</f>
+        <f t="shared" si="24"/>
         <v>3362</v>
       </c>
       <c r="P45">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>162</v>
       </c>
     </row>
     <row r="46" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C46" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>42</v>
       </c>
       <c r="D46" s="1">
@@ -8112,11 +8119,11 @@
         <v>4200100</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" ref="F46:F54" si="26">E46-D45-E45</f>
+        <f t="shared" ref="F46:F54" si="28">E46-D45-E45</f>
         <v>370100</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ref="G46:G54" si="27">F46+G45</f>
+        <f t="shared" ref="G46:G54" si="29">F46+G45</f>
         <v>3930850</v>
       </c>
       <c r="H46" s="1">
@@ -8131,32 +8138,32 @@
         <v>640</v>
       </c>
       <c r="K46">
-        <f t="shared" si="24"/>
-        <v>640</v>
+        <f t="shared" si="26"/>
+        <v>992</v>
       </c>
       <c r="L46" s="14">
-        <f t="shared" si="25"/>
-        <v>0.3125</v>
+        <f t="shared" si="27"/>
+        <v>0.55645161290322576</v>
       </c>
       <c r="M46">
         <v>600</v>
       </c>
       <c r="N46">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6583</v>
       </c>
       <c r="O46">
-        <f>$C46*$C46*2</f>
+        <f t="shared" si="24"/>
         <v>3528</v>
       </c>
       <c r="P46">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>166</v>
       </c>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C47" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>43</v>
       </c>
       <c r="D47" s="1">
@@ -8167,15 +8174,15 @@
         <v>4640000</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>406900</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4337750</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:H54" si="28">F47-F46</f>
+        <f t="shared" ref="H47:H54" si="30">F47-F46</f>
         <v>36800</v>
       </c>
       <c r="I47" s="1">
@@ -8186,32 +8193,32 @@
         <v>660</v>
       </c>
       <c r="K47">
-        <f t="shared" si="24"/>
-        <v>660</v>
+        <f t="shared" si="26"/>
+        <v>1012</v>
       </c>
       <c r="L47" s="14">
-        <f t="shared" si="25"/>
-        <v>0.30303030303030304</v>
+        <f t="shared" si="27"/>
+        <v>0.54545454545454541</v>
       </c>
       <c r="M47">
         <v>650</v>
       </c>
       <c r="N47">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7233</v>
       </c>
       <c r="O47">
-        <f>$C47*$C47*2</f>
+        <f t="shared" si="24"/>
         <v>3698</v>
       </c>
       <c r="P47">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>170</v>
       </c>
     </row>
     <row r="48" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C48" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>44</v>
       </c>
       <c r="D48" s="1">
@@ -8222,51 +8229,51 @@
         <v>5123000</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>447000</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4784750</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>40100</v>
       </c>
       <c r="I48" s="1">
-        <f t="shared" ref="I48:I54" si="29">H48-H47-I47</f>
+        <f t="shared" ref="I48:I54" si="31">H48-H47-I47</f>
         <v>1700</v>
       </c>
       <c r="J48">
         <v>680</v>
       </c>
       <c r="K48">
-        <f t="shared" si="24"/>
-        <v>680</v>
+        <f t="shared" si="26"/>
+        <v>1032</v>
       </c>
       <c r="L48" s="14">
-        <f t="shared" si="25"/>
-        <v>0.29411764705882354</v>
+        <f t="shared" si="27"/>
+        <v>0.53488372093023251</v>
       </c>
       <c r="M48">
         <v>700</v>
       </c>
       <c r="N48">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7933</v>
       </c>
       <c r="O48">
-        <f>$C48*$C48*2</f>
+        <f t="shared" si="24"/>
         <v>3872</v>
       </c>
       <c r="P48">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>174</v>
       </c>
     </row>
     <row r="49" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C49" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>45</v>
       </c>
       <c r="D49" s="1">
@@ -8277,51 +8284,51 @@
         <v>5652600</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>490600</v>
       </c>
       <c r="G49" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5275350</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>43600</v>
       </c>
       <c r="I49" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1800</v>
       </c>
       <c r="J49">
         <v>700</v>
       </c>
       <c r="K49">
-        <f t="shared" si="24"/>
-        <v>700</v>
+        <f t="shared" si="26"/>
+        <v>1052</v>
       </c>
       <c r="L49" s="14">
-        <f t="shared" si="25"/>
-        <v>0.2857142857142857</v>
+        <f t="shared" si="27"/>
+        <v>0.52471482889733845</v>
       </c>
       <c r="M49">
         <v>750</v>
       </c>
       <c r="N49">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8683</v>
       </c>
       <c r="O49">
-        <f>$C49*$C49*2</f>
+        <f t="shared" si="24"/>
         <v>4050</v>
       </c>
       <c r="P49">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>178</v>
       </c>
     </row>
     <row r="50" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C50" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>46</v>
       </c>
       <c r="D50" s="1">
@@ -8332,51 +8339,51 @@
         <v>6232500</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>537900</v>
       </c>
       <c r="G50" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>5813250</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>47300</v>
       </c>
       <c r="I50" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1900</v>
       </c>
       <c r="J50">
         <v>720</v>
       </c>
       <c r="K50">
-        <f t="shared" si="24"/>
-        <v>720</v>
+        <f t="shared" si="26"/>
+        <v>1072</v>
       </c>
       <c r="L50" s="14">
-        <f t="shared" si="25"/>
-        <v>0.27777777777777779</v>
+        <f t="shared" si="27"/>
+        <v>0.5149253731343284</v>
       </c>
       <c r="M50">
         <v>800</v>
       </c>
       <c r="N50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>9483</v>
       </c>
       <c r="O50">
-        <f>$C50*$C50*2</f>
+        <f t="shared" si="24"/>
         <v>4232</v>
       </c>
       <c r="P50">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>182</v>
       </c>
     </row>
     <row r="51" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C51" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>47</v>
       </c>
       <c r="D51" s="1">
@@ -8387,51 +8394,51 @@
         <v>6866600</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>589100</v>
       </c>
       <c r="G51" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>6402350</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>51200</v>
       </c>
       <c r="I51" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2000</v>
       </c>
       <c r="J51">
         <v>740</v>
       </c>
       <c r="K51">
-        <f t="shared" si="24"/>
-        <v>740</v>
+        <f t="shared" si="26"/>
+        <v>1092</v>
       </c>
       <c r="L51" s="14">
-        <f t="shared" si="25"/>
-        <v>0.27027027027027029</v>
+        <f t="shared" si="27"/>
+        <v>0.50549450549450547</v>
       </c>
       <c r="M51">
         <v>850</v>
       </c>
       <c r="N51">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>10333</v>
       </c>
       <c r="O51">
-        <f>$C51*$C51*2</f>
+        <f t="shared" si="24"/>
         <v>4418</v>
       </c>
       <c r="P51">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>186</v>
       </c>
     </row>
     <row r="52" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C52" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>48</v>
       </c>
       <c r="D52" s="1">
@@ -8442,51 +8449,51 @@
         <v>7561000</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>644400</v>
       </c>
       <c r="G52" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7046750</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>55300</v>
       </c>
       <c r="I52" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2100</v>
       </c>
       <c r="J52">
         <v>760</v>
       </c>
       <c r="K52">
-        <f t="shared" si="24"/>
-        <v>760</v>
+        <f t="shared" si="26"/>
+        <v>1112</v>
       </c>
       <c r="L52" s="14">
-        <f t="shared" si="25"/>
-        <v>0.26315789473684209</v>
+        <f t="shared" si="27"/>
+        <v>0.49640287769784175</v>
       </c>
       <c r="M52">
         <v>900</v>
       </c>
       <c r="N52">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>11233</v>
       </c>
       <c r="O52">
-        <f>$C52*$C52*2</f>
+        <f t="shared" si="24"/>
         <v>4608</v>
       </c>
       <c r="P52">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>190</v>
       </c>
     </row>
     <row r="53" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C53" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>49</v>
       </c>
       <c r="D53" s="1">
@@ -8497,51 +8504,51 @@
         <v>8320000</v>
       </c>
       <c r="F53" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>704000</v>
       </c>
       <c r="G53" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>7750750</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>59600</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2200</v>
       </c>
       <c r="J53">
         <v>780</v>
       </c>
       <c r="K53">
-        <f t="shared" si="24"/>
-        <v>780</v>
+        <f t="shared" si="26"/>
+        <v>1132</v>
       </c>
       <c r="L53" s="14">
-        <f t="shared" si="25"/>
-        <v>0.25641025641025639</v>
+        <f t="shared" si="27"/>
+        <v>0.48763250883392228</v>
       </c>
       <c r="M53">
         <v>950</v>
       </c>
       <c r="N53">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12183</v>
       </c>
       <c r="O53">
-        <f>$C53*$C53*2</f>
+        <f t="shared" si="24"/>
         <v>4802</v>
       </c>
       <c r="P53">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>194</v>
       </c>
     </row>
     <row r="54" spans="3:25" x14ac:dyDescent="0.4">
       <c r="C54" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>50</v>
       </c>
       <c r="D54" s="1">
@@ -8552,45 +8559,45 @@
         <v>9148100</v>
       </c>
       <c r="F54" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>768100</v>
       </c>
       <c r="G54" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>8518850</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>64100</v>
       </c>
       <c r="I54" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2300</v>
       </c>
       <c r="J54">
         <v>800</v>
       </c>
       <c r="K54">
-        <f t="shared" si="24"/>
-        <v>800</v>
+        <f t="shared" si="26"/>
+        <v>1152</v>
       </c>
       <c r="L54" s="14">
-        <f t="shared" si="25"/>
-        <v>0.25</v>
+        <f t="shared" si="27"/>
+        <v>0.47916666666666669</v>
       </c>
       <c r="M54" s="10">
         <v>1000</v>
       </c>
       <c r="N54">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>13183</v>
       </c>
       <c r="O54">
-        <f>$C54*$C54*2</f>
+        <f t="shared" si="24"/>
         <v>5000</v>
       </c>
       <c r="P54">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>198</v>
       </c>
       <c r="Y54" t="s">
